--- a/msff/xls/FLI2FWD.xlsx
+++ b/msff/xls/FLI2FWD.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21001"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\0x\repos\repsc\msff\xls\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00307DB0-22CE-4976-B699-7E128A157862}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22230" windowHeight="10905" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="22701" windowHeight="11520" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="FWD300" sheetId="9" r:id="rId1"/>
@@ -19,7 +13,20 @@
     <sheet name="FLi226" sheetId="11" r:id="rId4"/>
     <sheet name="xirr test" sheetId="3" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="179021"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -48,7 +55,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -57,8 +64,8 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color theme="5" tint="0.39994506668294322"/>
-        <rFont val="Calibri"/>
+        <color theme="5" tint="0.399945066682943"/>
+        <rFont val="等线"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -84,7 +91,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -94,7 +101,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="5" tint="-0.249977111117893"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -104,7 +111,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="5"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -128,7 +135,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -139,7 +146,7 @@
         <b/>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -149,7 +156,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -218,7 +225,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -227,8 +234,8 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color theme="5" tint="0.39994506668294322"/>
-        <rFont val="Calibri"/>
+        <color theme="5" tint="0.399945066682943"/>
+        <rFont val="等线"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -260,104 +267,252 @@
     <t>net income</t>
   </si>
   <si>
+    <t>paid by scsc</t>
+  </si>
+  <si>
     <t>Both FLi250 and FLi150 are FLI2</t>
   </si>
   <si>
     <t>XIRR</t>
   </si>
   <si>
+    <t>Singlife&gt;</t>
+  </si>
+  <si>
+    <t>upfront rate=</t>
+  </si>
+  <si>
+    <t>CIIMB&gt;</t>
+  </si>
+  <si>
+    <t>final installment</t>
+  </si>
+  <si>
+    <t>1st payout.. Rate=</t>
+  </si>
+  <si>
+    <t>, higher than FLi150</t>
+  </si>
+  <si>
+    <t>.. Payout_rate goes up after age 78</t>
+  </si>
+  <si>
+    <t>projected surrender value</t>
+  </si>
+  <si>
+    <t>^^ ASAP</t>
+  </si>
+  <si>
+    <t>.. $226,348 guaranteed</t>
+  </si>
+  <si>
     <t>FWD300k is better in concentration risk, more prudent, in terms of worst-case PnL, monthly loan int</t>
   </si>
   <si>
     <t>FWD41 can absorb more of my excess cash (welcome) but what if in X years I need more liquidity?</t>
-  </si>
-  <si>
-    <t>final installment</t>
-  </si>
-  <si>
-    <t>upfront rate=</t>
-  </si>
-  <si>
-    <t>paid by scsc</t>
-  </si>
-  <si>
-    <t>.. $226,348 guaranteed</t>
-  </si>
-  <si>
-    <t>^^ ASAP</t>
-  </si>
-  <si>
-    <t>projected surrender</t>
-  </si>
-  <si>
-    <t>, higher than FLi150</t>
-  </si>
-  <si>
-    <t>1st payout.. Rate=</t>
-  </si>
-  <si>
-    <t>.. Payout_rate goes up after age 78</t>
-  </si>
-  <si>
-    <t>Singlife&gt;</t>
-  </si>
-  <si>
-    <t>CIIMB&gt;</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="7">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
+  <numFmts count="11">
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="164" formatCode="0.0000%"/>
-    <numFmt numFmtId="165" formatCode="[$-409]mmm/yy;@"/>
-    <numFmt numFmtId="166" formatCode="&quot;$&quot;#,##0"/>
-    <numFmt numFmtId="167" formatCode="[$-409]d\-mmm;@"/>
-    <numFmt numFmtId="168" formatCode="_(* #,##0.0000000_);_(* \(#,##0.0000000\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="169" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="0.0000%"/>
+    <numFmt numFmtId="178" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="179" formatCode="#,##0.00_ "/>
+    <numFmt numFmtId="180" formatCode="_(* #,##0.0000000_);_(* \(#,##0.0000000\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="181" formatCode="[$-409]mmm/yy;@"/>
+    <numFmt numFmtId="182" formatCode="[$-409]d\-mmm;@"/>
+    <numFmt numFmtId="183" formatCode="&quot;$&quot;#,##0"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="26">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="5" tint="0.39994506668294322"/>
-      <name val="Calibri"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="5" tint="0.399945066682943"/>
+      <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="5" tint="-0.249977111117893"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="5"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -365,27 +520,206 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="13">
+  <borders count="21">
     <border>
       <left/>
       <right/>
@@ -531,73 +865,338 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="85">
+  <cellXfs count="79">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="17" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="181" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="17" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="181" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="182" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="181" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="183" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="183" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="183" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="17" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="183" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="181" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="181" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="182" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="181" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -616,8 +1215,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="183" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -625,58 +1224,65 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="183" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="183" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="3">
-    <cellStyle name="Comma" xfId="2" builtinId="3"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Percent" xfId="1" builtinId="5"/>
+  <cellStyles count="49">
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="百分比" xfId="3" builtinId="5"/>
+    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
+    <cellStyle name="超链接" xfId="6" builtinId="8"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
+    <cellStyle name="注释" xfId="8" builtinId="10"/>
+    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
+    <cellStyle name="标题" xfId="10" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
+    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="输入" xfId="16" builtinId="20"/>
+    <cellStyle name="输出" xfId="17" builtinId="21"/>
+    <cellStyle name="计算" xfId="18" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
+    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="好" xfId="22" builtinId="26"/>
+    <cellStyle name="差" xfId="23" builtinId="27"/>
+    <cellStyle name="适中" xfId="24" builtinId="28"/>
+    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
+    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
+    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
+    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -934,314 +1540,314 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="B2:N45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="L21" sqref="L21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="1" customWidth="1"/>
-    <col min="2" max="2" width="13.42578125" customWidth="1"/>
-    <col min="3" max="3" width="7.28515625" customWidth="1"/>
+    <col min="2" max="2" width="13.4247787610619" customWidth="1"/>
+    <col min="3" max="3" width="7.28318584070797" customWidth="1"/>
     <col min="4" max="4" width="2" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" style="37" customWidth="1"/>
-    <col min="6" max="6" width="10.85546875" customWidth="1"/>
-    <col min="7" max="7" width="13.28515625" customWidth="1"/>
-    <col min="8" max="8" width="17.85546875" customWidth="1"/>
-    <col min="10" max="10" width="6.140625" customWidth="1"/>
-    <col min="11" max="11" width="7.5703125" customWidth="1"/>
-    <col min="12" max="12" width="11.5703125" style="6" customWidth="1"/>
-    <col min="13" max="13" width="7.140625" customWidth="1"/>
+    <col min="5" max="5" width="7.42477876106195" style="55" customWidth="1"/>
+    <col min="6" max="6" width="10.858407079646" customWidth="1"/>
+    <col min="7" max="7" width="13.283185840708" customWidth="1"/>
+    <col min="8" max="8" width="17.858407079646" customWidth="1"/>
+    <col min="10" max="10" width="6.14159292035398" customWidth="1"/>
+    <col min="11" max="11" width="7.56637168141593" customWidth="1"/>
+    <col min="12" max="12" width="11.5663716814159" style="16" customWidth="1"/>
+    <col min="13" max="13" width="7.14159292035398" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:14">
-      <c r="E2" s="38"/>
-      <c r="F2" s="39" t="s">
+    <row r="2" spans="5:9">
+      <c r="E2" s="6"/>
+      <c r="F2" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="H2" s="39" t="s">
+      <c r="H2" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="I2" s="55">
+      <c r="I2" s="72">
         <v>300000</v>
       </c>
     </row>
-    <row r="3" spans="2:14">
+    <row r="3" spans="2:9">
       <c r="B3" s="3"/>
-      <c r="C3" s="7"/>
-      <c r="D3" s="7"/>
-      <c r="E3" s="40">
+      <c r="C3" s="11"/>
+      <c r="D3" s="11"/>
+      <c r="E3" s="56">
         <v>45597</v>
       </c>
-      <c r="F3" s="41">
+      <c r="F3" s="5">
         <f>-24%*I2</f>
         <v>-72000</v>
       </c>
       <c r="G3" t="s">
         <v>2</v>
       </c>
-      <c r="H3" s="39" t="s">
+      <c r="H3" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="I3" s="56">
-        <v>1.8700000000000001E-2</v>
+      <c r="I3" s="73">
+        <v>0.0187</v>
       </c>
     </row>
     <row r="4" spans="2:14">
       <c r="B4" s="3"/>
-      <c r="C4" s="7"/>
-      <c r="D4" s="7"/>
-      <c r="E4" s="65">
+      <c r="C4" s="11"/>
+      <c r="D4" s="11"/>
+      <c r="E4" s="57">
         <v>45674</v>
       </c>
-      <c r="F4" s="41">
+      <c r="F4" s="5">
         <f>3000+2610</f>
         <v>5610</v>
       </c>
       <c r="G4" t="s">
         <v>4</v>
       </c>
-      <c r="H4" s="17" t="s">
+      <c r="H4" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="I4" s="57">
-        <v>3.3799999999999997E-2</v>
-      </c>
-      <c r="J4" s="73" t="s">
+      <c r="I4" s="74">
+        <v>0.0338</v>
+      </c>
+      <c r="J4" s="48" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="74"/>
-      <c r="L4" s="74"/>
-      <c r="M4" s="74"/>
-      <c r="N4" s="74"/>
-    </row>
-    <row r="5" spans="2:14">
+      <c r="K4" s="65"/>
+      <c r="L4" s="65"/>
+      <c r="M4" s="65"/>
+      <c r="N4" s="65"/>
+    </row>
+    <row r="5" spans="2:9">
       <c r="B5" s="3"/>
-      <c r="C5" s="7"/>
-      <c r="D5" s="7"/>
-      <c r="E5" s="42"/>
-      <c r="F5" s="41"/>
-      <c r="G5" s="81" t="s">
+      <c r="C5" s="11"/>
+      <c r="D5" s="11"/>
+      <c r="E5" s="58"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="59" t="s">
         <v>7</v>
       </c>
-      <c r="H5" s="43"/>
-      <c r="I5" s="43"/>
+      <c r="H5" s="60"/>
+      <c r="I5" s="60"/>
     </row>
     <row r="6" spans="2:14">
-      <c r="B6" s="77" t="s">
+      <c r="B6" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="79" t="s">
+      <c r="C6" s="32" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="7"/>
-      <c r="E6" s="40">
+      <c r="D6" s="11"/>
+      <c r="E6" s="56">
         <v>46174</v>
       </c>
-      <c r="F6" s="41">
+      <c r="F6" s="5">
         <f>-K17</f>
         <v>-17618.7</v>
       </c>
-      <c r="G6" s="81"/>
-      <c r="H6" s="39" t="s">
+      <c r="G6" s="59"/>
+      <c r="H6" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="I6" s="58">
+      <c r="I6" s="75">
         <v>0.03</v>
       </c>
-      <c r="J6" s="75" t="s">
+      <c r="J6" s="49" t="s">
         <v>11</v>
       </c>
-      <c r="K6" s="76"/>
-      <c r="L6" s="76"/>
-      <c r="M6" s="76"/>
-      <c r="N6" s="76"/>
+      <c r="K6" s="17"/>
+      <c r="L6" s="17"/>
+      <c r="M6" s="17"/>
+      <c r="N6" s="17"/>
     </row>
     <row r="7" spans="2:14">
-      <c r="B7" s="78"/>
-      <c r="C7" s="80"/>
-      <c r="D7" s="19"/>
-      <c r="E7" s="42"/>
-      <c r="F7" s="41"/>
-      <c r="G7" s="81"/>
-      <c r="H7" s="39" t="s">
+      <c r="B7" s="33"/>
+      <c r="C7" s="34"/>
+      <c r="D7" s="35"/>
+      <c r="E7" s="58"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="59"/>
+      <c r="H7" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="I7" s="55">
+      <c r="I7" s="72">
         <v>228000</v>
       </c>
-      <c r="J7" s="75"/>
-      <c r="K7" s="76"/>
-      <c r="L7" s="76"/>
-      <c r="M7" s="76"/>
-      <c r="N7" s="76"/>
+      <c r="J7" s="49"/>
+      <c r="K7" s="17"/>
+      <c r="L7" s="17"/>
+      <c r="M7" s="17"/>
+      <c r="N7" s="17"/>
     </row>
     <row r="8" spans="2:14">
-      <c r="B8" s="44">
+      <c r="B8" s="61">
         <f>SUM($F$3:F8)</f>
         <v>-83733.7</v>
       </c>
-      <c r="C8" s="45">
+      <c r="C8" s="62">
         <f>B8-$F$3</f>
-        <v>-11733.699999999997</v>
+        <v>-11733.7</v>
       </c>
       <c r="D8" t="s">
         <v>13</v>
       </c>
-      <c r="E8" s="40">
+      <c r="E8" s="56">
         <v>46692</v>
       </c>
-      <c r="F8" s="41">
+      <c r="F8" s="5">
         <f>($I$4*$I$2-$I$6*$I$7)/12</f>
-        <v>274.99999999999983</v>
-      </c>
-      <c r="G8" s="46" t="s">
+        <v>275</v>
+      </c>
+      <c r="G8" s="63" t="s">
         <v>14</v>
       </c>
-      <c r="H8" s="47" t="s">
+      <c r="H8" s="64" t="s">
         <v>15</v>
       </c>
-      <c r="I8" s="58">
-        <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="J8" s="75" t="s">
+      <c r="I8" s="75">
+        <v>0.025</v>
+      </c>
+      <c r="J8" s="49" t="s">
         <v>16</v>
       </c>
-      <c r="K8" s="76"/>
-      <c r="L8" s="76"/>
-      <c r="M8" s="76"/>
-      <c r="N8" s="76"/>
-    </row>
-    <row r="9" spans="2:14">
-      <c r="B9" s="44">
+      <c r="K8" s="17"/>
+      <c r="L8" s="17"/>
+      <c r="M8" s="17"/>
+      <c r="N8" s="17"/>
+    </row>
+    <row r="9" spans="2:6">
+      <c r="B9" s="61">
         <f>SUM($F$3:F9)</f>
         <v>-83458.7</v>
       </c>
-      <c r="C9" s="45">
+      <c r="C9" s="62">
         <f t="shared" ref="C9:C19" si="0">B9-$F$3</f>
-        <v>-11458.699999999997</v>
-      </c>
-      <c r="E9" s="40">
+        <v>-11458.7</v>
+      </c>
+      <c r="E9" s="56">
         <v>46722</v>
       </c>
-      <c r="F9" s="41">
+      <c r="F9" s="5">
         <f t="shared" ref="F9:F19" si="1">($I$4*$I$2-$I$6*$I$7)/12</f>
-        <v>274.99999999999983</v>
-      </c>
-    </row>
-    <row r="10" spans="2:14">
-      <c r="B10" s="44">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6">
+      <c r="B10" s="61">
         <f>SUM($F$3:F10)</f>
         <v>-83183.7</v>
       </c>
-      <c r="C10" s="45">
+      <c r="C10" s="62">
         <f t="shared" si="0"/>
-        <v>-11183.699999999997</v>
-      </c>
-      <c r="E10" s="40">
+        <v>-11183.7</v>
+      </c>
+      <c r="E10" s="56">
         <v>46753</v>
       </c>
-      <c r="F10" s="41">
+      <c r="F10" s="5">
         <f t="shared" si="1"/>
-        <v>274.99999999999983</v>
-      </c>
-    </row>
-    <row r="11" spans="2:14">
-      <c r="B11" s="44">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="11" spans="2:12">
+      <c r="B11" s="61">
         <f>SUM($F$3:F11)</f>
         <v>-82908.7</v>
       </c>
-      <c r="C11" s="45">
+      <c r="C11" s="62">
         <f t="shared" si="0"/>
-        <v>-10908.699999999997</v>
-      </c>
-      <c r="E11" s="40">
+        <v>-10908.7</v>
+      </c>
+      <c r="E11" s="56">
         <v>46784</v>
       </c>
-      <c r="F11" s="41">
+      <c r="F11" s="5">
         <f t="shared" si="1"/>
-        <v>274.99999999999983</v>
+        <v>275</v>
       </c>
       <c r="L11"/>
     </row>
-    <row r="12" spans="2:14">
-      <c r="B12" s="44">
+    <row r="12" spans="2:12">
+      <c r="B12" s="61">
         <f>SUM($F$3:F12)</f>
         <v>-82633.7</v>
       </c>
-      <c r="C12" s="45">
+      <c r="C12" s="62">
         <f t="shared" si="0"/>
-        <v>-10633.699999999997</v>
-      </c>
-      <c r="E12" s="40">
+        <v>-10633.7</v>
+      </c>
+      <c r="E12" s="56">
         <v>46813</v>
       </c>
-      <c r="F12" s="41">
+      <c r="F12" s="5">
         <f t="shared" si="1"/>
-        <v>274.99999999999983</v>
+        <v>275</v>
       </c>
       <c r="L12"/>
     </row>
-    <row r="13" spans="2:14">
-      <c r="B13" s="44">
+    <row r="13" spans="2:12">
+      <c r="B13" s="61">
         <f>SUM($F$3:F13)</f>
         <v>-82358.7</v>
       </c>
-      <c r="C13" s="45">
+      <c r="C13" s="62">
         <f t="shared" si="0"/>
-        <v>-10358.699999999997</v>
-      </c>
-      <c r="E13" s="40">
+        <v>-10358.7</v>
+      </c>
+      <c r="E13" s="56">
         <v>46844</v>
       </c>
-      <c r="F13" s="41">
+      <c r="F13" s="5">
         <f t="shared" si="1"/>
-        <v>274.99999999999983</v>
-      </c>
-      <c r="H13" s="48"/>
-      <c r="I13" s="48"/>
-      <c r="J13" s="48"/>
-      <c r="K13" s="48" t="s">
+        <v>275</v>
+      </c>
+      <c r="H13" s="65"/>
+      <c r="I13" s="65"/>
+      <c r="J13" s="65"/>
+      <c r="K13" s="65" t="s">
         <v>17</v>
       </c>
-      <c r="L13" s="6" t="s">
+      <c r="L13" s="16" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="14" spans="2:14">
-      <c r="B14" s="44">
+    <row r="14" spans="2:12">
+      <c r="B14" s="61">
         <f>SUM($F$3:F14)</f>
         <v>-82083.7</v>
       </c>
-      <c r="C14" s="45">
+      <c r="C14" s="62">
         <f t="shared" si="0"/>
-        <v>-10083.699999999997</v>
-      </c>
-      <c r="E14" s="40">
+        <v>-10083.7</v>
+      </c>
+      <c r="E14" s="56">
         <v>46874</v>
       </c>
-      <c r="F14" s="41">
+      <c r="F14" s="5">
         <f t="shared" si="1"/>
-        <v>274.99999999999983</v>
-      </c>
-      <c r="H14" s="49" t="s">
+        <v>275</v>
+      </c>
+      <c r="H14" s="66" t="s">
         <v>19</v>
       </c>
-      <c r="I14" s="39" t="s">
+      <c r="I14" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="J14" s="58">
-        <v>2.53E-2</v>
-      </c>
-      <c r="K14" s="55">
+      <c r="J14" s="75">
+        <v>0.0253</v>
+      </c>
+      <c r="K14" s="72">
         <f>$I$7*LEFT(I14,2)/12*J14</f>
         <v>4326.3</v>
       </c>
@@ -1249,430 +1855,430 @@
         <v>490</v>
       </c>
     </row>
-    <row r="15" spans="2:14">
-      <c r="B15" s="44">
+    <row r="15" spans="2:12">
+      <c r="B15" s="61">
         <f>SUM($F$3:F15)</f>
         <v>-81808.7</v>
       </c>
-      <c r="C15" s="45">
+      <c r="C15" s="62">
         <f t="shared" si="0"/>
-        <v>-9808.6999999999971</v>
-      </c>
-      <c r="E15" s="40">
+        <v>-9808.7</v>
+      </c>
+      <c r="E15" s="56">
         <v>46905</v>
       </c>
-      <c r="F15" s="41">
+      <c r="F15" s="5">
         <f t="shared" si="1"/>
-        <v>274.99999999999983</v>
-      </c>
-      <c r="H15" s="49" t="s">
+        <v>275</v>
+      </c>
+      <c r="H15" s="66" t="s">
         <v>21</v>
       </c>
-      <c r="I15" s="39" t="s">
+      <c r="I15" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="J15" s="58">
-        <v>2.3300000000000001E-2</v>
-      </c>
-      <c r="K15" s="55">
+      <c r="J15" s="75">
+        <v>0.0233</v>
+      </c>
+      <c r="K15" s="72">
         <f>$I$7*LEFT(I15,2)/12*J15</f>
-        <v>5312.4000000000005</v>
+        <v>5312.4</v>
       </c>
       <c r="L15"/>
     </row>
-    <row r="16" spans="2:14">
-      <c r="B16" s="44">
+    <row r="16" ht="15.15" spans="2:11">
+      <c r="B16" s="61">
         <f>SUM($F$3:F16)</f>
         <v>-81533.7</v>
       </c>
-      <c r="C16" s="45">
+      <c r="C16" s="62">
         <f t="shared" si="0"/>
-        <v>-9533.6999999999971</v>
-      </c>
-      <c r="E16" s="40">
+        <v>-9533.7</v>
+      </c>
+      <c r="E16" s="56">
         <v>46935</v>
       </c>
-      <c r="F16" s="41">
+      <c r="F16" s="5">
         <f t="shared" si="1"/>
-        <v>274.99999999999983</v>
-      </c>
-      <c r="H16" s="49" t="s">
+        <v>275</v>
+      </c>
+      <c r="H16" s="66" t="s">
         <v>23</v>
       </c>
-      <c r="I16" s="39" t="s">
+      <c r="I16" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="J16" s="58">
+      <c r="J16" s="75">
         <f>I6</f>
         <v>0.03</v>
       </c>
-      <c r="K16" s="59">
+      <c r="K16" s="76">
         <f>$I$7*LEFT(I16,2)/12*J16</f>
         <v>7980</v>
       </c>
     </row>
-    <row r="17" spans="2:12">
-      <c r="B17" s="44">
+    <row r="17" ht="15.15" spans="2:12">
+      <c r="B17" s="61">
         <f>SUM($F$3:F17)</f>
         <v>-81258.7</v>
       </c>
-      <c r="C17" s="45">
+      <c r="C17" s="62">
         <f t="shared" si="0"/>
-        <v>-9258.6999999999971</v>
-      </c>
-      <c r="E17" s="40">
+        <v>-9258.7</v>
+      </c>
+      <c r="E17" s="56">
         <v>46966</v>
       </c>
-      <c r="F17" s="41">
+      <c r="F17" s="5">
         <f t="shared" si="1"/>
-        <v>274.99999999999983</v>
-      </c>
-      <c r="H17" s="39"/>
-      <c r="I17" s="39"/>
-      <c r="J17" s="60"/>
-      <c r="K17" s="61">
+        <v>275</v>
+      </c>
+      <c r="H17" s="7"/>
+      <c r="I17" s="7"/>
+      <c r="J17" s="77"/>
+      <c r="K17" s="78">
         <f>SUM(K14:K16)</f>
         <v>17618.7</v>
       </c>
       <c r="L17"/>
     </row>
-    <row r="18" spans="2:12">
-      <c r="B18" s="44">
+    <row r="18" spans="2:6">
+      <c r="B18" s="61">
         <f>SUM($F$3:F18)</f>
         <v>-80983.7</v>
       </c>
-      <c r="C18" s="45">
+      <c r="C18" s="62">
         <f t="shared" si="0"/>
-        <v>-8983.6999999999971</v>
-      </c>
-      <c r="E18" s="40">
+        <v>-8983.7</v>
+      </c>
+      <c r="E18" s="56">
         <v>46997</v>
       </c>
-      <c r="F18" s="41">
+      <c r="F18" s="5">
         <f t="shared" si="1"/>
-        <v>274.99999999999983</v>
-      </c>
-    </row>
-    <row r="19" spans="2:12">
-      <c r="B19" s="50">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="19" spans="2:6">
+      <c r="B19" s="67">
         <f>SUM($F$3:F19)</f>
         <v>-80708.7</v>
       </c>
-      <c r="C19" s="51">
+      <c r="C19" s="68">
         <f t="shared" si="0"/>
-        <v>-8708.6999999999971</v>
-      </c>
-      <c r="E19" s="40">
+        <v>-8708.7</v>
+      </c>
+      <c r="E19" s="56">
         <v>47027</v>
       </c>
-      <c r="F19" s="41">
+      <c r="F19" s="5">
         <f t="shared" si="1"/>
-        <v>274.99999999999983</v>
-      </c>
-    </row>
-    <row r="20" spans="2:12">
-      <c r="B20" s="52"/>
-      <c r="C20" s="52"/>
-      <c r="E20" s="40"/>
-      <c r="F20" s="41"/>
-    </row>
-    <row r="21" spans="2:12">
-      <c r="B21" s="8" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="20" spans="2:6">
+      <c r="B20" s="69"/>
+      <c r="C20" s="69"/>
+      <c r="E20" s="56"/>
+      <c r="F20" s="5"/>
+    </row>
+    <row r="21" spans="2:7">
+      <c r="B21" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="E21" s="40"/>
-      <c r="F21" s="41"/>
-      <c r="G21" s="53"/>
+      <c r="E21" s="56"/>
+      <c r="F21" s="5"/>
+      <c r="G21" s="70"/>
     </row>
     <row r="22" spans="2:12">
       <c r="B22" s="3">
         <f>SUM($F$3:F22)</f>
         <v>-76268.7</v>
       </c>
-      <c r="C22" s="7"/>
-      <c r="D22" s="7"/>
-      <c r="E22" s="40">
+      <c r="C22" s="11"/>
+      <c r="D22" s="11"/>
+      <c r="E22" s="56">
         <v>47058</v>
       </c>
-      <c r="F22" s="41">
+      <c r="F22" s="5">
         <f t="shared" ref="F22:F37" si="2">$I$4*$I$2-$I$8*$I$7</f>
-        <v>4439.9999999999982</v>
+        <v>4440</v>
       </c>
       <c r="G22" t="s">
         <v>26</v>
       </c>
       <c r="L22"/>
     </row>
-    <row r="23" spans="2:12">
+    <row r="23" spans="2:6">
       <c r="B23" s="3">
         <f>SUM($F$3:F23)</f>
         <v>-71828.7</v>
       </c>
-      <c r="C23" s="7"/>
-      <c r="D23" s="7"/>
-      <c r="E23" s="40">
+      <c r="C23" s="11"/>
+      <c r="D23" s="11"/>
+      <c r="E23" s="56">
         <v>47423</v>
       </c>
-      <c r="F23" s="41">
+      <c r="F23" s="5">
         <f t="shared" si="2"/>
-        <v>4439.9999999999982</v>
-      </c>
-    </row>
-    <row r="24" spans="2:12">
+        <v>4440</v>
+      </c>
+    </row>
+    <row r="24" spans="2:6">
       <c r="B24" s="3">
         <f>SUM($F$3:F24)</f>
         <v>-67388.7</v>
       </c>
-      <c r="C24" s="7"/>
-      <c r="D24" s="7"/>
-      <c r="E24" s="40">
+      <c r="C24" s="11"/>
+      <c r="D24" s="11"/>
+      <c r="E24" s="56">
         <v>47788</v>
       </c>
-      <c r="F24" s="41">
+      <c r="F24" s="5">
         <f t="shared" si="2"/>
-        <v>4439.9999999999982</v>
-      </c>
-    </row>
-    <row r="25" spans="2:12">
+        <v>4440</v>
+      </c>
+    </row>
+    <row r="25" spans="2:6">
       <c r="B25" s="3">
         <f>SUM($F$3:F25)</f>
         <v>-62948.7</v>
       </c>
-      <c r="C25" s="48" t="s">
+      <c r="C25" s="65" t="s">
         <v>27</v>
       </c>
-      <c r="D25" s="48"/>
-      <c r="E25" s="40">
+      <c r="D25" s="65"/>
+      <c r="E25" s="56">
         <v>48153</v>
       </c>
-      <c r="F25" s="41">
+      <c r="F25" s="5">
         <f t="shared" si="2"/>
-        <v>4439.9999999999982</v>
-      </c>
-    </row>
-    <row r="26" spans="2:12">
+        <v>4440</v>
+      </c>
+    </row>
+    <row r="26" spans="2:6">
       <c r="B26" s="3">
         <f>SUM($F$3:F26)</f>
         <v>-58508.7</v>
       </c>
-      <c r="C26" s="54">
+      <c r="C26" s="71">
         <f>-F26/F3</f>
-        <v>6.166666666666664E-2</v>
-      </c>
-      <c r="D26" s="54"/>
-      <c r="E26" s="40">
+        <v>0.0616666666666666</v>
+      </c>
+      <c r="D26" s="71"/>
+      <c r="E26" s="56">
         <v>48519</v>
       </c>
-      <c r="F26" s="41">
+      <c r="F26" s="5">
         <f t="shared" si="2"/>
-        <v>4439.9999999999982</v>
-      </c>
-    </row>
-    <row r="27" spans="2:12">
+        <v>4440</v>
+      </c>
+    </row>
+    <row r="27" spans="2:6">
       <c r="B27" s="3">
         <f>SUM($F$3:F27)</f>
         <v>-54068.7</v>
       </c>
-      <c r="C27" s="7"/>
-      <c r="D27" s="7"/>
-      <c r="E27" s="40">
+      <c r="C27" s="11"/>
+      <c r="D27" s="11"/>
+      <c r="E27" s="56">
         <v>48884</v>
       </c>
-      <c r="F27" s="41">
+      <c r="F27" s="5">
         <f t="shared" si="2"/>
-        <v>4439.9999999999982</v>
-      </c>
-    </row>
-    <row r="28" spans="2:12">
+        <v>4440</v>
+      </c>
+    </row>
+    <row r="28" spans="2:6">
       <c r="B28" s="3">
         <f>SUM($F$3:F28)</f>
         <v>-49628.7</v>
       </c>
-      <c r="C28" s="7"/>
-      <c r="D28" s="7"/>
-      <c r="E28" s="40">
+      <c r="C28" s="11"/>
+      <c r="D28" s="11"/>
+      <c r="E28" s="56">
         <v>49249</v>
       </c>
-      <c r="F28" s="41">
+      <c r="F28" s="5">
         <f t="shared" si="2"/>
-        <v>4439.9999999999982</v>
-      </c>
-    </row>
-    <row r="29" spans="2:12">
+        <v>4440</v>
+      </c>
+    </row>
+    <row r="29" spans="2:6">
       <c r="B29" s="3">
         <f>SUM($F$3:F29)</f>
         <v>-45188.7</v>
       </c>
-      <c r="C29" s="7"/>
-      <c r="D29" s="7"/>
-      <c r="E29" s="40">
+      <c r="C29" s="11"/>
+      <c r="D29" s="11"/>
+      <c r="E29" s="56">
         <v>49614</v>
       </c>
-      <c r="F29" s="41">
+      <c r="F29" s="5">
         <f t="shared" si="2"/>
-        <v>4439.9999999999982</v>
-      </c>
-    </row>
-    <row r="30" spans="2:12">
+        <v>4440</v>
+      </c>
+    </row>
+    <row r="30" spans="2:6">
       <c r="B30" s="3">
         <f>SUM($F$3:F30)</f>
-        <v>-40748.699999999997</v>
-      </c>
-      <c r="C30" s="7"/>
-      <c r="D30" s="7"/>
-      <c r="E30" s="40">
+        <v>-40748.7</v>
+      </c>
+      <c r="C30" s="11"/>
+      <c r="D30" s="11"/>
+      <c r="E30" s="56">
         <v>49980</v>
       </c>
-      <c r="F30" s="41">
+      <c r="F30" s="5">
         <f t="shared" si="2"/>
-        <v>4439.9999999999982</v>
-      </c>
-    </row>
-    <row r="31" spans="2:12">
+        <v>4440</v>
+      </c>
+    </row>
+    <row r="31" spans="2:6">
       <c r="B31" s="3">
         <f>SUM($F$3:F31)</f>
-        <v>-36308.699999999997</v>
-      </c>
-      <c r="C31" s="7"/>
-      <c r="D31" s="7"/>
-      <c r="E31" s="40">
+        <v>-36308.7</v>
+      </c>
+      <c r="C31" s="11"/>
+      <c r="D31" s="11"/>
+      <c r="E31" s="56">
         <v>50345</v>
       </c>
-      <c r="F31" s="41">
+      <c r="F31" s="5">
         <f t="shared" si="2"/>
-        <v>4439.9999999999982</v>
-      </c>
-    </row>
-    <row r="32" spans="2:12">
+        <v>4440</v>
+      </c>
+    </row>
+    <row r="32" spans="2:6">
       <c r="B32" s="3">
         <f>SUM($F$3:F32)</f>
-        <v>-31868.699999999997</v>
-      </c>
-      <c r="C32" s="7"/>
-      <c r="D32" s="7"/>
-      <c r="E32" s="40">
+        <v>-31868.7</v>
+      </c>
+      <c r="C32" s="11"/>
+      <c r="D32" s="11"/>
+      <c r="E32" s="56">
         <v>50710</v>
       </c>
-      <c r="F32" s="41">
+      <c r="F32" s="5">
         <f t="shared" si="2"/>
-        <v>4439.9999999999982</v>
-      </c>
-    </row>
-    <row r="33" spans="2:14">
+        <v>4440</v>
+      </c>
+    </row>
+    <row r="33" spans="2:6">
       <c r="B33" s="3">
         <f>SUM($F$3:F33)</f>
-        <v>-27428.699999999997</v>
-      </c>
-      <c r="C33" s="7"/>
-      <c r="D33" s="7"/>
-      <c r="E33" s="40">
+        <v>-27428.7</v>
+      </c>
+      <c r="C33" s="11"/>
+      <c r="D33" s="11"/>
+      <c r="E33" s="56">
         <v>51075</v>
       </c>
-      <c r="F33" s="41">
+      <c r="F33" s="5">
         <f t="shared" si="2"/>
-        <v>4439.9999999999982</v>
-      </c>
-    </row>
-    <row r="34" spans="2:14">
+        <v>4440</v>
+      </c>
+    </row>
+    <row r="34" spans="2:6">
       <c r="B34" s="3">
         <f>SUM($F$3:F34)</f>
-        <v>-22988.699999999997</v>
-      </c>
-      <c r="C34" s="7"/>
-      <c r="D34" s="7"/>
-      <c r="E34" s="40">
+        <v>-22988.7</v>
+      </c>
+      <c r="C34" s="11"/>
+      <c r="D34" s="11"/>
+      <c r="E34" s="56">
         <v>51441</v>
       </c>
-      <c r="F34" s="41">
+      <c r="F34" s="5">
         <f t="shared" si="2"/>
-        <v>4439.9999999999982</v>
-      </c>
-    </row>
-    <row r="35" spans="2:14">
+        <v>4440</v>
+      </c>
+    </row>
+    <row r="35" spans="2:6">
       <c r="B35" s="3">
         <f>SUM($F$3:F35)</f>
-        <v>-18548.699999999997</v>
-      </c>
-      <c r="C35" s="7"/>
-      <c r="D35" s="7"/>
-      <c r="E35" s="40">
+        <v>-18548.7</v>
+      </c>
+      <c r="C35" s="11"/>
+      <c r="D35" s="11"/>
+      <c r="E35" s="56">
         <v>51806</v>
       </c>
-      <c r="F35" s="41">
+      <c r="F35" s="5">
         <f t="shared" si="2"/>
-        <v>4439.9999999999982</v>
-      </c>
-    </row>
-    <row r="36" spans="2:14">
+        <v>4440</v>
+      </c>
+    </row>
+    <row r="36" spans="2:6">
       <c r="B36" s="3">
         <f>SUM($F$3:F36)</f>
-        <v>-14108.699999999999</v>
-      </c>
-      <c r="C36" s="7"/>
-      <c r="D36" s="7"/>
-      <c r="E36" s="40">
+        <v>-14108.7</v>
+      </c>
+      <c r="C36" s="11"/>
+      <c r="D36" s="11"/>
+      <c r="E36" s="56">
         <v>52171</v>
       </c>
-      <c r="F36" s="41">
+      <c r="F36" s="5">
         <f t="shared" si="2"/>
-        <v>4439.9999999999982</v>
-      </c>
-    </row>
-    <row r="37" spans="2:14">
+        <v>4440</v>
+      </c>
+    </row>
+    <row r="37" spans="2:6">
       <c r="B37" s="3">
         <f>SUM($F$3:F37)</f>
-        <v>-9668.7000000000007</v>
-      </c>
-      <c r="C37" s="7" t="s">
+        <v>-9668.7</v>
+      </c>
+      <c r="C37" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="D37" s="7"/>
-      <c r="E37" s="40">
+      <c r="D37" s="11"/>
+      <c r="E37" s="56">
         <v>52536</v>
       </c>
-      <c r="F37" s="41">
+      <c r="F37" s="5">
         <f t="shared" si="2"/>
-        <v>4439.9999999999982</v>
-      </c>
-    </row>
-    <row r="38" spans="2:14">
+        <v>4440</v>
+      </c>
+    </row>
+    <row r="38" spans="2:7">
       <c r="B38" s="3">
         <f>SUM($F$3:F38)</f>
         <v>86331.3</v>
       </c>
-      <c r="C38" s="7">
+      <c r="C38" s="11">
         <f>XIRR(F3:F38,E3:E38)</f>
-        <v>4.7964367270469654E-2</v>
-      </c>
-      <c r="D38" s="7"/>
-      <c r="E38" s="40">
+        <v>0.0479643674451526</v>
+      </c>
+      <c r="D38" s="11"/>
+      <c r="E38" s="56">
         <v>52902</v>
       </c>
-      <c r="F38" s="41">
+      <c r="F38" s="5">
         <f>-F3+24000</f>
         <v>96000</v>
       </c>
-      <c r="G38" s="8" t="s">
+      <c r="G38" s="17" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="39" spans="2:14">
+    <row r="39" spans="2:9">
       <c r="B39" s="3"/>
-      <c r="C39" s="7"/>
-      <c r="D39" s="7"/>
-      <c r="G39" s="53" t="s">
+      <c r="C39" s="11"/>
+      <c r="D39" s="11"/>
+      <c r="G39" s="70" t="s">
         <v>30</v>
       </c>
-      <c r="H39" s="53"/>
-      <c r="I39" s="53"/>
-    </row>
-    <row r="41" spans="2:14">
+      <c r="H39" s="70"/>
+      <c r="I39" s="70"/>
+    </row>
+    <row r="41" spans="2:5">
       <c r="B41" t="s">
         <v>31</v>
       </c>
       <c r="E41"/>
     </row>
-    <row r="42" spans="2:14">
+    <row r="42" spans="2:12">
       <c r="B42" s="3" t="s">
         <v>32</v>
       </c>
@@ -1696,14 +2302,14 @@
       <c r="M43" s="3"/>
       <c r="N43" s="3"/>
     </row>
-    <row r="44" spans="2:14">
+    <row r="44" spans="2:12">
       <c r="B44" t="s">
         <v>34</v>
       </c>
       <c r="E44"/>
       <c r="L44"/>
     </row>
-    <row r="45" spans="2:14">
+    <row r="45" spans="12:12">
       <c r="L45"/>
     </row>
   </sheetData>
@@ -1717,683 +2323,657 @@
     <mergeCell ref="G5:G7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait"/>
+  <pageSetup paperSize="1" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="B2:N35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J24" sqref="J24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.14159292035398" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="1" style="8" customWidth="1"/>
-    <col min="2" max="2" width="13.42578125" style="8" customWidth="1"/>
-    <col min="3" max="3" width="6.28515625" style="8" customWidth="1"/>
-    <col min="4" max="4" width="2" style="8" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" style="9" customWidth="1"/>
-    <col min="6" max="6" width="10.85546875" style="8" customWidth="1"/>
-    <col min="7" max="7" width="15.42578125" style="8" customWidth="1"/>
-    <col min="8" max="8" width="17.85546875" style="8" customWidth="1"/>
-    <col min="9" max="9" width="9.140625" style="8"/>
-    <col min="10" max="10" width="6.140625" style="8" customWidth="1"/>
-    <col min="11" max="11" width="7.5703125" style="8" customWidth="1"/>
-    <col min="12" max="12" width="11.5703125" style="24" customWidth="1"/>
-    <col min="13" max="13" width="7.140625" style="8" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="8"/>
+    <col min="1" max="1" width="1" style="17" customWidth="1"/>
+    <col min="2" max="2" width="13.4247787610619" style="17" customWidth="1"/>
+    <col min="3" max="3" width="6.28318584070797" style="17" customWidth="1"/>
+    <col min="4" max="4" width="2" style="17" customWidth="1"/>
+    <col min="5" max="5" width="7.42477876106195" style="18" customWidth="1"/>
+    <col min="6" max="6" width="10.858407079646" style="17" customWidth="1"/>
+    <col min="7" max="7" width="15.4247787610619" style="17" customWidth="1"/>
+    <col min="8" max="8" width="17.858407079646" style="17" customWidth="1"/>
+    <col min="9" max="9" width="9.14159292035398" style="17"/>
+    <col min="10" max="10" width="6.14159292035398" style="17" customWidth="1"/>
+    <col min="11" max="11" width="7.56637168141593" style="17" customWidth="1"/>
+    <col min="12" max="12" width="11.5663716814159" style="19" customWidth="1"/>
+    <col min="13" max="13" width="7.14159292035398" style="17" customWidth="1"/>
+    <col min="14" max="16384" width="9.14159292035398" style="17"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:14">
-      <c r="E2" s="10"/>
-      <c r="F2" s="15" t="s">
+    <row r="2" spans="5:9">
+      <c r="E2" s="20"/>
+      <c r="F2" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="H2" s="15" t="s">
+      <c r="H2" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="I2" s="18">
+      <c r="I2" s="45">
         <v>250774</v>
       </c>
     </row>
-    <row r="3" spans="2:14">
-      <c r="B3" s="12"/>
-      <c r="C3" s="13"/>
-      <c r="D3" s="13"/>
-      <c r="E3" s="14">
+    <row r="3" spans="2:9">
+      <c r="B3" s="22"/>
+      <c r="C3" s="23"/>
+      <c r="D3" s="23"/>
+      <c r="E3" s="24">
         <v>45658</v>
       </c>
       <c r="F3" s="25">
         <f>I7-I2</f>
         <v>-60774</v>
       </c>
-      <c r="G3" s="8" t="s">
+      <c r="G3" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="H3" s="15" t="s">
+      <c r="H3" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="I3" s="32">
+      <c r="I3" s="46">
         <v>0.01</v>
       </c>
     </row>
     <row r="4" spans="2:14">
-      <c r="B4" s="12"/>
-      <c r="C4" s="13"/>
-      <c r="D4" s="13"/>
-      <c r="E4" s="64">
+      <c r="B4" s="22"/>
+      <c r="C4" s="23"/>
+      <c r="D4" s="23"/>
+      <c r="E4" s="26">
         <v>45699</v>
       </c>
-      <c r="F4" s="11">
+      <c r="F4" s="27">
         <f>I3*I2/2</f>
-        <v>1253.8700000000001</v>
-      </c>
-      <c r="G4" s="62" t="s">
+        <v>1253.87</v>
+      </c>
+      <c r="G4" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="H4" s="17" t="s">
+      <c r="H4" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="I4" s="33">
-        <v>3.2554E-2</v>
-      </c>
-      <c r="J4" s="73" t="s">
+      <c r="I4" s="47">
+        <v>0.032554</v>
+      </c>
+      <c r="J4" s="48" t="s">
         <v>36</v>
       </c>
-      <c r="K4" s="83"/>
-      <c r="L4" s="83"/>
-      <c r="M4" s="83"/>
-      <c r="N4" s="83"/>
-    </row>
-    <row r="5" spans="2:14">
-      <c r="B5" s="63"/>
-      <c r="C5" s="13"/>
-      <c r="D5" s="13"/>
-      <c r="E5" s="64">
+      <c r="K4"/>
+      <c r="L4"/>
+      <c r="M4"/>
+      <c r="N4"/>
+    </row>
+    <row r="5" spans="2:12">
+      <c r="B5" s="22"/>
+      <c r="C5" s="23"/>
+      <c r="D5" s="23"/>
+      <c r="E5" s="26">
         <v>45708</v>
       </c>
-      <c r="F5" s="11">
+      <c r="F5" s="27">
         <v>1260</v>
       </c>
-      <c r="G5" s="8" t="s">
+      <c r="G5" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="H5" s="17"/>
-      <c r="I5" s="17"/>
-      <c r="J5" s="75"/>
-      <c r="K5" s="76"/>
-      <c r="L5" s="76"/>
-      <c r="M5" s="76"/>
-      <c r="N5" s="76"/>
-    </row>
-    <row r="6" spans="2:14">
-      <c r="B6" s="12"/>
-      <c r="C6" s="13"/>
-      <c r="D6" s="13"/>
-      <c r="E6" s="26"/>
+      <c r="H5" s="28"/>
+      <c r="I5" s="28"/>
+      <c r="J5" s="49"/>
+      <c r="L5" s="17"/>
+    </row>
+    <row r="6" spans="2:12">
+      <c r="B6" s="22"/>
+      <c r="C6" s="23"/>
+      <c r="D6" s="23"/>
+      <c r="E6" s="29"/>
       <c r="F6" s="25"/>
-      <c r="G6" s="82" t="s">
+      <c r="G6" s="30" t="s">
         <v>37</v>
       </c>
-      <c r="H6" s="15" t="s">
+      <c r="H6" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="I6" s="16">
+      <c r="I6" s="50">
         <v>0.03</v>
       </c>
-      <c r="J6" s="75" t="s">
+      <c r="J6" s="49" t="s">
         <v>11</v>
       </c>
-      <c r="K6" s="76"/>
-      <c r="L6" s="76"/>
-      <c r="M6" s="76"/>
-      <c r="N6" s="76"/>
-    </row>
-    <row r="7" spans="2:14">
-      <c r="B7" s="77" t="s">
+      <c r="L6" s="17"/>
+    </row>
+    <row r="7" spans="2:12">
+      <c r="B7" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="79" t="s">
+      <c r="C7" s="32" t="s">
         <v>9</v>
       </c>
-      <c r="D7" s="13"/>
-      <c r="E7" s="14">
+      <c r="D7" s="23"/>
+      <c r="E7" s="24">
         <v>46082</v>
       </c>
       <c r="F7" s="25">
         <f>-K16</f>
-        <v>-12381.666666666666</v>
-      </c>
-      <c r="G7" s="82"/>
-      <c r="H7" s="15" t="s">
+        <v>-12381.6666666667</v>
+      </c>
+      <c r="G7" s="30"/>
+      <c r="H7" s="21" t="s">
         <v>39</v>
       </c>
-      <c r="I7" s="18">
+      <c r="I7" s="45">
         <v>190000</v>
       </c>
-      <c r="J7" s="75"/>
-      <c r="K7" s="76"/>
-      <c r="L7" s="76"/>
-      <c r="M7" s="76"/>
-      <c r="N7" s="76"/>
-    </row>
-    <row r="8" spans="2:14">
-      <c r="B8" s="78"/>
-      <c r="C8" s="80"/>
-      <c r="D8" s="19"/>
-      <c r="E8" s="26"/>
+      <c r="J7" s="49"/>
+      <c r="L7" s="17"/>
+    </row>
+    <row r="8" spans="2:12">
+      <c r="B8" s="33"/>
+      <c r="C8" s="34"/>
+      <c r="D8" s="35"/>
+      <c r="E8" s="29"/>
       <c r="F8" s="25"/>
-      <c r="G8" s="82"/>
-      <c r="H8" s="15" t="s">
+      <c r="G8" s="30"/>
+      <c r="H8" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="I8" s="16">
-        <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="J8" s="75" t="s">
+      <c r="I8" s="50">
+        <v>0.025</v>
+      </c>
+      <c r="J8" s="49" t="s">
         <v>16</v>
       </c>
-      <c r="K8" s="76"/>
-      <c r="L8" s="76"/>
-      <c r="M8" s="76"/>
-      <c r="N8" s="76"/>
-    </row>
-    <row r="9" spans="2:14">
-      <c r="B9" s="27">
+      <c r="L8" s="17"/>
+    </row>
+    <row r="9" spans="2:7">
+      <c r="B9" s="36">
         <f>SUM($F$3:F9)</f>
-        <v>-62478.099870666658</v>
-      </c>
-      <c r="C9" s="28">
+        <v>-62478.0998706667</v>
+      </c>
+      <c r="C9" s="37">
         <f>B9-F3</f>
-        <v>-1704.0998706666578</v>
-      </c>
-      <c r="D9" s="12" t="s">
+        <v>-1704.09987066666</v>
+      </c>
+      <c r="D9" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="E9" s="14">
+      <c r="E9" s="24">
         <v>46569</v>
       </c>
       <c r="F9" s="25">
         <f>I4*$I$2</f>
-        <v>8163.6967960000002</v>
-      </c>
-      <c r="G9" s="8" t="s">
+        <v>8163.696796</v>
+      </c>
+      <c r="G9" s="17" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="10" spans="2:14">
-      <c r="B10" s="29"/>
-      <c r="C10" s="30"/>
-      <c r="E10" s="14"/>
+    <row r="10" spans="2:12">
+      <c r="B10" s="38"/>
+      <c r="C10" s="39"/>
+      <c r="E10" s="24"/>
       <c r="F10" s="25"/>
-      <c r="G10" s="20"/>
-      <c r="L10" s="8"/>
-    </row>
-    <row r="11" spans="2:14">
-      <c r="B11" s="23" t="s">
+      <c r="G10" s="40"/>
+      <c r="L10" s="17"/>
+    </row>
+    <row r="11" spans="2:7">
+      <c r="B11" s="41" t="s">
         <v>25</v>
       </c>
-      <c r="E11" s="14"/>
+      <c r="E11" s="24"/>
       <c r="F11" s="25"/>
-      <c r="G11" s="20"/>
-    </row>
-    <row r="12" spans="2:14">
-      <c r="B12" s="12">
+      <c r="G11" s="40"/>
+    </row>
+    <row r="12" spans="2:12">
+      <c r="B12" s="22">
         <f>SUM($F$3:F12)</f>
-        <v>-59064.403074666654</v>
-      </c>
-      <c r="C12" s="13"/>
-      <c r="D12" s="13"/>
-      <c r="E12" s="14">
+        <v>-59064.4030746667</v>
+      </c>
+      <c r="C12" s="23"/>
+      <c r="D12" s="23"/>
+      <c r="E12" s="24">
         <v>46935</v>
       </c>
       <c r="F12" s="25">
         <f>$I$4*$I$2-$I$8*$I$7</f>
-        <v>3413.6967960000002</v>
-      </c>
-      <c r="H12" s="22"/>
-      <c r="I12" s="22"/>
-      <c r="J12" s="22"/>
-      <c r="K12" s="22" t="s">
+        <v>3413.696796</v>
+      </c>
+      <c r="H12" s="42"/>
+      <c r="I12" s="42"/>
+      <c r="J12" s="42"/>
+      <c r="K12" s="42" t="s">
         <v>17</v>
       </c>
-      <c r="L12" s="24" t="s">
+      <c r="L12" s="19" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="13" spans="2:14">
-      <c r="B13" s="12">
+    <row r="13" spans="2:12">
+      <c r="B13" s="22">
         <f>SUM($F$3:F13)</f>
-        <v>-55650.70627866665</v>
-      </c>
-      <c r="C13" s="13"/>
-      <c r="D13" s="13"/>
-      <c r="E13" s="14">
+        <v>-55650.7062786667</v>
+      </c>
+      <c r="C13" s="23"/>
+      <c r="D13" s="23"/>
+      <c r="E13" s="24">
         <v>47300</v>
       </c>
       <c r="F13" s="25">
         <f t="shared" ref="F13:F28" si="0">$I$4*$I$2-$I$8*$I$7</f>
-        <v>3413.6967960000002</v>
-      </c>
-      <c r="H13" s="31" t="s">
+        <v>3413.696796</v>
+      </c>
+      <c r="H13" s="43" t="s">
         <v>19</v>
       </c>
-      <c r="I13" s="15" t="s">
+      <c r="I13" s="21" t="s">
         <v>41</v>
       </c>
-      <c r="J13" s="16">
-        <v>2.53E-2</v>
-      </c>
-      <c r="K13" s="18">
+      <c r="J13" s="50">
+        <v>0.0253</v>
+      </c>
+      <c r="K13" s="45">
         <f>$I$7*LEFT(I13,2)/12*J13</f>
-        <v>3204.6666666666665</v>
-      </c>
-      <c r="L13" s="66">
+        <v>3204.66666666667</v>
+      </c>
+      <c r="L13" s="51">
         <f>J13*I7/12</f>
-        <v>400.58333333333331</v>
-      </c>
-    </row>
-    <row r="14" spans="2:14">
-      <c r="B14" s="12">
+        <v>400.583333333333</v>
+      </c>
+    </row>
+    <row r="14" spans="2:12">
+      <c r="B14" s="22">
         <f>SUM($F$3:F14)</f>
-        <v>-52237.009482666646</v>
-      </c>
-      <c r="C14" s="13"/>
-      <c r="D14" s="13"/>
-      <c r="E14" s="14">
+        <v>-52237.0094826666</v>
+      </c>
+      <c r="C14" s="23"/>
+      <c r="D14" s="23"/>
+      <c r="E14" s="24">
         <v>47665</v>
       </c>
       <c r="F14" s="25">
         <f t="shared" si="0"/>
-        <v>3413.6967960000002</v>
-      </c>
-      <c r="H14" s="31" t="s">
+        <v>3413.696796</v>
+      </c>
+      <c r="H14" s="43" t="s">
         <v>21</v>
       </c>
-      <c r="I14" s="15" t="s">
+      <c r="I14" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="J14" s="16">
-        <v>2.3300000000000001E-2</v>
-      </c>
-      <c r="K14" s="18">
+      <c r="J14" s="50">
+        <v>0.0233</v>
+      </c>
+      <c r="K14" s="45">
         <f>$I$7*LEFT(I14,2)/12*J14</f>
         <v>4427</v>
       </c>
-      <c r="L14" s="8"/>
-    </row>
-    <row r="15" spans="2:14">
-      <c r="B15" s="12">
+      <c r="L14" s="17"/>
+    </row>
+    <row r="15" ht="15.15" spans="2:11">
+      <c r="B15" s="22">
         <f>SUM($F$3:F15)</f>
-        <v>-48823.312686666643</v>
-      </c>
-      <c r="C15" s="22" t="s">
+        <v>-48823.3126866666</v>
+      </c>
+      <c r="C15" s="42" t="s">
         <v>27</v>
       </c>
-      <c r="D15" s="22"/>
-      <c r="E15" s="14">
+      <c r="D15" s="42"/>
+      <c r="E15" s="24">
         <v>48030</v>
       </c>
       <c r="F15" s="25">
         <f t="shared" si="0"/>
-        <v>3413.6967960000002</v>
-      </c>
-      <c r="H15" s="31" t="s">
+        <v>3413.696796</v>
+      </c>
+      <c r="H15" s="43" t="s">
         <v>23</v>
       </c>
-      <c r="I15" s="15" t="s">
+      <c r="I15" s="21" t="s">
         <v>42</v>
       </c>
-      <c r="J15" s="16">
+      <c r="J15" s="50">
         <f>I6</f>
         <v>0.03</v>
       </c>
-      <c r="K15" s="34">
+      <c r="K15" s="52">
         <f>$I$7*LEFT(I15,2)/12*J15</f>
         <v>4750</v>
       </c>
     </row>
-    <row r="16" spans="2:14">
-      <c r="B16" s="12">
+    <row r="16" ht="15.15" spans="2:12">
+      <c r="B16" s="22">
         <f>SUM($F$3:F16)</f>
-        <v>-45409.615890666639</v>
-      </c>
-      <c r="C16" s="21">
+        <v>-45409.6158906666</v>
+      </c>
+      <c r="C16" s="44">
         <f>-F16/F3</f>
-        <v>5.617034909665318E-2</v>
-      </c>
-      <c r="D16" s="21"/>
-      <c r="E16" s="14">
+        <v>0.0561703490966532</v>
+      </c>
+      <c r="D16" s="44"/>
+      <c r="E16" s="24">
         <v>48396</v>
       </c>
       <c r="F16" s="25">
         <f t="shared" si="0"/>
-        <v>3413.6967960000002</v>
-      </c>
-      <c r="H16" s="15"/>
-      <c r="I16" s="15"/>
-      <c r="J16" s="35"/>
-      <c r="K16" s="36">
+        <v>3413.696796</v>
+      </c>
+      <c r="H16" s="21"/>
+      <c r="I16" s="21"/>
+      <c r="J16" s="53"/>
+      <c r="K16" s="54">
         <f>SUM(K13:K15)</f>
-        <v>12381.666666666666</v>
-      </c>
-      <c r="L16" s="8"/>
-    </row>
-    <row r="17" spans="2:14">
-      <c r="B17" s="12">
+        <v>12381.6666666667</v>
+      </c>
+      <c r="L16" s="17"/>
+    </row>
+    <row r="17" spans="2:6">
+      <c r="B17" s="22">
         <f>SUM($F$3:F17)</f>
-        <v>-41995.919094666635</v>
-      </c>
-      <c r="C17" s="13"/>
-      <c r="D17" s="13"/>
-      <c r="E17" s="14">
+        <v>-41995.9190946666</v>
+      </c>
+      <c r="C17" s="23"/>
+      <c r="D17" s="23"/>
+      <c r="E17" s="24">
         <v>48761</v>
       </c>
       <c r="F17" s="25">
         <f t="shared" si="0"/>
-        <v>3413.6967960000002</v>
-      </c>
-    </row>
-    <row r="18" spans="2:14">
-      <c r="B18" s="12">
+        <v>3413.696796</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6">
+      <c r="B18" s="22">
         <f>SUM($F$3:F18)</f>
-        <v>-38582.222298666631</v>
-      </c>
-      <c r="C18" s="13"/>
-      <c r="D18" s="13"/>
-      <c r="E18" s="14">
+        <v>-38582.2222986666</v>
+      </c>
+      <c r="C18" s="23"/>
+      <c r="D18" s="23"/>
+      <c r="E18" s="24">
         <v>49126</v>
       </c>
       <c r="F18" s="25">
         <f t="shared" si="0"/>
-        <v>3413.6967960000002</v>
-      </c>
-    </row>
-    <row r="19" spans="2:14">
-      <c r="B19" s="12">
+        <v>3413.696796</v>
+      </c>
+    </row>
+    <row r="19" spans="2:6">
+      <c r="B19" s="22">
         <f>SUM($F$3:F19)</f>
-        <v>-35168.525502666627</v>
-      </c>
-      <c r="C19" s="13"/>
-      <c r="D19" s="13"/>
-      <c r="E19" s="14">
+        <v>-35168.5255026666</v>
+      </c>
+      <c r="C19" s="23"/>
+      <c r="D19" s="23"/>
+      <c r="E19" s="24">
         <v>49491</v>
       </c>
       <c r="F19" s="25">
         <f t="shared" si="0"/>
-        <v>3413.6967960000002</v>
-      </c>
-    </row>
-    <row r="20" spans="2:14">
-      <c r="B20" s="12">
+        <v>3413.696796</v>
+      </c>
+    </row>
+    <row r="20" spans="2:6">
+      <c r="B20" s="22">
         <f>SUM($F$3:F20)</f>
-        <v>-31754.828706666627</v>
-      </c>
-      <c r="C20" s="13"/>
-      <c r="D20" s="13"/>
-      <c r="E20" s="14">
+        <v>-31754.8287066666</v>
+      </c>
+      <c r="C20" s="23"/>
+      <c r="D20" s="23"/>
+      <c r="E20" s="24">
         <v>49857</v>
       </c>
       <c r="F20" s="25">
         <f t="shared" si="0"/>
-        <v>3413.6967960000002</v>
-      </c>
-    </row>
-    <row r="21" spans="2:14">
-      <c r="B21" s="12">
+        <v>3413.696796</v>
+      </c>
+    </row>
+    <row r="21" spans="2:6">
+      <c r="B21" s="22">
         <f>SUM($F$3:F21)</f>
-        <v>-28341.131910666627</v>
-      </c>
-      <c r="C21" s="13"/>
-      <c r="D21" s="13"/>
-      <c r="E21" s="14">
+        <v>-28341.1319106666</v>
+      </c>
+      <c r="C21" s="23"/>
+      <c r="D21" s="23"/>
+      <c r="E21" s="24">
         <v>50222</v>
       </c>
       <c r="F21" s="25">
         <f t="shared" si="0"/>
-        <v>3413.6967960000002</v>
-      </c>
-    </row>
-    <row r="22" spans="2:14">
-      <c r="B22" s="12">
+        <v>3413.696796</v>
+      </c>
+    </row>
+    <row r="22" spans="2:6">
+      <c r="B22" s="22">
         <f>SUM($F$3:F22)</f>
-        <v>-24927.435114666627</v>
-      </c>
-      <c r="C22" s="13"/>
-      <c r="D22" s="13"/>
-      <c r="E22" s="14">
+        <v>-24927.4351146666</v>
+      </c>
+      <c r="C22" s="23"/>
+      <c r="D22" s="23"/>
+      <c r="E22" s="24">
         <v>50587</v>
       </c>
       <c r="F22" s="25">
         <f t="shared" si="0"/>
-        <v>3413.6967960000002</v>
-      </c>
-    </row>
-    <row r="23" spans="2:14">
-      <c r="B23" s="12">
+        <v>3413.696796</v>
+      </c>
+    </row>
+    <row r="23" spans="2:6">
+      <c r="B23" s="22">
         <f>SUM($F$3:F23)</f>
-        <v>-21513.738318666627</v>
-      </c>
-      <c r="C23" s="13"/>
-      <c r="D23" s="13"/>
-      <c r="E23" s="14">
+        <v>-21513.7383186666</v>
+      </c>
+      <c r="C23" s="23"/>
+      <c r="D23" s="23"/>
+      <c r="E23" s="24">
         <v>50952</v>
       </c>
       <c r="F23" s="25">
         <f t="shared" si="0"/>
-        <v>3413.6967960000002</v>
-      </c>
-    </row>
-    <row r="24" spans="2:14">
-      <c r="B24" s="12">
+        <v>3413.696796</v>
+      </c>
+    </row>
+    <row r="24" spans="2:6">
+      <c r="B24" s="22">
         <f>SUM($F$3:F24)</f>
-        <v>-18100.041522666626</v>
-      </c>
-      <c r="C24" s="13"/>
-      <c r="D24" s="13"/>
-      <c r="E24" s="14">
+        <v>-18100.0415226666</v>
+      </c>
+      <c r="C24" s="23"/>
+      <c r="D24" s="23"/>
+      <c r="E24" s="24">
         <v>51318</v>
       </c>
       <c r="F24" s="25">
         <f t="shared" si="0"/>
-        <v>3413.6967960000002</v>
-      </c>
-    </row>
-    <row r="25" spans="2:14">
-      <c r="B25" s="12">
+        <v>3413.696796</v>
+      </c>
+    </row>
+    <row r="25" spans="2:6">
+      <c r="B25" s="22">
         <f>SUM($F$3:F25)</f>
-        <v>-14686.344726666626</v>
-      </c>
-      <c r="C25" s="13"/>
-      <c r="D25" s="13"/>
-      <c r="E25" s="14">
+        <v>-14686.3447266666</v>
+      </c>
+      <c r="C25" s="23"/>
+      <c r="D25" s="23"/>
+      <c r="E25" s="24">
         <v>51683</v>
       </c>
       <c r="F25" s="25">
         <f t="shared" si="0"/>
-        <v>3413.6967960000002</v>
-      </c>
-    </row>
-    <row r="26" spans="2:14">
-      <c r="B26" s="12">
+        <v>3413.696796</v>
+      </c>
+    </row>
+    <row r="26" spans="2:6">
+      <c r="B26" s="22">
         <f>SUM($F$3:F26)</f>
-        <v>-11272.647930666626</v>
-      </c>
-      <c r="C26" s="13"/>
-      <c r="D26" s="13"/>
-      <c r="E26" s="14">
+        <v>-11272.6479306666</v>
+      </c>
+      <c r="C26" s="23"/>
+      <c r="D26" s="23"/>
+      <c r="E26" s="24">
         <v>52048</v>
       </c>
       <c r="F26" s="25">
         <f t="shared" si="0"/>
-        <v>3413.6967960000002</v>
-      </c>
-    </row>
-    <row r="27" spans="2:14">
-      <c r="B27" s="12">
+        <v>3413.696796</v>
+      </c>
+    </row>
+    <row r="27" spans="2:6">
+      <c r="B27" s="22">
         <f>SUM($F$3:F27)</f>
-        <v>-7858.9511346666259</v>
-      </c>
-      <c r="C27" s="13"/>
-      <c r="D27" s="13"/>
-      <c r="E27" s="14">
+        <v>-7858.95113466663</v>
+      </c>
+      <c r="C27" s="23"/>
+      <c r="D27" s="23"/>
+      <c r="E27" s="24">
         <v>52413</v>
       </c>
       <c r="F27" s="25">
         <f t="shared" si="0"/>
-        <v>3413.6967960000002</v>
-      </c>
-    </row>
-    <row r="28" spans="2:14">
-      <c r="B28" s="12">
+        <v>3413.696796</v>
+      </c>
+    </row>
+    <row r="28" spans="2:9">
+      <c r="B28" s="22">
         <f>SUM($F$3:F28)</f>
-        <v>-4445.2543386666257</v>
-      </c>
-      <c r="C28" s="13" t="s">
+        <v>-4445.25433866663</v>
+      </c>
+      <c r="C28" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="D28" s="13"/>
-      <c r="E28" s="14">
+      <c r="D28" s="23"/>
+      <c r="E28" s="24">
         <v>52779</v>
       </c>
       <c r="F28" s="25">
         <f t="shared" si="0"/>
-        <v>3413.6967960000002</v>
-      </c>
-      <c r="H28" s="20"/>
-      <c r="I28" s="20"/>
-    </row>
-    <row r="29" spans="2:14">
-      <c r="B29" s="12">
+        <v>3413.696796</v>
+      </c>
+      <c r="H28" s="40"/>
+      <c r="I28" s="40"/>
+    </row>
+    <row r="29" spans="2:7">
+      <c r="B29" s="22">
         <f>SUM($F$3:F29)</f>
-        <v>69328.745661333378</v>
-      </c>
-      <c r="C29" s="13">
+        <v>69328.7456613334</v>
+      </c>
+      <c r="C29" s="23">
         <f>XIRR(F3:F29,E3:E29)</f>
-        <v>4.9763253331184393E-2</v>
-      </c>
-      <c r="D29" s="13" t="s">
+        <v>0.0497632507036538</v>
+      </c>
+      <c r="D29" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="E29" s="14">
+      <c r="E29" s="24">
         <v>52779</v>
       </c>
       <c r="F29" s="25">
         <f>ABS(F3)+13000</f>
         <v>73774</v>
       </c>
-      <c r="G29" s="8" t="s">
+      <c r="G29" s="17" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="30" spans="2:14">
-      <c r="B30" s="12"/>
-      <c r="C30" s="13"/>
-      <c r="D30" s="13"/>
-    </row>
-    <row r="31" spans="2:14">
-      <c r="H31" s="62"/>
-      <c r="I31" s="62"/>
-      <c r="J31" s="62"/>
-      <c r="K31" s="62"/>
-      <c r="L31" s="62"/>
-      <c r="M31" s="62"/>
-      <c r="N31" s="62"/>
-    </row>
-    <row r="32" spans="2:14">
-      <c r="B32" s="62"/>
-      <c r="C32" s="62"/>
-      <c r="D32" s="62"/>
-      <c r="E32" s="62"/>
-      <c r="F32" s="62"/>
-      <c r="G32" s="62"/>
-      <c r="H32" s="63"/>
-      <c r="I32" s="63"/>
-      <c r="J32" s="63"/>
-      <c r="K32" s="63"/>
-      <c r="L32" s="63"/>
-      <c r="M32" s="63"/>
-      <c r="N32" s="63"/>
-    </row>
-    <row r="33" spans="2:14">
-      <c r="B33" s="63" t="s">
+    <row r="30" spans="2:4">
+      <c r="B30" s="22"/>
+      <c r="C30" s="23"/>
+      <c r="D30" s="23"/>
+    </row>
+    <row r="31" spans="12:12">
+      <c r="L31" s="17"/>
+    </row>
+    <row r="32" spans="5:14">
+      <c r="E32" s="17"/>
+      <c r="F32" s="17"/>
+      <c r="G32" s="17"/>
+      <c r="H32" s="22"/>
+      <c r="I32" s="22"/>
+      <c r="J32" s="22"/>
+      <c r="K32" s="22"/>
+      <c r="L32" s="22"/>
+      <c r="M32" s="22"/>
+      <c r="N32" s="22"/>
+    </row>
+    <row r="33" spans="2:12">
+      <c r="B33" s="22" t="s">
         <v>32</v>
       </c>
-      <c r="C33" s="63"/>
-      <c r="D33" s="63"/>
-      <c r="E33" s="63"/>
-      <c r="F33" s="63"/>
-      <c r="G33" s="63"/>
-      <c r="H33" s="62"/>
-      <c r="I33" s="62"/>
-      <c r="J33" s="62"/>
-      <c r="K33" s="62"/>
-      <c r="L33" s="62"/>
-      <c r="M33" s="62"/>
-      <c r="N33" s="62"/>
-    </row>
-    <row r="34" spans="2:14">
-      <c r="B34" s="62" t="s">
+      <c r="C33" s="22"/>
+      <c r="D33" s="22"/>
+      <c r="E33" s="22"/>
+      <c r="F33" s="22"/>
+      <c r="G33" s="22"/>
+      <c r="H33" s="17"/>
+      <c r="I33" s="17"/>
+      <c r="J33" s="17"/>
+      <c r="K33" s="17"/>
+      <c r="L33" s="17"/>
+    </row>
+    <row r="34" spans="2:12">
+      <c r="B34" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="C34" s="62"/>
-      <c r="D34" s="62"/>
-      <c r="E34" s="62"/>
-      <c r="F34" s="62"/>
-      <c r="G34" s="62"/>
-      <c r="H34" s="62"/>
-      <c r="I34" s="62"/>
-      <c r="J34" s="62"/>
-      <c r="K34" s="62"/>
-      <c r="L34" s="62"/>
-      <c r="M34" s="62"/>
-      <c r="N34" s="62"/>
-    </row>
-    <row r="35" spans="2:14">
-      <c r="B35" s="62"/>
-      <c r="C35" s="62"/>
-      <c r="D35" s="62"/>
-      <c r="E35" s="62"/>
-      <c r="F35" s="62"/>
-      <c r="G35" s="62"/>
+      <c r="C34" s="17"/>
+      <c r="D34" s="17"/>
+      <c r="E34" s="17"/>
+      <c r="F34" s="17"/>
+      <c r="G34" s="17"/>
+      <c r="H34" s="17"/>
+      <c r="I34" s="17"/>
+      <c r="J34" s="17"/>
+      <c r="K34" s="17"/>
+      <c r="L34" s="17"/>
+    </row>
+    <row r="35" spans="5:5">
+      <c r="E35" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="8">
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="G6:G8"/>
     <mergeCell ref="J4:N4"/>
     <mergeCell ref="J5:N5"/>
     <mergeCell ref="J6:N6"/>
     <mergeCell ref="J7:N7"/>
     <mergeCell ref="J8:N8"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="G6:G8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="1" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A2:I10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="3"/>
-    <col min="2" max="2" width="9.140625" style="4" customWidth="1"/>
-    <col min="3" max="3" width="9.85546875" customWidth="1"/>
-    <col min="4" max="4" width="5.7109375" customWidth="1"/>
-    <col min="5" max="5" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.14159292035398" style="3"/>
+    <col min="2" max="2" width="9.14159292035398" style="4" customWidth="1"/>
+    <col min="3" max="3" width="9.85840707964602" customWidth="1"/>
+    <col min="4" max="4" width="5.70796460176991" customWidth="1"/>
+    <col min="5" max="5" width="11.283185840708" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:3">
       <c r="A2" s="3" t="s">
         <v>44</v>
       </c>
@@ -2401,19 +2981,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="2:5">
       <c r="B3" s="2">
         <v>45177</v>
       </c>
       <c r="C3">
         <f>-I4/3</f>
-        <v>-50065.666666666664</v>
-      </c>
-      <c r="E3" s="69" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
+        <v>-50065.6666666667</v>
+      </c>
+      <c r="E3" s="15" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="4" spans="2:9">
       <c r="B4" s="4">
         <v>45261</v>
       </c>
@@ -2427,42 +3007,42 @@
         <v>150197</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="2:3">
       <c r="B5" s="4">
         <v>45352</v>
       </c>
       <c r="C5">
         <f>C3</f>
-        <v>-50065.666666666664</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
-      <c r="H6" s="5" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
+        <v>-50065.6666666667</v>
+      </c>
+    </row>
+    <row r="6" spans="8:8">
+      <c r="H6" s="13" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3">
       <c r="B7" s="4">
         <v>45717</v>
       </c>
       <c r="C7">
         <f>C3</f>
-        <v>-50065.666666666664</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
+        <v>-50065.6666666667</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4">
       <c r="B9" s="4">
         <v>46082</v>
       </c>
-      <c r="C9" s="6">
+      <c r="C9" s="16">
         <f>2.978%*I4</f>
-        <v>4472.8666599999997</v>
+        <v>4472.86666</v>
       </c>
       <c r="D9" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="1:6">
       <c r="A10" s="3">
         <f>SUM(C3:C10)</f>
         <v>10601.86666</v>
@@ -2475,251 +3055,252 @@
         <v>150197</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="F10" s="7">
+        <v>47</v>
+      </c>
+      <c r="F10" s="11">
         <f>XIRR(C3:C10,B3:B10)</f>
-        <v>3.9874193072319042E-2</v>
+        <v>0.0398741956457715</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="1" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0F4A839-48A4-4338-AABC-FF5A99FBEEF6}">
-  <dimension ref="A2:N20"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="B2:N21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D30" sqref="D30"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F16" sqref="F16:G16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="2.42578125" style="70" customWidth="1"/>
+    <col min="1" max="1" width="2.42477876106195" customWidth="1"/>
     <col min="2" max="2" width="9" style="3"/>
-    <col min="3" max="3" width="7.140625" style="4" customWidth="1"/>
-    <col min="4" max="4" width="11.5703125" style="67" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5.7109375" style="67" customWidth="1"/>
-    <col min="6" max="6" width="18" style="67" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9" style="67" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9" style="67"/>
-    <col min="9" max="9" width="11.5703125" style="67" bestFit="1" customWidth="1"/>
-    <col min="10" max="13" width="9" style="67"/>
-    <col min="14" max="14" width="11.140625" style="67" customWidth="1"/>
-    <col min="15" max="16384" width="9" style="67"/>
+    <col min="3" max="3" width="7.14159292035398" style="4" customWidth="1"/>
+    <col min="4" max="4" width="11.5663716814159" customWidth="1"/>
+    <col min="5" max="5" width="2.54867256637168" customWidth="1"/>
+    <col min="6" max="6" width="18" customWidth="1"/>
+    <col min="7" max="7" width="9" customWidth="1"/>
+    <col min="9" max="9" width="11.5663716814159" customWidth="1"/>
+    <col min="14" max="14" width="11.141592920354" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:9">
-      <c r="B2" s="41" t="s">
+    <row r="2" spans="2:7">
+      <c r="B2" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="C2" s="38"/>
-      <c r="D2" s="39" t="s">
+      <c r="C2" s="6"/>
+      <c r="D2" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="F2" s="67" t="s">
+      <c r="F2" t="s">
         <v>1</v>
       </c>
-      <c r="G2" s="72">
+      <c r="G2" s="8">
         <f>-D3*3</f>
-        <v>226348.34999999998</v>
-      </c>
-    </row>
-    <row r="3" spans="2:9">
-      <c r="B3" s="41"/>
-      <c r="C3" s="38">
+        <v>226348.35</v>
+      </c>
+    </row>
+    <row r="3" spans="2:4">
+      <c r="B3" s="5"/>
+      <c r="C3" s="6">
         <v>45748</v>
       </c>
-      <c r="D3" s="84">
+      <c r="D3" s="9">
         <v>-75449.45</v>
       </c>
     </row>
-    <row r="4" spans="2:9">
-      <c r="B4" s="41" t="s">
-        <v>58</v>
-      </c>
-      <c r="C4" s="38">
+    <row r="4" spans="2:4">
+      <c r="B4" s="5"/>
+      <c r="C4" s="6"/>
+      <c r="D4" s="9"/>
+    </row>
+    <row r="5" spans="2:7">
+      <c r="B5" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="C5" s="6">
         <v>45778</v>
       </c>
-      <c r="D4" s="84">
+      <c r="D5" s="9">
         <f>2263.48</f>
         <v>2263.48</v>
       </c>
-      <c r="F4" s="67" t="s">
+      <c r="F5" t="s">
+        <v>49</v>
+      </c>
+      <c r="G5" s="10">
+        <f>SUM(D5:D6)/G2</f>
+        <v>0.0348999672407597</v>
+      </c>
+    </row>
+    <row r="6" customFormat="1" spans="2:7">
+      <c r="B6" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="G4" s="68">
-        <f>SUM(D4:D5)/G2</f>
-        <v>3.4899967240759652E-2</v>
-      </c>
-    </row>
-    <row r="5" spans="2:9" s="70" customFormat="1">
-      <c r="B5" s="41" t="s">
-        <v>59</v>
-      </c>
-      <c r="C5" s="38">
+      <c r="C6" s="6">
         <v>45809</v>
       </c>
-      <c r="D5" s="84">
+      <c r="D6" s="9">
         <v>5636.07</v>
       </c>
-      <c r="G5" s="68"/>
-    </row>
-    <row r="6" spans="2:9" s="70" customFormat="1">
-      <c r="B6" s="41"/>
-      <c r="C6" s="38"/>
-      <c r="D6" s="84"/>
-      <c r="G6" s="68"/>
-    </row>
-    <row r="7" spans="2:9">
-      <c r="B7" s="41"/>
-      <c r="C7" s="38">
+      <c r="G6" s="10"/>
+    </row>
+    <row r="7" customFormat="1" spans="2:7">
+      <c r="B7" s="5"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="9"/>
+      <c r="G7" s="10"/>
+    </row>
+    <row r="8" spans="2:4">
+      <c r="B8" s="5"/>
+      <c r="C8" s="6">
         <v>45901</v>
       </c>
-      <c r="D7" s="84">
+      <c r="D8" s="9">
         <f>D3</f>
         <v>-75449.45</v>
       </c>
     </row>
-    <row r="8" spans="2:9">
-      <c r="B8" s="41"/>
-      <c r="C8" s="38"/>
-      <c r="D8" s="84"/>
-      <c r="I8" s="5"/>
-    </row>
     <row r="9" spans="2:9">
-      <c r="B9" s="41"/>
-      <c r="C9" s="38">
+      <c r="B9" s="5"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="9"/>
+      <c r="I9" s="13"/>
+    </row>
+    <row r="10" spans="2:6">
+      <c r="B10" s="5"/>
+      <c r="C10" s="6">
         <v>46266</v>
       </c>
-      <c r="D9" s="84">
+      <c r="D10" s="9">
         <f>D3</f>
         <v>-75449.45</v>
       </c>
-      <c r="F9" s="67" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="10" spans="2:9">
-      <c r="B10" s="41"/>
-      <c r="C10" s="38"/>
-      <c r="D10" s="84"/>
-    </row>
-    <row r="11" spans="2:9">
-      <c r="B11" s="41"/>
-      <c r="C11" s="38">
+      <c r="F10" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="11" spans="2:4">
+      <c r="B11" s="5"/>
+      <c r="C11" s="6"/>
+      <c r="D11" s="9"/>
+    </row>
+    <row r="12" spans="2:8">
+      <c r="B12" s="5"/>
+      <c r="C12" s="6">
         <v>46631</v>
       </c>
-      <c r="D11" s="84">
-        <f>G11*G2</f>
-        <v>6813.0853349999988</v>
-      </c>
-      <c r="F11" s="67" t="s">
+      <c r="D12" s="9">
+        <f>G12*G2</f>
+        <v>6813.085335</v>
+      </c>
+      <c r="F12" t="s">
+        <v>52</v>
+      </c>
+      <c r="G12" s="11">
+        <v>0.0301</v>
+      </c>
+      <c r="H12" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="13" customFormat="1" spans="2:6">
+      <c r="B13" s="5"/>
+      <c r="C13" s="6"/>
+      <c r="D13" s="12"/>
+      <c r="F13" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="14" customFormat="1" spans="2:4">
+      <c r="B14" s="5"/>
+      <c r="C14" s="6"/>
+      <c r="D14" s="12"/>
+    </row>
+    <row r="15" spans="2:6">
+      <c r="B15" s="5">
+        <f>SUM(D3:D15)</f>
+        <v>15028.285335</v>
+      </c>
+      <c r="C15" s="6">
+        <v>46631</v>
+      </c>
+      <c r="D15" s="12">
+        <v>226664</v>
+      </c>
+      <c r="F15" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="16" spans="3:6">
+      <c r="C16" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="G11" s="7">
-        <v>3.0099999999999998E-2</v>
-      </c>
-      <c r="H11" s="67" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="12" spans="2:9" s="70" customFormat="1">
-      <c r="B12" s="41"/>
-      <c r="C12" s="38"/>
-      <c r="D12" s="84"/>
-      <c r="F12" s="83" t="s">
+      <c r="F16" t="s">
         <v>57</v>
       </c>
-      <c r="G12" s="83"/>
-    </row>
-    <row r="13" spans="2:9" s="70" customFormat="1">
-      <c r="B13" s="41"/>
-      <c r="C13" s="38"/>
-      <c r="D13" s="84"/>
-      <c r="F13" s="83"/>
-      <c r="G13" s="83"/>
-    </row>
-    <row r="14" spans="2:9">
-      <c r="B14" s="41">
-        <f>SUM(D3:D14)</f>
-        <v>15028.285335000022</v>
-      </c>
-      <c r="C14" s="38">
-        <v>46631</v>
-      </c>
-      <c r="D14" s="84">
-        <v>226664</v>
-      </c>
-      <c r="F14" s="83" t="s">
-        <v>54</v>
-      </c>
-      <c r="G14" s="83"/>
-    </row>
-    <row r="15" spans="2:9">
-      <c r="C15" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="F15" s="83" t="s">
-        <v>52</v>
-      </c>
-      <c r="G15" s="83"/>
-    </row>
-    <row r="17" spans="6:14">
-      <c r="F17" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="G17" s="7">
-        <f>XIRR(D3:D14,C3:C14)</f>
-        <v>3.7738880515098563E-2</v>
-      </c>
-    </row>
-    <row r="20" spans="6:14">
-      <c r="N20" s="71"/>
+    </row>
+    <row r="18" spans="6:7">
+      <c r="F18" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="G18" s="11">
+        <f>XIRR(D3:D15,C3:C15)</f>
+        <v>0.0377388777949497</v>
+      </c>
+    </row>
+    <row r="21" spans="14:14">
+      <c r="N21" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="4">
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="F13:H13"/>
     <mergeCell ref="F14:G14"/>
     <mergeCell ref="F15:G15"/>
+    <mergeCell ref="F16:G16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="1" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:R27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E4" sqref="E4:R4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="2" width="9.85546875" customWidth="1"/>
-    <col min="3" max="3" width="1.5703125" customWidth="1"/>
+    <col min="1" max="2" width="9.85840707964602" customWidth="1"/>
+    <col min="3" max="3" width="1.56637168141593" customWidth="1"/>
     <col min="4" max="4" width="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="2:5">
       <c r="B1" t="s">
         <v>0</v>
       </c>
       <c r="D1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E1" s="1">
         <f>XIRR(B2:B27,A2:A27)</f>
-        <v>2.9978230595588677E-2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:18">
+        <v>0.0299782292091633</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
       <c r="A2" s="2">
         <v>36526</v>
       </c>
@@ -2727,99 +3308,45 @@
         <v>-100</v>
       </c>
     </row>
-    <row r="3" spans="1:18">
+    <row r="3" spans="1:5">
       <c r="A3" s="2">
         <v>36892</v>
       </c>
       <c r="B3">
         <v>3</v>
       </c>
-      <c r="E3" s="83" t="s">
-        <v>47</v>
-      </c>
-      <c r="F3" s="83"/>
-      <c r="G3" s="83"/>
-      <c r="H3" s="83"/>
-      <c r="I3" s="83"/>
-      <c r="J3" s="83"/>
-      <c r="K3" s="83"/>
-      <c r="L3" s="83"/>
-      <c r="M3" s="83"/>
-      <c r="N3" s="83"/>
-      <c r="O3" s="83"/>
-      <c r="P3" s="83"/>
-      <c r="Q3" s="83"/>
-      <c r="R3" s="83"/>
-    </row>
-    <row r="4" spans="1:18">
+      <c r="E3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4" s="2">
         <v>37257</v>
       </c>
       <c r="B4">
         <v>3</v>
       </c>
-      <c r="E4" s="83" t="s">
-        <v>48</v>
-      </c>
-      <c r="F4" s="83"/>
-      <c r="G4" s="83"/>
-      <c r="H4" s="83"/>
-      <c r="I4" s="83"/>
-      <c r="J4" s="83"/>
-      <c r="K4" s="83"/>
-      <c r="L4" s="83"/>
-      <c r="M4" s="83"/>
-      <c r="N4" s="83"/>
-      <c r="O4" s="83"/>
-      <c r="P4" s="83"/>
-      <c r="Q4" s="83"/>
-      <c r="R4" s="83"/>
-    </row>
-    <row r="5" spans="1:18">
+      <c r="E4" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
       <c r="A5" s="2">
         <v>37622</v>
       </c>
       <c r="B5">
         <v>3</v>
       </c>
-      <c r="E5" s="83"/>
-      <c r="F5" s="83"/>
-      <c r="G5" s="83"/>
-      <c r="H5" s="83"/>
-      <c r="I5" s="83"/>
-      <c r="J5" s="83"/>
-      <c r="K5" s="83"/>
-      <c r="L5" s="83"/>
-      <c r="M5" s="83"/>
-      <c r="N5" s="83"/>
-      <c r="O5" s="83"/>
-      <c r="P5" s="83"/>
-      <c r="Q5" s="83"/>
-      <c r="R5" s="83"/>
-    </row>
-    <row r="6" spans="1:18">
+    </row>
+    <row r="6" spans="1:2">
       <c r="A6" s="2">
         <v>37987</v>
       </c>
       <c r="B6">
         <v>3</v>
       </c>
-      <c r="E6" s="83"/>
-      <c r="F6" s="83"/>
-      <c r="G6" s="83"/>
-      <c r="H6" s="83"/>
-      <c r="I6" s="83"/>
-      <c r="J6" s="83"/>
-      <c r="K6" s="83"/>
-      <c r="L6" s="83"/>
-      <c r="M6" s="83"/>
-      <c r="N6" s="83"/>
-      <c r="O6" s="83"/>
-      <c r="P6" s="83"/>
-      <c r="Q6" s="83"/>
-      <c r="R6" s="83"/>
-    </row>
-    <row r="7" spans="1:18">
+    </row>
+    <row r="7" spans="1:2">
       <c r="A7" s="2">
         <v>38353</v>
       </c>
@@ -2827,7 +3354,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:18">
+    <row r="8" spans="1:2">
       <c r="A8" s="2">
         <v>38718</v>
       </c>
@@ -2835,7 +3362,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:18">
+    <row r="9" spans="1:2">
       <c r="A9" s="2">
         <v>39083</v>
       </c>
@@ -2843,7 +3370,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:18">
+    <row r="10" spans="1:2">
       <c r="A10" s="2">
         <v>39448</v>
       </c>
@@ -2851,7 +3378,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:18">
+    <row r="11" spans="1:2">
       <c r="A11" s="2">
         <v>39814</v>
       </c>
@@ -2859,7 +3386,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:18">
+    <row r="12" spans="1:2">
       <c r="A12" s="2">
         <v>40179</v>
       </c>
@@ -2867,7 +3394,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:18">
+    <row r="13" spans="1:2">
       <c r="A13" s="2">
         <v>40544</v>
       </c>
@@ -2875,7 +3402,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:18">
+    <row r="14" spans="1:2">
       <c r="A14" s="2">
         <v>40909</v>
       </c>
@@ -2883,7 +3410,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:18">
+    <row r="15" spans="1:2">
       <c r="A15" s="2">
         <v>41275</v>
       </c>
@@ -2891,7 +3418,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:18">
+    <row r="16" spans="1:2">
       <c r="A16" s="2">
         <v>41640</v>
       </c>
@@ -2996,6 +3523,7 @@
     <mergeCell ref="E6:R6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait"/>
+  <pageSetup paperSize="1" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/msff/xls/FLI2FWD.xlsx
+++ b/msff/xls/FLI2FWD.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="62">
   <si>
     <t>cash in/out</t>
   </si>
@@ -276,13 +276,19 @@
     <t>XIRR</t>
   </si>
   <si>
-    <t>Singlife&gt;</t>
-  </si>
-  <si>
-    <t>upfront rate=</t>
-  </si>
-  <si>
-    <t>CIIMB&gt;</t>
+    <t>PnL</t>
+  </si>
+  <si>
+    <t>1st installment via SCSC</t>
+  </si>
+  <si>
+    <t>&lt;Singlife</t>
+  </si>
+  <si>
+    <t>&lt;CIIMB</t>
+  </si>
+  <si>
+    <t>total upfront rate=</t>
   </si>
   <si>
     <t>final installment</t>
@@ -297,13 +303,13 @@
     <t>.. Payout_rate goes up after age 78</t>
   </si>
   <si>
-    <t>projected surrender value</t>
+    <t>projected=226,664</t>
   </si>
   <si>
     <t>^^ ASAP</t>
   </si>
   <si>
-    <t>.. $226,348 guaranteed</t>
+    <t>sumAssured?? irrelevant</t>
   </si>
   <si>
     <t>FWD300k is better in concentration risk, more prudent, in terms of worst-case PnL, monthly loan int</t>
@@ -322,14 +328,14 @@
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="0.0000%"/>
-    <numFmt numFmtId="178" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="179" formatCode="#,##0.00_ "/>
+    <numFmt numFmtId="178" formatCode="#,##0.00_ "/>
+    <numFmt numFmtId="179" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="180" formatCode="_(* #,##0.0000000_);_(* \(#,##0.0000000\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="181" formatCode="[$-409]mmm/yy;@"/>
     <numFmt numFmtId="182" formatCode="[$-409]d\-mmm;@"/>
     <numFmt numFmtId="183" formatCode="&quot;$&quot;#,##0"/>
   </numFmts>
-  <fonts count="26">
+  <fonts count="25">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -340,13 +346,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -496,6 +495,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="5" tint="0.399945066682943"/>
       <name val="等线"/>
@@ -512,14 +519,6 @@
     <font>
       <sz val="11"/>
       <color theme="5"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -977,133 +976,133 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1116,14 +1115,15 @@
     <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="17" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="181" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
@@ -1211,7 +1211,6 @@
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1558,13 +1557,13 @@
     <col min="2" max="2" width="13.4247787610619" customWidth="1"/>
     <col min="3" max="3" width="7.28318584070797" customWidth="1"/>
     <col min="4" max="4" width="2" customWidth="1"/>
-    <col min="5" max="5" width="7.42477876106195" style="55" customWidth="1"/>
+    <col min="5" max="5" width="7.42477876106195" style="56" customWidth="1"/>
     <col min="6" max="6" width="10.858407079646" customWidth="1"/>
     <col min="7" max="7" width="13.283185840708" customWidth="1"/>
     <col min="8" max="8" width="17.858407079646" customWidth="1"/>
     <col min="10" max="10" width="6.14159292035398" customWidth="1"/>
     <col min="11" max="11" width="7.56637168141593" customWidth="1"/>
-    <col min="12" max="12" width="11.5663716814159" style="16" customWidth="1"/>
+    <col min="12" max="12" width="11.5663716814159" style="17" customWidth="1"/>
     <col min="13" max="13" width="7.14159292035398" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1584,7 +1583,7 @@
       <c r="B3" s="3"/>
       <c r="C3" s="11"/>
       <c r="D3" s="11"/>
-      <c r="E3" s="56">
+      <c r="E3" s="57">
         <v>45597</v>
       </c>
       <c r="F3" s="5">
@@ -1605,7 +1604,7 @@
       <c r="B4" s="3"/>
       <c r="C4" s="11"/>
       <c r="D4" s="11"/>
-      <c r="E4" s="57">
+      <c r="E4" s="58">
         <v>45674</v>
       </c>
       <c r="F4" s="5">
@@ -1615,127 +1614,127 @@
       <c r="G4" t="s">
         <v>4</v>
       </c>
-      <c r="H4" s="28" t="s">
+      <c r="H4" s="29" t="s">
         <v>5</v>
       </c>
       <c r="I4" s="74">
         <v>0.0338</v>
       </c>
-      <c r="J4" s="48" t="s">
+      <c r="J4" s="49" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="65"/>
-      <c r="L4" s="65"/>
-      <c r="M4" s="65"/>
-      <c r="N4" s="65"/>
+      <c r="K4" s="66"/>
+      <c r="L4" s="66"/>
+      <c r="M4" s="66"/>
+      <c r="N4" s="66"/>
     </row>
     <row r="5" spans="2:9">
       <c r="B5" s="3"/>
       <c r="C5" s="11"/>
       <c r="D5" s="11"/>
-      <c r="E5" s="58"/>
+      <c r="E5" s="59"/>
       <c r="F5" s="5"/>
-      <c r="G5" s="59" t="s">
+      <c r="G5" s="60" t="s">
         <v>7</v>
       </c>
-      <c r="H5" s="60"/>
-      <c r="I5" s="60"/>
+      <c r="H5" s="61"/>
+      <c r="I5" s="61"/>
     </row>
     <row r="6" spans="2:14">
-      <c r="B6" s="31" t="s">
+      <c r="B6" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="32" t="s">
+      <c r="C6" s="33" t="s">
         <v>9</v>
       </c>
       <c r="D6" s="11"/>
-      <c r="E6" s="56">
+      <c r="E6" s="57">
         <v>46174</v>
       </c>
       <c r="F6" s="5">
         <f>-K17</f>
         <v>-17618.7</v>
       </c>
-      <c r="G6" s="59"/>
+      <c r="G6" s="60"/>
       <c r="H6" s="7" t="s">
         <v>10</v>
       </c>
       <c r="I6" s="75">
         <v>0.03</v>
       </c>
-      <c r="J6" s="49" t="s">
+      <c r="J6" s="50" t="s">
         <v>11</v>
       </c>
-      <c r="K6" s="17"/>
-      <c r="L6" s="17"/>
-      <c r="M6" s="17"/>
-      <c r="N6" s="17"/>
+      <c r="K6" s="18"/>
+      <c r="L6" s="18"/>
+      <c r="M6" s="18"/>
+      <c r="N6" s="18"/>
     </row>
     <row r="7" spans="2:14">
-      <c r="B7" s="33"/>
-      <c r="C7" s="34"/>
-      <c r="D7" s="35"/>
-      <c r="E7" s="58"/>
+      <c r="B7" s="34"/>
+      <c r="C7" s="35"/>
+      <c r="D7" s="36"/>
+      <c r="E7" s="59"/>
       <c r="F7" s="5"/>
-      <c r="G7" s="59"/>
+      <c r="G7" s="60"/>
       <c r="H7" s="7" t="s">
         <v>12</v>
       </c>
       <c r="I7" s="72">
         <v>228000</v>
       </c>
-      <c r="J7" s="49"/>
-      <c r="K7" s="17"/>
-      <c r="L7" s="17"/>
-      <c r="M7" s="17"/>
-      <c r="N7" s="17"/>
+      <c r="J7" s="50"/>
+      <c r="K7" s="18"/>
+      <c r="L7" s="18"/>
+      <c r="M7" s="18"/>
+      <c r="N7" s="18"/>
     </row>
     <row r="8" spans="2:14">
-      <c r="B8" s="61">
+      <c r="B8" s="62">
         <f>SUM($F$3:F8)</f>
         <v>-83733.7</v>
       </c>
-      <c r="C8" s="62">
+      <c r="C8" s="63">
         <f>B8-$F$3</f>
         <v>-11733.7</v>
       </c>
       <c r="D8" t="s">
         <v>13</v>
       </c>
-      <c r="E8" s="56">
+      <c r="E8" s="57">
         <v>46692</v>
       </c>
       <c r="F8" s="5">
         <f>($I$4*$I$2-$I$6*$I$7)/12</f>
         <v>275</v>
       </c>
-      <c r="G8" s="63" t="s">
+      <c r="G8" s="64" t="s">
         <v>14</v>
       </c>
-      <c r="H8" s="64" t="s">
+      <c r="H8" s="65" t="s">
         <v>15</v>
       </c>
       <c r="I8" s="75">
         <v>0.025</v>
       </c>
-      <c r="J8" s="49" t="s">
+      <c r="J8" s="50" t="s">
         <v>16</v>
       </c>
-      <c r="K8" s="17"/>
-      <c r="L8" s="17"/>
-      <c r="M8" s="17"/>
-      <c r="N8" s="17"/>
+      <c r="K8" s="18"/>
+      <c r="L8" s="18"/>
+      <c r="M8" s="18"/>
+      <c r="N8" s="18"/>
     </row>
     <row r="9" spans="2:6">
-      <c r="B9" s="61">
+      <c r="B9" s="62">
         <f>SUM($F$3:F9)</f>
         <v>-83458.7</v>
       </c>
-      <c r="C9" s="62">
+      <c r="C9" s="63">
         <f t="shared" ref="C9:C19" si="0">B9-$F$3</f>
         <v>-11458.7</v>
       </c>
-      <c r="E9" s="56">
+      <c r="E9" s="57">
         <v>46722</v>
       </c>
       <c r="F9" s="5">
@@ -1744,15 +1743,15 @@
       </c>
     </row>
     <row r="10" spans="2:6">
-      <c r="B10" s="61">
+      <c r="B10" s="62">
         <f>SUM($F$3:F10)</f>
         <v>-83183.7</v>
       </c>
-      <c r="C10" s="62">
+      <c r="C10" s="63">
         <f t="shared" si="0"/>
         <v>-11183.7</v>
       </c>
-      <c r="E10" s="56">
+      <c r="E10" s="57">
         <v>46753</v>
       </c>
       <c r="F10" s="5">
@@ -1761,15 +1760,15 @@
       </c>
     </row>
     <row r="11" spans="2:12">
-      <c r="B11" s="61">
+      <c r="B11" s="62">
         <f>SUM($F$3:F11)</f>
         <v>-82908.7</v>
       </c>
-      <c r="C11" s="62">
+      <c r="C11" s="63">
         <f t="shared" si="0"/>
         <v>-10908.7</v>
       </c>
-      <c r="E11" s="56">
+      <c r="E11" s="57">
         <v>46784</v>
       </c>
       <c r="F11" s="5">
@@ -1779,15 +1778,15 @@
       <c r="L11"/>
     </row>
     <row r="12" spans="2:12">
-      <c r="B12" s="61">
+      <c r="B12" s="62">
         <f>SUM($F$3:F12)</f>
         <v>-82633.7</v>
       </c>
-      <c r="C12" s="62">
+      <c r="C12" s="63">
         <f t="shared" si="0"/>
         <v>-10633.7</v>
       </c>
-      <c r="E12" s="56">
+      <c r="E12" s="57">
         <v>46813</v>
       </c>
       <c r="F12" s="5">
@@ -1797,48 +1796,48 @@
       <c r="L12"/>
     </row>
     <row r="13" spans="2:12">
-      <c r="B13" s="61">
+      <c r="B13" s="62">
         <f>SUM($F$3:F13)</f>
         <v>-82358.7</v>
       </c>
-      <c r="C13" s="62">
+      <c r="C13" s="63">
         <f t="shared" si="0"/>
         <v>-10358.7</v>
       </c>
-      <c r="E13" s="56">
+      <c r="E13" s="57">
         <v>46844</v>
       </c>
       <c r="F13" s="5">
         <f t="shared" si="1"/>
         <v>275</v>
       </c>
-      <c r="H13" s="65"/>
-      <c r="I13" s="65"/>
-      <c r="J13" s="65"/>
-      <c r="K13" s="65" t="s">
+      <c r="H13" s="66"/>
+      <c r="I13" s="66"/>
+      <c r="J13" s="66"/>
+      <c r="K13" s="66" t="s">
         <v>17</v>
       </c>
-      <c r="L13" s="16" t="s">
+      <c r="L13" s="17" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="14" spans="2:12">
-      <c r="B14" s="61">
+      <c r="B14" s="62">
         <f>SUM($F$3:F14)</f>
         <v>-82083.7</v>
       </c>
-      <c r="C14" s="62">
+      <c r="C14" s="63">
         <f t="shared" si="0"/>
         <v>-10083.7</v>
       </c>
-      <c r="E14" s="56">
+      <c r="E14" s="57">
         <v>46874</v>
       </c>
       <c r="F14" s="5">
         <f t="shared" si="1"/>
         <v>275</v>
       </c>
-      <c r="H14" s="66" t="s">
+      <c r="H14" s="67" t="s">
         <v>19</v>
       </c>
       <c r="I14" s="7" t="s">
@@ -1856,22 +1855,22 @@
       </c>
     </row>
     <row r="15" spans="2:12">
-      <c r="B15" s="61">
+      <c r="B15" s="62">
         <f>SUM($F$3:F15)</f>
         <v>-81808.7</v>
       </c>
-      <c r="C15" s="62">
+      <c r="C15" s="63">
         <f t="shared" si="0"/>
         <v>-9808.7</v>
       </c>
-      <c r="E15" s="56">
+      <c r="E15" s="57">
         <v>46905</v>
       </c>
       <c r="F15" s="5">
         <f t="shared" si="1"/>
         <v>275</v>
       </c>
-      <c r="H15" s="66" t="s">
+      <c r="H15" s="67" t="s">
         <v>21</v>
       </c>
       <c r="I15" s="7" t="s">
@@ -1887,22 +1886,22 @@
       <c r="L15"/>
     </row>
     <row r="16" ht="15.15" spans="2:11">
-      <c r="B16" s="61">
+      <c r="B16" s="62">
         <f>SUM($F$3:F16)</f>
         <v>-81533.7</v>
       </c>
-      <c r="C16" s="62">
+      <c r="C16" s="63">
         <f t="shared" si="0"/>
         <v>-9533.7</v>
       </c>
-      <c r="E16" s="56">
+      <c r="E16" s="57">
         <v>46935</v>
       </c>
       <c r="F16" s="5">
         <f t="shared" si="1"/>
         <v>275</v>
       </c>
-      <c r="H16" s="66" t="s">
+      <c r="H16" s="67" t="s">
         <v>23</v>
       </c>
       <c r="I16" s="7" t="s">
@@ -1918,15 +1917,15 @@
       </c>
     </row>
     <row r="17" ht="15.15" spans="2:12">
-      <c r="B17" s="61">
+      <c r="B17" s="62">
         <f>SUM($F$3:F17)</f>
         <v>-81258.7</v>
       </c>
-      <c r="C17" s="62">
+      <c r="C17" s="63">
         <f t="shared" si="0"/>
         <v>-9258.7</v>
       </c>
-      <c r="E17" s="56">
+      <c r="E17" s="57">
         <v>46966</v>
       </c>
       <c r="F17" s="5">
@@ -1943,15 +1942,15 @@
       <c r="L17"/>
     </row>
     <row r="18" spans="2:6">
-      <c r="B18" s="61">
+      <c r="B18" s="62">
         <f>SUM($F$3:F18)</f>
         <v>-80983.7</v>
       </c>
-      <c r="C18" s="62">
+      <c r="C18" s="63">
         <f t="shared" si="0"/>
         <v>-8983.7</v>
       </c>
-      <c r="E18" s="56">
+      <c r="E18" s="57">
         <v>46997</v>
       </c>
       <c r="F18" s="5">
@@ -1960,15 +1959,15 @@
       </c>
     </row>
     <row r="19" spans="2:6">
-      <c r="B19" s="67">
+      <c r="B19" s="68">
         <f>SUM($F$3:F19)</f>
         <v>-80708.7</v>
       </c>
-      <c r="C19" s="68">
+      <c r="C19" s="69">
         <f t="shared" si="0"/>
         <v>-8708.7</v>
       </c>
-      <c r="E19" s="56">
+      <c r="E19" s="57">
         <v>47027</v>
       </c>
       <c r="F19" s="5">
@@ -1977,16 +1976,16 @@
       </c>
     </row>
     <row r="20" spans="2:6">
-      <c r="B20" s="69"/>
-      <c r="C20" s="69"/>
-      <c r="E20" s="56"/>
+      <c r="B20" s="9"/>
+      <c r="C20" s="9"/>
+      <c r="E20" s="57"/>
       <c r="F20" s="5"/>
     </row>
     <row r="21" spans="2:7">
-      <c r="B21" s="17" t="s">
+      <c r="B21" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="E21" s="56"/>
+      <c r="E21" s="57"/>
       <c r="F21" s="5"/>
       <c r="G21" s="70"/>
     </row>
@@ -1997,7 +1996,7 @@
       </c>
       <c r="C22" s="11"/>
       <c r="D22" s="11"/>
-      <c r="E22" s="56">
+      <c r="E22" s="57">
         <v>47058</v>
       </c>
       <c r="F22" s="5">
@@ -2016,7 +2015,7 @@
       </c>
       <c r="C23" s="11"/>
       <c r="D23" s="11"/>
-      <c r="E23" s="56">
+      <c r="E23" s="57">
         <v>47423</v>
       </c>
       <c r="F23" s="5">
@@ -2031,7 +2030,7 @@
       </c>
       <c r="C24" s="11"/>
       <c r="D24" s="11"/>
-      <c r="E24" s="56">
+      <c r="E24" s="57">
         <v>47788</v>
       </c>
       <c r="F24" s="5">
@@ -2044,11 +2043,11 @@
         <f>SUM($F$3:F25)</f>
         <v>-62948.7</v>
       </c>
-      <c r="C25" s="65" t="s">
+      <c r="C25" s="66" t="s">
         <v>27</v>
       </c>
-      <c r="D25" s="65"/>
-      <c r="E25" s="56">
+      <c r="D25" s="66"/>
+      <c r="E25" s="57">
         <v>48153</v>
       </c>
       <c r="F25" s="5">
@@ -2066,7 +2065,7 @@
         <v>0.0616666666666666</v>
       </c>
       <c r="D26" s="71"/>
-      <c r="E26" s="56">
+      <c r="E26" s="57">
         <v>48519</v>
       </c>
       <c r="F26" s="5">
@@ -2081,7 +2080,7 @@
       </c>
       <c r="C27" s="11"/>
       <c r="D27" s="11"/>
-      <c r="E27" s="56">
+      <c r="E27" s="57">
         <v>48884</v>
       </c>
       <c r="F27" s="5">
@@ -2096,7 +2095,7 @@
       </c>
       <c r="C28" s="11"/>
       <c r="D28" s="11"/>
-      <c r="E28" s="56">
+      <c r="E28" s="57">
         <v>49249</v>
       </c>
       <c r="F28" s="5">
@@ -2111,7 +2110,7 @@
       </c>
       <c r="C29" s="11"/>
       <c r="D29" s="11"/>
-      <c r="E29" s="56">
+      <c r="E29" s="57">
         <v>49614</v>
       </c>
       <c r="F29" s="5">
@@ -2126,7 +2125,7 @@
       </c>
       <c r="C30" s="11"/>
       <c r="D30" s="11"/>
-      <c r="E30" s="56">
+      <c r="E30" s="57">
         <v>49980</v>
       </c>
       <c r="F30" s="5">
@@ -2141,7 +2140,7 @@
       </c>
       <c r="C31" s="11"/>
       <c r="D31" s="11"/>
-      <c r="E31" s="56">
+      <c r="E31" s="57">
         <v>50345</v>
       </c>
       <c r="F31" s="5">
@@ -2156,7 +2155,7 @@
       </c>
       <c r="C32" s="11"/>
       <c r="D32" s="11"/>
-      <c r="E32" s="56">
+      <c r="E32" s="57">
         <v>50710</v>
       </c>
       <c r="F32" s="5">
@@ -2171,7 +2170,7 @@
       </c>
       <c r="C33" s="11"/>
       <c r="D33" s="11"/>
-      <c r="E33" s="56">
+      <c r="E33" s="57">
         <v>51075</v>
       </c>
       <c r="F33" s="5">
@@ -2186,7 +2185,7 @@
       </c>
       <c r="C34" s="11"/>
       <c r="D34" s="11"/>
-      <c r="E34" s="56">
+      <c r="E34" s="57">
         <v>51441</v>
       </c>
       <c r="F34" s="5">
@@ -2201,7 +2200,7 @@
       </c>
       <c r="C35" s="11"/>
       <c r="D35" s="11"/>
-      <c r="E35" s="56">
+      <c r="E35" s="57">
         <v>51806</v>
       </c>
       <c r="F35" s="5">
@@ -2216,7 +2215,7 @@
       </c>
       <c r="C36" s="11"/>
       <c r="D36" s="11"/>
-      <c r="E36" s="56">
+      <c r="E36" s="57">
         <v>52171</v>
       </c>
       <c r="F36" s="5">
@@ -2233,7 +2232,7 @@
         <v>28</v>
       </c>
       <c r="D37" s="11"/>
-      <c r="E37" s="56">
+      <c r="E37" s="57">
         <v>52536</v>
       </c>
       <c r="F37" s="5">
@@ -2251,14 +2250,14 @@
         <v>0.0479643674451526</v>
       </c>
       <c r="D38" s="11"/>
-      <c r="E38" s="56">
+      <c r="E38" s="57">
         <v>52902</v>
       </c>
       <c r="F38" s="5">
         <f>-F3+24000</f>
         <v>96000</v>
       </c>
-      <c r="G38" s="17" t="s">
+      <c r="G38" s="18" t="s">
         <v>29</v>
       </c>
     </row>
@@ -2339,76 +2338,76 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14159292035398" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="1" style="17" customWidth="1"/>
-    <col min="2" max="2" width="13.4247787610619" style="17" customWidth="1"/>
-    <col min="3" max="3" width="6.28318584070797" style="17" customWidth="1"/>
-    <col min="4" max="4" width="2" style="17" customWidth="1"/>
-    <col min="5" max="5" width="7.42477876106195" style="18" customWidth="1"/>
-    <col min="6" max="6" width="10.858407079646" style="17" customWidth="1"/>
-    <col min="7" max="7" width="15.4247787610619" style="17" customWidth="1"/>
-    <col min="8" max="8" width="17.858407079646" style="17" customWidth="1"/>
-    <col min="9" max="9" width="9.14159292035398" style="17"/>
-    <col min="10" max="10" width="6.14159292035398" style="17" customWidth="1"/>
-    <col min="11" max="11" width="7.56637168141593" style="17" customWidth="1"/>
-    <col min="12" max="12" width="11.5663716814159" style="19" customWidth="1"/>
-    <col min="13" max="13" width="7.14159292035398" style="17" customWidth="1"/>
-    <col min="14" max="16384" width="9.14159292035398" style="17"/>
+    <col min="1" max="1" width="1" style="18" customWidth="1"/>
+    <col min="2" max="2" width="13.4247787610619" style="18" customWidth="1"/>
+    <col min="3" max="3" width="6.28318584070797" style="18" customWidth="1"/>
+    <col min="4" max="4" width="2" style="18" customWidth="1"/>
+    <col min="5" max="5" width="7.42477876106195" style="19" customWidth="1"/>
+    <col min="6" max="6" width="10.858407079646" style="18" customWidth="1"/>
+    <col min="7" max="7" width="15.4247787610619" style="18" customWidth="1"/>
+    <col min="8" max="8" width="17.858407079646" style="18" customWidth="1"/>
+    <col min="9" max="9" width="9.14159292035398" style="18"/>
+    <col min="10" max="10" width="6.14159292035398" style="18" customWidth="1"/>
+    <col min="11" max="11" width="7.56637168141593" style="18" customWidth="1"/>
+    <col min="12" max="12" width="11.5663716814159" style="20" customWidth="1"/>
+    <col min="13" max="13" width="7.14159292035398" style="18" customWidth="1"/>
+    <col min="14" max="16384" width="9.14159292035398" style="18"/>
   </cols>
   <sheetData>
     <row r="2" spans="5:9">
-      <c r="E2" s="20"/>
-      <c r="F2" s="21" t="s">
+      <c r="E2" s="21"/>
+      <c r="F2" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="H2" s="21" t="s">
+      <c r="H2" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="I2" s="45">
+      <c r="I2" s="46">
         <v>250774</v>
       </c>
     </row>
     <row r="3" spans="2:9">
-      <c r="B3" s="22"/>
-      <c r="C3" s="23"/>
-      <c r="D3" s="23"/>
-      <c r="E3" s="24">
+      <c r="B3" s="23"/>
+      <c r="C3" s="24"/>
+      <c r="D3" s="24"/>
+      <c r="E3" s="25">
         <v>45658</v>
       </c>
-      <c r="F3" s="25">
+      <c r="F3" s="26">
         <f>I7-I2</f>
         <v>-60774</v>
       </c>
-      <c r="G3" s="17" t="s">
+      <c r="G3" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="H3" s="21" t="s">
+      <c r="H3" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="I3" s="46">
+      <c r="I3" s="47">
         <v>0.01</v>
       </c>
     </row>
     <row r="4" spans="2:14">
-      <c r="B4" s="22"/>
-      <c r="C4" s="23"/>
-      <c r="D4" s="23"/>
-      <c r="E4" s="26">
+      <c r="B4" s="23"/>
+      <c r="C4" s="24"/>
+      <c r="D4" s="24"/>
+      <c r="E4" s="27">
         <v>45699</v>
       </c>
-      <c r="F4" s="27">
+      <c r="F4" s="28">
         <f>I3*I2/2</f>
         <v>1253.87</v>
       </c>
-      <c r="G4" s="17" t="s">
+      <c r="G4" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="H4" s="28" t="s">
+      <c r="H4" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="I4" s="47">
+      <c r="I4" s="48">
         <v>0.032554</v>
       </c>
-      <c r="J4" s="48" t="s">
+      <c r="J4" s="49" t="s">
         <v>36</v>
       </c>
       <c r="K4"/>
@@ -2417,526 +2416,526 @@
       <c r="N4"/>
     </row>
     <row r="5" spans="2:12">
-      <c r="B5" s="22"/>
-      <c r="C5" s="23"/>
-      <c r="D5" s="23"/>
-      <c r="E5" s="26">
+      <c r="B5" s="23"/>
+      <c r="C5" s="24"/>
+      <c r="D5" s="24"/>
+      <c r="E5" s="27">
         <v>45708</v>
       </c>
-      <c r="F5" s="27">
+      <c r="F5" s="28">
         <v>1260</v>
       </c>
-      <c r="G5" s="17" t="s">
+      <c r="G5" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="H5" s="28"/>
-      <c r="I5" s="28"/>
-      <c r="J5" s="49"/>
-      <c r="L5" s="17"/>
+      <c r="H5" s="29"/>
+      <c r="I5" s="29"/>
+      <c r="J5" s="50"/>
+      <c r="L5" s="18"/>
     </row>
     <row r="6" spans="2:12">
-      <c r="B6" s="22"/>
-      <c r="C6" s="23"/>
-      <c r="D6" s="23"/>
-      <c r="E6" s="29"/>
-      <c r="F6" s="25"/>
-      <c r="G6" s="30" t="s">
+      <c r="B6" s="23"/>
+      <c r="C6" s="24"/>
+      <c r="D6" s="24"/>
+      <c r="E6" s="30"/>
+      <c r="F6" s="26"/>
+      <c r="G6" s="31" t="s">
         <v>37</v>
       </c>
-      <c r="H6" s="21" t="s">
+      <c r="H6" s="22" t="s">
         <v>38</v>
       </c>
-      <c r="I6" s="50">
+      <c r="I6" s="51">
         <v>0.03</v>
       </c>
-      <c r="J6" s="49" t="s">
+      <c r="J6" s="50" t="s">
         <v>11</v>
       </c>
-      <c r="L6" s="17"/>
+      <c r="L6" s="18"/>
     </row>
     <row r="7" spans="2:12">
-      <c r="B7" s="31" t="s">
+      <c r="B7" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="32" t="s">
+      <c r="C7" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="D7" s="23"/>
-      <c r="E7" s="24">
+      <c r="D7" s="24"/>
+      <c r="E7" s="25">
         <v>46082</v>
       </c>
-      <c r="F7" s="25">
+      <c r="F7" s="26">
         <f>-K16</f>
         <v>-12381.6666666667</v>
       </c>
-      <c r="G7" s="30"/>
-      <c r="H7" s="21" t="s">
+      <c r="G7" s="31"/>
+      <c r="H7" s="22" t="s">
         <v>39</v>
       </c>
-      <c r="I7" s="45">
+      <c r="I7" s="46">
         <v>190000</v>
       </c>
-      <c r="J7" s="49"/>
-      <c r="L7" s="17"/>
+      <c r="J7" s="50"/>
+      <c r="L7" s="18"/>
     </row>
     <row r="8" spans="2:12">
-      <c r="B8" s="33"/>
-      <c r="C8" s="34"/>
-      <c r="D8" s="35"/>
-      <c r="E8" s="29"/>
-      <c r="F8" s="25"/>
-      <c r="G8" s="30"/>
-      <c r="H8" s="21" t="s">
+      <c r="B8" s="34"/>
+      <c r="C8" s="35"/>
+      <c r="D8" s="36"/>
+      <c r="E8" s="30"/>
+      <c r="F8" s="26"/>
+      <c r="G8" s="31"/>
+      <c r="H8" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="I8" s="50">
+      <c r="I8" s="51">
         <v>0.025</v>
       </c>
-      <c r="J8" s="49" t="s">
+      <c r="J8" s="50" t="s">
         <v>16</v>
       </c>
-      <c r="L8" s="17"/>
+      <c r="L8" s="18"/>
     </row>
     <row r="9" spans="2:7">
-      <c r="B9" s="36">
+      <c r="B9" s="37">
         <f>SUM($F$3:F9)</f>
         <v>-62478.0998706667</v>
       </c>
-      <c r="C9" s="37">
+      <c r="C9" s="38">
         <f>B9-F3</f>
         <v>-1704.09987066666</v>
       </c>
-      <c r="D9" s="22" t="s">
+      <c r="D9" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="E9" s="24">
+      <c r="E9" s="25">
         <v>46569</v>
       </c>
-      <c r="F9" s="25">
+      <c r="F9" s="26">
         <f>I4*$I$2</f>
         <v>8163.696796</v>
       </c>
-      <c r="G9" s="17" t="s">
+      <c r="G9" s="18" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="10" spans="2:12">
-      <c r="B10" s="38"/>
-      <c r="C10" s="39"/>
-      <c r="E10" s="24"/>
-      <c r="F10" s="25"/>
-      <c r="G10" s="40"/>
-      <c r="L10" s="17"/>
+      <c r="B10" s="39"/>
+      <c r="C10" s="40"/>
+      <c r="E10" s="25"/>
+      <c r="F10" s="26"/>
+      <c r="G10" s="41"/>
+      <c r="L10" s="18"/>
     </row>
     <row r="11" spans="2:7">
-      <c r="B11" s="41" t="s">
+      <c r="B11" s="42" t="s">
         <v>25</v>
       </c>
-      <c r="E11" s="24"/>
-      <c r="F11" s="25"/>
-      <c r="G11" s="40"/>
+      <c r="E11" s="25"/>
+      <c r="F11" s="26"/>
+      <c r="G11" s="41"/>
     </row>
     <row r="12" spans="2:12">
-      <c r="B12" s="22">
+      <c r="B12" s="23">
         <f>SUM($F$3:F12)</f>
         <v>-59064.4030746667</v>
       </c>
-      <c r="C12" s="23"/>
-      <c r="D12" s="23"/>
-      <c r="E12" s="24">
+      <c r="C12" s="24"/>
+      <c r="D12" s="24"/>
+      <c r="E12" s="25">
         <v>46935</v>
       </c>
-      <c r="F12" s="25">
+      <c r="F12" s="26">
         <f>$I$4*$I$2-$I$8*$I$7</f>
         <v>3413.696796</v>
       </c>
-      <c r="H12" s="42"/>
-      <c r="I12" s="42"/>
-      <c r="J12" s="42"/>
-      <c r="K12" s="42" t="s">
+      <c r="H12" s="43"/>
+      <c r="I12" s="43"/>
+      <c r="J12" s="43"/>
+      <c r="K12" s="43" t="s">
         <v>17</v>
       </c>
-      <c r="L12" s="19" t="s">
+      <c r="L12" s="20" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="13" spans="2:12">
-      <c r="B13" s="22">
+      <c r="B13" s="23">
         <f>SUM($F$3:F13)</f>
         <v>-55650.7062786667</v>
       </c>
-      <c r="C13" s="23"/>
-      <c r="D13" s="23"/>
-      <c r="E13" s="24">
+      <c r="C13" s="24"/>
+      <c r="D13" s="24"/>
+      <c r="E13" s="25">
         <v>47300</v>
       </c>
-      <c r="F13" s="25">
+      <c r="F13" s="26">
         <f t="shared" ref="F13:F28" si="0">$I$4*$I$2-$I$8*$I$7</f>
         <v>3413.696796</v>
       </c>
-      <c r="H13" s="43" t="s">
+      <c r="H13" s="44" t="s">
         <v>19</v>
       </c>
-      <c r="I13" s="21" t="s">
+      <c r="I13" s="22" t="s">
         <v>41</v>
       </c>
-      <c r="J13" s="50">
+      <c r="J13" s="51">
         <v>0.0253</v>
       </c>
-      <c r="K13" s="45">
+      <c r="K13" s="46">
         <f>$I$7*LEFT(I13,2)/12*J13</f>
         <v>3204.66666666667</v>
       </c>
-      <c r="L13" s="51">
+      <c r="L13" s="52">
         <f>J13*I7/12</f>
         <v>400.583333333333</v>
       </c>
     </row>
     <row r="14" spans="2:12">
-      <c r="B14" s="22">
+      <c r="B14" s="23">
         <f>SUM($F$3:F14)</f>
         <v>-52237.0094826666</v>
       </c>
-      <c r="C14" s="23"/>
-      <c r="D14" s="23"/>
-      <c r="E14" s="24">
+      <c r="C14" s="24"/>
+      <c r="D14" s="24"/>
+      <c r="E14" s="25">
         <v>47665</v>
       </c>
-      <c r="F14" s="25">
+      <c r="F14" s="26">
         <f t="shared" si="0"/>
         <v>3413.696796</v>
       </c>
-      <c r="H14" s="43" t="s">
+      <c r="H14" s="44" t="s">
         <v>21</v>
       </c>
-      <c r="I14" s="21" t="s">
+      <c r="I14" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="J14" s="50">
+      <c r="J14" s="51">
         <v>0.0233</v>
       </c>
-      <c r="K14" s="45">
+      <c r="K14" s="46">
         <f>$I$7*LEFT(I14,2)/12*J14</f>
         <v>4427</v>
       </c>
-      <c r="L14" s="17"/>
+      <c r="L14" s="18"/>
     </row>
     <row r="15" ht="15.15" spans="2:11">
-      <c r="B15" s="22">
+      <c r="B15" s="23">
         <f>SUM($F$3:F15)</f>
         <v>-48823.3126866666</v>
       </c>
-      <c r="C15" s="42" t="s">
+      <c r="C15" s="43" t="s">
         <v>27</v>
       </c>
-      <c r="D15" s="42"/>
-      <c r="E15" s="24">
+      <c r="D15" s="43"/>
+      <c r="E15" s="25">
         <v>48030</v>
       </c>
-      <c r="F15" s="25">
+      <c r="F15" s="26">
         <f t="shared" si="0"/>
         <v>3413.696796</v>
       </c>
-      <c r="H15" s="43" t="s">
+      <c r="H15" s="44" t="s">
         <v>23</v>
       </c>
-      <c r="I15" s="21" t="s">
+      <c r="I15" s="22" t="s">
         <v>42</v>
       </c>
-      <c r="J15" s="50">
+      <c r="J15" s="51">
         <f>I6</f>
         <v>0.03</v>
       </c>
-      <c r="K15" s="52">
+      <c r="K15" s="53">
         <f>$I$7*LEFT(I15,2)/12*J15</f>
         <v>4750</v>
       </c>
     </row>
     <row r="16" ht="15.15" spans="2:12">
-      <c r="B16" s="22">
+      <c r="B16" s="23">
         <f>SUM($F$3:F16)</f>
         <v>-45409.6158906666</v>
       </c>
-      <c r="C16" s="44">
+      <c r="C16" s="45">
         <f>-F16/F3</f>
         <v>0.0561703490966532</v>
       </c>
-      <c r="D16" s="44"/>
-      <c r="E16" s="24">
+      <c r="D16" s="45"/>
+      <c r="E16" s="25">
         <v>48396</v>
       </c>
-      <c r="F16" s="25">
+      <c r="F16" s="26">
         <f t="shared" si="0"/>
         <v>3413.696796</v>
       </c>
-      <c r="H16" s="21"/>
-      <c r="I16" s="21"/>
-      <c r="J16" s="53"/>
-      <c r="K16" s="54">
+      <c r="H16" s="22"/>
+      <c r="I16" s="22"/>
+      <c r="J16" s="54"/>
+      <c r="K16" s="55">
         <f>SUM(K13:K15)</f>
         <v>12381.6666666667</v>
       </c>
-      <c r="L16" s="17"/>
+      <c r="L16" s="18"/>
     </row>
     <row r="17" spans="2:6">
-      <c r="B17" s="22">
+      <c r="B17" s="23">
         <f>SUM($F$3:F17)</f>
         <v>-41995.9190946666</v>
       </c>
-      <c r="C17" s="23"/>
-      <c r="D17" s="23"/>
-      <c r="E17" s="24">
+      <c r="C17" s="24"/>
+      <c r="D17" s="24"/>
+      <c r="E17" s="25">
         <v>48761</v>
       </c>
-      <c r="F17" s="25">
+      <c r="F17" s="26">
         <f t="shared" si="0"/>
         <v>3413.696796</v>
       </c>
     </row>
     <row r="18" spans="2:6">
-      <c r="B18" s="22">
+      <c r="B18" s="23">
         <f>SUM($F$3:F18)</f>
         <v>-38582.2222986666</v>
       </c>
-      <c r="C18" s="23"/>
-      <c r="D18" s="23"/>
-      <c r="E18" s="24">
+      <c r="C18" s="24"/>
+      <c r="D18" s="24"/>
+      <c r="E18" s="25">
         <v>49126</v>
       </c>
-      <c r="F18" s="25">
+      <c r="F18" s="26">
         <f t="shared" si="0"/>
         <v>3413.696796</v>
       </c>
     </row>
     <row r="19" spans="2:6">
-      <c r="B19" s="22">
+      <c r="B19" s="23">
         <f>SUM($F$3:F19)</f>
         <v>-35168.5255026666</v>
       </c>
-      <c r="C19" s="23"/>
-      <c r="D19" s="23"/>
-      <c r="E19" s="24">
+      <c r="C19" s="24"/>
+      <c r="D19" s="24"/>
+      <c r="E19" s="25">
         <v>49491</v>
       </c>
-      <c r="F19" s="25">
+      <c r="F19" s="26">
         <f t="shared" si="0"/>
         <v>3413.696796</v>
       </c>
     </row>
     <row r="20" spans="2:6">
-      <c r="B20" s="22">
+      <c r="B20" s="23">
         <f>SUM($F$3:F20)</f>
         <v>-31754.8287066666</v>
       </c>
-      <c r="C20" s="23"/>
-      <c r="D20" s="23"/>
-      <c r="E20" s="24">
+      <c r="C20" s="24"/>
+      <c r="D20" s="24"/>
+      <c r="E20" s="25">
         <v>49857</v>
       </c>
-      <c r="F20" s="25">
+      <c r="F20" s="26">
         <f t="shared" si="0"/>
         <v>3413.696796</v>
       </c>
     </row>
     <row r="21" spans="2:6">
-      <c r="B21" s="22">
+      <c r="B21" s="23">
         <f>SUM($F$3:F21)</f>
         <v>-28341.1319106666</v>
       </c>
-      <c r="C21" s="23"/>
-      <c r="D21" s="23"/>
-      <c r="E21" s="24">
+      <c r="C21" s="24"/>
+      <c r="D21" s="24"/>
+      <c r="E21" s="25">
         <v>50222</v>
       </c>
-      <c r="F21" s="25">
+      <c r="F21" s="26">
         <f t="shared" si="0"/>
         <v>3413.696796</v>
       </c>
     </row>
     <row r="22" spans="2:6">
-      <c r="B22" s="22">
+      <c r="B22" s="23">
         <f>SUM($F$3:F22)</f>
         <v>-24927.4351146666</v>
       </c>
-      <c r="C22" s="23"/>
-      <c r="D22" s="23"/>
-      <c r="E22" s="24">
+      <c r="C22" s="24"/>
+      <c r="D22" s="24"/>
+      <c r="E22" s="25">
         <v>50587</v>
       </c>
-      <c r="F22" s="25">
+      <c r="F22" s="26">
         <f t="shared" si="0"/>
         <v>3413.696796</v>
       </c>
     </row>
     <row r="23" spans="2:6">
-      <c r="B23" s="22">
+      <c r="B23" s="23">
         <f>SUM($F$3:F23)</f>
         <v>-21513.7383186666</v>
       </c>
-      <c r="C23" s="23"/>
-      <c r="D23" s="23"/>
-      <c r="E23" s="24">
+      <c r="C23" s="24"/>
+      <c r="D23" s="24"/>
+      <c r="E23" s="25">
         <v>50952</v>
       </c>
-      <c r="F23" s="25">
+      <c r="F23" s="26">
         <f t="shared" si="0"/>
         <v>3413.696796</v>
       </c>
     </row>
     <row r="24" spans="2:6">
-      <c r="B24" s="22">
+      <c r="B24" s="23">
         <f>SUM($F$3:F24)</f>
         <v>-18100.0415226666</v>
       </c>
-      <c r="C24" s="23"/>
-      <c r="D24" s="23"/>
-      <c r="E24" s="24">
+      <c r="C24" s="24"/>
+      <c r="D24" s="24"/>
+      <c r="E24" s="25">
         <v>51318</v>
       </c>
-      <c r="F24" s="25">
+      <c r="F24" s="26">
         <f t="shared" si="0"/>
         <v>3413.696796</v>
       </c>
     </row>
     <row r="25" spans="2:6">
-      <c r="B25" s="22">
+      <c r="B25" s="23">
         <f>SUM($F$3:F25)</f>
         <v>-14686.3447266666</v>
       </c>
-      <c r="C25" s="23"/>
-      <c r="D25" s="23"/>
-      <c r="E25" s="24">
+      <c r="C25" s="24"/>
+      <c r="D25" s="24"/>
+      <c r="E25" s="25">
         <v>51683</v>
       </c>
-      <c r="F25" s="25">
+      <c r="F25" s="26">
         <f t="shared" si="0"/>
         <v>3413.696796</v>
       </c>
     </row>
     <row r="26" spans="2:6">
-      <c r="B26" s="22">
+      <c r="B26" s="23">
         <f>SUM($F$3:F26)</f>
         <v>-11272.6479306666</v>
       </c>
-      <c r="C26" s="23"/>
-      <c r="D26" s="23"/>
-      <c r="E26" s="24">
+      <c r="C26" s="24"/>
+      <c r="D26" s="24"/>
+      <c r="E26" s="25">
         <v>52048</v>
       </c>
-      <c r="F26" s="25">
+      <c r="F26" s="26">
         <f t="shared" si="0"/>
         <v>3413.696796</v>
       </c>
     </row>
     <row r="27" spans="2:6">
-      <c r="B27" s="22">
+      <c r="B27" s="23">
         <f>SUM($F$3:F27)</f>
         <v>-7858.95113466663</v>
       </c>
-      <c r="C27" s="23"/>
-      <c r="D27" s="23"/>
-      <c r="E27" s="24">
+      <c r="C27" s="24"/>
+      <c r="D27" s="24"/>
+      <c r="E27" s="25">
         <v>52413</v>
       </c>
-      <c r="F27" s="25">
+      <c r="F27" s="26">
         <f t="shared" si="0"/>
         <v>3413.696796</v>
       </c>
     </row>
     <row r="28" spans="2:9">
-      <c r="B28" s="22">
+      <c r="B28" s="23">
         <f>SUM($F$3:F28)</f>
         <v>-4445.25433866663</v>
       </c>
-      <c r="C28" s="23" t="s">
+      <c r="C28" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="D28" s="23"/>
-      <c r="E28" s="24">
+      <c r="D28" s="24"/>
+      <c r="E28" s="25">
         <v>52779</v>
       </c>
-      <c r="F28" s="25">
+      <c r="F28" s="26">
         <f t="shared" si="0"/>
         <v>3413.696796</v>
       </c>
-      <c r="H28" s="40"/>
-      <c r="I28" s="40"/>
+      <c r="H28" s="41"/>
+      <c r="I28" s="41"/>
     </row>
     <row r="29" spans="2:7">
-      <c r="B29" s="22">
+      <c r="B29" s="23">
         <f>SUM($F$3:F29)</f>
         <v>69328.7456613334</v>
       </c>
-      <c r="C29" s="23">
+      <c r="C29" s="24">
         <f>XIRR(F3:F29,E3:E29)</f>
         <v>0.0497632507036538</v>
       </c>
-      <c r="D29" s="23" t="s">
+      <c r="D29" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="E29" s="24">
+      <c r="E29" s="25">
         <v>52779</v>
       </c>
-      <c r="F29" s="25">
+      <c r="F29" s="26">
         <f>ABS(F3)+13000</f>
         <v>73774</v>
       </c>
-      <c r="G29" s="17" t="s">
+      <c r="G29" s="18" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="30" spans="2:4">
-      <c r="B30" s="22"/>
-      <c r="C30" s="23"/>
-      <c r="D30" s="23"/>
+      <c r="B30" s="23"/>
+      <c r="C30" s="24"/>
+      <c r="D30" s="24"/>
     </row>
     <row r="31" spans="12:12">
-      <c r="L31" s="17"/>
+      <c r="L31" s="18"/>
     </row>
     <row r="32" spans="5:14">
-      <c r="E32" s="17"/>
-      <c r="F32" s="17"/>
-      <c r="G32" s="17"/>
-      <c r="H32" s="22"/>
-      <c r="I32" s="22"/>
-      <c r="J32" s="22"/>
-      <c r="K32" s="22"/>
-      <c r="L32" s="22"/>
-      <c r="M32" s="22"/>
-      <c r="N32" s="22"/>
+      <c r="E32" s="18"/>
+      <c r="F32" s="18"/>
+      <c r="G32" s="18"/>
+      <c r="H32" s="23"/>
+      <c r="I32" s="23"/>
+      <c r="J32" s="23"/>
+      <c r="K32" s="23"/>
+      <c r="L32" s="23"/>
+      <c r="M32" s="23"/>
+      <c r="N32" s="23"/>
     </row>
     <row r="33" spans="2:12">
-      <c r="B33" s="22" t="s">
+      <c r="B33" s="23" t="s">
         <v>32</v>
       </c>
-      <c r="C33" s="22"/>
-      <c r="D33" s="22"/>
-      <c r="E33" s="22"/>
-      <c r="F33" s="22"/>
-      <c r="G33" s="22"/>
-      <c r="H33" s="17"/>
-      <c r="I33" s="17"/>
-      <c r="J33" s="17"/>
-      <c r="K33" s="17"/>
-      <c r="L33" s="17"/>
+      <c r="C33" s="23"/>
+      <c r="D33" s="23"/>
+      <c r="E33" s="23"/>
+      <c r="F33" s="23"/>
+      <c r="G33" s="23"/>
+      <c r="H33" s="18"/>
+      <c r="I33" s="18"/>
+      <c r="J33" s="18"/>
+      <c r="K33" s="18"/>
+      <c r="L33" s="18"/>
     </row>
     <row r="34" spans="2:12">
-      <c r="B34" s="17" t="s">
+      <c r="B34" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="C34" s="17"/>
-      <c r="D34" s="17"/>
-      <c r="E34" s="17"/>
-      <c r="F34" s="17"/>
-      <c r="G34" s="17"/>
-      <c r="H34" s="17"/>
-      <c r="I34" s="17"/>
-      <c r="J34" s="17"/>
-      <c r="K34" s="17"/>
-      <c r="L34" s="17"/>
+      <c r="C34" s="18"/>
+      <c r="D34" s="18"/>
+      <c r="E34" s="18"/>
+      <c r="F34" s="18"/>
+      <c r="G34" s="18"/>
+      <c r="H34" s="18"/>
+      <c r="I34" s="18"/>
+      <c r="J34" s="18"/>
+      <c r="K34" s="18"/>
+      <c r="L34" s="18"/>
     </row>
     <row r="35" spans="5:5">
-      <c r="E35" s="17"/>
+      <c r="E35" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -2989,7 +2988,7 @@
         <f>-I4/3</f>
         <v>-50065.6666666667</v>
       </c>
-      <c r="E3" s="15" t="s">
+      <c r="E3" s="16" t="s">
         <v>45</v>
       </c>
     </row>
@@ -3017,7 +3016,7 @@
       </c>
     </row>
     <row r="6" spans="8:8">
-      <c r="H6" s="13" t="s">
+      <c r="H6" s="14" t="s">
         <v>46</v>
       </c>
     </row>
@@ -3034,7 +3033,7 @@
       <c r="B9" s="4">
         <v>46082</v>
       </c>
-      <c r="C9" s="16">
+      <c r="C9" s="17">
         <f>2.978%*I4</f>
         <v>4472.86666</v>
       </c>
@@ -3075,95 +3074,92 @@
   <dimension ref="B2:N21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16:G16"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="2.42477876106195" customWidth="1"/>
-    <col min="2" max="2" width="9" style="3"/>
+    <col min="2" max="2" width="6.88495575221239" style="3" customWidth="1"/>
     <col min="3" max="3" width="7.14159292035398" style="4" customWidth="1"/>
     <col min="4" max="4" width="11.5663716814159" customWidth="1"/>
-    <col min="5" max="5" width="2.54867256637168" customWidth="1"/>
+    <col min="5" max="5" width="3.09734513274336" customWidth="1"/>
     <col min="6" max="6" width="18" customWidth="1"/>
     <col min="7" max="7" width="9" customWidth="1"/>
     <col min="9" max="9" width="11.5663716814159" customWidth="1"/>
     <col min="14" max="14" width="11.141592920354" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:7">
+    <row r="2" spans="2:4">
       <c r="B2" s="5" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="C2" s="6"/>
       <c r="D2" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="F2" t="s">
-        <v>1</v>
-      </c>
-      <c r="G2" s="8">
-        <f>-D3*3</f>
-        <v>226348.35</v>
-      </c>
-    </row>
-    <row r="3" spans="2:4">
+    </row>
+    <row r="3" spans="2:6">
       <c r="B3" s="5"/>
       <c r="C3" s="6">
         <v>45748</v>
       </c>
-      <c r="D3" s="9">
+      <c r="D3" s="8">
         <v>-75449.45</v>
+      </c>
+      <c r="F3" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="4" spans="2:4">
       <c r="B4" s="5"/>
       <c r="C4" s="6"/>
-      <c r="D4" s="9"/>
-    </row>
-    <row r="5" spans="2:7">
-      <c r="B5" s="5" t="s">
-        <v>48</v>
-      </c>
+      <c r="D4" s="8"/>
+    </row>
+    <row r="5" spans="2:6">
+      <c r="B5" s="5"/>
       <c r="C5" s="6">
         <v>45778</v>
       </c>
-      <c r="D5" s="9">
+      <c r="D5" s="8">
         <f>2263.48</f>
         <v>2263.48</v>
       </c>
-      <c r="F5" t="s">
-        <v>49</v>
-      </c>
-      <c r="G5" s="10">
-        <f>SUM(D5:D6)/G2</f>
-        <v>0.0348999672407597</v>
+      <c r="F5" s="9" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="6" customFormat="1" spans="2:7">
-      <c r="B6" s="5" t="s">
-        <v>50</v>
-      </c>
+      <c r="B6" s="5"/>
       <c r="C6" s="6">
         <v>45809</v>
       </c>
-      <c r="D6" s="9">
+      <c r="D6" s="8">
         <v>5636.07</v>
+      </c>
+      <c r="F6" s="9" t="s">
+        <v>51</v>
       </c>
       <c r="G6" s="10"/>
     </row>
     <row r="7" customFormat="1" spans="2:7">
       <c r="B7" s="5"/>
       <c r="C7" s="6"/>
-      <c r="D7" s="9"/>
-      <c r="G7" s="10"/>
+      <c r="D7" s="8"/>
+      <c r="F7" t="s">
+        <v>52</v>
+      </c>
+      <c r="G7" s="10">
+        <f>SUM(D5:D6)/G17</f>
+        <v>0.0348999672407597</v>
+      </c>
     </row>
     <row r="8" spans="2:4">
       <c r="B8" s="5"/>
       <c r="C8" s="6">
         <v>45901</v>
       </c>
-      <c r="D8" s="9">
+      <c r="D8" s="8">
         <f>D3</f>
         <v>-75449.45</v>
       </c>
@@ -3171,44 +3167,44 @@
     <row r="9" spans="2:9">
       <c r="B9" s="5"/>
       <c r="C9" s="6"/>
-      <c r="D9" s="9"/>
-      <c r="I9" s="13"/>
+      <c r="D9" s="8"/>
+      <c r="I9" s="14"/>
     </row>
     <row r="10" spans="2:6">
       <c r="B10" s="5"/>
       <c r="C10" s="6">
         <v>46266</v>
       </c>
-      <c r="D10" s="9">
+      <c r="D10" s="8">
         <f>D3</f>
         <v>-75449.45</v>
       </c>
       <c r="F10" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
     <row r="11" spans="2:4">
       <c r="B11" s="5"/>
       <c r="C11" s="6"/>
-      <c r="D11" s="9"/>
+      <c r="D11" s="8"/>
     </row>
     <row r="12" spans="2:8">
       <c r="B12" s="5"/>
       <c r="C12" s="6">
         <v>46631</v>
       </c>
-      <c r="D12" s="9">
-        <f>G12*G2</f>
+      <c r="D12" s="8">
+        <f>G12*G17</f>
         <v>6813.085335</v>
       </c>
       <c r="F12" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="G12" s="11">
         <v>0.0301</v>
       </c>
       <c r="H12" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
     </row>
     <row r="13" customFormat="1" spans="2:6">
@@ -3216,7 +3212,7 @@
       <c r="C13" s="6"/>
       <c r="D13" s="12"/>
       <c r="F13" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="14" customFormat="1" spans="2:4">
@@ -3227,44 +3223,53 @@
     <row r="15" spans="2:6">
       <c r="B15" s="5">
         <f>SUM(D3:D15)</f>
-        <v>15028.285335</v>
+        <v>14712.635335</v>
       </c>
       <c r="C15" s="6">
         <v>46631</v>
       </c>
       <c r="D15" s="12">
-        <v>226664</v>
+        <f>G17</f>
+        <v>226348.35</v>
       </c>
       <c r="F15" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="16" spans="3:6">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="16" spans="3:7">
       <c r="C16" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="F16" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="18" spans="6:7">
-      <c r="F18" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="F16" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="G18" s="11">
+      <c r="G16" s="11">
         <f>XIRR(D3:D15,C3:C15)</f>
-        <v>0.0377388777949497</v>
+        <v>0.0369602939142573</v>
+      </c>
+    </row>
+    <row r="17" spans="6:7">
+      <c r="F17" t="s">
+        <v>1</v>
+      </c>
+      <c r="G17" s="13">
+        <f>-D3*3</f>
+        <v>226348.35</v>
+      </c>
+    </row>
+    <row r="18" spans="6:6">
+      <c r="F18" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="21" spans="14:14">
-      <c r="N21" s="14"/>
+      <c r="N21" s="15"/>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="3">
     <mergeCell ref="F13:H13"/>
     <mergeCell ref="F14:G14"/>
     <mergeCell ref="F15:G15"/>
-    <mergeCell ref="F16:G16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="1" orientation="portrait"/>
@@ -3316,7 +3321,7 @@
         <v>3</v>
       </c>
       <c r="E3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -3327,7 +3332,7 @@
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="5" spans="1:2">

--- a/msff/xls/FLI2FWD.xlsx
+++ b/msff/xls/FLI2FWD.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24332"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="N:\repos\repo1\msff\xls\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E9CE8D5-AFEB-414B-ACF9-12FB4DD31DE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="22701" windowHeight="11520" activeTab="3"/>
+    <workbookView xWindow="150" yWindow="-21600" windowWidth="17310" windowHeight="21600" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="FWD300" sheetId="9" r:id="rId1"/>
@@ -22,8 +28,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -31,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="62">
   <si>
     <t>cash in/out</t>
   </si>
@@ -55,7 +59,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Calibri"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -64,8 +68,8 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color theme="5" tint="0.399945066682943"/>
-        <rFont val="等线"/>
+        <color theme="5" tint="0.39991454817346722"/>
+        <rFont val="Calibri"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -91,7 +95,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Calibri"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -101,7 +105,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="5" tint="-0.249977111117893"/>
-        <rFont val="等线"/>
+        <rFont val="Calibri"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -111,7 +115,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="5"/>
-        <rFont val="等线"/>
+        <rFont val="Calibri"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -135,7 +139,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Calibri"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -146,7 +150,7 @@
         <b/>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="等线"/>
+        <rFont val="Calibri"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -156,7 +160,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Calibri"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -225,7 +229,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Calibri"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -234,8 +238,8 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color theme="5" tint="0.399945066682943"/>
-        <rFont val="等线"/>
+        <color theme="5" tint="0.39991454817346722"/>
+        <rFont val="Calibri"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -279,9 +283,6 @@
     <t>Singlife&gt;</t>
   </si>
   <si>
-    <t>upfront rate=</t>
-  </si>
-  <si>
     <t>CIIMB&gt;</t>
   </si>
   <si>
@@ -310,209 +311,71 @@
   </si>
   <si>
     <t>FWD41 can absorb more of my excess cash (welcome) but what if in X years I need more liquidity?</t>
+  </si>
+  <si>
+    <t>upfront rate =</t>
+  </si>
+  <si>
+    <t>2nd installment</t>
+  </si>
+  <si>
+    <t>paid by scsc over 6 tx</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
-  <numFmts count="11">
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="8">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="0.0000%"/>
-    <numFmt numFmtId="178" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="179" formatCode="#,##0.00_ "/>
-    <numFmt numFmtId="180" formatCode="_(* #,##0.0000000_);_(* \(#,##0.0000000\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="181" formatCode="[$-409]mmm/yy;@"/>
-    <numFmt numFmtId="182" formatCode="[$-409]d\-mmm;@"/>
-    <numFmt numFmtId="183" formatCode="&quot;$&quot;#,##0"/>
+    <numFmt numFmtId="165" formatCode="0.0000%"/>
+    <numFmt numFmtId="166" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="167" formatCode="#,##0.00_ "/>
+    <numFmt numFmtId="168" formatCode="_(* #,##0.0000000_);_(* \(#,##0.0000000\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="169" formatCode="[$-409]mmm/yy;@"/>
+    <numFmt numFmtId="170" formatCode="[$-409]d\-mmm;@"/>
+    <numFmt numFmtId="171" formatCode="&quot;$&quot;#,##0"/>
   </numFmts>
-  <fonts count="26">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="5" tint="0.399945066682943"/>
-      <name val="等线"/>
+      <color theme="5" tint="0.39991454817346722"/>
+      <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="5" tint="-0.249977111117893"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="5"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -520,206 +383,20 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="21">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -865,297 +542,46 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="79">
+  <cellXfs count="82">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="17" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="181" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="17" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="181" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="182" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="181" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -1174,29 +600,24 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="183" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="171" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="183" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="183" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="171" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="183" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="181" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="181" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="182" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="181" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="171" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1215,8 +636,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="183" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="171" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1224,65 +645,46 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="183" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="171" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="183" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="171" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="49">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
-    <cellStyle name="货币" xfId="2" builtinId="4"/>
-    <cellStyle name="百分比" xfId="3" builtinId="5"/>
-    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
-    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
-    <cellStyle name="超链接" xfId="6" builtinId="8"/>
-    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
-    <cellStyle name="注释" xfId="8" builtinId="10"/>
-    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
-    <cellStyle name="标题" xfId="10" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
-    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="输入" xfId="16" builtinId="20"/>
-    <cellStyle name="输出" xfId="17" builtinId="21"/>
-    <cellStyle name="计算" xfId="18" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
-    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
-    <cellStyle name="汇总" xfId="21" builtinId="25"/>
-    <cellStyle name="好" xfId="22" builtinId="26"/>
-    <cellStyle name="差" xfId="23" builtinId="27"/>
-    <cellStyle name="适中" xfId="24" builtinId="28"/>
-    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
-    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
-    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
-    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
-    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+  <cellStyles count="3">
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Percent" xfId="2" builtinId="5"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1540,35 +942,35 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:N45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="L21" sqref="L21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="1" customWidth="1"/>
-    <col min="2" max="2" width="13.4247787610619" customWidth="1"/>
-    <col min="3" max="3" width="7.28318584070797" customWidth="1"/>
+    <col min="2" max="2" width="13.42578125" customWidth="1"/>
+    <col min="3" max="3" width="7.28515625" customWidth="1"/>
     <col min="4" max="4" width="2" customWidth="1"/>
-    <col min="5" max="5" width="7.42477876106195" style="55" customWidth="1"/>
-    <col min="6" max="6" width="10.858407079646" customWidth="1"/>
-    <col min="7" max="7" width="13.283185840708" customWidth="1"/>
-    <col min="8" max="8" width="17.858407079646" customWidth="1"/>
-    <col min="10" max="10" width="6.14159292035398" customWidth="1"/>
-    <col min="11" max="11" width="7.56637168141593" customWidth="1"/>
-    <col min="12" max="12" width="11.5663716814159" style="16" customWidth="1"/>
-    <col min="13" max="13" width="7.14159292035398" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" style="48" customWidth="1"/>
+    <col min="6" max="6" width="10.85546875" customWidth="1"/>
+    <col min="7" max="7" width="13.28515625" customWidth="1"/>
+    <col min="8" max="8" width="17.85546875" customWidth="1"/>
+    <col min="10" max="10" width="6.140625" customWidth="1"/>
+    <col min="11" max="11" width="7.5703125" customWidth="1"/>
+    <col min="12" max="12" width="11.5703125" style="16" customWidth="1"/>
+    <col min="13" max="13" width="7.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="5:9">
+    <row r="2" spans="2:14">
       <c r="E2" s="6"/>
       <c r="F2" s="7" t="s">
         <v>0</v>
@@ -1576,15 +978,15 @@
       <c r="H2" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="I2" s="72">
+      <c r="I2" s="64">
         <v>300000</v>
       </c>
     </row>
-    <row r="3" spans="2:9">
+    <row r="3" spans="2:14">
       <c r="B3" s="3"/>
       <c r="C3" s="11"/>
       <c r="D3" s="11"/>
-      <c r="E3" s="56">
+      <c r="E3" s="49">
         <v>45597</v>
       </c>
       <c r="F3" s="5">
@@ -1597,15 +999,15 @@
       <c r="H3" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="I3" s="73">
-        <v>0.0187</v>
+      <c r="I3" s="65">
+        <v>1.8700000000000001E-2</v>
       </c>
     </row>
     <row r="4" spans="2:14">
       <c r="B4" s="3"/>
       <c r="C4" s="11"/>
       <c r="D4" s="11"/>
-      <c r="E4" s="57">
+      <c r="E4" s="50">
         <v>45674</v>
       </c>
       <c r="F4" s="5">
@@ -1618,124 +1020,124 @@
       <c r="H4" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="I4" s="74">
-        <v>0.0338</v>
-      </c>
-      <c r="J4" s="48" t="s">
+      <c r="I4" s="66">
+        <v>3.3799999999999997E-2</v>
+      </c>
+      <c r="J4" s="71" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="65"/>
-      <c r="L4" s="65"/>
-      <c r="M4" s="65"/>
-      <c r="N4" s="65"/>
-    </row>
-    <row r="5" spans="2:9">
+      <c r="K4" s="72"/>
+      <c r="L4" s="72"/>
+      <c r="M4" s="72"/>
+      <c r="N4" s="72"/>
+    </row>
+    <row r="5" spans="2:14">
       <c r="B5" s="3"/>
       <c r="C5" s="11"/>
       <c r="D5" s="11"/>
-      <c r="E5" s="58"/>
+      <c r="E5" s="51"/>
       <c r="F5" s="5"/>
-      <c r="G5" s="59" t="s">
+      <c r="G5" s="79" t="s">
         <v>7</v>
       </c>
-      <c r="H5" s="60"/>
-      <c r="I5" s="60"/>
+      <c r="H5" s="52"/>
+      <c r="I5" s="52"/>
     </row>
     <row r="6" spans="2:14">
-      <c r="B6" s="31" t="s">
+      <c r="B6" s="75" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="32" t="s">
+      <c r="C6" s="77" t="s">
         <v>9</v>
       </c>
       <c r="D6" s="11"/>
-      <c r="E6" s="56">
+      <c r="E6" s="49">
         <v>46174</v>
       </c>
       <c r="F6" s="5">
         <f>-K17</f>
         <v>-17618.7</v>
       </c>
-      <c r="G6" s="59"/>
+      <c r="G6" s="79"/>
       <c r="H6" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="I6" s="75">
+      <c r="I6" s="67">
         <v>0.03</v>
       </c>
-      <c r="J6" s="49" t="s">
+      <c r="J6" s="73" t="s">
         <v>11</v>
       </c>
-      <c r="K6" s="17"/>
-      <c r="L6" s="17"/>
-      <c r="M6" s="17"/>
-      <c r="N6" s="17"/>
+      <c r="K6" s="74"/>
+      <c r="L6" s="74"/>
+      <c r="M6" s="74"/>
+      <c r="N6" s="74"/>
     </row>
     <row r="7" spans="2:14">
-      <c r="B7" s="33"/>
-      <c r="C7" s="34"/>
-      <c r="D7" s="35"/>
-      <c r="E7" s="58"/>
+      <c r="B7" s="76"/>
+      <c r="C7" s="78"/>
+      <c r="D7" s="30"/>
+      <c r="E7" s="51"/>
       <c r="F7" s="5"/>
-      <c r="G7" s="59"/>
+      <c r="G7" s="79"/>
       <c r="H7" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="I7" s="72">
+      <c r="I7" s="64">
         <v>228000</v>
       </c>
-      <c r="J7" s="49"/>
-      <c r="K7" s="17"/>
-      <c r="L7" s="17"/>
-      <c r="M7" s="17"/>
-      <c r="N7" s="17"/>
+      <c r="J7" s="73"/>
+      <c r="K7" s="74"/>
+      <c r="L7" s="74"/>
+      <c r="M7" s="74"/>
+      <c r="N7" s="74"/>
     </row>
     <row r="8" spans="2:14">
-      <c r="B8" s="61">
+      <c r="B8" s="53">
         <f>SUM($F$3:F8)</f>
         <v>-83733.7</v>
       </c>
-      <c r="C8" s="62">
+      <c r="C8" s="54">
         <f>B8-$F$3</f>
         <v>-11733.7</v>
       </c>
       <c r="D8" t="s">
         <v>13</v>
       </c>
-      <c r="E8" s="56">
+      <c r="E8" s="49">
         <v>46692</v>
       </c>
       <c r="F8" s="5">
         <f>($I$4*$I$2-$I$6*$I$7)/12</f>
         <v>275</v>
       </c>
-      <c r="G8" s="63" t="s">
+      <c r="G8" s="55" t="s">
         <v>14</v>
       </c>
-      <c r="H8" s="64" t="s">
+      <c r="H8" s="56" t="s">
         <v>15</v>
       </c>
-      <c r="I8" s="75">
-        <v>0.025</v>
-      </c>
-      <c r="J8" s="49" t="s">
+      <c r="I8" s="67">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="J8" s="73" t="s">
         <v>16</v>
       </c>
-      <c r="K8" s="17"/>
-      <c r="L8" s="17"/>
-      <c r="M8" s="17"/>
-      <c r="N8" s="17"/>
-    </row>
-    <row r="9" spans="2:6">
-      <c r="B9" s="61">
+      <c r="K8" s="74"/>
+      <c r="L8" s="74"/>
+      <c r="M8" s="74"/>
+      <c r="N8" s="74"/>
+    </row>
+    <row r="9" spans="2:14">
+      <c r="B9" s="53">
         <f>SUM($F$3:F9)</f>
         <v>-83458.7</v>
       </c>
-      <c r="C9" s="62">
+      <c r="C9" s="54">
         <f t="shared" ref="C9:C19" si="0">B9-$F$3</f>
         <v>-11458.7</v>
       </c>
-      <c r="E9" s="56">
+      <c r="E9" s="49">
         <v>46722</v>
       </c>
       <c r="F9" s="5">
@@ -1743,16 +1145,16 @@
         <v>275</v>
       </c>
     </row>
-    <row r="10" spans="2:6">
-      <c r="B10" s="61">
+    <row r="10" spans="2:14">
+      <c r="B10" s="53">
         <f>SUM($F$3:F10)</f>
         <v>-83183.7</v>
       </c>
-      <c r="C10" s="62">
+      <c r="C10" s="54">
         <f t="shared" si="0"/>
         <v>-11183.7</v>
       </c>
-      <c r="E10" s="56">
+      <c r="E10" s="49">
         <v>46753</v>
       </c>
       <c r="F10" s="5">
@@ -1760,16 +1162,16 @@
         <v>275</v>
       </c>
     </row>
-    <row r="11" spans="2:12">
-      <c r="B11" s="61">
+    <row r="11" spans="2:14">
+      <c r="B11" s="53">
         <f>SUM($F$3:F11)</f>
         <v>-82908.7</v>
       </c>
-      <c r="C11" s="62">
+      <c r="C11" s="54">
         <f t="shared" si="0"/>
         <v>-10908.7</v>
       </c>
-      <c r="E11" s="56">
+      <c r="E11" s="49">
         <v>46784</v>
       </c>
       <c r="F11" s="5">
@@ -1778,16 +1180,16 @@
       </c>
       <c r="L11"/>
     </row>
-    <row r="12" spans="2:12">
-      <c r="B12" s="61">
+    <row r="12" spans="2:14">
+      <c r="B12" s="53">
         <f>SUM($F$3:F12)</f>
         <v>-82633.7</v>
       </c>
-      <c r="C12" s="62">
+      <c r="C12" s="54">
         <f t="shared" si="0"/>
         <v>-10633.7</v>
       </c>
-      <c r="E12" s="56">
+      <c r="E12" s="49">
         <v>46813</v>
       </c>
       <c r="F12" s="5">
@@ -1796,58 +1198,58 @@
       </c>
       <c r="L12"/>
     </row>
-    <row r="13" spans="2:12">
-      <c r="B13" s="61">
+    <row r="13" spans="2:14">
+      <c r="B13" s="53">
         <f>SUM($F$3:F13)</f>
         <v>-82358.7</v>
       </c>
-      <c r="C13" s="62">
+      <c r="C13" s="54">
         <f t="shared" si="0"/>
-        <v>-10358.7</v>
-      </c>
-      <c r="E13" s="56">
+        <v>-10358.700000000001</v>
+      </c>
+      <c r="E13" s="49">
         <v>46844</v>
       </c>
       <c r="F13" s="5">
         <f t="shared" si="1"/>
         <v>275</v>
       </c>
-      <c r="H13" s="65"/>
-      <c r="I13" s="65"/>
-      <c r="J13" s="65"/>
-      <c r="K13" s="65" t="s">
+      <c r="H13" s="57"/>
+      <c r="I13" s="57"/>
+      <c r="J13" s="57"/>
+      <c r="K13" s="57" t="s">
         <v>17</v>
       </c>
       <c r="L13" s="16" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="14" spans="2:12">
-      <c r="B14" s="61">
+    <row r="14" spans="2:14">
+      <c r="B14" s="53">
         <f>SUM($F$3:F14)</f>
         <v>-82083.7</v>
       </c>
-      <c r="C14" s="62">
+      <c r="C14" s="54">
         <f t="shared" si="0"/>
-        <v>-10083.7</v>
-      </c>
-      <c r="E14" s="56">
+        <v>-10083.700000000001</v>
+      </c>
+      <c r="E14" s="49">
         <v>46874</v>
       </c>
       <c r="F14" s="5">
         <f t="shared" si="1"/>
         <v>275</v>
       </c>
-      <c r="H14" s="66" t="s">
+      <c r="H14" s="58" t="s">
         <v>19</v>
       </c>
       <c r="I14" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="J14" s="75">
-        <v>0.0253</v>
-      </c>
-      <c r="K14" s="72">
+      <c r="J14" s="67">
+        <v>2.53E-2</v>
+      </c>
+      <c r="K14" s="64">
         <f>$I$7*LEFT(I14,2)/12*J14</f>
         <v>4326.3</v>
       </c>
@@ -1855,78 +1257,78 @@
         <v>490</v>
       </c>
     </row>
-    <row r="15" spans="2:12">
-      <c r="B15" s="61">
+    <row r="15" spans="2:14">
+      <c r="B15" s="53">
         <f>SUM($F$3:F15)</f>
         <v>-81808.7</v>
       </c>
-      <c r="C15" s="62">
+      <c r="C15" s="54">
         <f t="shared" si="0"/>
-        <v>-9808.7</v>
-      </c>
-      <c r="E15" s="56">
+        <v>-9808.7000000000007</v>
+      </c>
+      <c r="E15" s="49">
         <v>46905</v>
       </c>
       <c r="F15" s="5">
         <f t="shared" si="1"/>
         <v>275</v>
       </c>
-      <c r="H15" s="66" t="s">
+      <c r="H15" s="58" t="s">
         <v>21</v>
       </c>
       <c r="I15" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="J15" s="75">
-        <v>0.0233</v>
-      </c>
-      <c r="K15" s="72">
+      <c r="J15" s="67">
+        <v>2.3300000000000001E-2</v>
+      </c>
+      <c r="K15" s="64">
         <f>$I$7*LEFT(I15,2)/12*J15</f>
         <v>5312.4</v>
       </c>
       <c r="L15"/>
     </row>
-    <row r="16" ht="15.15" spans="2:11">
-      <c r="B16" s="61">
+    <row r="16" spans="2:14">
+      <c r="B16" s="53">
         <f>SUM($F$3:F16)</f>
         <v>-81533.7</v>
       </c>
-      <c r="C16" s="62">
+      <c r="C16" s="54">
         <f t="shared" si="0"/>
-        <v>-9533.7</v>
-      </c>
-      <c r="E16" s="56">
+        <v>-9533.7000000000007</v>
+      </c>
+      <c r="E16" s="49">
         <v>46935</v>
       </c>
       <c r="F16" s="5">
         <f t="shared" si="1"/>
         <v>275</v>
       </c>
-      <c r="H16" s="66" t="s">
+      <c r="H16" s="58" t="s">
         <v>23</v>
       </c>
       <c r="I16" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="J16" s="75">
+      <c r="J16" s="67">
         <f>I6</f>
         <v>0.03</v>
       </c>
-      <c r="K16" s="76">
+      <c r="K16" s="68">
         <f>$I$7*LEFT(I16,2)/12*J16</f>
         <v>7980</v>
       </c>
     </row>
-    <row r="17" ht="15.15" spans="2:12">
-      <c r="B17" s="61">
+    <row r="17" spans="2:12">
+      <c r="B17" s="53">
         <f>SUM($F$3:F17)</f>
         <v>-81258.7</v>
       </c>
-      <c r="C17" s="62">
+      <c r="C17" s="54">
         <f t="shared" si="0"/>
-        <v>-9258.7</v>
-      </c>
-      <c r="E17" s="56">
+        <v>-9258.7000000000007</v>
+      </c>
+      <c r="E17" s="49">
         <v>46966</v>
       </c>
       <c r="F17" s="5">
@@ -1935,23 +1337,23 @@
       </c>
       <c r="H17" s="7"/>
       <c r="I17" s="7"/>
-      <c r="J17" s="77"/>
-      <c r="K17" s="78">
+      <c r="J17" s="69"/>
+      <c r="K17" s="70">
         <f>SUM(K14:K16)</f>
         <v>17618.7</v>
       </c>
       <c r="L17"/>
     </row>
-    <row r="18" spans="2:6">
-      <c r="B18" s="61">
+    <row r="18" spans="2:12">
+      <c r="B18" s="53">
         <f>SUM($F$3:F18)</f>
         <v>-80983.7</v>
       </c>
-      <c r="C18" s="62">
+      <c r="C18" s="54">
         <f t="shared" si="0"/>
-        <v>-8983.7</v>
-      </c>
-      <c r="E18" s="56">
+        <v>-8983.7000000000007</v>
+      </c>
+      <c r="E18" s="49">
         <v>46997</v>
       </c>
       <c r="F18" s="5">
@@ -1959,16 +1361,16 @@
         <v>275</v>
       </c>
     </row>
-    <row r="19" spans="2:6">
-      <c r="B19" s="67">
+    <row r="19" spans="2:12">
+      <c r="B19" s="59">
         <f>SUM($F$3:F19)</f>
         <v>-80708.7</v>
       </c>
-      <c r="C19" s="68">
+      <c r="C19" s="60">
         <f t="shared" si="0"/>
-        <v>-8708.7</v>
-      </c>
-      <c r="E19" s="56">
+        <v>-8708.7000000000007</v>
+      </c>
+      <c r="E19" s="49">
         <v>47027</v>
       </c>
       <c r="F19" s="5">
@@ -1976,19 +1378,19 @@
         <v>275</v>
       </c>
     </row>
-    <row r="20" spans="2:6">
-      <c r="B20" s="69"/>
-      <c r="C20" s="69"/>
-      <c r="E20" s="56"/>
+    <row r="20" spans="2:12">
+      <c r="B20" s="61"/>
+      <c r="C20" s="61"/>
+      <c r="E20" s="49"/>
       <c r="F20" s="5"/>
     </row>
-    <row r="21" spans="2:7">
+    <row r="21" spans="2:12">
       <c r="B21" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="E21" s="56"/>
+      <c r="E21" s="49"/>
       <c r="F21" s="5"/>
-      <c r="G21" s="70"/>
+      <c r="G21" s="62"/>
     </row>
     <row r="22" spans="2:12">
       <c r="B22" s="3">
@@ -1997,7 +1399,7 @@
       </c>
       <c r="C22" s="11"/>
       <c r="D22" s="11"/>
-      <c r="E22" s="56">
+      <c r="E22" s="49">
         <v>47058</v>
       </c>
       <c r="F22" s="5">
@@ -2009,14 +1411,14 @@
       </c>
       <c r="L22"/>
     </row>
-    <row r="23" spans="2:6">
+    <row r="23" spans="2:12">
       <c r="B23" s="3">
         <f>SUM($F$3:F23)</f>
         <v>-71828.7</v>
       </c>
       <c r="C23" s="11"/>
       <c r="D23" s="11"/>
-      <c r="E23" s="56">
+      <c r="E23" s="49">
         <v>47423</v>
       </c>
       <c r="F23" s="5">
@@ -2024,14 +1426,14 @@
         <v>4440</v>
       </c>
     </row>
-    <row r="24" spans="2:6">
+    <row r="24" spans="2:12">
       <c r="B24" s="3">
         <f>SUM($F$3:F24)</f>
         <v>-67388.7</v>
       </c>
       <c r="C24" s="11"/>
       <c r="D24" s="11"/>
-      <c r="E24" s="56">
+      <c r="E24" s="49">
         <v>47788</v>
       </c>
       <c r="F24" s="5">
@@ -2039,16 +1441,16 @@
         <v>4440</v>
       </c>
     </row>
-    <row r="25" spans="2:6">
+    <row r="25" spans="2:12">
       <c r="B25" s="3">
         <f>SUM($F$3:F25)</f>
         <v>-62948.7</v>
       </c>
-      <c r="C25" s="65" t="s">
+      <c r="C25" s="57" t="s">
         <v>27</v>
       </c>
-      <c r="D25" s="65"/>
-      <c r="E25" s="56">
+      <c r="D25" s="57"/>
+      <c r="E25" s="49">
         <v>48153</v>
       </c>
       <c r="F25" s="5">
@@ -2056,17 +1458,17 @@
         <v>4440</v>
       </c>
     </row>
-    <row r="26" spans="2:6">
+    <row r="26" spans="2:12">
       <c r="B26" s="3">
         <f>SUM($F$3:F26)</f>
         <v>-58508.7</v>
       </c>
-      <c r="C26" s="71">
+      <c r="C26" s="63">
         <f>-F26/F3</f>
-        <v>0.0616666666666666</v>
-      </c>
-      <c r="D26" s="71"/>
-      <c r="E26" s="56">
+        <v>6.1666666666666599E-2</v>
+      </c>
+      <c r="D26" s="63"/>
+      <c r="E26" s="49">
         <v>48519</v>
       </c>
       <c r="F26" s="5">
@@ -2074,14 +1476,14 @@
         <v>4440</v>
       </c>
     </row>
-    <row r="27" spans="2:6">
+    <row r="27" spans="2:12">
       <c r="B27" s="3">
         <f>SUM($F$3:F27)</f>
         <v>-54068.7</v>
       </c>
       <c r="C27" s="11"/>
       <c r="D27" s="11"/>
-      <c r="E27" s="56">
+      <c r="E27" s="49">
         <v>48884</v>
       </c>
       <c r="F27" s="5">
@@ -2089,14 +1491,14 @@
         <v>4440</v>
       </c>
     </row>
-    <row r="28" spans="2:6">
+    <row r="28" spans="2:12">
       <c r="B28" s="3">
         <f>SUM($F$3:F28)</f>
         <v>-49628.7</v>
       </c>
       <c r="C28" s="11"/>
       <c r="D28" s="11"/>
-      <c r="E28" s="56">
+      <c r="E28" s="49">
         <v>49249</v>
       </c>
       <c r="F28" s="5">
@@ -2104,14 +1506,14 @@
         <v>4440</v>
       </c>
     </row>
-    <row r="29" spans="2:6">
+    <row r="29" spans="2:12">
       <c r="B29" s="3">
         <f>SUM($F$3:F29)</f>
         <v>-45188.7</v>
       </c>
       <c r="C29" s="11"/>
       <c r="D29" s="11"/>
-      <c r="E29" s="56">
+      <c r="E29" s="49">
         <v>49614</v>
       </c>
       <c r="F29" s="5">
@@ -2119,14 +1521,14 @@
         <v>4440</v>
       </c>
     </row>
-    <row r="30" spans="2:6">
+    <row r="30" spans="2:12">
       <c r="B30" s="3">
         <f>SUM($F$3:F30)</f>
-        <v>-40748.7</v>
+        <v>-40748.699999999997</v>
       </c>
       <c r="C30" s="11"/>
       <c r="D30" s="11"/>
-      <c r="E30" s="56">
+      <c r="E30" s="49">
         <v>49980</v>
       </c>
       <c r="F30" s="5">
@@ -2134,14 +1536,14 @@
         <v>4440</v>
       </c>
     </row>
-    <row r="31" spans="2:6">
+    <row r="31" spans="2:12">
       <c r="B31" s="3">
         <f>SUM($F$3:F31)</f>
-        <v>-36308.7</v>
+        <v>-36308.699999999997</v>
       </c>
       <c r="C31" s="11"/>
       <c r="D31" s="11"/>
-      <c r="E31" s="56">
+      <c r="E31" s="49">
         <v>50345</v>
       </c>
       <c r="F31" s="5">
@@ -2149,14 +1551,14 @@
         <v>4440</v>
       </c>
     </row>
-    <row r="32" spans="2:6">
+    <row r="32" spans="2:12">
       <c r="B32" s="3">
         <f>SUM($F$3:F32)</f>
         <v>-31868.7</v>
       </c>
       <c r="C32" s="11"/>
       <c r="D32" s="11"/>
-      <c r="E32" s="56">
+      <c r="E32" s="49">
         <v>50710</v>
       </c>
       <c r="F32" s="5">
@@ -2164,14 +1566,14 @@
         <v>4440</v>
       </c>
     </row>
-    <row r="33" spans="2:6">
+    <row r="33" spans="2:14">
       <c r="B33" s="3">
         <f>SUM($F$3:F33)</f>
         <v>-27428.7</v>
       </c>
       <c r="C33" s="11"/>
       <c r="D33" s="11"/>
-      <c r="E33" s="56">
+      <c r="E33" s="49">
         <v>51075</v>
       </c>
       <c r="F33" s="5">
@@ -2179,14 +1581,14 @@
         <v>4440</v>
       </c>
     </row>
-    <row r="34" spans="2:6">
+    <row r="34" spans="2:14">
       <c r="B34" s="3">
         <f>SUM($F$3:F34)</f>
         <v>-22988.7</v>
       </c>
       <c r="C34" s="11"/>
       <c r="D34" s="11"/>
-      <c r="E34" s="56">
+      <c r="E34" s="49">
         <v>51441</v>
       </c>
       <c r="F34" s="5">
@@ -2194,14 +1596,14 @@
         <v>4440</v>
       </c>
     </row>
-    <row r="35" spans="2:6">
+    <row r="35" spans="2:14">
       <c r="B35" s="3">
         <f>SUM($F$3:F35)</f>
         <v>-18548.7</v>
       </c>
       <c r="C35" s="11"/>
       <c r="D35" s="11"/>
-      <c r="E35" s="56">
+      <c r="E35" s="49">
         <v>51806</v>
       </c>
       <c r="F35" s="5">
@@ -2209,14 +1611,14 @@
         <v>4440</v>
       </c>
     </row>
-    <row r="36" spans="2:6">
+    <row r="36" spans="2:14">
       <c r="B36" s="3">
         <f>SUM($F$3:F36)</f>
         <v>-14108.7</v>
       </c>
       <c r="C36" s="11"/>
       <c r="D36" s="11"/>
-      <c r="E36" s="56">
+      <c r="E36" s="49">
         <v>52171</v>
       </c>
       <c r="F36" s="5">
@@ -2224,16 +1626,16 @@
         <v>4440</v>
       </c>
     </row>
-    <row r="37" spans="2:6">
+    <row r="37" spans="2:14">
       <c r="B37" s="3">
         <f>SUM($F$3:F37)</f>
-        <v>-9668.7</v>
+        <v>-9668.7000000000007</v>
       </c>
       <c r="C37" s="11" t="s">
         <v>28</v>
       </c>
       <c r="D37" s="11"/>
-      <c r="E37" s="56">
+      <c r="E37" s="49">
         <v>52536</v>
       </c>
       <c r="F37" s="5">
@@ -2241,17 +1643,17 @@
         <v>4440</v>
       </c>
     </row>
-    <row r="38" spans="2:7">
+    <row r="38" spans="2:14">
       <c r="B38" s="3">
         <f>SUM($F$3:F38)</f>
         <v>86331.3</v>
       </c>
       <c r="C38" s="11">
         <f>XIRR(F3:F38,E3:E38)</f>
-        <v>0.0479643674451526</v>
+        <v>4.7964367445152603E-2</v>
       </c>
       <c r="D38" s="11"/>
-      <c r="E38" s="56">
+      <c r="E38" s="49">
         <v>52902</v>
       </c>
       <c r="F38" s="5">
@@ -2262,23 +1664,23 @@
         <v>29</v>
       </c>
     </row>
-    <row r="39" spans="2:9">
+    <row r="39" spans="2:14">
       <c r="B39" s="3"/>
       <c r="C39" s="11"/>
       <c r="D39" s="11"/>
-      <c r="G39" s="70" t="s">
+      <c r="G39" s="62" t="s">
         <v>30</v>
       </c>
-      <c r="H39" s="70"/>
-      <c r="I39" s="70"/>
-    </row>
-    <row r="41" spans="2:5">
+      <c r="H39" s="62"/>
+      <c r="I39" s="62"/>
+    </row>
+    <row r="41" spans="2:14">
       <c r="B41" t="s">
         <v>31</v>
       </c>
       <c r="E41"/>
     </row>
-    <row r="42" spans="2:12">
+    <row r="42" spans="2:14">
       <c r="B42" s="3" t="s">
         <v>32</v>
       </c>
@@ -2302,14 +1704,14 @@
       <c r="M43" s="3"/>
       <c r="N43" s="3"/>
     </row>
-    <row r="44" spans="2:12">
+    <row r="44" spans="2:14">
       <c r="B44" t="s">
         <v>34</v>
       </c>
       <c r="E44"/>
       <c r="L44"/>
     </row>
-    <row r="45" spans="12:12">
+    <row r="45" spans="2:14">
       <c r="L45"/>
     </row>
   </sheetData>
@@ -2323,39 +1725,37 @@
     <mergeCell ref="G5:G7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="1" orientation="portrait"/>
-  <headerFooter/>
+  <pageSetup orientation="portrait"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B2:N35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="J24" sqref="J24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14159292035398" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="1" style="17" customWidth="1"/>
-    <col min="2" max="2" width="13.4247787610619" style="17" customWidth="1"/>
-    <col min="3" max="3" width="6.28318584070797" style="17" customWidth="1"/>
+    <col min="2" max="2" width="13.42578125" style="17" customWidth="1"/>
+    <col min="3" max="3" width="6.28515625" style="17" customWidth="1"/>
     <col min="4" max="4" width="2" style="17" customWidth="1"/>
-    <col min="5" max="5" width="7.42477876106195" style="18" customWidth="1"/>
-    <col min="6" max="6" width="10.858407079646" style="17" customWidth="1"/>
-    <col min="7" max="7" width="15.4247787610619" style="17" customWidth="1"/>
-    <col min="8" max="8" width="17.858407079646" style="17" customWidth="1"/>
-    <col min="9" max="9" width="9.14159292035398" style="17"/>
-    <col min="10" max="10" width="6.14159292035398" style="17" customWidth="1"/>
-    <col min="11" max="11" width="7.56637168141593" style="17" customWidth="1"/>
-    <col min="12" max="12" width="11.5663716814159" style="19" customWidth="1"/>
-    <col min="13" max="13" width="7.14159292035398" style="17" customWidth="1"/>
-    <col min="14" max="16384" width="9.14159292035398" style="17"/>
+    <col min="5" max="5" width="7.42578125" style="18" customWidth="1"/>
+    <col min="6" max="6" width="10.85546875" style="17" customWidth="1"/>
+    <col min="7" max="7" width="15.42578125" style="17" customWidth="1"/>
+    <col min="8" max="8" width="17.85546875" style="17" customWidth="1"/>
+    <col min="9" max="9" width="9.140625" style="17"/>
+    <col min="10" max="10" width="6.140625" style="17" customWidth="1"/>
+    <col min="11" max="11" width="7.5703125" style="17" customWidth="1"/>
+    <col min="12" max="12" width="11.5703125" style="19" customWidth="1"/>
+    <col min="13" max="13" width="7.140625" style="17" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="17"/>
   </cols>
   <sheetData>
-    <row r="2" spans="5:9">
+    <row r="2" spans="2:14">
       <c r="E2" s="20"/>
       <c r="F2" s="21" t="s">
         <v>0</v>
@@ -2363,11 +1763,11 @@
       <c r="H2" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="I2" s="45">
+      <c r="I2" s="40">
         <v>250774</v>
       </c>
     </row>
-    <row r="3" spans="2:9">
+    <row r="3" spans="2:14">
       <c r="B3" s="22"/>
       <c r="C3" s="23"/>
       <c r="D3" s="23"/>
@@ -2384,7 +1784,7 @@
       <c r="H3" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="I3" s="46">
+      <c r="I3" s="41">
         <v>0.01</v>
       </c>
     </row>
@@ -2397,7 +1797,7 @@
       </c>
       <c r="F4" s="27">
         <f>I3*I2/2</f>
-        <v>1253.87</v>
+        <v>1253.8699999999999</v>
       </c>
       <c r="G4" s="17" t="s">
         <v>35</v>
@@ -2405,18 +1805,18 @@
       <c r="H4" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="I4" s="47">
-        <v>0.032554</v>
-      </c>
-      <c r="J4" s="48" t="s">
+      <c r="I4" s="42">
+        <v>3.2554E-2</v>
+      </c>
+      <c r="J4" s="71" t="s">
         <v>36</v>
       </c>
-      <c r="K4"/>
-      <c r="L4"/>
-      <c r="M4"/>
-      <c r="N4"/>
-    </row>
-    <row r="5" spans="2:12">
+      <c r="K4" s="80"/>
+      <c r="L4" s="80"/>
+      <c r="M4" s="80"/>
+      <c r="N4" s="80"/>
+    </row>
+    <row r="5" spans="2:14">
       <c r="B5" s="22"/>
       <c r="C5" s="23"/>
       <c r="D5" s="23"/>
@@ -2431,34 +1831,40 @@
       </c>
       <c r="H5" s="28"/>
       <c r="I5" s="28"/>
-      <c r="J5" s="49"/>
-      <c r="L5" s="17"/>
-    </row>
-    <row r="6" spans="2:12">
+      <c r="J5" s="73"/>
+      <c r="K5" s="74"/>
+      <c r="L5" s="74"/>
+      <c r="M5" s="74"/>
+      <c r="N5" s="74"/>
+    </row>
+    <row r="6" spans="2:14">
       <c r="B6" s="22"/>
       <c r="C6" s="23"/>
       <c r="D6" s="23"/>
       <c r="E6" s="29"/>
       <c r="F6" s="25"/>
-      <c r="G6" s="30" t="s">
+      <c r="G6" s="81" t="s">
         <v>37</v>
       </c>
       <c r="H6" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="I6" s="50">
+      <c r="I6" s="43">
         <v>0.03</v>
       </c>
-      <c r="J6" s="49" t="s">
+      <c r="J6" s="73" t="s">
         <v>11</v>
       </c>
-      <c r="L6" s="17"/>
-    </row>
-    <row r="7" spans="2:12">
-      <c r="B7" s="31" t="s">
+      <c r="K6" s="74"/>
+      <c r="L6" s="74"/>
+      <c r="M6" s="74"/>
+      <c r="N6" s="74"/>
+    </row>
+    <row r="7" spans="2:14">
+      <c r="B7" s="75" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="32" t="s">
+      <c r="C7" s="77" t="s">
         <v>9</v>
       </c>
       <c r="D7" s="23"/>
@@ -2467,44 +1873,50 @@
       </c>
       <c r="F7" s="25">
         <f>-K16</f>
-        <v>-12381.6666666667</v>
-      </c>
-      <c r="G7" s="30"/>
+        <v>-12381.666666666701</v>
+      </c>
+      <c r="G7" s="81"/>
       <c r="H7" s="21" t="s">
         <v>39</v>
       </c>
-      <c r="I7" s="45">
+      <c r="I7" s="40">
         <v>190000</v>
       </c>
-      <c r="J7" s="49"/>
-      <c r="L7" s="17"/>
-    </row>
-    <row r="8" spans="2:12">
-      <c r="B8" s="33"/>
-      <c r="C8" s="34"/>
-      <c r="D8" s="35"/>
+      <c r="J7" s="73"/>
+      <c r="K7" s="74"/>
+      <c r="L7" s="74"/>
+      <c r="M7" s="74"/>
+      <c r="N7" s="74"/>
+    </row>
+    <row r="8" spans="2:14">
+      <c r="B8" s="76"/>
+      <c r="C8" s="78"/>
+      <c r="D8" s="30"/>
       <c r="E8" s="29"/>
       <c r="F8" s="25"/>
-      <c r="G8" s="30"/>
+      <c r="G8" s="81"/>
       <c r="H8" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="I8" s="50">
-        <v>0.025</v>
-      </c>
-      <c r="J8" s="49" t="s">
+      <c r="I8" s="43">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="J8" s="73" t="s">
         <v>16</v>
       </c>
-      <c r="L8" s="17"/>
-    </row>
-    <row r="9" spans="2:7">
-      <c r="B9" s="36">
+      <c r="K8" s="74"/>
+      <c r="L8" s="74"/>
+      <c r="M8" s="74"/>
+      <c r="N8" s="74"/>
+    </row>
+    <row r="9" spans="2:14">
+      <c r="B9" s="31">
         <f>SUM($F$3:F9)</f>
-        <v>-62478.0998706667</v>
-      </c>
-      <c r="C9" s="37">
+        <v>-62478.099870666701</v>
+      </c>
+      <c r="C9" s="32">
         <f>B9-F3</f>
-        <v>-1704.09987066666</v>
+        <v>-1704.0998706666601</v>
       </c>
       <c r="D9" s="22" t="s">
         <v>13</v>
@@ -2514,32 +1926,32 @@
       </c>
       <c r="F9" s="25">
         <f>I4*$I$2</f>
-        <v>8163.696796</v>
+        <v>8163.6967960000002</v>
       </c>
       <c r="G9" s="17" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="10" spans="2:12">
-      <c r="B10" s="38"/>
-      <c r="C10" s="39"/>
+    <row r="10" spans="2:14">
+      <c r="B10" s="33"/>
+      <c r="C10" s="34"/>
       <c r="E10" s="24"/>
       <c r="F10" s="25"/>
-      <c r="G10" s="40"/>
+      <c r="G10" s="35"/>
       <c r="L10" s="17"/>
     </row>
-    <row r="11" spans="2:7">
-      <c r="B11" s="41" t="s">
+    <row r="11" spans="2:14">
+      <c r="B11" s="36" t="s">
         <v>25</v>
       </c>
       <c r="E11" s="24"/>
       <c r="F11" s="25"/>
-      <c r="G11" s="40"/>
-    </row>
-    <row r="12" spans="2:12">
+      <c r="G11" s="35"/>
+    </row>
+    <row r="12" spans="2:14">
       <c r="B12" s="22">
         <f>SUM($F$3:F12)</f>
-        <v>-59064.4030746667</v>
+        <v>-59064.403074666698</v>
       </c>
       <c r="C12" s="23"/>
       <c r="D12" s="23"/>
@@ -2548,22 +1960,22 @@
       </c>
       <c r="F12" s="25">
         <f>$I$4*$I$2-$I$8*$I$7</f>
-        <v>3413.696796</v>
-      </c>
-      <c r="H12" s="42"/>
-      <c r="I12" s="42"/>
-      <c r="J12" s="42"/>
-      <c r="K12" s="42" t="s">
+        <v>3413.6967960000002</v>
+      </c>
+      <c r="H12" s="37"/>
+      <c r="I12" s="37"/>
+      <c r="J12" s="37"/>
+      <c r="K12" s="37" t="s">
         <v>17</v>
       </c>
       <c r="L12" s="19" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="13" spans="2:12">
+    <row r="13" spans="2:14">
       <c r="B13" s="22">
         <f>SUM($F$3:F13)</f>
-        <v>-55650.7062786667</v>
+        <v>-55650.706278666701</v>
       </c>
       <c r="C13" s="23"/>
       <c r="D13" s="23"/>
@@ -2572,30 +1984,30 @@
       </c>
       <c r="F13" s="25">
         <f t="shared" ref="F13:F28" si="0">$I$4*$I$2-$I$8*$I$7</f>
-        <v>3413.696796</v>
-      </c>
-      <c r="H13" s="43" t="s">
+        <v>3413.6967960000002</v>
+      </c>
+      <c r="H13" s="38" t="s">
         <v>19</v>
       </c>
       <c r="I13" s="21" t="s">
         <v>41</v>
       </c>
-      <c r="J13" s="50">
-        <v>0.0253</v>
-      </c>
-      <c r="K13" s="45">
+      <c r="J13" s="43">
+        <v>2.53E-2</v>
+      </c>
+      <c r="K13" s="40">
         <f>$I$7*LEFT(I13,2)/12*J13</f>
-        <v>3204.66666666667</v>
-      </c>
-      <c r="L13" s="51">
+        <v>3204.6666666666702</v>
+      </c>
+      <c r="L13" s="44">
         <f>J13*I7/12</f>
-        <v>400.583333333333</v>
-      </c>
-    </row>
-    <row r="14" spans="2:12">
+        <v>400.58333333333297</v>
+      </c>
+    </row>
+    <row r="14" spans="2:14">
       <c r="B14" s="22">
         <f>SUM($F$3:F14)</f>
-        <v>-52237.0094826666</v>
+        <v>-52237.009482666603</v>
       </c>
       <c r="C14" s="23"/>
       <c r="D14" s="23"/>
@@ -2604,84 +2016,84 @@
       </c>
       <c r="F14" s="25">
         <f t="shared" si="0"/>
-        <v>3413.696796</v>
-      </c>
-      <c r="H14" s="43" t="s">
+        <v>3413.6967960000002</v>
+      </c>
+      <c r="H14" s="38" t="s">
         <v>21</v>
       </c>
       <c r="I14" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="J14" s="50">
-        <v>0.0233</v>
-      </c>
-      <c r="K14" s="45">
+      <c r="J14" s="43">
+        <v>2.3300000000000001E-2</v>
+      </c>
+      <c r="K14" s="40">
         <f>$I$7*LEFT(I14,2)/12*J14</f>
         <v>4427</v>
       </c>
       <c r="L14" s="17"/>
     </row>
-    <row r="15" ht="15.15" spans="2:11">
+    <row r="15" spans="2:14">
       <c r="B15" s="22">
         <f>SUM($F$3:F15)</f>
-        <v>-48823.3126866666</v>
-      </c>
-      <c r="C15" s="42" t="s">
+        <v>-48823.312686666599</v>
+      </c>
+      <c r="C15" s="37" t="s">
         <v>27</v>
       </c>
-      <c r="D15" s="42"/>
+      <c r="D15" s="37"/>
       <c r="E15" s="24">
         <v>48030</v>
       </c>
       <c r="F15" s="25">
         <f t="shared" si="0"/>
-        <v>3413.696796</v>
-      </c>
-      <c r="H15" s="43" t="s">
+        <v>3413.6967960000002</v>
+      </c>
+      <c r="H15" s="38" t="s">
         <v>23</v>
       </c>
       <c r="I15" s="21" t="s">
         <v>42</v>
       </c>
-      <c r="J15" s="50">
+      <c r="J15" s="43">
         <f>I6</f>
         <v>0.03</v>
       </c>
-      <c r="K15" s="52">
+      <c r="K15" s="45">
         <f>$I$7*LEFT(I15,2)/12*J15</f>
         <v>4750</v>
       </c>
     </row>
-    <row r="16" ht="15.15" spans="2:12">
+    <row r="16" spans="2:14">
       <c r="B16" s="22">
         <f>SUM($F$3:F16)</f>
-        <v>-45409.6158906666</v>
-      </c>
-      <c r="C16" s="44">
+        <v>-45409.615890666602</v>
+      </c>
+      <c r="C16" s="39">
         <f>-F16/F3</f>
-        <v>0.0561703490966532</v>
-      </c>
-      <c r="D16" s="44"/>
+        <v>5.6170349096653201E-2</v>
+      </c>
+      <c r="D16" s="39"/>
       <c r="E16" s="24">
         <v>48396</v>
       </c>
       <c r="F16" s="25">
         <f t="shared" si="0"/>
-        <v>3413.696796</v>
+        <v>3413.6967960000002</v>
       </c>
       <c r="H16" s="21"/>
       <c r="I16" s="21"/>
-      <c r="J16" s="53"/>
-      <c r="K16" s="54">
+      <c r="J16" s="46"/>
+      <c r="K16" s="47">
         <f>SUM(K13:K15)</f>
-        <v>12381.6666666667</v>
+        <v>12381.666666666701</v>
       </c>
       <c r="L16" s="17"/>
     </row>
-    <row r="17" spans="2:6">
+    <row r="17" spans="2:14">
       <c r="B17" s="22">
         <f>SUM($F$3:F17)</f>
-        <v>-41995.9190946666</v>
+        <v>-41995.919094666599</v>
       </c>
       <c r="C17" s="23"/>
       <c r="D17" s="23"/>
@@ -2690,13 +2102,13 @@
       </c>
       <c r="F17" s="25">
         <f t="shared" si="0"/>
-        <v>3413.696796</v>
-      </c>
-    </row>
-    <row r="18" spans="2:6">
+        <v>3413.6967960000002</v>
+      </c>
+    </row>
+    <row r="18" spans="2:14">
       <c r="B18" s="22">
         <f>SUM($F$3:F18)</f>
-        <v>-38582.2222986666</v>
+        <v>-38582.222298666602</v>
       </c>
       <c r="C18" s="23"/>
       <c r="D18" s="23"/>
@@ -2705,13 +2117,13 @@
       </c>
       <c r="F18" s="25">
         <f t="shared" si="0"/>
-        <v>3413.696796</v>
-      </c>
-    </row>
-    <row r="19" spans="2:6">
+        <v>3413.6967960000002</v>
+      </c>
+    </row>
+    <row r="19" spans="2:14">
       <c r="B19" s="22">
         <f>SUM($F$3:F19)</f>
-        <v>-35168.5255026666</v>
+        <v>-35168.525502666598</v>
       </c>
       <c r="C19" s="23"/>
       <c r="D19" s="23"/>
@@ -2720,13 +2132,13 @@
       </c>
       <c r="F19" s="25">
         <f t="shared" si="0"/>
-        <v>3413.696796</v>
-      </c>
-    </row>
-    <row r="20" spans="2:6">
+        <v>3413.6967960000002</v>
+      </c>
+    </row>
+    <row r="20" spans="2:14">
       <c r="B20" s="22">
         <f>SUM($F$3:F20)</f>
-        <v>-31754.8287066666</v>
+        <v>-31754.828706666602</v>
       </c>
       <c r="C20" s="23"/>
       <c r="D20" s="23"/>
@@ -2735,13 +2147,13 @@
       </c>
       <c r="F20" s="25">
         <f t="shared" si="0"/>
-        <v>3413.696796</v>
-      </c>
-    </row>
-    <row r="21" spans="2:6">
+        <v>3413.6967960000002</v>
+      </c>
+    </row>
+    <row r="21" spans="2:14">
       <c r="B21" s="22">
         <f>SUM($F$3:F21)</f>
-        <v>-28341.1319106666</v>
+        <v>-28341.131910666601</v>
       </c>
       <c r="C21" s="23"/>
       <c r="D21" s="23"/>
@@ -2750,13 +2162,13 @@
       </c>
       <c r="F21" s="25">
         <f t="shared" si="0"/>
-        <v>3413.696796</v>
-      </c>
-    </row>
-    <row r="22" spans="2:6">
+        <v>3413.6967960000002</v>
+      </c>
+    </row>
+    <row r="22" spans="2:14">
       <c r="B22" s="22">
         <f>SUM($F$3:F22)</f>
-        <v>-24927.4351146666</v>
+        <v>-24927.435114666601</v>
       </c>
       <c r="C22" s="23"/>
       <c r="D22" s="23"/>
@@ -2765,13 +2177,13 @@
       </c>
       <c r="F22" s="25">
         <f t="shared" si="0"/>
-        <v>3413.696796</v>
-      </c>
-    </row>
-    <row r="23" spans="2:6">
+        <v>3413.6967960000002</v>
+      </c>
+    </row>
+    <row r="23" spans="2:14">
       <c r="B23" s="22">
         <f>SUM($F$3:F23)</f>
-        <v>-21513.7383186666</v>
+        <v>-21513.738318666601</v>
       </c>
       <c r="C23" s="23"/>
       <c r="D23" s="23"/>
@@ -2780,13 +2192,13 @@
       </c>
       <c r="F23" s="25">
         <f t="shared" si="0"/>
-        <v>3413.696796</v>
-      </c>
-    </row>
-    <row r="24" spans="2:6">
+        <v>3413.6967960000002</v>
+      </c>
+    </row>
+    <row r="24" spans="2:14">
       <c r="B24" s="22">
         <f>SUM($F$3:F24)</f>
-        <v>-18100.0415226666</v>
+        <v>-18100.041522666601</v>
       </c>
       <c r="C24" s="23"/>
       <c r="D24" s="23"/>
@@ -2795,13 +2207,13 @@
       </c>
       <c r="F24" s="25">
         <f t="shared" si="0"/>
-        <v>3413.696796</v>
-      </c>
-    </row>
-    <row r="25" spans="2:6">
+        <v>3413.6967960000002</v>
+      </c>
+    </row>
+    <row r="25" spans="2:14">
       <c r="B25" s="22">
         <f>SUM($F$3:F25)</f>
-        <v>-14686.3447266666</v>
+        <v>-14686.344726666601</v>
       </c>
       <c r="C25" s="23"/>
       <c r="D25" s="23"/>
@@ -2810,13 +2222,13 @@
       </c>
       <c r="F25" s="25">
         <f t="shared" si="0"/>
-        <v>3413.696796</v>
-      </c>
-    </row>
-    <row r="26" spans="2:6">
+        <v>3413.6967960000002</v>
+      </c>
+    </row>
+    <row r="26" spans="2:14">
       <c r="B26" s="22">
         <f>SUM($F$3:F26)</f>
-        <v>-11272.6479306666</v>
+        <v>-11272.647930666601</v>
       </c>
       <c r="C26" s="23"/>
       <c r="D26" s="23"/>
@@ -2825,13 +2237,13 @@
       </c>
       <c r="F26" s="25">
         <f t="shared" si="0"/>
-        <v>3413.696796</v>
-      </c>
-    </row>
-    <row r="27" spans="2:6">
+        <v>3413.6967960000002</v>
+      </c>
+    </row>
+    <row r="27" spans="2:14">
       <c r="B27" s="22">
         <f>SUM($F$3:F27)</f>
-        <v>-7858.95113466663</v>
+        <v>-7858.9511346666304</v>
       </c>
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
@@ -2840,13 +2252,13 @@
       </c>
       <c r="F27" s="25">
         <f t="shared" si="0"/>
-        <v>3413.696796</v>
-      </c>
-    </row>
-    <row r="28" spans="2:9">
+        <v>3413.6967960000002</v>
+      </c>
+    </row>
+    <row r="28" spans="2:14">
       <c r="B28" s="22">
         <f>SUM($F$3:F28)</f>
-        <v>-4445.25433866663</v>
+        <v>-4445.2543386666302</v>
       </c>
       <c r="C28" s="23" t="s">
         <v>28</v>
@@ -2857,19 +2269,19 @@
       </c>
       <c r="F28" s="25">
         <f t="shared" si="0"/>
-        <v>3413.696796</v>
-      </c>
-      <c r="H28" s="40"/>
-      <c r="I28" s="40"/>
-    </row>
-    <row r="29" spans="2:7">
+        <v>3413.6967960000002</v>
+      </c>
+      <c r="H28" s="35"/>
+      <c r="I28" s="35"/>
+    </row>
+    <row r="29" spans="2:14">
       <c r="B29" s="22">
         <f>SUM($F$3:F29)</f>
-        <v>69328.7456613334</v>
+        <v>69328.745661333407</v>
       </c>
       <c r="C29" s="23">
         <f>XIRR(F3:F29,E3:E29)</f>
-        <v>0.0497632507036538</v>
+        <v>4.9763250703653797E-2</v>
       </c>
       <c r="D29" s="23" t="s">
         <v>13</v>
@@ -2885,18 +2297,16 @@
         <v>43</v>
       </c>
     </row>
-    <row r="30" spans="2:4">
+    <row r="30" spans="2:14">
       <c r="B30" s="22"/>
       <c r="C30" s="23"/>
       <c r="D30" s="23"/>
     </row>
-    <row r="31" spans="12:12">
+    <row r="31" spans="2:14">
       <c r="L31" s="17"/>
     </row>
-    <row r="32" spans="5:14">
+    <row r="32" spans="2:14">
       <c r="E32" s="17"/>
-      <c r="F32" s="17"/>
-      <c r="G32" s="17"/>
       <c r="H32" s="22"/>
       <c r="I32" s="22"/>
       <c r="J32" s="22"/>
@@ -2914,66 +2324,52 @@
       <c r="E33" s="22"/>
       <c r="F33" s="22"/>
       <c r="G33" s="22"/>
-      <c r="H33" s="17"/>
-      <c r="I33" s="17"/>
-      <c r="J33" s="17"/>
-      <c r="K33" s="17"/>
       <c r="L33" s="17"/>
     </row>
     <row r="34" spans="2:12">
       <c r="B34" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="C34" s="17"/>
-      <c r="D34" s="17"/>
       <c r="E34" s="17"/>
-      <c r="F34" s="17"/>
-      <c r="G34" s="17"/>
-      <c r="H34" s="17"/>
-      <c r="I34" s="17"/>
-      <c r="J34" s="17"/>
-      <c r="K34" s="17"/>
       <c r="L34" s="17"/>
     </row>
-    <row r="35" spans="5:5">
+    <row r="35" spans="2:12">
       <c r="E35" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="8">
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="G6:G8"/>
     <mergeCell ref="J4:N4"/>
     <mergeCell ref="J5:N5"/>
     <mergeCell ref="J6:N6"/>
     <mergeCell ref="J7:N7"/>
     <mergeCell ref="J8:N8"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="G6:G8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="1" orientation="portrait"/>
-  <headerFooter/>
+  <pageSetup orientation="portrait"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A2:I10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K14" sqref="K14"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="9.14159292035398" style="3"/>
-    <col min="2" max="2" width="9.14159292035398" style="4" customWidth="1"/>
-    <col min="3" max="3" width="9.85840707964602" customWidth="1"/>
-    <col min="4" max="4" width="5.70796460176991" customWidth="1"/>
-    <col min="5" max="5" width="11.283185840708" customWidth="1"/>
+    <col min="1" max="1" width="9.140625" style="3"/>
+    <col min="2" max="2" width="9.7109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.85546875" customWidth="1"/>
+    <col min="4" max="4" width="5.7109375" customWidth="1"/>
+    <col min="5" max="5" width="11.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:9">
       <c r="A2" s="3" t="s">
         <v>44</v>
       </c>
@@ -2981,19 +2377,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="2:5">
+    <row r="3" spans="1:9">
       <c r="B3" s="2">
         <v>45177</v>
       </c>
       <c r="C3">
         <f>-I4/3</f>
-        <v>-50065.6666666667</v>
+        <v>-50065.666666666701</v>
       </c>
       <c r="E3" s="15" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="4" spans="2:9">
+    <row r="4" spans="1:9">
       <c r="B4" s="4">
         <v>45261</v>
       </c>
@@ -3007,42 +2403,45 @@
         <v>150197</v>
       </c>
     </row>
-    <row r="5" spans="2:3">
+    <row r="5" spans="1:9">
       <c r="B5" s="4">
         <v>45352</v>
       </c>
       <c r="C5">
         <f>C3</f>
-        <v>-50065.6666666667</v>
-      </c>
-    </row>
-    <row r="6" spans="8:8">
+        <v>-50065.666666666701</v>
+      </c>
+      <c r="E5" s="15" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="H6" s="13" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="7" spans="2:3">
+    <row r="7" spans="1:9">
       <c r="B7" s="4">
         <v>45717</v>
       </c>
       <c r="C7">
         <f>C3</f>
-        <v>-50065.6666666667</v>
-      </c>
-    </row>
-    <row r="9" spans="2:4">
+        <v>-50065.666666666701</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="B9" s="4">
         <v>46082</v>
       </c>
       <c r="C9" s="16">
         <f>2.978%*I4</f>
-        <v>4472.86666</v>
-      </c>
-      <c r="D9" t="s">
+        <v>4472.8666599999997</v>
+      </c>
+      <c r="E9" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:9">
       <c r="A10" s="3">
         <f>SUM(C3:C10)</f>
         <v>10601.86666</v>
@@ -3059,39 +2458,37 @@
       </c>
       <c r="F10" s="11">
         <f>XIRR(C3:C10,B3:B10)</f>
-        <v>0.0398741956457715</v>
+        <v>3.98741956457715E-2</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="1" orientation="portrait"/>
-  <headerFooter/>
+  <pageSetup orientation="portrait"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="B2:N21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16:G16"/>
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="2.42477876106195" customWidth="1"/>
+    <col min="1" max="1" width="2.42578125" customWidth="1"/>
     <col min="2" max="2" width="9" style="3"/>
-    <col min="3" max="3" width="7.14159292035398" style="4" customWidth="1"/>
-    <col min="4" max="4" width="11.5663716814159" customWidth="1"/>
-    <col min="5" max="5" width="2.54867256637168" customWidth="1"/>
+    <col min="3" max="3" width="7.140625" style="4" customWidth="1"/>
+    <col min="4" max="4" width="11.5703125" customWidth="1"/>
+    <col min="5" max="5" width="2.5703125" customWidth="1"/>
     <col min="6" max="6" width="18" customWidth="1"/>
     <col min="7" max="7" width="9" customWidth="1"/>
-    <col min="9" max="9" width="11.5663716814159" customWidth="1"/>
-    <col min="14" max="14" width="11.141592920354" customWidth="1"/>
+    <col min="9" max="9" width="11.5703125" customWidth="1"/>
+    <col min="14" max="14" width="11.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:7">
+    <row r="2" spans="2:9">
       <c r="B2" s="5" t="s">
         <v>44</v>
       </c>
@@ -3107,7 +2504,7 @@
         <v>226348.35</v>
       </c>
     </row>
-    <row r="3" spans="2:4">
+    <row r="3" spans="2:9">
       <c r="B3" s="5"/>
       <c r="C3" s="6">
         <v>45748</v>
@@ -3116,12 +2513,12 @@
         <v>-75449.45</v>
       </c>
     </row>
-    <row r="4" spans="2:4">
+    <row r="4" spans="2:9">
       <c r="B4" s="5"/>
       <c r="C4" s="6"/>
       <c r="D4" s="9"/>
     </row>
-    <row r="5" spans="2:7">
+    <row r="5" spans="2:9">
       <c r="B5" s="5" t="s">
         <v>48</v>
       </c>
@@ -3133,16 +2530,16 @@
         <v>2263.48</v>
       </c>
       <c r="F5" t="s">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="G5" s="10">
         <f>SUM(D5:D6)/G2</f>
-        <v>0.0348999672407597</v>
-      </c>
-    </row>
-    <row r="6" customFormat="1" spans="2:7">
+        <v>3.4899967240759645E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="2:9">
       <c r="B6" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C6" s="6">
         <v>45809</v>
@@ -3152,13 +2549,13 @@
       </c>
       <c r="G6" s="10"/>
     </row>
-    <row r="7" customFormat="1" spans="2:7">
+    <row r="7" spans="2:9">
       <c r="B7" s="5"/>
       <c r="C7" s="6"/>
       <c r="D7" s="9"/>
       <c r="G7" s="10"/>
     </row>
-    <row r="8" spans="2:4">
+    <row r="8" spans="2:9">
       <c r="B8" s="5"/>
       <c r="C8" s="6">
         <v>45901</v>
@@ -3166,6 +2563,9 @@
       <c r="D8" s="9">
         <f>D3</f>
         <v>-75449.45</v>
+      </c>
+      <c r="F8" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="9" spans="2:9">
@@ -3174,7 +2574,7 @@
       <c r="D9" s="9"/>
       <c r="I9" s="13"/>
     </row>
-    <row r="10" spans="2:6">
+    <row r="10" spans="2:9">
       <c r="B10" s="5"/>
       <c r="C10" s="6">
         <v>46266</v>
@@ -3184,47 +2584,51 @@
         <v>-75449.45</v>
       </c>
       <c r="F10" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="11" spans="2:4">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="11" spans="2:9">
       <c r="B11" s="5"/>
       <c r="C11" s="6"/>
       <c r="D11" s="9"/>
     </row>
-    <row r="12" spans="2:8">
+    <row r="12" spans="2:9">
       <c r="B12" s="5"/>
       <c r="C12" s="6">
         <v>46631</v>
       </c>
       <c r="D12" s="9">
         <f>G12*G2</f>
-        <v>6813.085335</v>
+        <v>6813.0853349999998</v>
       </c>
       <c r="F12" t="s">
+        <v>51</v>
+      </c>
+      <c r="G12" s="11">
+        <v>3.0099999999999998E-2</v>
+      </c>
+      <c r="H12" t="s">
         <v>52</v>
       </c>
-      <c r="G12" s="11">
-        <v>0.0301</v>
-      </c>
-      <c r="H12" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="13" customFormat="1" spans="2:6">
+    </row>
+    <row r="13" spans="2:9">
       <c r="B13" s="5"/>
       <c r="C13" s="6"/>
       <c r="D13" s="12"/>
-      <c r="F13" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="14" customFormat="1" spans="2:4">
+      <c r="F13" s="80" t="s">
+        <v>53</v>
+      </c>
+      <c r="G13" s="80"/>
+      <c r="H13" s="80"/>
+    </row>
+    <row r="14" spans="2:9">
       <c r="B14" s="5"/>
       <c r="C14" s="6"/>
       <c r="D14" s="12"/>
-    </row>
-    <row r="15" spans="2:6">
+      <c r="F14" s="80"/>
+      <c r="G14" s="80"/>
+    </row>
+    <row r="15" spans="2:9">
       <c r="B15" s="5">
         <f>SUM(D3:D15)</f>
         <v>15028.285335</v>
@@ -3235,28 +2639,30 @@
       <c r="D15" s="12">
         <v>226664</v>
       </c>
-      <c r="F15" t="s">
+      <c r="F15" s="80" t="s">
+        <v>54</v>
+      </c>
+      <c r="G15" s="80"/>
+    </row>
+    <row r="16" spans="2:9">
+      <c r="C16" s="4" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="16" spans="3:6">
-      <c r="C16" s="4" t="s">
+      <c r="F16" s="80" t="s">
         <v>56</v>
       </c>
-      <c r="F16" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="18" spans="6:7">
+      <c r="G16" s="80"/>
+    </row>
+    <row r="18" spans="6:14">
       <c r="F18" s="4" t="s">
         <v>47</v>
       </c>
       <c r="G18" s="11">
         <f>XIRR(D3:D15,C3:C15)</f>
-        <v>0.0377388777949497</v>
-      </c>
-    </row>
-    <row r="21" spans="14:14">
+        <v>3.77388777949497E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="6:14">
       <c r="N21" s="14"/>
     </row>
   </sheetData>
@@ -3267,28 +2673,26 @@
     <mergeCell ref="F16:G16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="1" orientation="portrait"/>
-  <headerFooter/>
+  <pageSetup orientation="portrait"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:R27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E4" sqref="E4:R4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="2" width="9.85840707964602" customWidth="1"/>
-    <col min="3" max="3" width="1.56637168141593" customWidth="1"/>
+    <col min="1" max="2" width="9.85546875" customWidth="1"/>
+    <col min="3" max="3" width="1.5703125" customWidth="1"/>
     <col min="4" max="4" width="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:5">
+    <row r="1" spans="1:18">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -3297,10 +2701,10 @@
       </c>
       <c r="E1" s="1">
         <f>XIRR(B2:B27,A2:A27)</f>
-        <v>0.0299782292091633</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
+        <v>2.99782292091633E-2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18">
       <c r="A2" s="2">
         <v>36526</v>
       </c>
@@ -3308,45 +2712,99 @@
         <v>-100</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:18">
       <c r="A3" s="2">
         <v>36892</v>
       </c>
       <c r="B3">
         <v>3</v>
       </c>
-      <c r="E3" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
+      <c r="E3" s="80" t="s">
+        <v>57</v>
+      </c>
+      <c r="F3" s="80"/>
+      <c r="G3" s="80"/>
+      <c r="H3" s="80"/>
+      <c r="I3" s="80"/>
+      <c r="J3" s="80"/>
+      <c r="K3" s="80"/>
+      <c r="L3" s="80"/>
+      <c r="M3" s="80"/>
+      <c r="N3" s="80"/>
+      <c r="O3" s="80"/>
+      <c r="P3" s="80"/>
+      <c r="Q3" s="80"/>
+      <c r="R3" s="80"/>
+    </row>
+    <row r="4" spans="1:18">
       <c r="A4" s="2">
         <v>37257</v>
       </c>
       <c r="B4">
         <v>3</v>
       </c>
-      <c r="E4" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
+      <c r="E4" s="80" t="s">
+        <v>58</v>
+      </c>
+      <c r="F4" s="80"/>
+      <c r="G4" s="80"/>
+      <c r="H4" s="80"/>
+      <c r="I4" s="80"/>
+      <c r="J4" s="80"/>
+      <c r="K4" s="80"/>
+      <c r="L4" s="80"/>
+      <c r="M4" s="80"/>
+      <c r="N4" s="80"/>
+      <c r="O4" s="80"/>
+      <c r="P4" s="80"/>
+      <c r="Q4" s="80"/>
+      <c r="R4" s="80"/>
+    </row>
+    <row r="5" spans="1:18">
       <c r="A5" s="2">
         <v>37622</v>
       </c>
       <c r="B5">
         <v>3</v>
       </c>
-    </row>
-    <row r="6" spans="1:2">
+      <c r="E5" s="80"/>
+      <c r="F5" s="80"/>
+      <c r="G5" s="80"/>
+      <c r="H5" s="80"/>
+      <c r="I5" s="80"/>
+      <c r="J5" s="80"/>
+      <c r="K5" s="80"/>
+      <c r="L5" s="80"/>
+      <c r="M5" s="80"/>
+      <c r="N5" s="80"/>
+      <c r="O5" s="80"/>
+      <c r="P5" s="80"/>
+      <c r="Q5" s="80"/>
+      <c r="R5" s="80"/>
+    </row>
+    <row r="6" spans="1:18">
       <c r="A6" s="2">
         <v>37987</v>
       </c>
       <c r="B6">
         <v>3</v>
       </c>
-    </row>
-    <row r="7" spans="1:2">
+      <c r="E6" s="80"/>
+      <c r="F6" s="80"/>
+      <c r="G6" s="80"/>
+      <c r="H6" s="80"/>
+      <c r="I6" s="80"/>
+      <c r="J6" s="80"/>
+      <c r="K6" s="80"/>
+      <c r="L6" s="80"/>
+      <c r="M6" s="80"/>
+      <c r="N6" s="80"/>
+      <c r="O6" s="80"/>
+      <c r="P6" s="80"/>
+      <c r="Q6" s="80"/>
+      <c r="R6" s="80"/>
+    </row>
+    <row r="7" spans="1:18">
       <c r="A7" s="2">
         <v>38353</v>
       </c>
@@ -3354,7 +2812,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:18">
       <c r="A8" s="2">
         <v>38718</v>
       </c>
@@ -3362,7 +2820,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:18">
       <c r="A9" s="2">
         <v>39083</v>
       </c>
@@ -3370,7 +2828,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10" spans="1:18">
       <c r="A10" s="2">
         <v>39448</v>
       </c>
@@ -3378,7 +2836,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
+    <row r="11" spans="1:18">
       <c r="A11" s="2">
         <v>39814</v>
       </c>
@@ -3386,7 +2844,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
+    <row r="12" spans="1:18">
       <c r="A12" s="2">
         <v>40179</v>
       </c>
@@ -3394,7 +2852,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:2">
+    <row r="13" spans="1:18">
       <c r="A13" s="2">
         <v>40544</v>
       </c>
@@ -3402,7 +2860,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:2">
+    <row r="14" spans="1:18">
       <c r="A14" s="2">
         <v>40909</v>
       </c>
@@ -3410,7 +2868,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:2">
+    <row r="15" spans="1:18">
       <c r="A15" s="2">
         <v>41275</v>
       </c>
@@ -3418,7 +2876,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:2">
+    <row r="16" spans="1:18">
       <c r="A16" s="2">
         <v>41640</v>
       </c>
@@ -3523,7 +2981,6 @@
     <mergeCell ref="E6:R6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="1" orientation="portrait"/>
-  <headerFooter/>
+  <pageSetup orientation="portrait"/>
 </worksheet>
 </file>
--- a/msff/xls/FLI2FWD.xlsx
+++ b/msff/xls/FLI2FWD.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24332"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="N:\repos\repo1\msff\xls\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E9CE8D5-AFEB-414B-ACF9-12FB4DD31DE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="150" yWindow="-21600" windowWidth="17310" windowHeight="21600" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="22701" windowHeight="11520" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="FWD300" sheetId="9" r:id="rId1"/>
@@ -28,6 +22,8 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -35,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="62">
   <si>
     <t>cash in/out</t>
   </si>
@@ -59,7 +55,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -68,8 +64,8 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color theme="5" tint="0.39991454817346722"/>
-        <rFont val="Calibri"/>
+        <color theme="5" tint="0.399945066682943"/>
+        <rFont val="等线"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -95,7 +91,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -105,7 +101,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="5" tint="-0.249977111117893"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -115,7 +111,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="5"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -139,7 +135,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -150,7 +146,7 @@
         <b/>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -160,7 +156,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -229,7 +225,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -238,8 +234,8 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color theme="5" tint="0.39991454817346722"/>
-        <rFont val="Calibri"/>
+        <color theme="5" tint="0.399945066682943"/>
+        <rFont val="等线"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -280,10 +276,19 @@
     <t>XIRR</t>
   </si>
   <si>
-    <t>Singlife&gt;</t>
-  </si>
-  <si>
-    <t>CIIMB&gt;</t>
+    <t>PnL</t>
+  </si>
+  <si>
+    <t>1st installment via SCSC</t>
+  </si>
+  <si>
+    <t>&lt;Singlife</t>
+  </si>
+  <si>
+    <t>&lt;CIIMB</t>
+  </si>
+  <si>
+    <t>total upfront rate=</t>
   </si>
   <si>
     <t>final installment</t>
@@ -298,105 +303,422 @@
     <t>.. Payout_rate goes up after age 78</t>
   </si>
   <si>
-    <t>projected surrender value</t>
+    <t>projected=226,664</t>
   </si>
   <si>
     <t>^^ ASAP</t>
   </si>
   <si>
-    <t>.. $226,348 guaranteed</t>
+    <t>sumAssured?? irrelevant</t>
   </si>
   <si>
     <t>FWD300k is better in concentration risk, more prudent, in terms of worst-case PnL, monthly loan int</t>
   </si>
   <si>
     <t>FWD41 can absorb more of my excess cash (welcome) but what if in X years I need more liquidity?</t>
-  </si>
-  <si>
-    <t>upfront rate =</t>
-  </si>
-  <si>
-    <t>2nd installment</t>
-  </si>
-  <si>
-    <t>paid by scsc over 6 tx</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="8">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
+  <numFmts count="11">
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="165" formatCode="0.0000%"/>
-    <numFmt numFmtId="166" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="167" formatCode="#,##0.00_ "/>
-    <numFmt numFmtId="168" formatCode="_(* #,##0.0000000_);_(* \(#,##0.0000000\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="169" formatCode="[$-409]mmm/yy;@"/>
-    <numFmt numFmtId="170" formatCode="[$-409]d\-mmm;@"/>
-    <numFmt numFmtId="171" formatCode="&quot;$&quot;#,##0"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="0.0000%"/>
+    <numFmt numFmtId="178" formatCode="#,##0.00_ "/>
+    <numFmt numFmtId="179" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="180" formatCode="_(* #,##0.0000000_);_(* \(#,##0.0000000\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="181" formatCode="[$-409]mmm/yy;@"/>
+    <numFmt numFmtId="182" formatCode="[$-409]d\-mmm;@"/>
+    <numFmt numFmtId="183" formatCode="&quot;$&quot;#,##0"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="25">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="5" tint="0.39991454817346722"/>
-      <name val="Calibri"/>
+      <color theme="5" tint="0.399945066682943"/>
+      <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="5" tint="-0.249977111117893"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="5"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="13">
+  <borders count="21">
     <border>
       <left/>
       <right/>
@@ -542,46 +864,298 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="82">
+  <cellXfs count="79">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="17" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="181" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="17" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="181" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="182" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -600,24 +1174,29 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="171" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="183" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="171" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="183" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="183" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="171" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="183" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="181" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="181" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="182" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="181" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -632,12 +1211,11 @@
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="171" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="183" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -645,46 +1223,65 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="171" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="183" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="171" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
+    <xf numFmtId="183" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="3">
-    <cellStyle name="Comma" xfId="1" builtinId="3"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Percent" xfId="2" builtinId="5"/>
+  <cellStyles count="49">
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="百分比" xfId="3" builtinId="5"/>
+    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
+    <cellStyle name="超链接" xfId="6" builtinId="8"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
+    <cellStyle name="注释" xfId="8" builtinId="10"/>
+    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
+    <cellStyle name="标题" xfId="10" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
+    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="输入" xfId="16" builtinId="20"/>
+    <cellStyle name="输出" xfId="17" builtinId="21"/>
+    <cellStyle name="计算" xfId="18" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
+    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="好" xfId="22" builtinId="26"/>
+    <cellStyle name="差" xfId="23" builtinId="27"/>
+    <cellStyle name="适中" xfId="24" builtinId="28"/>
+    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
+    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
+    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
+    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -942,35 +1539,35 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="B2:N45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="L21" sqref="L21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="1" customWidth="1"/>
-    <col min="2" max="2" width="13.42578125" customWidth="1"/>
-    <col min="3" max="3" width="7.28515625" customWidth="1"/>
+    <col min="2" max="2" width="13.4247787610619" customWidth="1"/>
+    <col min="3" max="3" width="7.28318584070797" customWidth="1"/>
     <col min="4" max="4" width="2" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" style="48" customWidth="1"/>
-    <col min="6" max="6" width="10.85546875" customWidth="1"/>
-    <col min="7" max="7" width="13.28515625" customWidth="1"/>
-    <col min="8" max="8" width="17.85546875" customWidth="1"/>
-    <col min="10" max="10" width="6.140625" customWidth="1"/>
-    <col min="11" max="11" width="7.5703125" customWidth="1"/>
-    <col min="12" max="12" width="11.5703125" style="16" customWidth="1"/>
-    <col min="13" max="13" width="7.140625" customWidth="1"/>
+    <col min="5" max="5" width="7.42477876106195" style="56" customWidth="1"/>
+    <col min="6" max="6" width="10.858407079646" customWidth="1"/>
+    <col min="7" max="7" width="13.283185840708" customWidth="1"/>
+    <col min="8" max="8" width="17.858407079646" customWidth="1"/>
+    <col min="10" max="10" width="6.14159292035398" customWidth="1"/>
+    <col min="11" max="11" width="7.56637168141593" customWidth="1"/>
+    <col min="12" max="12" width="11.5663716814159" style="17" customWidth="1"/>
+    <col min="13" max="13" width="7.14159292035398" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:14">
+    <row r="2" spans="5:9">
       <c r="E2" s="6"/>
       <c r="F2" s="7" t="s">
         <v>0</v>
@@ -978,15 +1575,15 @@
       <c r="H2" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="I2" s="64">
+      <c r="I2" s="72">
         <v>300000</v>
       </c>
     </row>
-    <row r="3" spans="2:14">
+    <row r="3" spans="2:9">
       <c r="B3" s="3"/>
       <c r="C3" s="11"/>
       <c r="D3" s="11"/>
-      <c r="E3" s="49">
+      <c r="E3" s="57">
         <v>45597</v>
       </c>
       <c r="F3" s="5">
@@ -999,15 +1596,15 @@
       <c r="H3" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="I3" s="65">
-        <v>1.8700000000000001E-2</v>
+      <c r="I3" s="73">
+        <v>0.0187</v>
       </c>
     </row>
     <row r="4" spans="2:14">
       <c r="B4" s="3"/>
       <c r="C4" s="11"/>
       <c r="D4" s="11"/>
-      <c r="E4" s="50">
+      <c r="E4" s="58">
         <v>45674</v>
       </c>
       <c r="F4" s="5">
@@ -1017,127 +1614,127 @@
       <c r="G4" t="s">
         <v>4</v>
       </c>
-      <c r="H4" s="28" t="s">
+      <c r="H4" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="I4" s="66">
-        <v>3.3799999999999997E-2</v>
-      </c>
-      <c r="J4" s="71" t="s">
+      <c r="I4" s="74">
+        <v>0.0338</v>
+      </c>
+      <c r="J4" s="49" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="72"/>
-      <c r="L4" s="72"/>
-      <c r="M4" s="72"/>
-      <c r="N4" s="72"/>
-    </row>
-    <row r="5" spans="2:14">
+      <c r="K4" s="66"/>
+      <c r="L4" s="66"/>
+      <c r="M4" s="66"/>
+      <c r="N4" s="66"/>
+    </row>
+    <row r="5" spans="2:9">
       <c r="B5" s="3"/>
       <c r="C5" s="11"/>
       <c r="D5" s="11"/>
-      <c r="E5" s="51"/>
+      <c r="E5" s="59"/>
       <c r="F5" s="5"/>
-      <c r="G5" s="79" t="s">
+      <c r="G5" s="60" t="s">
         <v>7</v>
       </c>
-      <c r="H5" s="52"/>
-      <c r="I5" s="52"/>
+      <c r="H5" s="61"/>
+      <c r="I5" s="61"/>
     </row>
     <row r="6" spans="2:14">
-      <c r="B6" s="75" t="s">
+      <c r="B6" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="77" t="s">
+      <c r="C6" s="33" t="s">
         <v>9</v>
       </c>
       <c r="D6" s="11"/>
-      <c r="E6" s="49">
+      <c r="E6" s="57">
         <v>46174</v>
       </c>
       <c r="F6" s="5">
         <f>-K17</f>
         <v>-17618.7</v>
       </c>
-      <c r="G6" s="79"/>
+      <c r="G6" s="60"/>
       <c r="H6" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="I6" s="67">
+      <c r="I6" s="75">
         <v>0.03</v>
       </c>
-      <c r="J6" s="73" t="s">
+      <c r="J6" s="50" t="s">
         <v>11</v>
       </c>
-      <c r="K6" s="74"/>
-      <c r="L6" s="74"/>
-      <c r="M6" s="74"/>
-      <c r="N6" s="74"/>
+      <c r="K6" s="18"/>
+      <c r="L6" s="18"/>
+      <c r="M6" s="18"/>
+      <c r="N6" s="18"/>
     </row>
     <row r="7" spans="2:14">
-      <c r="B7" s="76"/>
-      <c r="C7" s="78"/>
-      <c r="D7" s="30"/>
-      <c r="E7" s="51"/>
+      <c r="B7" s="34"/>
+      <c r="C7" s="35"/>
+      <c r="D7" s="36"/>
+      <c r="E7" s="59"/>
       <c r="F7" s="5"/>
-      <c r="G7" s="79"/>
+      <c r="G7" s="60"/>
       <c r="H7" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="I7" s="64">
+      <c r="I7" s="72">
         <v>228000</v>
       </c>
-      <c r="J7" s="73"/>
-      <c r="K7" s="74"/>
-      <c r="L7" s="74"/>
-      <c r="M7" s="74"/>
-      <c r="N7" s="74"/>
+      <c r="J7" s="50"/>
+      <c r="K7" s="18"/>
+      <c r="L7" s="18"/>
+      <c r="M7" s="18"/>
+      <c r="N7" s="18"/>
     </row>
     <row r="8" spans="2:14">
-      <c r="B8" s="53">
+      <c r="B8" s="62">
         <f>SUM($F$3:F8)</f>
         <v>-83733.7</v>
       </c>
-      <c r="C8" s="54">
+      <c r="C8" s="63">
         <f>B8-$F$3</f>
         <v>-11733.7</v>
       </c>
       <c r="D8" t="s">
         <v>13</v>
       </c>
-      <c r="E8" s="49">
+      <c r="E8" s="57">
         <v>46692</v>
       </c>
       <c r="F8" s="5">
         <f>($I$4*$I$2-$I$6*$I$7)/12</f>
         <v>275</v>
       </c>
-      <c r="G8" s="55" t="s">
+      <c r="G8" s="64" t="s">
         <v>14</v>
       </c>
-      <c r="H8" s="56" t="s">
+      <c r="H8" s="65" t="s">
         <v>15</v>
       </c>
-      <c r="I8" s="67">
-        <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="J8" s="73" t="s">
+      <c r="I8" s="75">
+        <v>0.025</v>
+      </c>
+      <c r="J8" s="50" t="s">
         <v>16</v>
       </c>
-      <c r="K8" s="74"/>
-      <c r="L8" s="74"/>
-      <c r="M8" s="74"/>
-      <c r="N8" s="74"/>
-    </row>
-    <row r="9" spans="2:14">
-      <c r="B9" s="53">
+      <c r="K8" s="18"/>
+      <c r="L8" s="18"/>
+      <c r="M8" s="18"/>
+      <c r="N8" s="18"/>
+    </row>
+    <row r="9" spans="2:6">
+      <c r="B9" s="62">
         <f>SUM($F$3:F9)</f>
         <v>-83458.7</v>
       </c>
-      <c r="C9" s="54">
+      <c r="C9" s="63">
         <f t="shared" ref="C9:C19" si="0">B9-$F$3</f>
         <v>-11458.7</v>
       </c>
-      <c r="E9" s="49">
+      <c r="E9" s="57">
         <v>46722</v>
       </c>
       <c r="F9" s="5">
@@ -1145,16 +1742,16 @@
         <v>275</v>
       </c>
     </row>
-    <row r="10" spans="2:14">
-      <c r="B10" s="53">
+    <row r="10" spans="2:6">
+      <c r="B10" s="62">
         <f>SUM($F$3:F10)</f>
         <v>-83183.7</v>
       </c>
-      <c r="C10" s="54">
+      <c r="C10" s="63">
         <f t="shared" si="0"/>
         <v>-11183.7</v>
       </c>
-      <c r="E10" s="49">
+      <c r="E10" s="57">
         <v>46753</v>
       </c>
       <c r="F10" s="5">
@@ -1162,16 +1759,16 @@
         <v>275</v>
       </c>
     </row>
-    <row r="11" spans="2:14">
-      <c r="B11" s="53">
+    <row r="11" spans="2:12">
+      <c r="B11" s="62">
         <f>SUM($F$3:F11)</f>
         <v>-82908.7</v>
       </c>
-      <c r="C11" s="54">
+      <c r="C11" s="63">
         <f t="shared" si="0"/>
         <v>-10908.7</v>
       </c>
-      <c r="E11" s="49">
+      <c r="E11" s="57">
         <v>46784</v>
       </c>
       <c r="F11" s="5">
@@ -1180,16 +1777,16 @@
       </c>
       <c r="L11"/>
     </row>
-    <row r="12" spans="2:14">
-      <c r="B12" s="53">
+    <row r="12" spans="2:12">
+      <c r="B12" s="62">
         <f>SUM($F$3:F12)</f>
         <v>-82633.7</v>
       </c>
-      <c r="C12" s="54">
+      <c r="C12" s="63">
         <f t="shared" si="0"/>
         <v>-10633.7</v>
       </c>
-      <c r="E12" s="49">
+      <c r="E12" s="57">
         <v>46813</v>
       </c>
       <c r="F12" s="5">
@@ -1198,58 +1795,58 @@
       </c>
       <c r="L12"/>
     </row>
-    <row r="13" spans="2:14">
-      <c r="B13" s="53">
+    <row r="13" spans="2:12">
+      <c r="B13" s="62">
         <f>SUM($F$3:F13)</f>
         <v>-82358.7</v>
       </c>
-      <c r="C13" s="54">
+      <c r="C13" s="63">
         <f t="shared" si="0"/>
-        <v>-10358.700000000001</v>
-      </c>
-      <c r="E13" s="49">
+        <v>-10358.7</v>
+      </c>
+      <c r="E13" s="57">
         <v>46844</v>
       </c>
       <c r="F13" s="5">
         <f t="shared" si="1"/>
         <v>275</v>
       </c>
-      <c r="H13" s="57"/>
-      <c r="I13" s="57"/>
-      <c r="J13" s="57"/>
-      <c r="K13" s="57" t="s">
+      <c r="H13" s="66"/>
+      <c r="I13" s="66"/>
+      <c r="J13" s="66"/>
+      <c r="K13" s="66" t="s">
         <v>17</v>
       </c>
-      <c r="L13" s="16" t="s">
+      <c r="L13" s="17" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="14" spans="2:14">
-      <c r="B14" s="53">
+    <row r="14" spans="2:12">
+      <c r="B14" s="62">
         <f>SUM($F$3:F14)</f>
         <v>-82083.7</v>
       </c>
-      <c r="C14" s="54">
+      <c r="C14" s="63">
         <f t="shared" si="0"/>
-        <v>-10083.700000000001</v>
-      </c>
-      <c r="E14" s="49">
+        <v>-10083.7</v>
+      </c>
+      <c r="E14" s="57">
         <v>46874</v>
       </c>
       <c r="F14" s="5">
         <f t="shared" si="1"/>
         <v>275</v>
       </c>
-      <c r="H14" s="58" t="s">
+      <c r="H14" s="67" t="s">
         <v>19</v>
       </c>
       <c r="I14" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="J14" s="67">
-        <v>2.53E-2</v>
-      </c>
-      <c r="K14" s="64">
+      <c r="J14" s="75">
+        <v>0.0253</v>
+      </c>
+      <c r="K14" s="72">
         <f>$I$7*LEFT(I14,2)/12*J14</f>
         <v>4326.3</v>
       </c>
@@ -1257,78 +1854,78 @@
         <v>490</v>
       </c>
     </row>
-    <row r="15" spans="2:14">
-      <c r="B15" s="53">
+    <row r="15" spans="2:12">
+      <c r="B15" s="62">
         <f>SUM($F$3:F15)</f>
         <v>-81808.7</v>
       </c>
-      <c r="C15" s="54">
+      <c r="C15" s="63">
         <f t="shared" si="0"/>
-        <v>-9808.7000000000007</v>
-      </c>
-      <c r="E15" s="49">
+        <v>-9808.7</v>
+      </c>
+      <c r="E15" s="57">
         <v>46905</v>
       </c>
       <c r="F15" s="5">
         <f t="shared" si="1"/>
         <v>275</v>
       </c>
-      <c r="H15" s="58" t="s">
+      <c r="H15" s="67" t="s">
         <v>21</v>
       </c>
       <c r="I15" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="J15" s="67">
-        <v>2.3300000000000001E-2</v>
-      </c>
-      <c r="K15" s="64">
+      <c r="J15" s="75">
+        <v>0.0233</v>
+      </c>
+      <c r="K15" s="72">
         <f>$I$7*LEFT(I15,2)/12*J15</f>
         <v>5312.4</v>
       </c>
       <c r="L15"/>
     </row>
-    <row r="16" spans="2:14">
-      <c r="B16" s="53">
+    <row r="16" ht="15.15" spans="2:11">
+      <c r="B16" s="62">
         <f>SUM($F$3:F16)</f>
         <v>-81533.7</v>
       </c>
-      <c r="C16" s="54">
+      <c r="C16" s="63">
         <f t="shared" si="0"/>
-        <v>-9533.7000000000007</v>
-      </c>
-      <c r="E16" s="49">
+        <v>-9533.7</v>
+      </c>
+      <c r="E16" s="57">
         <v>46935</v>
       </c>
       <c r="F16" s="5">
         <f t="shared" si="1"/>
         <v>275</v>
       </c>
-      <c r="H16" s="58" t="s">
+      <c r="H16" s="67" t="s">
         <v>23</v>
       </c>
       <c r="I16" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="J16" s="67">
+      <c r="J16" s="75">
         <f>I6</f>
         <v>0.03</v>
       </c>
-      <c r="K16" s="68">
+      <c r="K16" s="76">
         <f>$I$7*LEFT(I16,2)/12*J16</f>
         <v>7980</v>
       </c>
     </row>
-    <row r="17" spans="2:12">
-      <c r="B17" s="53">
+    <row r="17" ht="15.15" spans="2:12">
+      <c r="B17" s="62">
         <f>SUM($F$3:F17)</f>
         <v>-81258.7</v>
       </c>
-      <c r="C17" s="54">
+      <c r="C17" s="63">
         <f t="shared" si="0"/>
-        <v>-9258.7000000000007</v>
-      </c>
-      <c r="E17" s="49">
+        <v>-9258.7</v>
+      </c>
+      <c r="E17" s="57">
         <v>46966</v>
       </c>
       <c r="F17" s="5">
@@ -1337,23 +1934,23 @@
       </c>
       <c r="H17" s="7"/>
       <c r="I17" s="7"/>
-      <c r="J17" s="69"/>
-      <c r="K17" s="70">
+      <c r="J17" s="77"/>
+      <c r="K17" s="78">
         <f>SUM(K14:K16)</f>
         <v>17618.7</v>
       </c>
       <c r="L17"/>
     </row>
-    <row r="18" spans="2:12">
-      <c r="B18" s="53">
+    <row r="18" spans="2:6">
+      <c r="B18" s="62">
         <f>SUM($F$3:F18)</f>
         <v>-80983.7</v>
       </c>
-      <c r="C18" s="54">
+      <c r="C18" s="63">
         <f t="shared" si="0"/>
-        <v>-8983.7000000000007</v>
-      </c>
-      <c r="E18" s="49">
+        <v>-8983.7</v>
+      </c>
+      <c r="E18" s="57">
         <v>46997</v>
       </c>
       <c r="F18" s="5">
@@ -1361,16 +1958,16 @@
         <v>275</v>
       </c>
     </row>
-    <row r="19" spans="2:12">
-      <c r="B19" s="59">
+    <row r="19" spans="2:6">
+      <c r="B19" s="68">
         <f>SUM($F$3:F19)</f>
         <v>-80708.7</v>
       </c>
-      <c r="C19" s="60">
+      <c r="C19" s="69">
         <f t="shared" si="0"/>
-        <v>-8708.7000000000007</v>
-      </c>
-      <c r="E19" s="49">
+        <v>-8708.7</v>
+      </c>
+      <c r="E19" s="57">
         <v>47027</v>
       </c>
       <c r="F19" s="5">
@@ -1378,19 +1975,19 @@
         <v>275</v>
       </c>
     </row>
-    <row r="20" spans="2:12">
-      <c r="B20" s="61"/>
-      <c r="C20" s="61"/>
-      <c r="E20" s="49"/>
+    <row r="20" spans="2:6">
+      <c r="B20" s="9"/>
+      <c r="C20" s="9"/>
+      <c r="E20" s="57"/>
       <c r="F20" s="5"/>
     </row>
-    <row r="21" spans="2:12">
-      <c r="B21" s="17" t="s">
+    <row r="21" spans="2:7">
+      <c r="B21" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="E21" s="49"/>
+      <c r="E21" s="57"/>
       <c r="F21" s="5"/>
-      <c r="G21" s="62"/>
+      <c r="G21" s="70"/>
     </row>
     <row r="22" spans="2:12">
       <c r="B22" s="3">
@@ -1399,7 +1996,7 @@
       </c>
       <c r="C22" s="11"/>
       <c r="D22" s="11"/>
-      <c r="E22" s="49">
+      <c r="E22" s="57">
         <v>47058</v>
       </c>
       <c r="F22" s="5">
@@ -1411,14 +2008,14 @@
       </c>
       <c r="L22"/>
     </row>
-    <row r="23" spans="2:12">
+    <row r="23" spans="2:6">
       <c r="B23" s="3">
         <f>SUM($F$3:F23)</f>
         <v>-71828.7</v>
       </c>
       <c r="C23" s="11"/>
       <c r="D23" s="11"/>
-      <c r="E23" s="49">
+      <c r="E23" s="57">
         <v>47423</v>
       </c>
       <c r="F23" s="5">
@@ -1426,14 +2023,14 @@
         <v>4440</v>
       </c>
     </row>
-    <row r="24" spans="2:12">
+    <row r="24" spans="2:6">
       <c r="B24" s="3">
         <f>SUM($F$3:F24)</f>
         <v>-67388.7</v>
       </c>
       <c r="C24" s="11"/>
       <c r="D24" s="11"/>
-      <c r="E24" s="49">
+      <c r="E24" s="57">
         <v>47788</v>
       </c>
       <c r="F24" s="5">
@@ -1441,16 +2038,16 @@
         <v>4440</v>
       </c>
     </row>
-    <row r="25" spans="2:12">
+    <row r="25" spans="2:6">
       <c r="B25" s="3">
         <f>SUM($F$3:F25)</f>
         <v>-62948.7</v>
       </c>
-      <c r="C25" s="57" t="s">
+      <c r="C25" s="66" t="s">
         <v>27</v>
       </c>
-      <c r="D25" s="57"/>
-      <c r="E25" s="49">
+      <c r="D25" s="66"/>
+      <c r="E25" s="57">
         <v>48153</v>
       </c>
       <c r="F25" s="5">
@@ -1458,17 +2055,17 @@
         <v>4440</v>
       </c>
     </row>
-    <row r="26" spans="2:12">
+    <row r="26" spans="2:6">
       <c r="B26" s="3">
         <f>SUM($F$3:F26)</f>
         <v>-58508.7</v>
       </c>
-      <c r="C26" s="63">
+      <c r="C26" s="71">
         <f>-F26/F3</f>
-        <v>6.1666666666666599E-2</v>
-      </c>
-      <c r="D26" s="63"/>
-      <c r="E26" s="49">
+        <v>0.0616666666666666</v>
+      </c>
+      <c r="D26" s="71"/>
+      <c r="E26" s="57">
         <v>48519</v>
       </c>
       <c r="F26" s="5">
@@ -1476,14 +2073,14 @@
         <v>4440</v>
       </c>
     </row>
-    <row r="27" spans="2:12">
+    <row r="27" spans="2:6">
       <c r="B27" s="3">
         <f>SUM($F$3:F27)</f>
         <v>-54068.7</v>
       </c>
       <c r="C27" s="11"/>
       <c r="D27" s="11"/>
-      <c r="E27" s="49">
+      <c r="E27" s="57">
         <v>48884</v>
       </c>
       <c r="F27" s="5">
@@ -1491,14 +2088,14 @@
         <v>4440</v>
       </c>
     </row>
-    <row r="28" spans="2:12">
+    <row r="28" spans="2:6">
       <c r="B28" s="3">
         <f>SUM($F$3:F28)</f>
         <v>-49628.7</v>
       </c>
       <c r="C28" s="11"/>
       <c r="D28" s="11"/>
-      <c r="E28" s="49">
+      <c r="E28" s="57">
         <v>49249</v>
       </c>
       <c r="F28" s="5">
@@ -1506,14 +2103,14 @@
         <v>4440</v>
       </c>
     </row>
-    <row r="29" spans="2:12">
+    <row r="29" spans="2:6">
       <c r="B29" s="3">
         <f>SUM($F$3:F29)</f>
         <v>-45188.7</v>
       </c>
       <c r="C29" s="11"/>
       <c r="D29" s="11"/>
-      <c r="E29" s="49">
+      <c r="E29" s="57">
         <v>49614</v>
       </c>
       <c r="F29" s="5">
@@ -1521,14 +2118,14 @@
         <v>4440</v>
       </c>
     </row>
-    <row r="30" spans="2:12">
+    <row r="30" spans="2:6">
       <c r="B30" s="3">
         <f>SUM($F$3:F30)</f>
-        <v>-40748.699999999997</v>
+        <v>-40748.7</v>
       </c>
       <c r="C30" s="11"/>
       <c r="D30" s="11"/>
-      <c r="E30" s="49">
+      <c r="E30" s="57">
         <v>49980</v>
       </c>
       <c r="F30" s="5">
@@ -1536,14 +2133,14 @@
         <v>4440</v>
       </c>
     </row>
-    <row r="31" spans="2:12">
+    <row r="31" spans="2:6">
       <c r="B31" s="3">
         <f>SUM($F$3:F31)</f>
-        <v>-36308.699999999997</v>
+        <v>-36308.7</v>
       </c>
       <c r="C31" s="11"/>
       <c r="D31" s="11"/>
-      <c r="E31" s="49">
+      <c r="E31" s="57">
         <v>50345</v>
       </c>
       <c r="F31" s="5">
@@ -1551,14 +2148,14 @@
         <v>4440</v>
       </c>
     </row>
-    <row r="32" spans="2:12">
+    <row r="32" spans="2:6">
       <c r="B32" s="3">
         <f>SUM($F$3:F32)</f>
         <v>-31868.7</v>
       </c>
       <c r="C32" s="11"/>
       <c r="D32" s="11"/>
-      <c r="E32" s="49">
+      <c r="E32" s="57">
         <v>50710</v>
       </c>
       <c r="F32" s="5">
@@ -1566,14 +2163,14 @@
         <v>4440</v>
       </c>
     </row>
-    <row r="33" spans="2:14">
+    <row r="33" spans="2:6">
       <c r="B33" s="3">
         <f>SUM($F$3:F33)</f>
         <v>-27428.7</v>
       </c>
       <c r="C33" s="11"/>
       <c r="D33" s="11"/>
-      <c r="E33" s="49">
+      <c r="E33" s="57">
         <v>51075</v>
       </c>
       <c r="F33" s="5">
@@ -1581,14 +2178,14 @@
         <v>4440</v>
       </c>
     </row>
-    <row r="34" spans="2:14">
+    <row r="34" spans="2:6">
       <c r="B34" s="3">
         <f>SUM($F$3:F34)</f>
         <v>-22988.7</v>
       </c>
       <c r="C34" s="11"/>
       <c r="D34" s="11"/>
-      <c r="E34" s="49">
+      <c r="E34" s="57">
         <v>51441</v>
       </c>
       <c r="F34" s="5">
@@ -1596,14 +2193,14 @@
         <v>4440</v>
       </c>
     </row>
-    <row r="35" spans="2:14">
+    <row r="35" spans="2:6">
       <c r="B35" s="3">
         <f>SUM($F$3:F35)</f>
         <v>-18548.7</v>
       </c>
       <c r="C35" s="11"/>
       <c r="D35" s="11"/>
-      <c r="E35" s="49">
+      <c r="E35" s="57">
         <v>51806</v>
       </c>
       <c r="F35" s="5">
@@ -1611,14 +2208,14 @@
         <v>4440</v>
       </c>
     </row>
-    <row r="36" spans="2:14">
+    <row r="36" spans="2:6">
       <c r="B36" s="3">
         <f>SUM($F$3:F36)</f>
         <v>-14108.7</v>
       </c>
       <c r="C36" s="11"/>
       <c r="D36" s="11"/>
-      <c r="E36" s="49">
+      <c r="E36" s="57">
         <v>52171</v>
       </c>
       <c r="F36" s="5">
@@ -1626,16 +2223,16 @@
         <v>4440</v>
       </c>
     </row>
-    <row r="37" spans="2:14">
+    <row r="37" spans="2:6">
       <c r="B37" s="3">
         <f>SUM($F$3:F37)</f>
-        <v>-9668.7000000000007</v>
+        <v>-9668.7</v>
       </c>
       <c r="C37" s="11" t="s">
         <v>28</v>
       </c>
       <c r="D37" s="11"/>
-      <c r="E37" s="49">
+      <c r="E37" s="57">
         <v>52536</v>
       </c>
       <c r="F37" s="5">
@@ -1643,44 +2240,44 @@
         <v>4440</v>
       </c>
     </row>
-    <row r="38" spans="2:14">
+    <row r="38" spans="2:7">
       <c r="B38" s="3">
         <f>SUM($F$3:F38)</f>
         <v>86331.3</v>
       </c>
       <c r="C38" s="11">
         <f>XIRR(F3:F38,E3:E38)</f>
-        <v>4.7964367445152603E-2</v>
+        <v>0.0479643674451526</v>
       </c>
       <c r="D38" s="11"/>
-      <c r="E38" s="49">
+      <c r="E38" s="57">
         <v>52902</v>
       </c>
       <c r="F38" s="5">
         <f>-F3+24000</f>
         <v>96000</v>
       </c>
-      <c r="G38" s="17" t="s">
+      <c r="G38" s="18" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="39" spans="2:14">
+    <row r="39" spans="2:9">
       <c r="B39" s="3"/>
       <c r="C39" s="11"/>
       <c r="D39" s="11"/>
-      <c r="G39" s="62" t="s">
+      <c r="G39" s="70" t="s">
         <v>30</v>
       </c>
-      <c r="H39" s="62"/>
-      <c r="I39" s="62"/>
-    </row>
-    <row r="41" spans="2:14">
+      <c r="H39" s="70"/>
+      <c r="I39" s="70"/>
+    </row>
+    <row r="41" spans="2:5">
       <c r="B41" t="s">
         <v>31</v>
       </c>
       <c r="E41"/>
     </row>
-    <row r="42" spans="2:14">
+    <row r="42" spans="2:12">
       <c r="B42" s="3" t="s">
         <v>32</v>
       </c>
@@ -1704,14 +2301,14 @@
       <c r="M43" s="3"/>
       <c r="N43" s="3"/>
     </row>
-    <row r="44" spans="2:14">
+    <row r="44" spans="2:12">
       <c r="B44" t="s">
         <v>34</v>
       </c>
       <c r="E44"/>
       <c r="L44"/>
     </row>
-    <row r="45" spans="2:14">
+    <row r="45" spans="12:12">
       <c r="L45"/>
     </row>
   </sheetData>
@@ -1725,651 +2322,657 @@
     <mergeCell ref="G5:G7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait"/>
+  <pageSetup paperSize="1" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="B2:N35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="J24" sqref="J24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.14159292035398" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="1" style="17" customWidth="1"/>
-    <col min="2" max="2" width="13.42578125" style="17" customWidth="1"/>
-    <col min="3" max="3" width="6.28515625" style="17" customWidth="1"/>
-    <col min="4" max="4" width="2" style="17" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" style="18" customWidth="1"/>
-    <col min="6" max="6" width="10.85546875" style="17" customWidth="1"/>
-    <col min="7" max="7" width="15.42578125" style="17" customWidth="1"/>
-    <col min="8" max="8" width="17.85546875" style="17" customWidth="1"/>
-    <col min="9" max="9" width="9.140625" style="17"/>
-    <col min="10" max="10" width="6.140625" style="17" customWidth="1"/>
-    <col min="11" max="11" width="7.5703125" style="17" customWidth="1"/>
-    <col min="12" max="12" width="11.5703125" style="19" customWidth="1"/>
-    <col min="13" max="13" width="7.140625" style="17" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="17"/>
+    <col min="1" max="1" width="1" style="18" customWidth="1"/>
+    <col min="2" max="2" width="13.4247787610619" style="18" customWidth="1"/>
+    <col min="3" max="3" width="6.28318584070797" style="18" customWidth="1"/>
+    <col min="4" max="4" width="2" style="18" customWidth="1"/>
+    <col min="5" max="5" width="7.42477876106195" style="19" customWidth="1"/>
+    <col min="6" max="6" width="10.858407079646" style="18" customWidth="1"/>
+    <col min="7" max="7" width="15.4247787610619" style="18" customWidth="1"/>
+    <col min="8" max="8" width="17.858407079646" style="18" customWidth="1"/>
+    <col min="9" max="9" width="9.14159292035398" style="18"/>
+    <col min="10" max="10" width="6.14159292035398" style="18" customWidth="1"/>
+    <col min="11" max="11" width="7.56637168141593" style="18" customWidth="1"/>
+    <col min="12" max="12" width="11.5663716814159" style="20" customWidth="1"/>
+    <col min="13" max="13" width="7.14159292035398" style="18" customWidth="1"/>
+    <col min="14" max="16384" width="9.14159292035398" style="18"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:14">
-      <c r="E2" s="20"/>
-      <c r="F2" s="21" t="s">
+    <row r="2" spans="5:9">
+      <c r="E2" s="21"/>
+      <c r="F2" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="H2" s="21" t="s">
+      <c r="H2" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="I2" s="40">
+      <c r="I2" s="46">
         <v>250774</v>
       </c>
     </row>
-    <row r="3" spans="2:14">
-      <c r="B3" s="22"/>
-      <c r="C3" s="23"/>
-      <c r="D3" s="23"/>
-      <c r="E3" s="24">
+    <row r="3" spans="2:9">
+      <c r="B3" s="23"/>
+      <c r="C3" s="24"/>
+      <c r="D3" s="24"/>
+      <c r="E3" s="25">
         <v>45658</v>
       </c>
-      <c r="F3" s="25">
+      <c r="F3" s="26">
         <f>I7-I2</f>
         <v>-60774</v>
       </c>
-      <c r="G3" s="17" t="s">
+      <c r="G3" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="H3" s="21" t="s">
+      <c r="H3" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="I3" s="41">
+      <c r="I3" s="47">
         <v>0.01</v>
       </c>
     </row>
     <row r="4" spans="2:14">
-      <c r="B4" s="22"/>
-      <c r="C4" s="23"/>
-      <c r="D4" s="23"/>
-      <c r="E4" s="26">
+      <c r="B4" s="23"/>
+      <c r="C4" s="24"/>
+      <c r="D4" s="24"/>
+      <c r="E4" s="27">
         <v>45699</v>
       </c>
-      <c r="F4" s="27">
+      <c r="F4" s="28">
         <f>I3*I2/2</f>
-        <v>1253.8699999999999</v>
-      </c>
-      <c r="G4" s="17" t="s">
+        <v>1253.87</v>
+      </c>
+      <c r="G4" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="H4" s="28" t="s">
+      <c r="H4" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="I4" s="42">
-        <v>3.2554E-2</v>
-      </c>
-      <c r="J4" s="71" t="s">
+      <c r="I4" s="48">
+        <v>0.032554</v>
+      </c>
+      <c r="J4" s="49" t="s">
         <v>36</v>
       </c>
-      <c r="K4" s="80"/>
-      <c r="L4" s="80"/>
-      <c r="M4" s="80"/>
-      <c r="N4" s="80"/>
-    </row>
-    <row r="5" spans="2:14">
-      <c r="B5" s="22"/>
-      <c r="C5" s="23"/>
-      <c r="D5" s="23"/>
-      <c r="E5" s="26">
+      <c r="K4"/>
+      <c r="L4"/>
+      <c r="M4"/>
+      <c r="N4"/>
+    </row>
+    <row r="5" spans="2:12">
+      <c r="B5" s="23"/>
+      <c r="C5" s="24"/>
+      <c r="D5" s="24"/>
+      <c r="E5" s="27">
         <v>45708</v>
       </c>
-      <c r="F5" s="27">
+      <c r="F5" s="28">
         <v>1260</v>
       </c>
-      <c r="G5" s="17" t="s">
+      <c r="G5" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="H5" s="28"/>
-      <c r="I5" s="28"/>
-      <c r="J5" s="73"/>
-      <c r="K5" s="74"/>
-      <c r="L5" s="74"/>
-      <c r="M5" s="74"/>
-      <c r="N5" s="74"/>
-    </row>
-    <row r="6" spans="2:14">
-      <c r="B6" s="22"/>
-      <c r="C6" s="23"/>
-      <c r="D6" s="23"/>
-      <c r="E6" s="29"/>
-      <c r="F6" s="25"/>
-      <c r="G6" s="81" t="s">
+      <c r="H5" s="29"/>
+      <c r="I5" s="29"/>
+      <c r="J5" s="50"/>
+      <c r="L5" s="18"/>
+    </row>
+    <row r="6" spans="2:12">
+      <c r="B6" s="23"/>
+      <c r="C6" s="24"/>
+      <c r="D6" s="24"/>
+      <c r="E6" s="30"/>
+      <c r="F6" s="26"/>
+      <c r="G6" s="31" t="s">
         <v>37</v>
       </c>
-      <c r="H6" s="21" t="s">
+      <c r="H6" s="22" t="s">
         <v>38</v>
       </c>
-      <c r="I6" s="43">
+      <c r="I6" s="51">
         <v>0.03</v>
       </c>
-      <c r="J6" s="73" t="s">
+      <c r="J6" s="50" t="s">
         <v>11</v>
       </c>
-      <c r="K6" s="74"/>
-      <c r="L6" s="74"/>
-      <c r="M6" s="74"/>
-      <c r="N6" s="74"/>
-    </row>
-    <row r="7" spans="2:14">
-      <c r="B7" s="75" t="s">
+      <c r="L6" s="18"/>
+    </row>
+    <row r="7" spans="2:12">
+      <c r="B7" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="77" t="s">
+      <c r="C7" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="D7" s="23"/>
-      <c r="E7" s="24">
+      <c r="D7" s="24"/>
+      <c r="E7" s="25">
         <v>46082</v>
       </c>
-      <c r="F7" s="25">
+      <c r="F7" s="26">
         <f>-K16</f>
-        <v>-12381.666666666701</v>
-      </c>
-      <c r="G7" s="81"/>
-      <c r="H7" s="21" t="s">
+        <v>-12381.6666666667</v>
+      </c>
+      <c r="G7" s="31"/>
+      <c r="H7" s="22" t="s">
         <v>39</v>
       </c>
-      <c r="I7" s="40">
+      <c r="I7" s="46">
         <v>190000</v>
       </c>
-      <c r="J7" s="73"/>
-      <c r="K7" s="74"/>
-      <c r="L7" s="74"/>
-      <c r="M7" s="74"/>
-      <c r="N7" s="74"/>
-    </row>
-    <row r="8" spans="2:14">
-      <c r="B8" s="76"/>
-      <c r="C8" s="78"/>
-      <c r="D8" s="30"/>
-      <c r="E8" s="29"/>
-      <c r="F8" s="25"/>
-      <c r="G8" s="81"/>
-      <c r="H8" s="21" t="s">
+      <c r="J7" s="50"/>
+      <c r="L7" s="18"/>
+    </row>
+    <row r="8" spans="2:12">
+      <c r="B8" s="34"/>
+      <c r="C8" s="35"/>
+      <c r="D8" s="36"/>
+      <c r="E8" s="30"/>
+      <c r="F8" s="26"/>
+      <c r="G8" s="31"/>
+      <c r="H8" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="I8" s="43">
-        <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="J8" s="73" t="s">
+      <c r="I8" s="51">
+        <v>0.025</v>
+      </c>
+      <c r="J8" s="50" t="s">
         <v>16</v>
       </c>
-      <c r="K8" s="74"/>
-      <c r="L8" s="74"/>
-      <c r="M8" s="74"/>
-      <c r="N8" s="74"/>
-    </row>
-    <row r="9" spans="2:14">
-      <c r="B9" s="31">
+      <c r="L8" s="18"/>
+    </row>
+    <row r="9" spans="2:7">
+      <c r="B9" s="37">
         <f>SUM($F$3:F9)</f>
-        <v>-62478.099870666701</v>
-      </c>
-      <c r="C9" s="32">
+        <v>-62478.0998706667</v>
+      </c>
+      <c r="C9" s="38">
         <f>B9-F3</f>
-        <v>-1704.0998706666601</v>
-      </c>
-      <c r="D9" s="22" t="s">
+        <v>-1704.09987066666</v>
+      </c>
+      <c r="D9" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="E9" s="24">
+      <c r="E9" s="25">
         <v>46569</v>
       </c>
-      <c r="F9" s="25">
+      <c r="F9" s="26">
         <f>I4*$I$2</f>
-        <v>8163.6967960000002</v>
-      </c>
-      <c r="G9" s="17" t="s">
+        <v>8163.696796</v>
+      </c>
+      <c r="G9" s="18" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="10" spans="2:14">
-      <c r="B10" s="33"/>
-      <c r="C10" s="34"/>
-      <c r="E10" s="24"/>
-      <c r="F10" s="25"/>
-      <c r="G10" s="35"/>
-      <c r="L10" s="17"/>
-    </row>
-    <row r="11" spans="2:14">
-      <c r="B11" s="36" t="s">
+    <row r="10" spans="2:12">
+      <c r="B10" s="39"/>
+      <c r="C10" s="40"/>
+      <c r="E10" s="25"/>
+      <c r="F10" s="26"/>
+      <c r="G10" s="41"/>
+      <c r="L10" s="18"/>
+    </row>
+    <row r="11" spans="2:7">
+      <c r="B11" s="42" t="s">
         <v>25</v>
       </c>
-      <c r="E11" s="24"/>
-      <c r="F11" s="25"/>
-      <c r="G11" s="35"/>
-    </row>
-    <row r="12" spans="2:14">
-      <c r="B12" s="22">
+      <c r="E11" s="25"/>
+      <c r="F11" s="26"/>
+      <c r="G11" s="41"/>
+    </row>
+    <row r="12" spans="2:12">
+      <c r="B12" s="23">
         <f>SUM($F$3:F12)</f>
-        <v>-59064.403074666698</v>
-      </c>
-      <c r="C12" s="23"/>
-      <c r="D12" s="23"/>
-      <c r="E12" s="24">
+        <v>-59064.4030746667</v>
+      </c>
+      <c r="C12" s="24"/>
+      <c r="D12" s="24"/>
+      <c r="E12" s="25">
         <v>46935</v>
       </c>
-      <c r="F12" s="25">
+      <c r="F12" s="26">
         <f>$I$4*$I$2-$I$8*$I$7</f>
-        <v>3413.6967960000002</v>
-      </c>
-      <c r="H12" s="37"/>
-      <c r="I12" s="37"/>
-      <c r="J12" s="37"/>
-      <c r="K12" s="37" t="s">
+        <v>3413.696796</v>
+      </c>
+      <c r="H12" s="43"/>
+      <c r="I12" s="43"/>
+      <c r="J12" s="43"/>
+      <c r="K12" s="43" t="s">
         <v>17</v>
       </c>
-      <c r="L12" s="19" t="s">
+      <c r="L12" s="20" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="13" spans="2:14">
-      <c r="B13" s="22">
+    <row r="13" spans="2:12">
+      <c r="B13" s="23">
         <f>SUM($F$3:F13)</f>
-        <v>-55650.706278666701</v>
-      </c>
-      <c r="C13" s="23"/>
-      <c r="D13" s="23"/>
-      <c r="E13" s="24">
+        <v>-55650.7062786667</v>
+      </c>
+      <c r="C13" s="24"/>
+      <c r="D13" s="24"/>
+      <c r="E13" s="25">
         <v>47300</v>
       </c>
-      <c r="F13" s="25">
+      <c r="F13" s="26">
         <f t="shared" ref="F13:F28" si="0">$I$4*$I$2-$I$8*$I$7</f>
-        <v>3413.6967960000002</v>
-      </c>
-      <c r="H13" s="38" t="s">
+        <v>3413.696796</v>
+      </c>
+      <c r="H13" s="44" t="s">
         <v>19</v>
       </c>
-      <c r="I13" s="21" t="s">
+      <c r="I13" s="22" t="s">
         <v>41</v>
       </c>
-      <c r="J13" s="43">
-        <v>2.53E-2</v>
-      </c>
-      <c r="K13" s="40">
+      <c r="J13" s="51">
+        <v>0.0253</v>
+      </c>
+      <c r="K13" s="46">
         <f>$I$7*LEFT(I13,2)/12*J13</f>
-        <v>3204.6666666666702</v>
-      </c>
-      <c r="L13" s="44">
+        <v>3204.66666666667</v>
+      </c>
+      <c r="L13" s="52">
         <f>J13*I7/12</f>
-        <v>400.58333333333297</v>
-      </c>
-    </row>
-    <row r="14" spans="2:14">
-      <c r="B14" s="22">
+        <v>400.583333333333</v>
+      </c>
+    </row>
+    <row r="14" spans="2:12">
+      <c r="B14" s="23">
         <f>SUM($F$3:F14)</f>
-        <v>-52237.009482666603</v>
-      </c>
-      <c r="C14" s="23"/>
-      <c r="D14" s="23"/>
-      <c r="E14" s="24">
+        <v>-52237.0094826666</v>
+      </c>
+      <c r="C14" s="24"/>
+      <c r="D14" s="24"/>
+      <c r="E14" s="25">
         <v>47665</v>
       </c>
-      <c r="F14" s="25">
+      <c r="F14" s="26">
         <f t="shared" si="0"/>
-        <v>3413.6967960000002</v>
-      </c>
-      <c r="H14" s="38" t="s">
+        <v>3413.696796</v>
+      </c>
+      <c r="H14" s="44" t="s">
         <v>21</v>
       </c>
-      <c r="I14" s="21" t="s">
+      <c r="I14" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="J14" s="43">
-        <v>2.3300000000000001E-2</v>
-      </c>
-      <c r="K14" s="40">
+      <c r="J14" s="51">
+        <v>0.0233</v>
+      </c>
+      <c r="K14" s="46">
         <f>$I$7*LEFT(I14,2)/12*J14</f>
         <v>4427</v>
       </c>
-      <c r="L14" s="17"/>
-    </row>
-    <row r="15" spans="2:14">
-      <c r="B15" s="22">
+      <c r="L14" s="18"/>
+    </row>
+    <row r="15" ht="15.15" spans="2:11">
+      <c r="B15" s="23">
         <f>SUM($F$3:F15)</f>
-        <v>-48823.312686666599</v>
-      </c>
-      <c r="C15" s="37" t="s">
+        <v>-48823.3126866666</v>
+      </c>
+      <c r="C15" s="43" t="s">
         <v>27</v>
       </c>
-      <c r="D15" s="37"/>
-      <c r="E15" s="24">
+      <c r="D15" s="43"/>
+      <c r="E15" s="25">
         <v>48030</v>
       </c>
-      <c r="F15" s="25">
+      <c r="F15" s="26">
         <f t="shared" si="0"/>
-        <v>3413.6967960000002</v>
-      </c>
-      <c r="H15" s="38" t="s">
+        <v>3413.696796</v>
+      </c>
+      <c r="H15" s="44" t="s">
         <v>23</v>
       </c>
-      <c r="I15" s="21" t="s">
+      <c r="I15" s="22" t="s">
         <v>42</v>
       </c>
-      <c r="J15" s="43">
+      <c r="J15" s="51">
         <f>I6</f>
         <v>0.03</v>
       </c>
-      <c r="K15" s="45">
+      <c r="K15" s="53">
         <f>$I$7*LEFT(I15,2)/12*J15</f>
         <v>4750</v>
       </c>
     </row>
-    <row r="16" spans="2:14">
-      <c r="B16" s="22">
+    <row r="16" ht="15.15" spans="2:12">
+      <c r="B16" s="23">
         <f>SUM($F$3:F16)</f>
-        <v>-45409.615890666602</v>
-      </c>
-      <c r="C16" s="39">
+        <v>-45409.6158906666</v>
+      </c>
+      <c r="C16" s="45">
         <f>-F16/F3</f>
-        <v>5.6170349096653201E-2</v>
-      </c>
-      <c r="D16" s="39"/>
-      <c r="E16" s="24">
+        <v>0.0561703490966532</v>
+      </c>
+      <c r="D16" s="45"/>
+      <c r="E16" s="25">
         <v>48396</v>
       </c>
-      <c r="F16" s="25">
+      <c r="F16" s="26">
         <f t="shared" si="0"/>
-        <v>3413.6967960000002</v>
-      </c>
-      <c r="H16" s="21"/>
-      <c r="I16" s="21"/>
-      <c r="J16" s="46"/>
-      <c r="K16" s="47">
+        <v>3413.696796</v>
+      </c>
+      <c r="H16" s="22"/>
+      <c r="I16" s="22"/>
+      <c r="J16" s="54"/>
+      <c r="K16" s="55">
         <f>SUM(K13:K15)</f>
-        <v>12381.666666666701</v>
-      </c>
-      <c r="L16" s="17"/>
-    </row>
-    <row r="17" spans="2:14">
-      <c r="B17" s="22">
+        <v>12381.6666666667</v>
+      </c>
+      <c r="L16" s="18"/>
+    </row>
+    <row r="17" spans="2:6">
+      <c r="B17" s="23">
         <f>SUM($F$3:F17)</f>
-        <v>-41995.919094666599</v>
-      </c>
-      <c r="C17" s="23"/>
-      <c r="D17" s="23"/>
-      <c r="E17" s="24">
+        <v>-41995.9190946666</v>
+      </c>
+      <c r="C17" s="24"/>
+      <c r="D17" s="24"/>
+      <c r="E17" s="25">
         <v>48761</v>
       </c>
-      <c r="F17" s="25">
+      <c r="F17" s="26">
         <f t="shared" si="0"/>
-        <v>3413.6967960000002</v>
-      </c>
-    </row>
-    <row r="18" spans="2:14">
-      <c r="B18" s="22">
+        <v>3413.696796</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6">
+      <c r="B18" s="23">
         <f>SUM($F$3:F18)</f>
-        <v>-38582.222298666602</v>
-      </c>
-      <c r="C18" s="23"/>
-      <c r="D18" s="23"/>
-      <c r="E18" s="24">
+        <v>-38582.2222986666</v>
+      </c>
+      <c r="C18" s="24"/>
+      <c r="D18" s="24"/>
+      <c r="E18" s="25">
         <v>49126</v>
       </c>
-      <c r="F18" s="25">
+      <c r="F18" s="26">
         <f t="shared" si="0"/>
-        <v>3413.6967960000002</v>
-      </c>
-    </row>
-    <row r="19" spans="2:14">
-      <c r="B19" s="22">
+        <v>3413.696796</v>
+      </c>
+    </row>
+    <row r="19" spans="2:6">
+      <c r="B19" s="23">
         <f>SUM($F$3:F19)</f>
-        <v>-35168.525502666598</v>
-      </c>
-      <c r="C19" s="23"/>
-      <c r="D19" s="23"/>
-      <c r="E19" s="24">
+        <v>-35168.5255026666</v>
+      </c>
+      <c r="C19" s="24"/>
+      <c r="D19" s="24"/>
+      <c r="E19" s="25">
         <v>49491</v>
       </c>
-      <c r="F19" s="25">
+      <c r="F19" s="26">
         <f t="shared" si="0"/>
-        <v>3413.6967960000002</v>
-      </c>
-    </row>
-    <row r="20" spans="2:14">
-      <c r="B20" s="22">
+        <v>3413.696796</v>
+      </c>
+    </row>
+    <row r="20" spans="2:6">
+      <c r="B20" s="23">
         <f>SUM($F$3:F20)</f>
-        <v>-31754.828706666602</v>
-      </c>
-      <c r="C20" s="23"/>
-      <c r="D20" s="23"/>
-      <c r="E20" s="24">
+        <v>-31754.8287066666</v>
+      </c>
+      <c r="C20" s="24"/>
+      <c r="D20" s="24"/>
+      <c r="E20" s="25">
         <v>49857</v>
       </c>
-      <c r="F20" s="25">
+      <c r="F20" s="26">
         <f t="shared" si="0"/>
-        <v>3413.6967960000002</v>
-      </c>
-    </row>
-    <row r="21" spans="2:14">
-      <c r="B21" s="22">
+        <v>3413.696796</v>
+      </c>
+    </row>
+    <row r="21" spans="2:6">
+      <c r="B21" s="23">
         <f>SUM($F$3:F21)</f>
-        <v>-28341.131910666601</v>
-      </c>
-      <c r="C21" s="23"/>
-      <c r="D21" s="23"/>
-      <c r="E21" s="24">
+        <v>-28341.1319106666</v>
+      </c>
+      <c r="C21" s="24"/>
+      <c r="D21" s="24"/>
+      <c r="E21" s="25">
         <v>50222</v>
       </c>
-      <c r="F21" s="25">
+      <c r="F21" s="26">
         <f t="shared" si="0"/>
-        <v>3413.6967960000002</v>
-      </c>
-    </row>
-    <row r="22" spans="2:14">
-      <c r="B22" s="22">
+        <v>3413.696796</v>
+      </c>
+    </row>
+    <row r="22" spans="2:6">
+      <c r="B22" s="23">
         <f>SUM($F$3:F22)</f>
-        <v>-24927.435114666601</v>
-      </c>
-      <c r="C22" s="23"/>
-      <c r="D22" s="23"/>
-      <c r="E22" s="24">
+        <v>-24927.4351146666</v>
+      </c>
+      <c r="C22" s="24"/>
+      <c r="D22" s="24"/>
+      <c r="E22" s="25">
         <v>50587</v>
       </c>
-      <c r="F22" s="25">
+      <c r="F22" s="26">
         <f t="shared" si="0"/>
-        <v>3413.6967960000002</v>
-      </c>
-    </row>
-    <row r="23" spans="2:14">
-      <c r="B23" s="22">
+        <v>3413.696796</v>
+      </c>
+    </row>
+    <row r="23" spans="2:6">
+      <c r="B23" s="23">
         <f>SUM($F$3:F23)</f>
-        <v>-21513.738318666601</v>
-      </c>
-      <c r="C23" s="23"/>
-      <c r="D23" s="23"/>
-      <c r="E23" s="24">
+        <v>-21513.7383186666</v>
+      </c>
+      <c r="C23" s="24"/>
+      <c r="D23" s="24"/>
+      <c r="E23" s="25">
         <v>50952</v>
       </c>
-      <c r="F23" s="25">
+      <c r="F23" s="26">
         <f t="shared" si="0"/>
-        <v>3413.6967960000002</v>
-      </c>
-    </row>
-    <row r="24" spans="2:14">
-      <c r="B24" s="22">
+        <v>3413.696796</v>
+      </c>
+    </row>
+    <row r="24" spans="2:6">
+      <c r="B24" s="23">
         <f>SUM($F$3:F24)</f>
-        <v>-18100.041522666601</v>
-      </c>
-      <c r="C24" s="23"/>
-      <c r="D24" s="23"/>
-      <c r="E24" s="24">
+        <v>-18100.0415226666</v>
+      </c>
+      <c r="C24" s="24"/>
+      <c r="D24" s="24"/>
+      <c r="E24" s="25">
         <v>51318</v>
       </c>
-      <c r="F24" s="25">
+      <c r="F24" s="26">
         <f t="shared" si="0"/>
-        <v>3413.6967960000002</v>
-      </c>
-    </row>
-    <row r="25" spans="2:14">
-      <c r="B25" s="22">
+        <v>3413.696796</v>
+      </c>
+    </row>
+    <row r="25" spans="2:6">
+      <c r="B25" s="23">
         <f>SUM($F$3:F25)</f>
-        <v>-14686.344726666601</v>
-      </c>
-      <c r="C25" s="23"/>
-      <c r="D25" s="23"/>
-      <c r="E25" s="24">
+        <v>-14686.3447266666</v>
+      </c>
+      <c r="C25" s="24"/>
+      <c r="D25" s="24"/>
+      <c r="E25" s="25">
         <v>51683</v>
       </c>
-      <c r="F25" s="25">
+      <c r="F25" s="26">
         <f t="shared" si="0"/>
-        <v>3413.6967960000002</v>
-      </c>
-    </row>
-    <row r="26" spans="2:14">
-      <c r="B26" s="22">
+        <v>3413.696796</v>
+      </c>
+    </row>
+    <row r="26" spans="2:6">
+      <c r="B26" s="23">
         <f>SUM($F$3:F26)</f>
-        <v>-11272.647930666601</v>
-      </c>
-      <c r="C26" s="23"/>
-      <c r="D26" s="23"/>
-      <c r="E26" s="24">
+        <v>-11272.6479306666</v>
+      </c>
+      <c r="C26" s="24"/>
+      <c r="D26" s="24"/>
+      <c r="E26" s="25">
         <v>52048</v>
       </c>
-      <c r="F26" s="25">
+      <c r="F26" s="26">
         <f t="shared" si="0"/>
-        <v>3413.6967960000002</v>
-      </c>
-    </row>
-    <row r="27" spans="2:14">
-      <c r="B27" s="22">
+        <v>3413.696796</v>
+      </c>
+    </row>
+    <row r="27" spans="2:6">
+      <c r="B27" s="23">
         <f>SUM($F$3:F27)</f>
-        <v>-7858.9511346666304</v>
-      </c>
-      <c r="C27" s="23"/>
-      <c r="D27" s="23"/>
-      <c r="E27" s="24">
+        <v>-7858.95113466663</v>
+      </c>
+      <c r="C27" s="24"/>
+      <c r="D27" s="24"/>
+      <c r="E27" s="25">
         <v>52413</v>
       </c>
-      <c r="F27" s="25">
+      <c r="F27" s="26">
         <f t="shared" si="0"/>
-        <v>3413.6967960000002</v>
-      </c>
-    </row>
-    <row r="28" spans="2:14">
-      <c r="B28" s="22">
+        <v>3413.696796</v>
+      </c>
+    </row>
+    <row r="28" spans="2:9">
+      <c r="B28" s="23">
         <f>SUM($F$3:F28)</f>
-        <v>-4445.2543386666302</v>
-      </c>
-      <c r="C28" s="23" t="s">
+        <v>-4445.25433866663</v>
+      </c>
+      <c r="C28" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="D28" s="23"/>
-      <c r="E28" s="24">
+      <c r="D28" s="24"/>
+      <c r="E28" s="25">
         <v>52779</v>
       </c>
-      <c r="F28" s="25">
+      <c r="F28" s="26">
         <f t="shared" si="0"/>
-        <v>3413.6967960000002</v>
-      </c>
-      <c r="H28" s="35"/>
-      <c r="I28" s="35"/>
-    </row>
-    <row r="29" spans="2:14">
-      <c r="B29" s="22">
+        <v>3413.696796</v>
+      </c>
+      <c r="H28" s="41"/>
+      <c r="I28" s="41"/>
+    </row>
+    <row r="29" spans="2:7">
+      <c r="B29" s="23">
         <f>SUM($F$3:F29)</f>
-        <v>69328.745661333407</v>
-      </c>
-      <c r="C29" s="23">
+        <v>69328.7456613334</v>
+      </c>
+      <c r="C29" s="24">
         <f>XIRR(F3:F29,E3:E29)</f>
-        <v>4.9763250703653797E-2</v>
-      </c>
-      <c r="D29" s="23" t="s">
+        <v>0.0497632507036538</v>
+      </c>
+      <c r="D29" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="E29" s="24">
+      <c r="E29" s="25">
         <v>52779</v>
       </c>
-      <c r="F29" s="25">
+      <c r="F29" s="26">
         <f>ABS(F3)+13000</f>
         <v>73774</v>
       </c>
-      <c r="G29" s="17" t="s">
+      <c r="G29" s="18" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="30" spans="2:14">
-      <c r="B30" s="22"/>
-      <c r="C30" s="23"/>
-      <c r="D30" s="23"/>
-    </row>
-    <row r="31" spans="2:14">
-      <c r="L31" s="17"/>
-    </row>
-    <row r="32" spans="2:14">
-      <c r="E32" s="17"/>
-      <c r="H32" s="22"/>
-      <c r="I32" s="22"/>
-      <c r="J32" s="22"/>
-      <c r="K32" s="22"/>
-      <c r="L32" s="22"/>
-      <c r="M32" s="22"/>
-      <c r="N32" s="22"/>
+    <row r="30" spans="2:4">
+      <c r="B30" s="23"/>
+      <c r="C30" s="24"/>
+      <c r="D30" s="24"/>
+    </row>
+    <row r="31" spans="12:12">
+      <c r="L31" s="18"/>
+    </row>
+    <row r="32" spans="5:14">
+      <c r="E32" s="18"/>
+      <c r="F32" s="18"/>
+      <c r="G32" s="18"/>
+      <c r="H32" s="23"/>
+      <c r="I32" s="23"/>
+      <c r="J32" s="23"/>
+      <c r="K32" s="23"/>
+      <c r="L32" s="23"/>
+      <c r="M32" s="23"/>
+      <c r="N32" s="23"/>
     </row>
     <row r="33" spans="2:12">
-      <c r="B33" s="22" t="s">
+      <c r="B33" s="23" t="s">
         <v>32</v>
       </c>
-      <c r="C33" s="22"/>
-      <c r="D33" s="22"/>
-      <c r="E33" s="22"/>
-      <c r="F33" s="22"/>
-      <c r="G33" s="22"/>
-      <c r="L33" s="17"/>
+      <c r="C33" s="23"/>
+      <c r="D33" s="23"/>
+      <c r="E33" s="23"/>
+      <c r="F33" s="23"/>
+      <c r="G33" s="23"/>
+      <c r="H33" s="18"/>
+      <c r="I33" s="18"/>
+      <c r="J33" s="18"/>
+      <c r="K33" s="18"/>
+      <c r="L33" s="18"/>
     </row>
     <row r="34" spans="2:12">
-      <c r="B34" s="17" t="s">
+      <c r="B34" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="E34" s="17"/>
-      <c r="L34" s="17"/>
-    </row>
-    <row r="35" spans="2:12">
-      <c r="E35" s="17"/>
+      <c r="C34" s="18"/>
+      <c r="D34" s="18"/>
+      <c r="E34" s="18"/>
+      <c r="F34" s="18"/>
+      <c r="G34" s="18"/>
+      <c r="H34" s="18"/>
+      <c r="I34" s="18"/>
+      <c r="J34" s="18"/>
+      <c r="K34" s="18"/>
+      <c r="L34" s="18"/>
+    </row>
+    <row r="35" spans="5:5">
+      <c r="E35" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="8">
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="G6:G8"/>
     <mergeCell ref="J4:N4"/>
     <mergeCell ref="J5:N5"/>
     <mergeCell ref="J6:N6"/>
     <mergeCell ref="J7:N7"/>
     <mergeCell ref="J8:N8"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="G6:G8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait"/>
+  <pageSetup paperSize="1" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A2:I10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="3"/>
-    <col min="2" max="2" width="9.7109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.85546875" customWidth="1"/>
-    <col min="4" max="4" width="5.7109375" customWidth="1"/>
-    <col min="5" max="5" width="11.28515625" customWidth="1"/>
+    <col min="1" max="1" width="9.14159292035398" style="3"/>
+    <col min="2" max="2" width="9.14159292035398" style="4" customWidth="1"/>
+    <col min="3" max="3" width="9.85840707964602" customWidth="1"/>
+    <col min="4" max="4" width="5.70796460176991" customWidth="1"/>
+    <col min="5" max="5" width="11.283185840708" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:3">
       <c r="A2" s="3" t="s">
         <v>44</v>
       </c>
@@ -2377,19 +2980,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="2:5">
       <c r="B3" s="2">
         <v>45177</v>
       </c>
       <c r="C3">
         <f>-I4/3</f>
-        <v>-50065.666666666701</v>
-      </c>
-      <c r="E3" s="15" t="s">
+        <v>-50065.6666666667</v>
+      </c>
+      <c r="E3" s="16" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="2:9">
       <c r="B4" s="4">
         <v>45261</v>
       </c>
@@ -2403,45 +3006,42 @@
         <v>150197</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="2:3">
       <c r="B5" s="4">
         <v>45352</v>
       </c>
       <c r="C5">
         <f>C3</f>
-        <v>-50065.666666666701</v>
-      </c>
-      <c r="E5" s="15" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
-      <c r="H6" s="13" t="s">
+        <v>-50065.6666666667</v>
+      </c>
+    </row>
+    <row r="6" spans="8:8">
+      <c r="H6" s="14" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="2:3">
       <c r="B7" s="4">
         <v>45717</v>
       </c>
       <c r="C7">
         <f>C3</f>
-        <v>-50065.666666666701</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
+        <v>-50065.6666666667</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4">
       <c r="B9" s="4">
         <v>46082</v>
       </c>
-      <c r="C9" s="16">
+      <c r="C9" s="17">
         <f>2.978%*I4</f>
-        <v>4472.8666599999997</v>
-      </c>
-      <c r="E9" t="s">
+        <v>4472.86666</v>
+      </c>
+      <c r="D9" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="1:6">
       <c r="A10" s="3">
         <f>SUM(C3:C10)</f>
         <v>10601.86666</v>
@@ -2458,241 +3058,242 @@
       </c>
       <c r="F10" s="11">
         <f>XIRR(C3:C10,B3:B10)</f>
-        <v>3.98741956457715E-2</v>
+        <v>0.0398741956457715</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait"/>
+  <pageSetup paperSize="1" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="B2:N21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="2.42578125" customWidth="1"/>
-    <col min="2" max="2" width="9" style="3"/>
-    <col min="3" max="3" width="7.140625" style="4" customWidth="1"/>
-    <col min="4" max="4" width="11.5703125" customWidth="1"/>
-    <col min="5" max="5" width="2.5703125" customWidth="1"/>
+    <col min="1" max="1" width="2.42477876106195" customWidth="1"/>
+    <col min="2" max="2" width="6.88495575221239" style="3" customWidth="1"/>
+    <col min="3" max="3" width="7.14159292035398" style="4" customWidth="1"/>
+    <col min="4" max="4" width="11.5663716814159" customWidth="1"/>
+    <col min="5" max="5" width="3.09734513274336" customWidth="1"/>
     <col min="6" max="6" width="18" customWidth="1"/>
     <col min="7" max="7" width="9" customWidth="1"/>
-    <col min="9" max="9" width="11.5703125" customWidth="1"/>
-    <col min="14" max="14" width="11.140625" customWidth="1"/>
+    <col min="9" max="9" width="11.5663716814159" customWidth="1"/>
+    <col min="14" max="14" width="11.141592920354" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:9">
+    <row r="2" spans="2:4">
       <c r="B2" s="5" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="C2" s="6"/>
       <c r="D2" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="F2" t="s">
-        <v>1</v>
-      </c>
-      <c r="G2" s="8">
-        <f>-D3*3</f>
-        <v>226348.35</v>
-      </c>
-    </row>
-    <row r="3" spans="2:9">
+    </row>
+    <row r="3" spans="2:6">
       <c r="B3" s="5"/>
       <c r="C3" s="6">
         <v>45748</v>
       </c>
-      <c r="D3" s="9">
+      <c r="D3" s="8">
         <v>-75449.45</v>
       </c>
-    </row>
-    <row r="4" spans="2:9">
+      <c r="F3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="4" spans="2:4">
       <c r="B4" s="5"/>
       <c r="C4" s="6"/>
-      <c r="D4" s="9"/>
-    </row>
-    <row r="5" spans="2:9">
-      <c r="B5" s="5" t="s">
-        <v>48</v>
-      </c>
+      <c r="D4" s="8"/>
+    </row>
+    <row r="5" spans="2:6">
+      <c r="B5" s="5"/>
       <c r="C5" s="6">
         <v>45778</v>
       </c>
-      <c r="D5" s="9">
+      <c r="D5" s="8">
         <f>2263.48</f>
         <v>2263.48</v>
       </c>
-      <c r="F5" t="s">
-        <v>59</v>
-      </c>
-      <c r="G5" s="10">
-        <f>SUM(D5:D6)/G2</f>
-        <v>3.4899967240759645E-2</v>
-      </c>
-    </row>
-    <row r="6" spans="2:9">
-      <c r="B6" s="5" t="s">
-        <v>49</v>
-      </c>
+      <c r="F5" s="9" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="6" customFormat="1" spans="2:7">
+      <c r="B6" s="5"/>
       <c r="C6" s="6">
         <v>45809</v>
       </c>
-      <c r="D6" s="9">
+      <c r="D6" s="8">
         <v>5636.07</v>
       </c>
+      <c r="F6" s="9" t="s">
+        <v>51</v>
+      </c>
       <c r="G6" s="10"/>
     </row>
-    <row r="7" spans="2:9">
+    <row r="7" customFormat="1" spans="2:7">
       <c r="B7" s="5"/>
       <c r="C7" s="6"/>
-      <c r="D7" s="9"/>
-      <c r="G7" s="10"/>
-    </row>
-    <row r="8" spans="2:9">
+      <c r="D7" s="8"/>
+      <c r="F7" t="s">
+        <v>52</v>
+      </c>
+      <c r="G7" s="10">
+        <f>SUM(D5:D6)/G17</f>
+        <v>0.0348999672407597</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4">
       <c r="B8" s="5"/>
       <c r="C8" s="6">
         <v>45901</v>
       </c>
-      <c r="D8" s="9">
+      <c r="D8" s="8">
         <f>D3</f>
         <v>-75449.45</v>
-      </c>
-      <c r="F8" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="9" spans="2:9">
       <c r="B9" s="5"/>
       <c r="C9" s="6"/>
-      <c r="D9" s="9"/>
-      <c r="I9" s="13"/>
-    </row>
-    <row r="10" spans="2:9">
+      <c r="D9" s="8"/>
+      <c r="I9" s="14"/>
+    </row>
+    <row r="10" spans="2:6">
       <c r="B10" s="5"/>
       <c r="C10" s="6">
         <v>46266</v>
       </c>
-      <c r="D10" s="9">
+      <c r="D10" s="8">
         <f>D3</f>
         <v>-75449.45</v>
       </c>
       <c r="F10" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="11" spans="2:9">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="11" spans="2:4">
       <c r="B11" s="5"/>
       <c r="C11" s="6"/>
-      <c r="D11" s="9"/>
-    </row>
-    <row r="12" spans="2:9">
+      <c r="D11" s="8"/>
+    </row>
+    <row r="12" spans="2:8">
       <c r="B12" s="5"/>
       <c r="C12" s="6">
         <v>46631</v>
       </c>
-      <c r="D12" s="9">
-        <f>G12*G2</f>
-        <v>6813.0853349999998</v>
+      <c r="D12" s="8">
+        <f>G12*G17</f>
+        <v>6813.085335</v>
       </c>
       <c r="F12" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="G12" s="11">
-        <v>3.0099999999999998E-2</v>
+        <v>0.0301</v>
       </c>
       <c r="H12" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="13" spans="2:9">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="13" customFormat="1" spans="2:6">
       <c r="B13" s="5"/>
       <c r="C13" s="6"/>
       <c r="D13" s="12"/>
-      <c r="F13" s="80" t="s">
-        <v>53</v>
-      </c>
-      <c r="G13" s="80"/>
-      <c r="H13" s="80"/>
-    </row>
-    <row r="14" spans="2:9">
+      <c r="F13" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="14" customFormat="1" spans="2:4">
       <c r="B14" s="5"/>
       <c r="C14" s="6"/>
       <c r="D14" s="12"/>
-      <c r="F14" s="80"/>
-      <c r="G14" s="80"/>
-    </row>
-    <row r="15" spans="2:9">
+    </row>
+    <row r="15" spans="2:6">
       <c r="B15" s="5">
         <f>SUM(D3:D15)</f>
-        <v>15028.285335</v>
+        <v>14712.635335</v>
       </c>
       <c r="C15" s="6">
         <v>46631</v>
       </c>
       <c r="D15" s="12">
-        <v>226664</v>
-      </c>
-      <c r="F15" s="80" t="s">
-        <v>54</v>
-      </c>
-      <c r="G15" s="80"/>
-    </row>
-    <row r="16" spans="2:9">
+        <f>G17</f>
+        <v>226348.35</v>
+      </c>
+      <c r="F15" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="16" spans="3:7">
       <c r="C16" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="F16" s="80" t="s">
-        <v>56</v>
-      </c>
-      <c r="G16" s="80"/>
-    </row>
-    <row r="18" spans="6:14">
-      <c r="F18" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="F16" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="G18" s="11">
+      <c r="G16" s="11">
         <f>XIRR(D3:D15,C3:C15)</f>
-        <v>3.77388777949497E-2</v>
-      </c>
-    </row>
-    <row r="21" spans="6:14">
-      <c r="N21" s="14"/>
+        <v>0.0369602939142573</v>
+      </c>
+    </row>
+    <row r="17" spans="6:7">
+      <c r="F17" t="s">
+        <v>1</v>
+      </c>
+      <c r="G17" s="13">
+        <f>-D3*3</f>
+        <v>226348.35</v>
+      </c>
+    </row>
+    <row r="18" spans="6:6">
+      <c r="F18" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="21" spans="14:14">
+      <c r="N21" s="15"/>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="3">
     <mergeCell ref="F13:H13"/>
     <mergeCell ref="F14:G14"/>
     <mergeCell ref="F15:G15"/>
-    <mergeCell ref="F16:G16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait"/>
+  <pageSetup paperSize="1" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:R27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E4" sqref="E4:R4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="2" width="9.85546875" customWidth="1"/>
-    <col min="3" max="3" width="1.5703125" customWidth="1"/>
+    <col min="1" max="2" width="9.85840707964602" customWidth="1"/>
+    <col min="3" max="3" width="1.56637168141593" customWidth="1"/>
     <col min="4" max="4" width="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="2:5">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -2701,10 +3302,10 @@
       </c>
       <c r="E1" s="1">
         <f>XIRR(B2:B27,A2:A27)</f>
-        <v>2.99782292091633E-2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:18">
+        <v>0.0299782292091633</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
       <c r="A2" s="2">
         <v>36526</v>
       </c>
@@ -2712,99 +3313,45 @@
         <v>-100</v>
       </c>
     </row>
-    <row r="3" spans="1:18">
+    <row r="3" spans="1:5">
       <c r="A3" s="2">
         <v>36892</v>
       </c>
       <c r="B3">
         <v>3</v>
       </c>
-      <c r="E3" s="80" t="s">
-        <v>57</v>
-      </c>
-      <c r="F3" s="80"/>
-      <c r="G3" s="80"/>
-      <c r="H3" s="80"/>
-      <c r="I3" s="80"/>
-      <c r="J3" s="80"/>
-      <c r="K3" s="80"/>
-      <c r="L3" s="80"/>
-      <c r="M3" s="80"/>
-      <c r="N3" s="80"/>
-      <c r="O3" s="80"/>
-      <c r="P3" s="80"/>
-      <c r="Q3" s="80"/>
-      <c r="R3" s="80"/>
-    </row>
-    <row r="4" spans="1:18">
+      <c r="E3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4" s="2">
         <v>37257</v>
       </c>
       <c r="B4">
         <v>3</v>
       </c>
-      <c r="E4" s="80" t="s">
-        <v>58</v>
-      </c>
-      <c r="F4" s="80"/>
-      <c r="G4" s="80"/>
-      <c r="H4" s="80"/>
-      <c r="I4" s="80"/>
-      <c r="J4" s="80"/>
-      <c r="K4" s="80"/>
-      <c r="L4" s="80"/>
-      <c r="M4" s="80"/>
-      <c r="N4" s="80"/>
-      <c r="O4" s="80"/>
-      <c r="P4" s="80"/>
-      <c r="Q4" s="80"/>
-      <c r="R4" s="80"/>
-    </row>
-    <row r="5" spans="1:18">
+      <c r="E4" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
       <c r="A5" s="2">
         <v>37622</v>
       </c>
       <c r="B5">
         <v>3</v>
       </c>
-      <c r="E5" s="80"/>
-      <c r="F5" s="80"/>
-      <c r="G5" s="80"/>
-      <c r="H5" s="80"/>
-      <c r="I5" s="80"/>
-      <c r="J5" s="80"/>
-      <c r="K5" s="80"/>
-      <c r="L5" s="80"/>
-      <c r="M5" s="80"/>
-      <c r="N5" s="80"/>
-      <c r="O5" s="80"/>
-      <c r="P5" s="80"/>
-      <c r="Q5" s="80"/>
-      <c r="R5" s="80"/>
-    </row>
-    <row r="6" spans="1:18">
+    </row>
+    <row r="6" spans="1:2">
       <c r="A6" s="2">
         <v>37987</v>
       </c>
       <c r="B6">
         <v>3</v>
       </c>
-      <c r="E6" s="80"/>
-      <c r="F6" s="80"/>
-      <c r="G6" s="80"/>
-      <c r="H6" s="80"/>
-      <c r="I6" s="80"/>
-      <c r="J6" s="80"/>
-      <c r="K6" s="80"/>
-      <c r="L6" s="80"/>
-      <c r="M6" s="80"/>
-      <c r="N6" s="80"/>
-      <c r="O6" s="80"/>
-      <c r="P6" s="80"/>
-      <c r="Q6" s="80"/>
-      <c r="R6" s="80"/>
-    </row>
-    <row r="7" spans="1:18">
+    </row>
+    <row r="7" spans="1:2">
       <c r="A7" s="2">
         <v>38353</v>
       </c>
@@ -2812,7 +3359,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:18">
+    <row r="8" spans="1:2">
       <c r="A8" s="2">
         <v>38718</v>
       </c>
@@ -2820,7 +3367,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:18">
+    <row r="9" spans="1:2">
       <c r="A9" s="2">
         <v>39083</v>
       </c>
@@ -2828,7 +3375,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:18">
+    <row r="10" spans="1:2">
       <c r="A10" s="2">
         <v>39448</v>
       </c>
@@ -2836,7 +3383,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:18">
+    <row r="11" spans="1:2">
       <c r="A11" s="2">
         <v>39814</v>
       </c>
@@ -2844,7 +3391,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:18">
+    <row r="12" spans="1:2">
       <c r="A12" s="2">
         <v>40179</v>
       </c>
@@ -2852,7 +3399,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:18">
+    <row r="13" spans="1:2">
       <c r="A13" s="2">
         <v>40544</v>
       </c>
@@ -2860,7 +3407,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:18">
+    <row r="14" spans="1:2">
       <c r="A14" s="2">
         <v>40909</v>
       </c>
@@ -2868,7 +3415,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:18">
+    <row r="15" spans="1:2">
       <c r="A15" s="2">
         <v>41275</v>
       </c>
@@ -2876,7 +3423,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:18">
+    <row r="16" spans="1:2">
       <c r="A16" s="2">
         <v>41640</v>
       </c>
@@ -2981,6 +3528,7 @@
     <mergeCell ref="E6:R6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait"/>
+  <pageSetup paperSize="1" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/msff/xls/FLI2FWD.xlsx
+++ b/msff/xls/FLI2FWD.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21001"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\0x\repos\repo1\msff\xls\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86A8BD7E-5FA9-45D7-8543-49B02C05FCD8}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="22701" windowHeight="11520" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22695" windowHeight="11520" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="FWD300" sheetId="9" r:id="rId1"/>
@@ -13,20 +19,7 @@
     <sheet name="FLi226" sheetId="11" r:id="rId4"/>
     <sheet name="xirr test" sheetId="3" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="179021"/>
 </workbook>
 </file>
 
@@ -55,7 +48,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Calibri"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -64,8 +57,8 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color theme="5" tint="0.399945066682943"/>
-        <rFont val="等线"/>
+        <color theme="5" tint="0.39991454817346722"/>
+        <rFont val="Calibri"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -91,7 +84,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Calibri"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -101,7 +94,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="5" tint="-0.249977111117893"/>
-        <rFont val="等线"/>
+        <rFont val="Calibri"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -111,7 +104,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="5"/>
-        <rFont val="等线"/>
+        <rFont val="Calibri"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -135,7 +128,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Calibri"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -146,7 +139,7 @@
         <b/>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="等线"/>
+        <rFont val="Calibri"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -156,7 +149,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Calibri"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -225,7 +218,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Calibri"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -234,8 +227,8 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color theme="5" tint="0.399945066682943"/>
-        <rFont val="等线"/>
+        <color theme="5" tint="0.39991454817346722"/>
+        <rFont val="Calibri"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -321,404 +314,79 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
-  <numFmts count="11">
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="9">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="0.0000%"/>
-    <numFmt numFmtId="178" formatCode="#,##0.00_ "/>
-    <numFmt numFmtId="179" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="180" formatCode="_(* #,##0.0000000_);_(* \(#,##0.0000000\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="181" formatCode="[$-409]mmm/yy;@"/>
-    <numFmt numFmtId="182" formatCode="[$-409]d\-mmm;@"/>
-    <numFmt numFmtId="183" formatCode="&quot;$&quot;#,##0"/>
+    <numFmt numFmtId="165" formatCode="0.0000%"/>
+    <numFmt numFmtId="166" formatCode="#,##0.00_ "/>
+    <numFmt numFmtId="167" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="168" formatCode="_(* #,##0.0000000_);_(* \(#,##0.0000000\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="169" formatCode="[$-409]mmm/yy;@"/>
+    <numFmt numFmtId="170" formatCode="[$-409]d\-mmm;@"/>
+    <numFmt numFmtId="171" formatCode="&quot;$&quot;#,##0"/>
+    <numFmt numFmtId="172" formatCode="0.000%"/>
   </numFmts>
-  <fonts count="25">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="5" tint="0.399945066682943"/>
-      <name val="等线"/>
+      <color theme="5" tint="0.39991454817346722"/>
+      <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="5" tint="-0.249977111117893"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="5"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="21">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -864,298 +532,47 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="79">
+  <cellXfs count="83">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="17" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="181" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="17" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="181" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="182" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="181" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -1174,29 +591,24 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="183" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="171" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="183" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="183" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="171" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="183" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="181" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="181" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="182" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="181" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="171" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1214,8 +626,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="183" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="171" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1223,65 +635,47 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="183" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="171" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="183" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="171" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="172" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="49">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
-    <cellStyle name="货币" xfId="2" builtinId="4"/>
-    <cellStyle name="百分比" xfId="3" builtinId="5"/>
-    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
-    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
-    <cellStyle name="超链接" xfId="6" builtinId="8"/>
-    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
-    <cellStyle name="注释" xfId="8" builtinId="10"/>
-    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
-    <cellStyle name="标题" xfId="10" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
-    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="输入" xfId="16" builtinId="20"/>
-    <cellStyle name="输出" xfId="17" builtinId="21"/>
-    <cellStyle name="计算" xfId="18" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
-    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
-    <cellStyle name="汇总" xfId="21" builtinId="25"/>
-    <cellStyle name="好" xfId="22" builtinId="26"/>
-    <cellStyle name="差" xfId="23" builtinId="27"/>
-    <cellStyle name="适中" xfId="24" builtinId="28"/>
-    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
-    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
-    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
-    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
-    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+  <cellStyles count="3">
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Percent" xfId="2" builtinId="5"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1539,35 +933,35 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:N45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="L21" sqref="L21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="1" customWidth="1"/>
-    <col min="2" max="2" width="13.4247787610619" customWidth="1"/>
-    <col min="3" max="3" width="7.28318584070797" customWidth="1"/>
+    <col min="2" max="2" width="13.42578125" customWidth="1"/>
+    <col min="3" max="3" width="7.28515625" customWidth="1"/>
     <col min="4" max="4" width="2" customWidth="1"/>
-    <col min="5" max="5" width="7.42477876106195" style="56" customWidth="1"/>
-    <col min="6" max="6" width="10.858407079646" customWidth="1"/>
-    <col min="7" max="7" width="13.283185840708" customWidth="1"/>
-    <col min="8" max="8" width="17.858407079646" customWidth="1"/>
-    <col min="10" max="10" width="6.14159292035398" customWidth="1"/>
-    <col min="11" max="11" width="7.56637168141593" customWidth="1"/>
-    <col min="12" max="12" width="11.5663716814159" style="17" customWidth="1"/>
-    <col min="13" max="13" width="7.14159292035398" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" style="49" customWidth="1"/>
+    <col min="6" max="6" width="10.85546875" customWidth="1"/>
+    <col min="7" max="7" width="13.28515625" customWidth="1"/>
+    <col min="8" max="8" width="17.85546875" customWidth="1"/>
+    <col min="10" max="10" width="6.140625" customWidth="1"/>
+    <col min="11" max="11" width="7.5703125" customWidth="1"/>
+    <col min="12" max="12" width="11.5703125" style="17" customWidth="1"/>
+    <col min="13" max="13" width="7.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="5:9">
+    <row r="2" spans="2:14">
       <c r="E2" s="6"/>
       <c r="F2" s="7" t="s">
         <v>0</v>
@@ -1575,15 +969,15 @@
       <c r="H2" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="I2" s="72">
+      <c r="I2" s="64">
         <v>300000</v>
       </c>
     </row>
-    <row r="3" spans="2:9">
+    <row r="3" spans="2:14">
       <c r="B3" s="3"/>
       <c r="C3" s="11"/>
       <c r="D3" s="11"/>
-      <c r="E3" s="57">
+      <c r="E3" s="50">
         <v>45597</v>
       </c>
       <c r="F3" s="5">
@@ -1596,15 +990,15 @@
       <c r="H3" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="I3" s="73">
-        <v>0.0187</v>
+      <c r="I3" s="65">
+        <v>1.8700000000000001E-2</v>
       </c>
     </row>
     <row r="4" spans="2:14">
       <c r="B4" s="3"/>
       <c r="C4" s="11"/>
       <c r="D4" s="11"/>
-      <c r="E4" s="58">
+      <c r="E4" s="51">
         <v>45674</v>
       </c>
       <c r="F4" s="5">
@@ -1617,124 +1011,124 @@
       <c r="H4" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="I4" s="74">
-        <v>0.0338</v>
-      </c>
-      <c r="J4" s="49" t="s">
+      <c r="I4" s="66">
+        <v>3.3799999999999997E-2</v>
+      </c>
+      <c r="J4" s="71" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="66"/>
-      <c r="L4" s="66"/>
-      <c r="M4" s="66"/>
-      <c r="N4" s="66"/>
-    </row>
-    <row r="5" spans="2:9">
+      <c r="K4" s="72"/>
+      <c r="L4" s="72"/>
+      <c r="M4" s="72"/>
+      <c r="N4" s="72"/>
+    </row>
+    <row r="5" spans="2:14">
       <c r="B5" s="3"/>
       <c r="C5" s="11"/>
       <c r="D5" s="11"/>
-      <c r="E5" s="59"/>
+      <c r="E5" s="52"/>
       <c r="F5" s="5"/>
-      <c r="G5" s="60" t="s">
+      <c r="G5" s="79" t="s">
         <v>7</v>
       </c>
-      <c r="H5" s="61"/>
-      <c r="I5" s="61"/>
+      <c r="H5" s="53"/>
+      <c r="I5" s="53"/>
     </row>
     <row r="6" spans="2:14">
-      <c r="B6" s="32" t="s">
+      <c r="B6" s="75" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="33" t="s">
+      <c r="C6" s="77" t="s">
         <v>9</v>
       </c>
       <c r="D6" s="11"/>
-      <c r="E6" s="57">
+      <c r="E6" s="50">
         <v>46174</v>
       </c>
       <c r="F6" s="5">
         <f>-K17</f>
         <v>-17618.7</v>
       </c>
-      <c r="G6" s="60"/>
+      <c r="G6" s="79"/>
       <c r="H6" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="I6" s="75">
+      <c r="I6" s="67">
         <v>0.03</v>
       </c>
-      <c r="J6" s="50" t="s">
+      <c r="J6" s="73" t="s">
         <v>11</v>
       </c>
-      <c r="K6" s="18"/>
-      <c r="L6" s="18"/>
-      <c r="M6" s="18"/>
-      <c r="N6" s="18"/>
+      <c r="K6" s="74"/>
+      <c r="L6" s="74"/>
+      <c r="M6" s="74"/>
+      <c r="N6" s="74"/>
     </row>
     <row r="7" spans="2:14">
-      <c r="B7" s="34"/>
-      <c r="C7" s="35"/>
-      <c r="D7" s="36"/>
-      <c r="E7" s="59"/>
+      <c r="B7" s="76"/>
+      <c r="C7" s="78"/>
+      <c r="D7" s="31"/>
+      <c r="E7" s="52"/>
       <c r="F7" s="5"/>
-      <c r="G7" s="60"/>
+      <c r="G7" s="79"/>
       <c r="H7" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="I7" s="72">
+      <c r="I7" s="64">
         <v>228000</v>
       </c>
-      <c r="J7" s="50"/>
-      <c r="K7" s="18"/>
-      <c r="L7" s="18"/>
-      <c r="M7" s="18"/>
-      <c r="N7" s="18"/>
+      <c r="J7" s="73"/>
+      <c r="K7" s="74"/>
+      <c r="L7" s="74"/>
+      <c r="M7" s="74"/>
+      <c r="N7" s="74"/>
     </row>
     <row r="8" spans="2:14">
-      <c r="B8" s="62">
+      <c r="B8" s="54">
         <f>SUM($F$3:F8)</f>
         <v>-83733.7</v>
       </c>
-      <c r="C8" s="63">
+      <c r="C8" s="55">
         <f>B8-$F$3</f>
         <v>-11733.7</v>
       </c>
       <c r="D8" t="s">
         <v>13</v>
       </c>
-      <c r="E8" s="57">
+      <c r="E8" s="50">
         <v>46692</v>
       </c>
       <c r="F8" s="5">
         <f>($I$4*$I$2-$I$6*$I$7)/12</f>
         <v>275</v>
       </c>
-      <c r="G8" s="64" t="s">
+      <c r="G8" s="56" t="s">
         <v>14</v>
       </c>
-      <c r="H8" s="65" t="s">
+      <c r="H8" s="57" t="s">
         <v>15</v>
       </c>
-      <c r="I8" s="75">
-        <v>0.025</v>
-      </c>
-      <c r="J8" s="50" t="s">
+      <c r="I8" s="67">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="J8" s="73" t="s">
         <v>16</v>
       </c>
-      <c r="K8" s="18"/>
-      <c r="L8" s="18"/>
-      <c r="M8" s="18"/>
-      <c r="N8" s="18"/>
-    </row>
-    <row r="9" spans="2:6">
-      <c r="B9" s="62">
+      <c r="K8" s="74"/>
+      <c r="L8" s="74"/>
+      <c r="M8" s="74"/>
+      <c r="N8" s="74"/>
+    </row>
+    <row r="9" spans="2:14">
+      <c r="B9" s="54">
         <f>SUM($F$3:F9)</f>
         <v>-83458.7</v>
       </c>
-      <c r="C9" s="63">
+      <c r="C9" s="55">
         <f t="shared" ref="C9:C19" si="0">B9-$F$3</f>
         <v>-11458.7</v>
       </c>
-      <c r="E9" s="57">
+      <c r="E9" s="50">
         <v>46722</v>
       </c>
       <c r="F9" s="5">
@@ -1742,16 +1136,16 @@
         <v>275</v>
       </c>
     </row>
-    <row r="10" spans="2:6">
-      <c r="B10" s="62">
+    <row r="10" spans="2:14">
+      <c r="B10" s="54">
         <f>SUM($F$3:F10)</f>
         <v>-83183.7</v>
       </c>
-      <c r="C10" s="63">
+      <c r="C10" s="55">
         <f t="shared" si="0"/>
         <v>-11183.7</v>
       </c>
-      <c r="E10" s="57">
+      <c r="E10" s="50">
         <v>46753</v>
       </c>
       <c r="F10" s="5">
@@ -1759,16 +1153,16 @@
         <v>275</v>
       </c>
     </row>
-    <row r="11" spans="2:12">
-      <c r="B11" s="62">
+    <row r="11" spans="2:14">
+      <c r="B11" s="54">
         <f>SUM($F$3:F11)</f>
         <v>-82908.7</v>
       </c>
-      <c r="C11" s="63">
+      <c r="C11" s="55">
         <f t="shared" si="0"/>
         <v>-10908.7</v>
       </c>
-      <c r="E11" s="57">
+      <c r="E11" s="50">
         <v>46784</v>
       </c>
       <c r="F11" s="5">
@@ -1777,16 +1171,16 @@
       </c>
       <c r="L11"/>
     </row>
-    <row r="12" spans="2:12">
-      <c r="B12" s="62">
+    <row r="12" spans="2:14">
+      <c r="B12" s="54">
         <f>SUM($F$3:F12)</f>
         <v>-82633.7</v>
       </c>
-      <c r="C12" s="63">
+      <c r="C12" s="55">
         <f t="shared" si="0"/>
         <v>-10633.7</v>
       </c>
-      <c r="E12" s="57">
+      <c r="E12" s="50">
         <v>46813</v>
       </c>
       <c r="F12" s="5">
@@ -1795,58 +1189,58 @@
       </c>
       <c r="L12"/>
     </row>
-    <row r="13" spans="2:12">
-      <c r="B13" s="62">
+    <row r="13" spans="2:14">
+      <c r="B13" s="54">
         <f>SUM($F$3:F13)</f>
         <v>-82358.7</v>
       </c>
-      <c r="C13" s="63">
+      <c r="C13" s="55">
         <f t="shared" si="0"/>
-        <v>-10358.7</v>
-      </c>
-      <c r="E13" s="57">
+        <v>-10358.700000000001</v>
+      </c>
+      <c r="E13" s="50">
         <v>46844</v>
       </c>
       <c r="F13" s="5">
         <f t="shared" si="1"/>
         <v>275</v>
       </c>
-      <c r="H13" s="66"/>
-      <c r="I13" s="66"/>
-      <c r="J13" s="66"/>
-      <c r="K13" s="66" t="s">
+      <c r="H13" s="58"/>
+      <c r="I13" s="58"/>
+      <c r="J13" s="58"/>
+      <c r="K13" s="58" t="s">
         <v>17</v>
       </c>
       <c r="L13" s="17" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="14" spans="2:12">
-      <c r="B14" s="62">
+    <row r="14" spans="2:14">
+      <c r="B14" s="54">
         <f>SUM($F$3:F14)</f>
         <v>-82083.7</v>
       </c>
-      <c r="C14" s="63">
+      <c r="C14" s="55">
         <f t="shared" si="0"/>
-        <v>-10083.7</v>
-      </c>
-      <c r="E14" s="57">
+        <v>-10083.700000000001</v>
+      </c>
+      <c r="E14" s="50">
         <v>46874</v>
       </c>
       <c r="F14" s="5">
         <f t="shared" si="1"/>
         <v>275</v>
       </c>
-      <c r="H14" s="67" t="s">
+      <c r="H14" s="59" t="s">
         <v>19</v>
       </c>
       <c r="I14" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="J14" s="75">
-        <v>0.0253</v>
-      </c>
-      <c r="K14" s="72">
+      <c r="J14" s="67">
+        <v>2.53E-2</v>
+      </c>
+      <c r="K14" s="64">
         <f>$I$7*LEFT(I14,2)/12*J14</f>
         <v>4326.3</v>
       </c>
@@ -1854,78 +1248,78 @@
         <v>490</v>
       </c>
     </row>
-    <row r="15" spans="2:12">
-      <c r="B15" s="62">
+    <row r="15" spans="2:14">
+      <c r="B15" s="54">
         <f>SUM($F$3:F15)</f>
         <v>-81808.7</v>
       </c>
-      <c r="C15" s="63">
+      <c r="C15" s="55">
         <f t="shared" si="0"/>
-        <v>-9808.7</v>
-      </c>
-      <c r="E15" s="57">
+        <v>-9808.7000000000007</v>
+      </c>
+      <c r="E15" s="50">
         <v>46905</v>
       </c>
       <c r="F15" s="5">
         <f t="shared" si="1"/>
         <v>275</v>
       </c>
-      <c r="H15" s="67" t="s">
+      <c r="H15" s="59" t="s">
         <v>21</v>
       </c>
       <c r="I15" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="J15" s="75">
-        <v>0.0233</v>
-      </c>
-      <c r="K15" s="72">
+      <c r="J15" s="67">
+        <v>2.3300000000000001E-2</v>
+      </c>
+      <c r="K15" s="64">
         <f>$I$7*LEFT(I15,2)/12*J15</f>
         <v>5312.4</v>
       </c>
       <c r="L15"/>
     </row>
-    <row r="16" ht="15.15" spans="2:11">
-      <c r="B16" s="62">
+    <row r="16" spans="2:14">
+      <c r="B16" s="54">
         <f>SUM($F$3:F16)</f>
         <v>-81533.7</v>
       </c>
-      <c r="C16" s="63">
+      <c r="C16" s="55">
         <f t="shared" si="0"/>
-        <v>-9533.7</v>
-      </c>
-      <c r="E16" s="57">
+        <v>-9533.7000000000007</v>
+      </c>
+      <c r="E16" s="50">
         <v>46935</v>
       </c>
       <c r="F16" s="5">
         <f t="shared" si="1"/>
         <v>275</v>
       </c>
-      <c r="H16" s="67" t="s">
+      <c r="H16" s="59" t="s">
         <v>23</v>
       </c>
       <c r="I16" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="J16" s="75">
+      <c r="J16" s="67">
         <f>I6</f>
         <v>0.03</v>
       </c>
-      <c r="K16" s="76">
+      <c r="K16" s="68">
         <f>$I$7*LEFT(I16,2)/12*J16</f>
         <v>7980</v>
       </c>
     </row>
-    <row r="17" ht="15.15" spans="2:12">
-      <c r="B17" s="62">
+    <row r="17" spans="2:12">
+      <c r="B17" s="54">
         <f>SUM($F$3:F17)</f>
         <v>-81258.7</v>
       </c>
-      <c r="C17" s="63">
+      <c r="C17" s="55">
         <f t="shared" si="0"/>
-        <v>-9258.7</v>
-      </c>
-      <c r="E17" s="57">
+        <v>-9258.7000000000007</v>
+      </c>
+      <c r="E17" s="50">
         <v>46966</v>
       </c>
       <c r="F17" s="5">
@@ -1934,23 +1328,23 @@
       </c>
       <c r="H17" s="7"/>
       <c r="I17" s="7"/>
-      <c r="J17" s="77"/>
-      <c r="K17" s="78">
+      <c r="J17" s="69"/>
+      <c r="K17" s="70">
         <f>SUM(K14:K16)</f>
         <v>17618.7</v>
       </c>
       <c r="L17"/>
     </row>
-    <row r="18" spans="2:6">
-      <c r="B18" s="62">
+    <row r="18" spans="2:12">
+      <c r="B18" s="54">
         <f>SUM($F$3:F18)</f>
         <v>-80983.7</v>
       </c>
-      <c r="C18" s="63">
+      <c r="C18" s="55">
         <f t="shared" si="0"/>
-        <v>-8983.7</v>
-      </c>
-      <c r="E18" s="57">
+        <v>-8983.7000000000007</v>
+      </c>
+      <c r="E18" s="50">
         <v>46997</v>
       </c>
       <c r="F18" s="5">
@@ -1958,16 +1352,16 @@
         <v>275</v>
       </c>
     </row>
-    <row r="19" spans="2:6">
-      <c r="B19" s="68">
+    <row r="19" spans="2:12">
+      <c r="B19" s="60">
         <f>SUM($F$3:F19)</f>
         <v>-80708.7</v>
       </c>
-      <c r="C19" s="69">
+      <c r="C19" s="61">
         <f t="shared" si="0"/>
-        <v>-8708.7</v>
-      </c>
-      <c r="E19" s="57">
+        <v>-8708.7000000000007</v>
+      </c>
+      <c r="E19" s="50">
         <v>47027</v>
       </c>
       <c r="F19" s="5">
@@ -1975,19 +1369,19 @@
         <v>275</v>
       </c>
     </row>
-    <row r="20" spans="2:6">
+    <row r="20" spans="2:12">
       <c r="B20" s="9"/>
       <c r="C20" s="9"/>
-      <c r="E20" s="57"/>
+      <c r="E20" s="50"/>
       <c r="F20" s="5"/>
     </row>
-    <row r="21" spans="2:7">
+    <row r="21" spans="2:12">
       <c r="B21" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="E21" s="57"/>
+      <c r="E21" s="50"/>
       <c r="F21" s="5"/>
-      <c r="G21" s="70"/>
+      <c r="G21" s="62"/>
     </row>
     <row r="22" spans="2:12">
       <c r="B22" s="3">
@@ -1996,7 +1390,7 @@
       </c>
       <c r="C22" s="11"/>
       <c r="D22" s="11"/>
-      <c r="E22" s="57">
+      <c r="E22" s="50">
         <v>47058</v>
       </c>
       <c r="F22" s="5">
@@ -2008,14 +1402,14 @@
       </c>
       <c r="L22"/>
     </row>
-    <row r="23" spans="2:6">
+    <row r="23" spans="2:12">
       <c r="B23" s="3">
         <f>SUM($F$3:F23)</f>
         <v>-71828.7</v>
       </c>
       <c r="C23" s="11"/>
       <c r="D23" s="11"/>
-      <c r="E23" s="57">
+      <c r="E23" s="50">
         <v>47423</v>
       </c>
       <c r="F23" s="5">
@@ -2023,14 +1417,14 @@
         <v>4440</v>
       </c>
     </row>
-    <row r="24" spans="2:6">
+    <row r="24" spans="2:12">
       <c r="B24" s="3">
         <f>SUM($F$3:F24)</f>
         <v>-67388.7</v>
       </c>
       <c r="C24" s="11"/>
       <c r="D24" s="11"/>
-      <c r="E24" s="57">
+      <c r="E24" s="50">
         <v>47788</v>
       </c>
       <c r="F24" s="5">
@@ -2038,16 +1432,16 @@
         <v>4440</v>
       </c>
     </row>
-    <row r="25" spans="2:6">
+    <row r="25" spans="2:12">
       <c r="B25" s="3">
         <f>SUM($F$3:F25)</f>
         <v>-62948.7</v>
       </c>
-      <c r="C25" s="66" t="s">
+      <c r="C25" s="58" t="s">
         <v>27</v>
       </c>
-      <c r="D25" s="66"/>
-      <c r="E25" s="57">
+      <c r="D25" s="58"/>
+      <c r="E25" s="50">
         <v>48153</v>
       </c>
       <c r="F25" s="5">
@@ -2055,17 +1449,17 @@
         <v>4440</v>
       </c>
     </row>
-    <row r="26" spans="2:6">
+    <row r="26" spans="2:12">
       <c r="B26" s="3">
         <f>SUM($F$3:F26)</f>
         <v>-58508.7</v>
       </c>
-      <c r="C26" s="71">
+      <c r="C26" s="63">
         <f>-F26/F3</f>
-        <v>0.0616666666666666</v>
-      </c>
-      <c r="D26" s="71"/>
-      <c r="E26" s="57">
+        <v>6.1666666666666599E-2</v>
+      </c>
+      <c r="D26" s="63"/>
+      <c r="E26" s="50">
         <v>48519</v>
       </c>
       <c r="F26" s="5">
@@ -2073,14 +1467,14 @@
         <v>4440</v>
       </c>
     </row>
-    <row r="27" spans="2:6">
+    <row r="27" spans="2:12">
       <c r="B27" s="3">
         <f>SUM($F$3:F27)</f>
         <v>-54068.7</v>
       </c>
       <c r="C27" s="11"/>
       <c r="D27" s="11"/>
-      <c r="E27" s="57">
+      <c r="E27" s="50">
         <v>48884</v>
       </c>
       <c r="F27" s="5">
@@ -2088,14 +1482,14 @@
         <v>4440</v>
       </c>
     </row>
-    <row r="28" spans="2:6">
+    <row r="28" spans="2:12">
       <c r="B28" s="3">
         <f>SUM($F$3:F28)</f>
         <v>-49628.7</v>
       </c>
       <c r="C28" s="11"/>
       <c r="D28" s="11"/>
-      <c r="E28" s="57">
+      <c r="E28" s="50">
         <v>49249</v>
       </c>
       <c r="F28" s="5">
@@ -2103,14 +1497,14 @@
         <v>4440</v>
       </c>
     </row>
-    <row r="29" spans="2:6">
+    <row r="29" spans="2:12">
       <c r="B29" s="3">
         <f>SUM($F$3:F29)</f>
         <v>-45188.7</v>
       </c>
       <c r="C29" s="11"/>
       <c r="D29" s="11"/>
-      <c r="E29" s="57">
+      <c r="E29" s="50">
         <v>49614</v>
       </c>
       <c r="F29" s="5">
@@ -2118,14 +1512,14 @@
         <v>4440</v>
       </c>
     </row>
-    <row r="30" spans="2:6">
+    <row r="30" spans="2:12">
       <c r="B30" s="3">
         <f>SUM($F$3:F30)</f>
-        <v>-40748.7</v>
+        <v>-40748.699999999997</v>
       </c>
       <c r="C30" s="11"/>
       <c r="D30" s="11"/>
-      <c r="E30" s="57">
+      <c r="E30" s="50">
         <v>49980</v>
       </c>
       <c r="F30" s="5">
@@ -2133,14 +1527,14 @@
         <v>4440</v>
       </c>
     </row>
-    <row r="31" spans="2:6">
+    <row r="31" spans="2:12">
       <c r="B31" s="3">
         <f>SUM($F$3:F31)</f>
-        <v>-36308.7</v>
+        <v>-36308.699999999997</v>
       </c>
       <c r="C31" s="11"/>
       <c r="D31" s="11"/>
-      <c r="E31" s="57">
+      <c r="E31" s="50">
         <v>50345</v>
       </c>
       <c r="F31" s="5">
@@ -2148,14 +1542,14 @@
         <v>4440</v>
       </c>
     </row>
-    <row r="32" spans="2:6">
+    <row r="32" spans="2:12">
       <c r="B32" s="3">
         <f>SUM($F$3:F32)</f>
         <v>-31868.7</v>
       </c>
       <c r="C32" s="11"/>
       <c r="D32" s="11"/>
-      <c r="E32" s="57">
+      <c r="E32" s="50">
         <v>50710</v>
       </c>
       <c r="F32" s="5">
@@ -2163,14 +1557,14 @@
         <v>4440</v>
       </c>
     </row>
-    <row r="33" spans="2:6">
+    <row r="33" spans="2:14">
       <c r="B33" s="3">
         <f>SUM($F$3:F33)</f>
         <v>-27428.7</v>
       </c>
       <c r="C33" s="11"/>
       <c r="D33" s="11"/>
-      <c r="E33" s="57">
+      <c r="E33" s="50">
         <v>51075</v>
       </c>
       <c r="F33" s="5">
@@ -2178,14 +1572,14 @@
         <v>4440</v>
       </c>
     </row>
-    <row r="34" spans="2:6">
+    <row r="34" spans="2:14">
       <c r="B34" s="3">
         <f>SUM($F$3:F34)</f>
         <v>-22988.7</v>
       </c>
       <c r="C34" s="11"/>
       <c r="D34" s="11"/>
-      <c r="E34" s="57">
+      <c r="E34" s="50">
         <v>51441</v>
       </c>
       <c r="F34" s="5">
@@ -2193,14 +1587,14 @@
         <v>4440</v>
       </c>
     </row>
-    <row r="35" spans="2:6">
+    <row r="35" spans="2:14">
       <c r="B35" s="3">
         <f>SUM($F$3:F35)</f>
         <v>-18548.7</v>
       </c>
       <c r="C35" s="11"/>
       <c r="D35" s="11"/>
-      <c r="E35" s="57">
+      <c r="E35" s="50">
         <v>51806</v>
       </c>
       <c r="F35" s="5">
@@ -2208,14 +1602,14 @@
         <v>4440</v>
       </c>
     </row>
-    <row r="36" spans="2:6">
+    <row r="36" spans="2:14">
       <c r="B36" s="3">
         <f>SUM($F$3:F36)</f>
         <v>-14108.7</v>
       </c>
       <c r="C36" s="11"/>
       <c r="D36" s="11"/>
-      <c r="E36" s="57">
+      <c r="E36" s="50">
         <v>52171</v>
       </c>
       <c r="F36" s="5">
@@ -2223,16 +1617,16 @@
         <v>4440</v>
       </c>
     </row>
-    <row r="37" spans="2:6">
+    <row r="37" spans="2:14">
       <c r="B37" s="3">
         <f>SUM($F$3:F37)</f>
-        <v>-9668.7</v>
+        <v>-9668.7000000000007</v>
       </c>
       <c r="C37" s="11" t="s">
         <v>28</v>
       </c>
       <c r="D37" s="11"/>
-      <c r="E37" s="57">
+      <c r="E37" s="50">
         <v>52536</v>
       </c>
       <c r="F37" s="5">
@@ -2240,17 +1634,17 @@
         <v>4440</v>
       </c>
     </row>
-    <row r="38" spans="2:7">
+    <row r="38" spans="2:14">
       <c r="B38" s="3">
         <f>SUM($F$3:F38)</f>
         <v>86331.3</v>
       </c>
       <c r="C38" s="11">
         <f>XIRR(F3:F38,E3:E38)</f>
-        <v>0.0479643674451526</v>
+        <v>4.7964367445152603E-2</v>
       </c>
       <c r="D38" s="11"/>
-      <c r="E38" s="57">
+      <c r="E38" s="50">
         <v>52902</v>
       </c>
       <c r="F38" s="5">
@@ -2261,23 +1655,23 @@
         <v>29</v>
       </c>
     </row>
-    <row r="39" spans="2:9">
+    <row r="39" spans="2:14">
       <c r="B39" s="3"/>
       <c r="C39" s="11"/>
       <c r="D39" s="11"/>
-      <c r="G39" s="70" t="s">
+      <c r="G39" s="62" t="s">
         <v>30</v>
       </c>
-      <c r="H39" s="70"/>
-      <c r="I39" s="70"/>
-    </row>
-    <row r="41" spans="2:5">
+      <c r="H39" s="62"/>
+      <c r="I39" s="62"/>
+    </row>
+    <row r="41" spans="2:14">
       <c r="B41" t="s">
         <v>31</v>
       </c>
       <c r="E41"/>
     </row>
-    <row r="42" spans="2:12">
+    <row r="42" spans="2:14">
       <c r="B42" s="3" t="s">
         <v>32</v>
       </c>
@@ -2301,14 +1695,14 @@
       <c r="M43" s="3"/>
       <c r="N43" s="3"/>
     </row>
-    <row r="44" spans="2:12">
+    <row r="44" spans="2:14">
       <c r="B44" t="s">
         <v>34</v>
       </c>
       <c r="E44"/>
       <c r="L44"/>
     </row>
-    <row r="45" spans="12:12">
+    <row r="45" spans="2:14">
       <c r="L45"/>
     </row>
   </sheetData>
@@ -2322,39 +1716,37 @@
     <mergeCell ref="G5:G7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="1" orientation="portrait"/>
-  <headerFooter/>
+  <pageSetup orientation="portrait"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B2:N35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="J24" sqref="J24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14159292035398" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="1" style="18" customWidth="1"/>
-    <col min="2" max="2" width="13.4247787610619" style="18" customWidth="1"/>
-    <col min="3" max="3" width="6.28318584070797" style="18" customWidth="1"/>
+    <col min="2" max="2" width="13.42578125" style="18" customWidth="1"/>
+    <col min="3" max="3" width="6.28515625" style="18" customWidth="1"/>
     <col min="4" max="4" width="2" style="18" customWidth="1"/>
-    <col min="5" max="5" width="7.42477876106195" style="19" customWidth="1"/>
-    <col min="6" max="6" width="10.858407079646" style="18" customWidth="1"/>
-    <col min="7" max="7" width="15.4247787610619" style="18" customWidth="1"/>
-    <col min="8" max="8" width="17.858407079646" style="18" customWidth="1"/>
-    <col min="9" max="9" width="9.14159292035398" style="18"/>
-    <col min="10" max="10" width="6.14159292035398" style="18" customWidth="1"/>
-    <col min="11" max="11" width="7.56637168141593" style="18" customWidth="1"/>
-    <col min="12" max="12" width="11.5663716814159" style="20" customWidth="1"/>
-    <col min="13" max="13" width="7.14159292035398" style="18" customWidth="1"/>
-    <col min="14" max="16384" width="9.14159292035398" style="18"/>
+    <col min="5" max="5" width="7.42578125" style="19" customWidth="1"/>
+    <col min="6" max="6" width="10.85546875" style="18" customWidth="1"/>
+    <col min="7" max="7" width="15.42578125" style="18" customWidth="1"/>
+    <col min="8" max="8" width="17.85546875" style="18" customWidth="1"/>
+    <col min="9" max="9" width="9.140625" style="18"/>
+    <col min="10" max="10" width="6.140625" style="18" customWidth="1"/>
+    <col min="11" max="11" width="7.5703125" style="18" customWidth="1"/>
+    <col min="12" max="12" width="11.5703125" style="20" customWidth="1"/>
+    <col min="13" max="13" width="7.140625" style="18" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="18"/>
   </cols>
   <sheetData>
-    <row r="2" spans="5:9">
+    <row r="2" spans="2:14">
       <c r="E2" s="21"/>
       <c r="F2" s="22" t="s">
         <v>0</v>
@@ -2362,11 +1754,11 @@
       <c r="H2" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="I2" s="46">
+      <c r="I2" s="41">
         <v>250774</v>
       </c>
     </row>
-    <row r="3" spans="2:9">
+    <row r="3" spans="2:14">
       <c r="B3" s="23"/>
       <c r="C3" s="24"/>
       <c r="D3" s="24"/>
@@ -2383,7 +1775,7 @@
       <c r="H3" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="I3" s="47">
+      <c r="I3" s="42">
         <v>0.01</v>
       </c>
     </row>
@@ -2396,7 +1788,7 @@
       </c>
       <c r="F4" s="28">
         <f>I3*I2/2</f>
-        <v>1253.87</v>
+        <v>1253.8699999999999</v>
       </c>
       <c r="G4" s="18" t="s">
         <v>35</v>
@@ -2404,18 +1796,18 @@
       <c r="H4" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="I4" s="48">
-        <v>0.032554</v>
-      </c>
-      <c r="J4" s="49" t="s">
+      <c r="I4" s="43">
+        <v>3.2554E-2</v>
+      </c>
+      <c r="J4" s="71" t="s">
         <v>36</v>
       </c>
-      <c r="K4"/>
-      <c r="L4"/>
-      <c r="M4"/>
-      <c r="N4"/>
-    </row>
-    <row r="5" spans="2:12">
+      <c r="K4" s="80"/>
+      <c r="L4" s="80"/>
+      <c r="M4" s="80"/>
+      <c r="N4" s="80"/>
+    </row>
+    <row r="5" spans="2:14">
       <c r="B5" s="23"/>
       <c r="C5" s="24"/>
       <c r="D5" s="24"/>
@@ -2430,34 +1822,40 @@
       </c>
       <c r="H5" s="29"/>
       <c r="I5" s="29"/>
-      <c r="J5" s="50"/>
-      <c r="L5" s="18"/>
-    </row>
-    <row r="6" spans="2:12">
+      <c r="J5" s="73"/>
+      <c r="K5" s="74"/>
+      <c r="L5" s="74"/>
+      <c r="M5" s="74"/>
+      <c r="N5" s="74"/>
+    </row>
+    <row r="6" spans="2:14">
       <c r="B6" s="23"/>
       <c r="C6" s="24"/>
       <c r="D6" s="24"/>
       <c r="E6" s="30"/>
       <c r="F6" s="26"/>
-      <c r="G6" s="31" t="s">
+      <c r="G6" s="81" t="s">
         <v>37</v>
       </c>
       <c r="H6" s="22" t="s">
         <v>38</v>
       </c>
-      <c r="I6" s="51">
+      <c r="I6" s="44">
         <v>0.03</v>
       </c>
-      <c r="J6" s="50" t="s">
+      <c r="J6" s="73" t="s">
         <v>11</v>
       </c>
-      <c r="L6" s="18"/>
-    </row>
-    <row r="7" spans="2:12">
-      <c r="B7" s="32" t="s">
+      <c r="K6" s="74"/>
+      <c r="L6" s="74"/>
+      <c r="M6" s="74"/>
+      <c r="N6" s="74"/>
+    </row>
+    <row r="7" spans="2:14">
+      <c r="B7" s="75" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="33" t="s">
+      <c r="C7" s="77" t="s">
         <v>9</v>
       </c>
       <c r="D7" s="24"/>
@@ -2466,44 +1864,50 @@
       </c>
       <c r="F7" s="26">
         <f>-K16</f>
-        <v>-12381.6666666667</v>
-      </c>
-      <c r="G7" s="31"/>
+        <v>-12381.666666666701</v>
+      </c>
+      <c r="G7" s="81"/>
       <c r="H7" s="22" t="s">
         <v>39</v>
       </c>
-      <c r="I7" s="46">
+      <c r="I7" s="41">
         <v>190000</v>
       </c>
-      <c r="J7" s="50"/>
-      <c r="L7" s="18"/>
-    </row>
-    <row r="8" spans="2:12">
-      <c r="B8" s="34"/>
-      <c r="C8" s="35"/>
-      <c r="D8" s="36"/>
+      <c r="J7" s="73"/>
+      <c r="K7" s="74"/>
+      <c r="L7" s="74"/>
+      <c r="M7" s="74"/>
+      <c r="N7" s="74"/>
+    </row>
+    <row r="8" spans="2:14">
+      <c r="B8" s="76"/>
+      <c r="C8" s="78"/>
+      <c r="D8" s="31"/>
       <c r="E8" s="30"/>
       <c r="F8" s="26"/>
-      <c r="G8" s="31"/>
+      <c r="G8" s="81"/>
       <c r="H8" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="I8" s="51">
-        <v>0.025</v>
-      </c>
-      <c r="J8" s="50" t="s">
+      <c r="I8" s="44">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="J8" s="73" t="s">
         <v>16</v>
       </c>
-      <c r="L8" s="18"/>
-    </row>
-    <row r="9" spans="2:7">
-      <c r="B9" s="37">
+      <c r="K8" s="74"/>
+      <c r="L8" s="74"/>
+      <c r="M8" s="74"/>
+      <c r="N8" s="74"/>
+    </row>
+    <row r="9" spans="2:14">
+      <c r="B9" s="32">
         <f>SUM($F$3:F9)</f>
-        <v>-62478.0998706667</v>
-      </c>
-      <c r="C9" s="38">
+        <v>-62478.099870666701</v>
+      </c>
+      <c r="C9" s="33">
         <f>B9-F3</f>
-        <v>-1704.09987066666</v>
+        <v>-1704.0998706666601</v>
       </c>
       <c r="D9" s="23" t="s">
         <v>13</v>
@@ -2513,32 +1917,32 @@
       </c>
       <c r="F9" s="26">
         <f>I4*$I$2</f>
-        <v>8163.696796</v>
+        <v>8163.6967960000002</v>
       </c>
       <c r="G9" s="18" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="10" spans="2:12">
-      <c r="B10" s="39"/>
-      <c r="C10" s="40"/>
+    <row r="10" spans="2:14">
+      <c r="B10" s="34"/>
+      <c r="C10" s="35"/>
       <c r="E10" s="25"/>
       <c r="F10" s="26"/>
-      <c r="G10" s="41"/>
+      <c r="G10" s="36"/>
       <c r="L10" s="18"/>
     </row>
-    <row r="11" spans="2:7">
-      <c r="B11" s="42" t="s">
+    <row r="11" spans="2:14">
+      <c r="B11" s="37" t="s">
         <v>25</v>
       </c>
       <c r="E11" s="25"/>
       <c r="F11" s="26"/>
-      <c r="G11" s="41"/>
-    </row>
-    <row r="12" spans="2:12">
+      <c r="G11" s="36"/>
+    </row>
+    <row r="12" spans="2:14">
       <c r="B12" s="23">
         <f>SUM($F$3:F12)</f>
-        <v>-59064.4030746667</v>
+        <v>-59064.403074666698</v>
       </c>
       <c r="C12" s="24"/>
       <c r="D12" s="24"/>
@@ -2547,22 +1951,22 @@
       </c>
       <c r="F12" s="26">
         <f>$I$4*$I$2-$I$8*$I$7</f>
-        <v>3413.696796</v>
-      </c>
-      <c r="H12" s="43"/>
-      <c r="I12" s="43"/>
-      <c r="J12" s="43"/>
-      <c r="K12" s="43" t="s">
+        <v>3413.6967960000002</v>
+      </c>
+      <c r="H12" s="38"/>
+      <c r="I12" s="38"/>
+      <c r="J12" s="38"/>
+      <c r="K12" s="38" t="s">
         <v>17</v>
       </c>
       <c r="L12" s="20" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="13" spans="2:12">
+    <row r="13" spans="2:14">
       <c r="B13" s="23">
         <f>SUM($F$3:F13)</f>
-        <v>-55650.7062786667</v>
+        <v>-55650.706278666701</v>
       </c>
       <c r="C13" s="24"/>
       <c r="D13" s="24"/>
@@ -2571,30 +1975,30 @@
       </c>
       <c r="F13" s="26">
         <f t="shared" ref="F13:F28" si="0">$I$4*$I$2-$I$8*$I$7</f>
-        <v>3413.696796</v>
-      </c>
-      <c r="H13" s="44" t="s">
+        <v>3413.6967960000002</v>
+      </c>
+      <c r="H13" s="39" t="s">
         <v>19</v>
       </c>
       <c r="I13" s="22" t="s">
         <v>41</v>
       </c>
-      <c r="J13" s="51">
-        <v>0.0253</v>
-      </c>
-      <c r="K13" s="46">
+      <c r="J13" s="44">
+        <v>2.53E-2</v>
+      </c>
+      <c r="K13" s="41">
         <f>$I$7*LEFT(I13,2)/12*J13</f>
-        <v>3204.66666666667</v>
-      </c>
-      <c r="L13" s="52">
+        <v>3204.6666666666702</v>
+      </c>
+      <c r="L13" s="45">
         <f>J13*I7/12</f>
-        <v>400.583333333333</v>
-      </c>
-    </row>
-    <row r="14" spans="2:12">
+        <v>400.58333333333297</v>
+      </c>
+    </row>
+    <row r="14" spans="2:14">
       <c r="B14" s="23">
         <f>SUM($F$3:F14)</f>
-        <v>-52237.0094826666</v>
+        <v>-52237.009482666603</v>
       </c>
       <c r="C14" s="24"/>
       <c r="D14" s="24"/>
@@ -2603,84 +2007,84 @@
       </c>
       <c r="F14" s="26">
         <f t="shared" si="0"/>
-        <v>3413.696796</v>
-      </c>
-      <c r="H14" s="44" t="s">
+        <v>3413.6967960000002</v>
+      </c>
+      <c r="H14" s="39" t="s">
         <v>21</v>
       </c>
       <c r="I14" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="J14" s="51">
-        <v>0.0233</v>
-      </c>
-      <c r="K14" s="46">
+      <c r="J14" s="44">
+        <v>2.3300000000000001E-2</v>
+      </c>
+      <c r="K14" s="41">
         <f>$I$7*LEFT(I14,2)/12*J14</f>
         <v>4427</v>
       </c>
       <c r="L14" s="18"/>
     </row>
-    <row r="15" ht="15.15" spans="2:11">
+    <row r="15" spans="2:14">
       <c r="B15" s="23">
         <f>SUM($F$3:F15)</f>
-        <v>-48823.3126866666</v>
-      </c>
-      <c r="C15" s="43" t="s">
+        <v>-48823.312686666599</v>
+      </c>
+      <c r="C15" s="38" t="s">
         <v>27</v>
       </c>
-      <c r="D15" s="43"/>
+      <c r="D15" s="38"/>
       <c r="E15" s="25">
         <v>48030</v>
       </c>
       <c r="F15" s="26">
         <f t="shared" si="0"/>
-        <v>3413.696796</v>
-      </c>
-      <c r="H15" s="44" t="s">
+        <v>3413.6967960000002</v>
+      </c>
+      <c r="H15" s="39" t="s">
         <v>23</v>
       </c>
       <c r="I15" s="22" t="s">
         <v>42</v>
       </c>
-      <c r="J15" s="51">
+      <c r="J15" s="44">
         <f>I6</f>
         <v>0.03</v>
       </c>
-      <c r="K15" s="53">
+      <c r="K15" s="46">
         <f>$I$7*LEFT(I15,2)/12*J15</f>
         <v>4750</v>
       </c>
     </row>
-    <row r="16" ht="15.15" spans="2:12">
+    <row r="16" spans="2:14">
       <c r="B16" s="23">
         <f>SUM($F$3:F16)</f>
-        <v>-45409.6158906666</v>
-      </c>
-      <c r="C16" s="45">
+        <v>-45409.615890666602</v>
+      </c>
+      <c r="C16" s="40">
         <f>-F16/F3</f>
-        <v>0.0561703490966532</v>
-      </c>
-      <c r="D16" s="45"/>
+        <v>5.6170349096653201E-2</v>
+      </c>
+      <c r="D16" s="40"/>
       <c r="E16" s="25">
         <v>48396</v>
       </c>
       <c r="F16" s="26">
         <f t="shared" si="0"/>
-        <v>3413.696796</v>
+        <v>3413.6967960000002</v>
       </c>
       <c r="H16" s="22"/>
       <c r="I16" s="22"/>
-      <c r="J16" s="54"/>
-      <c r="K16" s="55">
+      <c r="J16" s="47"/>
+      <c r="K16" s="48">
         <f>SUM(K13:K15)</f>
-        <v>12381.6666666667</v>
+        <v>12381.666666666701</v>
       </c>
       <c r="L16" s="18"/>
     </row>
-    <row r="17" spans="2:6">
+    <row r="17" spans="2:14">
       <c r="B17" s="23">
         <f>SUM($F$3:F17)</f>
-        <v>-41995.9190946666</v>
+        <v>-41995.919094666599</v>
       </c>
       <c r="C17" s="24"/>
       <c r="D17" s="24"/>
@@ -2689,13 +2093,13 @@
       </c>
       <c r="F17" s="26">
         <f t="shared" si="0"/>
-        <v>3413.696796</v>
-      </c>
-    </row>
-    <row r="18" spans="2:6">
+        <v>3413.6967960000002</v>
+      </c>
+    </row>
+    <row r="18" spans="2:14">
       <c r="B18" s="23">
         <f>SUM($F$3:F18)</f>
-        <v>-38582.2222986666</v>
+        <v>-38582.222298666602</v>
       </c>
       <c r="C18" s="24"/>
       <c r="D18" s="24"/>
@@ -2704,13 +2108,13 @@
       </c>
       <c r="F18" s="26">
         <f t="shared" si="0"/>
-        <v>3413.696796</v>
-      </c>
-    </row>
-    <row r="19" spans="2:6">
+        <v>3413.6967960000002</v>
+      </c>
+    </row>
+    <row r="19" spans="2:14">
       <c r="B19" s="23">
         <f>SUM($F$3:F19)</f>
-        <v>-35168.5255026666</v>
+        <v>-35168.525502666598</v>
       </c>
       <c r="C19" s="24"/>
       <c r="D19" s="24"/>
@@ -2719,13 +2123,13 @@
       </c>
       <c r="F19" s="26">
         <f t="shared" si="0"/>
-        <v>3413.696796</v>
-      </c>
-    </row>
-    <row r="20" spans="2:6">
+        <v>3413.6967960000002</v>
+      </c>
+    </row>
+    <row r="20" spans="2:14">
       <c r="B20" s="23">
         <f>SUM($F$3:F20)</f>
-        <v>-31754.8287066666</v>
+        <v>-31754.828706666602</v>
       </c>
       <c r="C20" s="24"/>
       <c r="D20" s="24"/>
@@ -2734,13 +2138,13 @@
       </c>
       <c r="F20" s="26">
         <f t="shared" si="0"/>
-        <v>3413.696796</v>
-      </c>
-    </row>
-    <row r="21" spans="2:6">
+        <v>3413.6967960000002</v>
+      </c>
+    </row>
+    <row r="21" spans="2:14">
       <c r="B21" s="23">
         <f>SUM($F$3:F21)</f>
-        <v>-28341.1319106666</v>
+        <v>-28341.131910666601</v>
       </c>
       <c r="C21" s="24"/>
       <c r="D21" s="24"/>
@@ -2749,13 +2153,13 @@
       </c>
       <c r="F21" s="26">
         <f t="shared" si="0"/>
-        <v>3413.696796</v>
-      </c>
-    </row>
-    <row r="22" spans="2:6">
+        <v>3413.6967960000002</v>
+      </c>
+    </row>
+    <row r="22" spans="2:14">
       <c r="B22" s="23">
         <f>SUM($F$3:F22)</f>
-        <v>-24927.4351146666</v>
+        <v>-24927.435114666601</v>
       </c>
       <c r="C22" s="24"/>
       <c r="D22" s="24"/>
@@ -2764,13 +2168,13 @@
       </c>
       <c r="F22" s="26">
         <f t="shared" si="0"/>
-        <v>3413.696796</v>
-      </c>
-    </row>
-    <row r="23" spans="2:6">
+        <v>3413.6967960000002</v>
+      </c>
+    </row>
+    <row r="23" spans="2:14">
       <c r="B23" s="23">
         <f>SUM($F$3:F23)</f>
-        <v>-21513.7383186666</v>
+        <v>-21513.738318666601</v>
       </c>
       <c r="C23" s="24"/>
       <c r="D23" s="24"/>
@@ -2779,13 +2183,13 @@
       </c>
       <c r="F23" s="26">
         <f t="shared" si="0"/>
-        <v>3413.696796</v>
-      </c>
-    </row>
-    <row r="24" spans="2:6">
+        <v>3413.6967960000002</v>
+      </c>
+    </row>
+    <row r="24" spans="2:14">
       <c r="B24" s="23">
         <f>SUM($F$3:F24)</f>
-        <v>-18100.0415226666</v>
+        <v>-18100.041522666601</v>
       </c>
       <c r="C24" s="24"/>
       <c r="D24" s="24"/>
@@ -2794,13 +2198,13 @@
       </c>
       <c r="F24" s="26">
         <f t="shared" si="0"/>
-        <v>3413.696796</v>
-      </c>
-    </row>
-    <row r="25" spans="2:6">
+        <v>3413.6967960000002</v>
+      </c>
+    </row>
+    <row r="25" spans="2:14">
       <c r="B25" s="23">
         <f>SUM($F$3:F25)</f>
-        <v>-14686.3447266666</v>
+        <v>-14686.344726666601</v>
       </c>
       <c r="C25" s="24"/>
       <c r="D25" s="24"/>
@@ -2809,13 +2213,13 @@
       </c>
       <c r="F25" s="26">
         <f t="shared" si="0"/>
-        <v>3413.696796</v>
-      </c>
-    </row>
-    <row r="26" spans="2:6">
+        <v>3413.6967960000002</v>
+      </c>
+    </row>
+    <row r="26" spans="2:14">
       <c r="B26" s="23">
         <f>SUM($F$3:F26)</f>
-        <v>-11272.6479306666</v>
+        <v>-11272.647930666601</v>
       </c>
       <c r="C26" s="24"/>
       <c r="D26" s="24"/>
@@ -2824,13 +2228,13 @@
       </c>
       <c r="F26" s="26">
         <f t="shared" si="0"/>
-        <v>3413.696796</v>
-      </c>
-    </row>
-    <row r="27" spans="2:6">
+        <v>3413.6967960000002</v>
+      </c>
+    </row>
+    <row r="27" spans="2:14">
       <c r="B27" s="23">
         <f>SUM($F$3:F27)</f>
-        <v>-7858.95113466663</v>
+        <v>-7858.9511346666304</v>
       </c>
       <c r="C27" s="24"/>
       <c r="D27" s="24"/>
@@ -2839,13 +2243,13 @@
       </c>
       <c r="F27" s="26">
         <f t="shared" si="0"/>
-        <v>3413.696796</v>
-      </c>
-    </row>
-    <row r="28" spans="2:9">
+        <v>3413.6967960000002</v>
+      </c>
+    </row>
+    <row r="28" spans="2:14">
       <c r="B28" s="23">
         <f>SUM($F$3:F28)</f>
-        <v>-4445.25433866663</v>
+        <v>-4445.2543386666302</v>
       </c>
       <c r="C28" s="24" t="s">
         <v>28</v>
@@ -2856,19 +2260,19 @@
       </c>
       <c r="F28" s="26">
         <f t="shared" si="0"/>
-        <v>3413.696796</v>
-      </c>
-      <c r="H28" s="41"/>
-      <c r="I28" s="41"/>
-    </row>
-    <row r="29" spans="2:7">
+        <v>3413.6967960000002</v>
+      </c>
+      <c r="H28" s="36"/>
+      <c r="I28" s="36"/>
+    </row>
+    <row r="29" spans="2:14">
       <c r="B29" s="23">
         <f>SUM($F$3:F29)</f>
-        <v>69328.7456613334</v>
+        <v>69328.745661333407</v>
       </c>
       <c r="C29" s="24">
         <f>XIRR(F3:F29,E3:E29)</f>
-        <v>0.0497632507036538</v>
+        <v>4.9763250703653797E-2</v>
       </c>
       <c r="D29" s="24" t="s">
         <v>13</v>
@@ -2884,18 +2288,16 @@
         <v>43</v>
       </c>
     </row>
-    <row r="30" spans="2:4">
+    <row r="30" spans="2:14">
       <c r="B30" s="23"/>
       <c r="C30" s="24"/>
       <c r="D30" s="24"/>
     </row>
-    <row r="31" spans="12:12">
+    <row r="31" spans="2:14">
       <c r="L31" s="18"/>
     </row>
-    <row r="32" spans="5:14">
+    <row r="32" spans="2:14">
       <c r="E32" s="18"/>
-      <c r="F32" s="18"/>
-      <c r="G32" s="18"/>
       <c r="H32" s="23"/>
       <c r="I32" s="23"/>
       <c r="J32" s="23"/>
@@ -2913,66 +2315,52 @@
       <c r="E33" s="23"/>
       <c r="F33" s="23"/>
       <c r="G33" s="23"/>
-      <c r="H33" s="18"/>
-      <c r="I33" s="18"/>
-      <c r="J33" s="18"/>
-      <c r="K33" s="18"/>
       <c r="L33" s="18"/>
     </row>
     <row r="34" spans="2:12">
       <c r="B34" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="C34" s="18"/>
-      <c r="D34" s="18"/>
       <c r="E34" s="18"/>
-      <c r="F34" s="18"/>
-      <c r="G34" s="18"/>
-      <c r="H34" s="18"/>
-      <c r="I34" s="18"/>
-      <c r="J34" s="18"/>
-      <c r="K34" s="18"/>
       <c r="L34" s="18"/>
     </row>
-    <row r="35" spans="5:5">
+    <row r="35" spans="2:12">
       <c r="E35" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="8">
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="G6:G8"/>
     <mergeCell ref="J4:N4"/>
     <mergeCell ref="J5:N5"/>
     <mergeCell ref="J6:N6"/>
     <mergeCell ref="J7:N7"/>
     <mergeCell ref="J8:N8"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="G6:G8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="1" orientation="portrait"/>
-  <headerFooter/>
+  <pageSetup orientation="portrait"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A2:I10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="9.14159292035398" style="3"/>
-    <col min="2" max="2" width="9.14159292035398" style="4" customWidth="1"/>
-    <col min="3" max="3" width="9.85840707964602" customWidth="1"/>
-    <col min="4" max="4" width="5.70796460176991" customWidth="1"/>
-    <col min="5" max="5" width="11.283185840708" customWidth="1"/>
+    <col min="1" max="1" width="9.140625" style="3"/>
+    <col min="2" max="2" width="9.140625" style="4" customWidth="1"/>
+    <col min="3" max="3" width="9.85546875" customWidth="1"/>
+    <col min="4" max="4" width="5.7109375" customWidth="1"/>
+    <col min="5" max="5" width="11.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:9">
       <c r="A2" s="3" t="s">
         <v>44</v>
       </c>
@@ -2980,19 +2368,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="2:5">
+    <row r="3" spans="1:9">
       <c r="B3" s="2">
         <v>45177</v>
       </c>
       <c r="C3">
         <f>-I4/3</f>
-        <v>-50065.6666666667</v>
+        <v>-50065.666666666701</v>
       </c>
       <c r="E3" s="16" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="4" spans="2:9">
+    <row r="4" spans="1:9">
       <c r="B4" s="4">
         <v>45261</v>
       </c>
@@ -3006,42 +2394,42 @@
         <v>150197</v>
       </c>
     </row>
-    <row r="5" spans="2:3">
+    <row r="5" spans="1:9">
       <c r="B5" s="4">
         <v>45352</v>
       </c>
       <c r="C5">
         <f>C3</f>
-        <v>-50065.6666666667</v>
-      </c>
-    </row>
-    <row r="6" spans="8:8">
+        <v>-50065.666666666701</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="H6" s="14" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="7" spans="2:3">
+    <row r="7" spans="1:9">
       <c r="B7" s="4">
         <v>45717</v>
       </c>
       <c r="C7">
         <f>C3</f>
-        <v>-50065.6666666667</v>
-      </c>
-    </row>
-    <row r="9" spans="2:4">
+        <v>-50065.666666666701</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="B9" s="4">
         <v>46082</v>
       </c>
       <c r="C9" s="17">
         <f>2.978%*I4</f>
-        <v>4472.86666</v>
+        <v>4472.8666599999997</v>
       </c>
       <c r="D9" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:9">
       <c r="A10" s="3">
         <f>SUM(C3:C10)</f>
         <v>10601.86666</v>
@@ -3058,39 +2446,37 @@
       </c>
       <c r="F10" s="11">
         <f>XIRR(C3:C10,B3:B10)</f>
-        <v>0.0398741956457715</v>
+        <v>3.98741956457715E-2</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="1" orientation="portrait"/>
-  <headerFooter/>
+  <pageSetup orientation="portrait"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="B2:N21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="N15" sqref="N15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="2.42477876106195" customWidth="1"/>
-    <col min="2" max="2" width="6.88495575221239" style="3" customWidth="1"/>
-    <col min="3" max="3" width="7.14159292035398" style="4" customWidth="1"/>
-    <col min="4" max="4" width="11.5663716814159" customWidth="1"/>
-    <col min="5" max="5" width="3.09734513274336" customWidth="1"/>
+    <col min="1" max="1" width="2.42578125" customWidth="1"/>
+    <col min="2" max="2" width="6.85546875" style="3" customWidth="1"/>
+    <col min="3" max="3" width="7.140625" style="4" customWidth="1"/>
+    <col min="4" max="4" width="11.5703125" customWidth="1"/>
+    <col min="5" max="5" width="3.140625" customWidth="1"/>
     <col min="6" max="6" width="18" customWidth="1"/>
     <col min="7" max="7" width="9" customWidth="1"/>
-    <col min="9" max="9" width="11.5663716814159" customWidth="1"/>
-    <col min="14" max="14" width="11.141592920354" customWidth="1"/>
+    <col min="9" max="9" width="11.5703125" customWidth="1"/>
+    <col min="14" max="14" width="11.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:4">
+    <row r="2" spans="2:9">
       <c r="B2" s="5" t="s">
         <v>48</v>
       </c>
@@ -3099,7 +2485,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="2:6">
+    <row r="3" spans="2:9">
       <c r="B3" s="5"/>
       <c r="C3" s="6">
         <v>45748</v>
@@ -3111,12 +2497,12 @@
         <v>49</v>
       </c>
     </row>
-    <row r="4" spans="2:4">
+    <row r="4" spans="2:9">
       <c r="B4" s="5"/>
       <c r="C4" s="6"/>
       <c r="D4" s="8"/>
     </row>
-    <row r="5" spans="2:6">
+    <row r="5" spans="2:9">
       <c r="B5" s="5"/>
       <c r="C5" s="6">
         <v>45778</v>
@@ -3129,7 +2515,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="6" customFormat="1" spans="2:7">
+    <row r="6" spans="2:9">
       <c r="B6" s="5"/>
       <c r="C6" s="6">
         <v>45809</v>
@@ -3142,7 +2528,7 @@
       </c>
       <c r="G6" s="10"/>
     </row>
-    <row r="7" customFormat="1" spans="2:7">
+    <row r="7" spans="2:9">
       <c r="B7" s="5"/>
       <c r="C7" s="6"/>
       <c r="D7" s="8"/>
@@ -3151,10 +2537,10 @@
       </c>
       <c r="G7" s="10">
         <f>SUM(D5:D6)/G17</f>
-        <v>0.0348999672407597</v>
-      </c>
-    </row>
-    <row r="8" spans="2:4">
+        <v>3.4899967240759701E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="2:9">
       <c r="B8" s="5"/>
       <c r="C8" s="6">
         <v>45901</v>
@@ -3170,7 +2556,7 @@
       <c r="D9" s="8"/>
       <c r="I9" s="14"/>
     </row>
-    <row r="10" spans="2:6">
+    <row r="10" spans="2:9">
       <c r="B10" s="5"/>
       <c r="C10" s="6">
         <v>46266</v>
@@ -3183,47 +2569,51 @@
         <v>53</v>
       </c>
     </row>
-    <row r="11" spans="2:4">
+    <row r="11" spans="2:9">
       <c r="B11" s="5"/>
       <c r="C11" s="6"/>
       <c r="D11" s="8"/>
     </row>
-    <row r="12" spans="2:8">
+    <row r="12" spans="2:9">
       <c r="B12" s="5"/>
       <c r="C12" s="6">
         <v>46631</v>
       </c>
       <c r="D12" s="8">
         <f>G12*G17</f>
-        <v>6813.085335</v>
+        <v>6813.0853349999998</v>
       </c>
       <c r="F12" t="s">
         <v>54</v>
       </c>
-      <c r="G12" s="11">
-        <v>0.0301</v>
+      <c r="G12" s="82">
+        <v>3.0099999999999998E-2</v>
       </c>
       <c r="H12" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="13" customFormat="1" spans="2:6">
+    <row r="13" spans="2:9">
       <c r="B13" s="5"/>
       <c r="C13" s="6"/>
       <c r="D13" s="12"/>
-      <c r="F13" t="s">
+      <c r="F13" s="80" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="14" customFormat="1" spans="2:4">
+      <c r="G13" s="80"/>
+      <c r="H13" s="80"/>
+    </row>
+    <row r="14" spans="2:9">
       <c r="B14" s="5"/>
       <c r="C14" s="6"/>
       <c r="D14" s="12"/>
-    </row>
-    <row r="15" spans="2:6">
+      <c r="F14" s="80"/>
+      <c r="G14" s="80"/>
+    </row>
+    <row r="15" spans="2:9">
       <c r="B15" s="5">
         <f>SUM(D3:D15)</f>
-        <v>14712.635335</v>
+        <v>14712.635335000001</v>
       </c>
       <c r="C15" s="6">
         <v>46631</v>
@@ -3232,11 +2622,12 @@
         <f>G17</f>
         <v>226348.35</v>
       </c>
-      <c r="F15" t="s">
+      <c r="F15" s="80" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="16" spans="3:7">
+      <c r="G15" s="80"/>
+    </row>
+    <row r="16" spans="2:9">
       <c r="C16" s="4" t="s">
         <v>58</v>
       </c>
@@ -3245,10 +2636,10 @@
       </c>
       <c r="G16" s="11">
         <f>XIRR(D3:D15,C3:C15)</f>
-        <v>0.0369602939142573</v>
-      </c>
-    </row>
-    <row r="17" spans="6:7">
+        <v>3.69602939142573E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="6:14">
       <c r="F17" t="s">
         <v>1</v>
       </c>
@@ -3257,12 +2648,12 @@
         <v>226348.35</v>
       </c>
     </row>
-    <row r="18" spans="6:6">
+    <row r="18" spans="6:14">
       <c r="F18" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="21" spans="14:14">
+    <row r="21" spans="6:14">
       <c r="N21" s="15"/>
     </row>
   </sheetData>
@@ -3272,28 +2663,26 @@
     <mergeCell ref="F15:G15"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="1" orientation="portrait"/>
-  <headerFooter/>
+  <pageSetup orientation="portrait"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:R27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E4" sqref="E4:R4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="2" width="9.85840707964602" customWidth="1"/>
-    <col min="3" max="3" width="1.56637168141593" customWidth="1"/>
+    <col min="1" max="2" width="9.85546875" customWidth="1"/>
+    <col min="3" max="3" width="1.5703125" customWidth="1"/>
     <col min="4" max="4" width="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:5">
+    <row r="1" spans="1:18">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -3302,10 +2691,10 @@
       </c>
       <c r="E1" s="1">
         <f>XIRR(B2:B27,A2:A27)</f>
-        <v>0.0299782292091633</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
+        <v>2.99782292091633E-2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18">
       <c r="A2" s="2">
         <v>36526</v>
       </c>
@@ -3313,45 +2702,99 @@
         <v>-100</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:18">
       <c r="A3" s="2">
         <v>36892</v>
       </c>
       <c r="B3">
         <v>3</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" s="80" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="4" spans="1:5">
+      <c r="F3" s="80"/>
+      <c r="G3" s="80"/>
+      <c r="H3" s="80"/>
+      <c r="I3" s="80"/>
+      <c r="J3" s="80"/>
+      <c r="K3" s="80"/>
+      <c r="L3" s="80"/>
+      <c r="M3" s="80"/>
+      <c r="N3" s="80"/>
+      <c r="O3" s="80"/>
+      <c r="P3" s="80"/>
+      <c r="Q3" s="80"/>
+      <c r="R3" s="80"/>
+    </row>
+    <row r="4" spans="1:18">
       <c r="A4" s="2">
         <v>37257</v>
       </c>
       <c r="B4">
         <v>3</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E4" s="80" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="5" spans="1:2">
+      <c r="F4" s="80"/>
+      <c r="G4" s="80"/>
+      <c r="H4" s="80"/>
+      <c r="I4" s="80"/>
+      <c r="J4" s="80"/>
+      <c r="K4" s="80"/>
+      <c r="L4" s="80"/>
+      <c r="M4" s="80"/>
+      <c r="N4" s="80"/>
+      <c r="O4" s="80"/>
+      <c r="P4" s="80"/>
+      <c r="Q4" s="80"/>
+      <c r="R4" s="80"/>
+    </row>
+    <row r="5" spans="1:18">
       <c r="A5" s="2">
         <v>37622</v>
       </c>
       <c r="B5">
         <v>3</v>
       </c>
-    </row>
-    <row r="6" spans="1:2">
+      <c r="E5" s="80"/>
+      <c r="F5" s="80"/>
+      <c r="G5" s="80"/>
+      <c r="H5" s="80"/>
+      <c r="I5" s="80"/>
+      <c r="J5" s="80"/>
+      <c r="K5" s="80"/>
+      <c r="L5" s="80"/>
+      <c r="M5" s="80"/>
+      <c r="N5" s="80"/>
+      <c r="O5" s="80"/>
+      <c r="P5" s="80"/>
+      <c r="Q5" s="80"/>
+      <c r="R5" s="80"/>
+    </row>
+    <row r="6" spans="1:18">
       <c r="A6" s="2">
         <v>37987</v>
       </c>
       <c r="B6">
         <v>3</v>
       </c>
-    </row>
-    <row r="7" spans="1:2">
+      <c r="E6" s="80"/>
+      <c r="F6" s="80"/>
+      <c r="G6" s="80"/>
+      <c r="H6" s="80"/>
+      <c r="I6" s="80"/>
+      <c r="J6" s="80"/>
+      <c r="K6" s="80"/>
+      <c r="L6" s="80"/>
+      <c r="M6" s="80"/>
+      <c r="N6" s="80"/>
+      <c r="O6" s="80"/>
+      <c r="P6" s="80"/>
+      <c r="Q6" s="80"/>
+      <c r="R6" s="80"/>
+    </row>
+    <row r="7" spans="1:18">
       <c r="A7" s="2">
         <v>38353</v>
       </c>
@@ -3359,7 +2802,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:18">
       <c r="A8" s="2">
         <v>38718</v>
       </c>
@@ -3367,7 +2810,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:18">
       <c r="A9" s="2">
         <v>39083</v>
       </c>
@@ -3375,7 +2818,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10" spans="1:18">
       <c r="A10" s="2">
         <v>39448</v>
       </c>
@@ -3383,7 +2826,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
+    <row r="11" spans="1:18">
       <c r="A11" s="2">
         <v>39814</v>
       </c>
@@ -3391,7 +2834,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
+    <row r="12" spans="1:18">
       <c r="A12" s="2">
         <v>40179</v>
       </c>
@@ -3399,7 +2842,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:2">
+    <row r="13" spans="1:18">
       <c r="A13" s="2">
         <v>40544</v>
       </c>
@@ -3407,7 +2850,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:2">
+    <row r="14" spans="1:18">
       <c r="A14" s="2">
         <v>40909</v>
       </c>
@@ -3415,7 +2858,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:2">
+    <row r="15" spans="1:18">
       <c r="A15" s="2">
         <v>41275</v>
       </c>
@@ -3423,7 +2866,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:2">
+    <row r="16" spans="1:18">
       <c r="A16" s="2">
         <v>41640</v>
       </c>
@@ -3528,7 +2971,6 @@
     <mergeCell ref="E6:R6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="1" orientation="portrait"/>
-  <headerFooter/>
+  <pageSetup orientation="portrait"/>
 </worksheet>
 </file>
--- a/msff/xls/FLI2FWD.xlsx
+++ b/msff/xls/FLI2FWD.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24332"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\0x\repos\repo1\msff\xls\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="N:\repos\repo1\msff\xls\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86A8BD7E-5FA9-45D7-8543-49B02C05FCD8}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF5D0732-8296-414C-A86F-D2911CE81887}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22695" windowHeight="11520" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="150" yWindow="-21600" windowWidth="17310" windowHeight="21600" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="FWD300" sheetId="9" r:id="rId1"/>
@@ -19,12 +19,23 @@
     <sheet name="FLi226" sheetId="11" r:id="rId4"/>
     <sheet name="xirr test" sheetId="3" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="179021"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="65">
   <si>
     <t>cash in/out</t>
   </si>
@@ -281,15 +292,9 @@
     <t>&lt;CIIMB</t>
   </si>
   <si>
-    <t>total upfront rate=</t>
-  </si>
-  <si>
     <t>final installment</t>
   </si>
   <si>
-    <t>1st payout.. Rate=</t>
-  </si>
-  <si>
     <t>, higher than FLi150</t>
   </si>
   <si>
@@ -309,6 +314,21 @@
   </si>
   <si>
     <t>FWD41 can absorb more of my excess cash (welcome) but what if in X years I need more liquidity?</t>
+  </si>
+  <si>
+    <t>^^ total upfront rate=</t>
+  </si>
+  <si>
+    <t>FLi150 annual payout#1</t>
+  </si>
+  <si>
+    <t>FLi250 annual payout#1</t>
+  </si>
+  <si>
+    <t>middle installment</t>
+  </si>
+  <si>
+    <t>FLI226 1st payout.. Rate=</t>
   </si>
 </sst>
 </file>
@@ -317,14 +337,14 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="9">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="165" formatCode="0.0000%"/>
-    <numFmt numFmtId="166" formatCode="#,##0.00_ "/>
-    <numFmt numFmtId="167" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="168" formatCode="_(* #,##0.0000000_);_(* \(#,##0.0000000\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="169" formatCode="[$-409]mmm/yy;@"/>
-    <numFmt numFmtId="170" formatCode="[$-409]d\-mmm;@"/>
-    <numFmt numFmtId="171" formatCode="&quot;$&quot;#,##0"/>
-    <numFmt numFmtId="172" formatCode="0.000%"/>
+    <numFmt numFmtId="164" formatCode="0.0000%"/>
+    <numFmt numFmtId="165" formatCode="#,##0.00_ "/>
+    <numFmt numFmtId="166" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="167" formatCode="_(* #,##0.0000000_);_(* \(#,##0.0000000\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="168" formatCode="[$-409]mmm/yy;@"/>
+    <numFmt numFmtId="169" formatCode="[$-409]d\-mmm;@"/>
+    <numFmt numFmtId="170" formatCode="&quot;$&quot;#,##0"/>
+    <numFmt numFmtId="171" formatCode="0.000%"/>
   </numFmts>
   <fonts count="7">
     <font>
@@ -538,40 +558,40 @@
     <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="83">
+  <cellXfs count="84">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="17" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="17" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="169" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
@@ -592,22 +612,22 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="171" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="171" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="171" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="169" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -627,7 +647,7 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="171" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -635,9 +655,11 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="171" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="171" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
@@ -657,11 +679,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="172" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -1014,13 +1035,13 @@
       <c r="I4" s="66">
         <v>3.3799999999999997E-2</v>
       </c>
-      <c r="J4" s="71" t="s">
+      <c r="J4" s="73" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="72"/>
-      <c r="L4" s="72"/>
-      <c r="M4" s="72"/>
-      <c r="N4" s="72"/>
+      <c r="K4" s="74"/>
+      <c r="L4" s="74"/>
+      <c r="M4" s="74"/>
+      <c r="N4" s="74"/>
     </row>
     <row r="5" spans="2:14">
       <c r="B5" s="3"/>
@@ -1028,17 +1049,17 @@
       <c r="D5" s="11"/>
       <c r="E5" s="52"/>
       <c r="F5" s="5"/>
-      <c r="G5" s="79" t="s">
+      <c r="G5" s="81" t="s">
         <v>7</v>
       </c>
       <c r="H5" s="53"/>
       <c r="I5" s="53"/>
     </row>
     <row r="6" spans="2:14">
-      <c r="B6" s="75" t="s">
+      <c r="B6" s="77" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="77" t="s">
+      <c r="C6" s="79" t="s">
         <v>9</v>
       </c>
       <c r="D6" s="11"/>
@@ -1049,39 +1070,39 @@
         <f>-K17</f>
         <v>-17618.7</v>
       </c>
-      <c r="G6" s="79"/>
+      <c r="G6" s="81"/>
       <c r="H6" s="7" t="s">
         <v>10</v>
       </c>
       <c r="I6" s="67">
         <v>0.03</v>
       </c>
-      <c r="J6" s="73" t="s">
+      <c r="J6" s="75" t="s">
         <v>11</v>
       </c>
-      <c r="K6" s="74"/>
-      <c r="L6" s="74"/>
-      <c r="M6" s="74"/>
-      <c r="N6" s="74"/>
+      <c r="K6" s="76"/>
+      <c r="L6" s="76"/>
+      <c r="M6" s="76"/>
+      <c r="N6" s="76"/>
     </row>
     <row r="7" spans="2:14">
-      <c r="B7" s="76"/>
-      <c r="C7" s="78"/>
+      <c r="B7" s="78"/>
+      <c r="C7" s="80"/>
       <c r="D7" s="31"/>
       <c r="E7" s="52"/>
       <c r="F7" s="5"/>
-      <c r="G7" s="79"/>
+      <c r="G7" s="81"/>
       <c r="H7" s="7" t="s">
         <v>12</v>
       </c>
       <c r="I7" s="64">
         <v>228000</v>
       </c>
-      <c r="J7" s="73"/>
-      <c r="K7" s="74"/>
-      <c r="L7" s="74"/>
-      <c r="M7" s="74"/>
-      <c r="N7" s="74"/>
+      <c r="J7" s="75"/>
+      <c r="K7" s="76"/>
+      <c r="L7" s="76"/>
+      <c r="M7" s="76"/>
+      <c r="N7" s="76"/>
     </row>
     <row r="8" spans="2:14">
       <c r="B8" s="54">
@@ -1090,7 +1111,7 @@
       </c>
       <c r="C8" s="55">
         <f>B8-$F$3</f>
-        <v>-11733.7</v>
+        <v>-11733.699999999997</v>
       </c>
       <c r="D8" t="s">
         <v>13</v>
@@ -1100,7 +1121,7 @@
       </c>
       <c r="F8" s="5">
         <f>($I$4*$I$2-$I$6*$I$7)/12</f>
-        <v>275</v>
+        <v>274.99999999999983</v>
       </c>
       <c r="G8" s="56" t="s">
         <v>14</v>
@@ -1111,13 +1132,13 @@
       <c r="I8" s="67">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="J8" s="73" t="s">
+      <c r="J8" s="75" t="s">
         <v>16</v>
       </c>
-      <c r="K8" s="74"/>
-      <c r="L8" s="74"/>
-      <c r="M8" s="74"/>
-      <c r="N8" s="74"/>
+      <c r="K8" s="76"/>
+      <c r="L8" s="76"/>
+      <c r="M8" s="76"/>
+      <c r="N8" s="76"/>
     </row>
     <row r="9" spans="2:14">
       <c r="B9" s="54">
@@ -1126,14 +1147,14 @@
       </c>
       <c r="C9" s="55">
         <f t="shared" ref="C9:C19" si="0">B9-$F$3</f>
-        <v>-11458.7</v>
+        <v>-11458.699999999997</v>
       </c>
       <c r="E9" s="50">
         <v>46722</v>
       </c>
       <c r="F9" s="5">
         <f t="shared" ref="F9:F19" si="1">($I$4*$I$2-$I$6*$I$7)/12</f>
-        <v>275</v>
+        <v>274.99999999999983</v>
       </c>
     </row>
     <row r="10" spans="2:14">
@@ -1143,14 +1164,14 @@
       </c>
       <c r="C10" s="55">
         <f t="shared" si="0"/>
-        <v>-11183.7</v>
+        <v>-11183.699999999997</v>
       </c>
       <c r="E10" s="50">
         <v>46753</v>
       </c>
       <c r="F10" s="5">
         <f t="shared" si="1"/>
-        <v>275</v>
+        <v>274.99999999999983</v>
       </c>
     </row>
     <row r="11" spans="2:14">
@@ -1160,14 +1181,14 @@
       </c>
       <c r="C11" s="55">
         <f t="shared" si="0"/>
-        <v>-10908.7</v>
+        <v>-10908.699999999997</v>
       </c>
       <c r="E11" s="50">
         <v>46784</v>
       </c>
       <c r="F11" s="5">
         <f t="shared" si="1"/>
-        <v>275</v>
+        <v>274.99999999999983</v>
       </c>
       <c r="L11"/>
     </row>
@@ -1178,14 +1199,14 @@
       </c>
       <c r="C12" s="55">
         <f t="shared" si="0"/>
-        <v>-10633.7</v>
+        <v>-10633.699999999997</v>
       </c>
       <c r="E12" s="50">
         <v>46813</v>
       </c>
       <c r="F12" s="5">
         <f t="shared" si="1"/>
-        <v>275</v>
+        <v>274.99999999999983</v>
       </c>
       <c r="L12"/>
     </row>
@@ -1196,14 +1217,14 @@
       </c>
       <c r="C13" s="55">
         <f t="shared" si="0"/>
-        <v>-10358.700000000001</v>
+        <v>-10358.699999999997</v>
       </c>
       <c r="E13" s="50">
         <v>46844</v>
       </c>
       <c r="F13" s="5">
         <f t="shared" si="1"/>
-        <v>275</v>
+        <v>274.99999999999983</v>
       </c>
       <c r="H13" s="58"/>
       <c r="I13" s="58"/>
@@ -1222,14 +1243,14 @@
       </c>
       <c r="C14" s="55">
         <f t="shared" si="0"/>
-        <v>-10083.700000000001</v>
+        <v>-10083.699999999997</v>
       </c>
       <c r="E14" s="50">
         <v>46874</v>
       </c>
       <c r="F14" s="5">
         <f t="shared" si="1"/>
-        <v>275</v>
+        <v>274.99999999999983</v>
       </c>
       <c r="H14" s="59" t="s">
         <v>19</v>
@@ -1255,14 +1276,14 @@
       </c>
       <c r="C15" s="55">
         <f t="shared" si="0"/>
-        <v>-9808.7000000000007</v>
+        <v>-9808.6999999999971</v>
       </c>
       <c r="E15" s="50">
         <v>46905</v>
       </c>
       <c r="F15" s="5">
         <f t="shared" si="1"/>
-        <v>275</v>
+        <v>274.99999999999983</v>
       </c>
       <c r="H15" s="59" t="s">
         <v>21</v>
@@ -1275,7 +1296,7 @@
       </c>
       <c r="K15" s="64">
         <f>$I$7*LEFT(I15,2)/12*J15</f>
-        <v>5312.4</v>
+        <v>5312.4000000000005</v>
       </c>
       <c r="L15"/>
     </row>
@@ -1286,14 +1307,14 @@
       </c>
       <c r="C16" s="55">
         <f t="shared" si="0"/>
-        <v>-9533.7000000000007</v>
+        <v>-9533.6999999999971</v>
       </c>
       <c r="E16" s="50">
         <v>46935</v>
       </c>
       <c r="F16" s="5">
         <f t="shared" si="1"/>
-        <v>275</v>
+        <v>274.99999999999983</v>
       </c>
       <c r="H16" s="59" t="s">
         <v>23</v>
@@ -1317,14 +1338,14 @@
       </c>
       <c r="C17" s="55">
         <f t="shared" si="0"/>
-        <v>-9258.7000000000007</v>
+        <v>-9258.6999999999971</v>
       </c>
       <c r="E17" s="50">
         <v>46966</v>
       </c>
       <c r="F17" s="5">
         <f t="shared" si="1"/>
-        <v>275</v>
+        <v>274.99999999999983</v>
       </c>
       <c r="H17" s="7"/>
       <c r="I17" s="7"/>
@@ -1342,14 +1363,14 @@
       </c>
       <c r="C18" s="55">
         <f t="shared" si="0"/>
-        <v>-8983.7000000000007</v>
+        <v>-8983.6999999999971</v>
       </c>
       <c r="E18" s="50">
         <v>46997</v>
       </c>
       <c r="F18" s="5">
         <f t="shared" si="1"/>
-        <v>275</v>
+        <v>274.99999999999983</v>
       </c>
     </row>
     <row r="19" spans="2:12">
@@ -1359,14 +1380,14 @@
       </c>
       <c r="C19" s="61">
         <f t="shared" si="0"/>
-        <v>-8708.7000000000007</v>
+        <v>-8708.6999999999971</v>
       </c>
       <c r="E19" s="50">
         <v>47027</v>
       </c>
       <c r="F19" s="5">
         <f t="shared" si="1"/>
-        <v>275</v>
+        <v>274.99999999999983</v>
       </c>
     </row>
     <row r="20" spans="2:12">
@@ -1395,7 +1416,7 @@
       </c>
       <c r="F22" s="5">
         <f t="shared" ref="F22:F37" si="2">$I$4*$I$2-$I$8*$I$7</f>
-        <v>4440</v>
+        <v>4439.9999999999982</v>
       </c>
       <c r="G22" t="s">
         <v>26</v>
@@ -1414,7 +1435,7 @@
       </c>
       <c r="F23" s="5">
         <f t="shared" si="2"/>
-        <v>4440</v>
+        <v>4439.9999999999982</v>
       </c>
     </row>
     <row r="24" spans="2:12">
@@ -1429,7 +1450,7 @@
       </c>
       <c r="F24" s="5">
         <f t="shared" si="2"/>
-        <v>4440</v>
+        <v>4439.9999999999982</v>
       </c>
     </row>
     <row r="25" spans="2:12">
@@ -1446,7 +1467,7 @@
       </c>
       <c r="F25" s="5">
         <f t="shared" si="2"/>
-        <v>4440</v>
+        <v>4439.9999999999982</v>
       </c>
     </row>
     <row r="26" spans="2:12">
@@ -1456,7 +1477,7 @@
       </c>
       <c r="C26" s="63">
         <f>-F26/F3</f>
-        <v>6.1666666666666599E-2</v>
+        <v>6.166666666666664E-2</v>
       </c>
       <c r="D26" s="63"/>
       <c r="E26" s="50">
@@ -1464,7 +1485,7 @@
       </c>
       <c r="F26" s="5">
         <f t="shared" si="2"/>
-        <v>4440</v>
+        <v>4439.9999999999982</v>
       </c>
     </row>
     <row r="27" spans="2:12">
@@ -1479,7 +1500,7 @@
       </c>
       <c r="F27" s="5">
         <f t="shared" si="2"/>
-        <v>4440</v>
+        <v>4439.9999999999982</v>
       </c>
     </row>
     <row r="28" spans="2:12">
@@ -1494,7 +1515,7 @@
       </c>
       <c r="F28" s="5">
         <f t="shared" si="2"/>
-        <v>4440</v>
+        <v>4439.9999999999982</v>
       </c>
     </row>
     <row r="29" spans="2:12">
@@ -1509,7 +1530,7 @@
       </c>
       <c r="F29" s="5">
         <f t="shared" si="2"/>
-        <v>4440</v>
+        <v>4439.9999999999982</v>
       </c>
     </row>
     <row r="30" spans="2:12">
@@ -1524,7 +1545,7 @@
       </c>
       <c r="F30" s="5">
         <f t="shared" si="2"/>
-        <v>4440</v>
+        <v>4439.9999999999982</v>
       </c>
     </row>
     <row r="31" spans="2:12">
@@ -1539,13 +1560,13 @@
       </c>
       <c r="F31" s="5">
         <f t="shared" si="2"/>
-        <v>4440</v>
+        <v>4439.9999999999982</v>
       </c>
     </row>
     <row r="32" spans="2:12">
       <c r="B32" s="3">
         <f>SUM($F$3:F32)</f>
-        <v>-31868.7</v>
+        <v>-31868.699999999997</v>
       </c>
       <c r="C32" s="11"/>
       <c r="D32" s="11"/>
@@ -1554,13 +1575,13 @@
       </c>
       <c r="F32" s="5">
         <f t="shared" si="2"/>
-        <v>4440</v>
+        <v>4439.9999999999982</v>
       </c>
     </row>
     <row r="33" spans="2:14">
       <c r="B33" s="3">
         <f>SUM($F$3:F33)</f>
-        <v>-27428.7</v>
+        <v>-27428.699999999997</v>
       </c>
       <c r="C33" s="11"/>
       <c r="D33" s="11"/>
@@ -1569,13 +1590,13 @@
       </c>
       <c r="F33" s="5">
         <f t="shared" si="2"/>
-        <v>4440</v>
+        <v>4439.9999999999982</v>
       </c>
     </row>
     <row r="34" spans="2:14">
       <c r="B34" s="3">
         <f>SUM($F$3:F34)</f>
-        <v>-22988.7</v>
+        <v>-22988.699999999997</v>
       </c>
       <c r="C34" s="11"/>
       <c r="D34" s="11"/>
@@ -1584,13 +1605,13 @@
       </c>
       <c r="F34" s="5">
         <f t="shared" si="2"/>
-        <v>4440</v>
+        <v>4439.9999999999982</v>
       </c>
     </row>
     <row r="35" spans="2:14">
       <c r="B35" s="3">
         <f>SUM($F$3:F35)</f>
-        <v>-18548.7</v>
+        <v>-18548.699999999997</v>
       </c>
       <c r="C35" s="11"/>
       <c r="D35" s="11"/>
@@ -1599,13 +1620,13 @@
       </c>
       <c r="F35" s="5">
         <f t="shared" si="2"/>
-        <v>4440</v>
+        <v>4439.9999999999982</v>
       </c>
     </row>
     <row r="36" spans="2:14">
       <c r="B36" s="3">
         <f>SUM($F$3:F36)</f>
-        <v>-14108.7</v>
+        <v>-14108.699999999999</v>
       </c>
       <c r="C36" s="11"/>
       <c r="D36" s="11"/>
@@ -1614,7 +1635,7 @@
       </c>
       <c r="F36" s="5">
         <f t="shared" si="2"/>
-        <v>4440</v>
+        <v>4439.9999999999982</v>
       </c>
     </row>
     <row r="37" spans="2:14">
@@ -1631,7 +1652,7 @@
       </c>
       <c r="F37" s="5">
         <f t="shared" si="2"/>
-        <v>4440</v>
+        <v>4439.9999999999982</v>
       </c>
     </row>
     <row r="38" spans="2:14">
@@ -1641,7 +1662,7 @@
       </c>
       <c r="C38" s="11">
         <f>XIRR(F3:F38,E3:E38)</f>
-        <v>4.7964367445152603E-2</v>
+        <v>4.7964367270469654E-2</v>
       </c>
       <c r="D38" s="11"/>
       <c r="E38" s="50">
@@ -1788,7 +1809,7 @@
       </c>
       <c r="F4" s="28">
         <f>I3*I2/2</f>
-        <v>1253.8699999999999</v>
+        <v>1253.8700000000001</v>
       </c>
       <c r="G4" s="18" t="s">
         <v>35</v>
@@ -1799,13 +1820,13 @@
       <c r="I4" s="43">
         <v>3.2554E-2</v>
       </c>
-      <c r="J4" s="71" t="s">
+      <c r="J4" s="73" t="s">
         <v>36</v>
       </c>
-      <c r="K4" s="80"/>
-      <c r="L4" s="80"/>
-      <c r="M4" s="80"/>
-      <c r="N4" s="80"/>
+      <c r="K4" s="83"/>
+      <c r="L4" s="83"/>
+      <c r="M4" s="83"/>
+      <c r="N4" s="83"/>
     </row>
     <row r="5" spans="2:14">
       <c r="B5" s="23"/>
@@ -1822,11 +1843,11 @@
       </c>
       <c r="H5" s="29"/>
       <c r="I5" s="29"/>
-      <c r="J5" s="73"/>
-      <c r="K5" s="74"/>
-      <c r="L5" s="74"/>
-      <c r="M5" s="74"/>
-      <c r="N5" s="74"/>
+      <c r="J5" s="75"/>
+      <c r="K5" s="76"/>
+      <c r="L5" s="76"/>
+      <c r="M5" s="76"/>
+      <c r="N5" s="76"/>
     </row>
     <row r="6" spans="2:14">
       <c r="B6" s="23"/>
@@ -1834,7 +1855,7 @@
       <c r="D6" s="24"/>
       <c r="E6" s="30"/>
       <c r="F6" s="26"/>
-      <c r="G6" s="81" t="s">
+      <c r="G6" s="82" t="s">
         <v>37</v>
       </c>
       <c r="H6" s="22" t="s">
@@ -1843,19 +1864,19 @@
       <c r="I6" s="44">
         <v>0.03</v>
       </c>
-      <c r="J6" s="73" t="s">
+      <c r="J6" s="75" t="s">
         <v>11</v>
       </c>
-      <c r="K6" s="74"/>
-      <c r="L6" s="74"/>
-      <c r="M6" s="74"/>
-      <c r="N6" s="74"/>
+      <c r="K6" s="76"/>
+      <c r="L6" s="76"/>
+      <c r="M6" s="76"/>
+      <c r="N6" s="76"/>
     </row>
     <row r="7" spans="2:14">
-      <c r="B7" s="75" t="s">
+      <c r="B7" s="77" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="77" t="s">
+      <c r="C7" s="79" t="s">
         <v>9</v>
       </c>
       <c r="D7" s="24"/>
@@ -1864,50 +1885,50 @@
       </c>
       <c r="F7" s="26">
         <f>-K16</f>
-        <v>-12381.666666666701</v>
-      </c>
-      <c r="G7" s="81"/>
+        <v>-12381.666666666666</v>
+      </c>
+      <c r="G7" s="82"/>
       <c r="H7" s="22" t="s">
         <v>39</v>
       </c>
       <c r="I7" s="41">
         <v>190000</v>
       </c>
-      <c r="J7" s="73"/>
-      <c r="K7" s="74"/>
-      <c r="L7" s="74"/>
-      <c r="M7" s="74"/>
-      <c r="N7" s="74"/>
+      <c r="J7" s="75"/>
+      <c r="K7" s="76"/>
+      <c r="L7" s="76"/>
+      <c r="M7" s="76"/>
+      <c r="N7" s="76"/>
     </row>
     <row r="8" spans="2:14">
-      <c r="B8" s="76"/>
-      <c r="C8" s="78"/>
+      <c r="B8" s="78"/>
+      <c r="C8" s="80"/>
       <c r="D8" s="31"/>
       <c r="E8" s="30"/>
       <c r="F8" s="26"/>
-      <c r="G8" s="81"/>
+      <c r="G8" s="82"/>
       <c r="H8" s="22" t="s">
         <v>15</v>
       </c>
       <c r="I8" s="44">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="J8" s="73" t="s">
+      <c r="J8" s="75" t="s">
         <v>16</v>
       </c>
-      <c r="K8" s="74"/>
-      <c r="L8" s="74"/>
-      <c r="M8" s="74"/>
-      <c r="N8" s="74"/>
+      <c r="K8" s="76"/>
+      <c r="L8" s="76"/>
+      <c r="M8" s="76"/>
+      <c r="N8" s="76"/>
     </row>
     <row r="9" spans="2:14">
       <c r="B9" s="32">
         <f>SUM($F$3:F9)</f>
-        <v>-62478.099870666701</v>
+        <v>-62478.099870666658</v>
       </c>
       <c r="C9" s="33">
         <f>B9-F3</f>
-        <v>-1704.0998706666601</v>
+        <v>-1704.0998706666578</v>
       </c>
       <c r="D9" s="23" t="s">
         <v>13</v>
@@ -1942,7 +1963,7 @@
     <row r="12" spans="2:14">
       <c r="B12" s="23">
         <f>SUM($F$3:F12)</f>
-        <v>-59064.403074666698</v>
+        <v>-59064.403074666654</v>
       </c>
       <c r="C12" s="24"/>
       <c r="D12" s="24"/>
@@ -1966,7 +1987,7 @@
     <row r="13" spans="2:14">
       <c r="B13" s="23">
         <f>SUM($F$3:F13)</f>
-        <v>-55650.706278666701</v>
+        <v>-55650.70627866665</v>
       </c>
       <c r="C13" s="24"/>
       <c r="D13" s="24"/>
@@ -1988,17 +2009,17 @@
       </c>
       <c r="K13" s="41">
         <f>$I$7*LEFT(I13,2)/12*J13</f>
-        <v>3204.6666666666702</v>
+        <v>3204.6666666666665</v>
       </c>
       <c r="L13" s="45">
         <f>J13*I7/12</f>
-        <v>400.58333333333297</v>
+        <v>400.58333333333331</v>
       </c>
     </row>
     <row r="14" spans="2:14">
       <c r="B14" s="23">
         <f>SUM($F$3:F14)</f>
-        <v>-52237.009482666603</v>
+        <v>-52237.009482666646</v>
       </c>
       <c r="C14" s="24"/>
       <c r="D14" s="24"/>
@@ -2027,7 +2048,7 @@
     <row r="15" spans="2:14">
       <c r="B15" s="23">
         <f>SUM($F$3:F15)</f>
-        <v>-48823.312686666599</v>
+        <v>-48823.312686666643</v>
       </c>
       <c r="C15" s="38" t="s">
         <v>27</v>
@@ -2058,11 +2079,11 @@
     <row r="16" spans="2:14">
       <c r="B16" s="23">
         <f>SUM($F$3:F16)</f>
-        <v>-45409.615890666602</v>
+        <v>-45409.615890666639</v>
       </c>
       <c r="C16" s="40">
         <f>-F16/F3</f>
-        <v>5.6170349096653201E-2</v>
+        <v>5.617034909665318E-2</v>
       </c>
       <c r="D16" s="40"/>
       <c r="E16" s="25">
@@ -2077,14 +2098,14 @@
       <c r="J16" s="47"/>
       <c r="K16" s="48">
         <f>SUM(K13:K15)</f>
-        <v>12381.666666666701</v>
+        <v>12381.666666666666</v>
       </c>
       <c r="L16" s="18"/>
     </row>
     <row r="17" spans="2:14">
       <c r="B17" s="23">
         <f>SUM($F$3:F17)</f>
-        <v>-41995.919094666599</v>
+        <v>-41995.919094666635</v>
       </c>
       <c r="C17" s="24"/>
       <c r="D17" s="24"/>
@@ -2099,7 +2120,7 @@
     <row r="18" spans="2:14">
       <c r="B18" s="23">
         <f>SUM($F$3:F18)</f>
-        <v>-38582.222298666602</v>
+        <v>-38582.222298666631</v>
       </c>
       <c r="C18" s="24"/>
       <c r="D18" s="24"/>
@@ -2114,7 +2135,7 @@
     <row r="19" spans="2:14">
       <c r="B19" s="23">
         <f>SUM($F$3:F19)</f>
-        <v>-35168.525502666598</v>
+        <v>-35168.525502666627</v>
       </c>
       <c r="C19" s="24"/>
       <c r="D19" s="24"/>
@@ -2129,7 +2150,7 @@
     <row r="20" spans="2:14">
       <c r="B20" s="23">
         <f>SUM($F$3:F20)</f>
-        <v>-31754.828706666602</v>
+        <v>-31754.828706666627</v>
       </c>
       <c r="C20" s="24"/>
       <c r="D20" s="24"/>
@@ -2144,7 +2165,7 @@
     <row r="21" spans="2:14">
       <c r="B21" s="23">
         <f>SUM($F$3:F21)</f>
-        <v>-28341.131910666601</v>
+        <v>-28341.131910666627</v>
       </c>
       <c r="C21" s="24"/>
       <c r="D21" s="24"/>
@@ -2159,7 +2180,7 @@
     <row r="22" spans="2:14">
       <c r="B22" s="23">
         <f>SUM($F$3:F22)</f>
-        <v>-24927.435114666601</v>
+        <v>-24927.435114666627</v>
       </c>
       <c r="C22" s="24"/>
       <c r="D22" s="24"/>
@@ -2174,7 +2195,7 @@
     <row r="23" spans="2:14">
       <c r="B23" s="23">
         <f>SUM($F$3:F23)</f>
-        <v>-21513.738318666601</v>
+        <v>-21513.738318666627</v>
       </c>
       <c r="C23" s="24"/>
       <c r="D23" s="24"/>
@@ -2189,7 +2210,7 @@
     <row r="24" spans="2:14">
       <c r="B24" s="23">
         <f>SUM($F$3:F24)</f>
-        <v>-18100.041522666601</v>
+        <v>-18100.041522666626</v>
       </c>
       <c r="C24" s="24"/>
       <c r="D24" s="24"/>
@@ -2204,7 +2225,7 @@
     <row r="25" spans="2:14">
       <c r="B25" s="23">
         <f>SUM($F$3:F25)</f>
-        <v>-14686.344726666601</v>
+        <v>-14686.344726666626</v>
       </c>
       <c r="C25" s="24"/>
       <c r="D25" s="24"/>
@@ -2219,7 +2240,7 @@
     <row r="26" spans="2:14">
       <c r="B26" s="23">
         <f>SUM($F$3:F26)</f>
-        <v>-11272.647930666601</v>
+        <v>-11272.647930666626</v>
       </c>
       <c r="C26" s="24"/>
       <c r="D26" s="24"/>
@@ -2234,7 +2255,7 @@
     <row r="27" spans="2:14">
       <c r="B27" s="23">
         <f>SUM($F$3:F27)</f>
-        <v>-7858.9511346666304</v>
+        <v>-7858.9511346666259</v>
       </c>
       <c r="C27" s="24"/>
       <c r="D27" s="24"/>
@@ -2249,7 +2270,7 @@
     <row r="28" spans="2:14">
       <c r="B28" s="23">
         <f>SUM($F$3:F28)</f>
-        <v>-4445.2543386666302</v>
+        <v>-4445.2543386666257</v>
       </c>
       <c r="C28" s="24" t="s">
         <v>28</v>
@@ -2268,11 +2289,11 @@
     <row r="29" spans="2:14">
       <c r="B29" s="23">
         <f>SUM($F$3:F29)</f>
-        <v>69328.745661333407</v>
+        <v>69328.745661333378</v>
       </c>
       <c r="C29" s="24">
         <f>XIRR(F3:F29,E3:E29)</f>
-        <v>4.9763250703653797E-2</v>
+        <v>4.9763253331184393E-2</v>
       </c>
       <c r="D29" s="24" t="s">
         <v>13</v>
@@ -2348,13 +2369,13 @@
   <dimension ref="A2:I10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K14" sqref="K14"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="9.140625" style="3"/>
-    <col min="2" max="2" width="9.140625" style="4" customWidth="1"/>
+    <col min="2" max="2" width="9.7109375" style="4" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.85546875" customWidth="1"/>
     <col min="4" max="4" width="5.7109375" customWidth="1"/>
     <col min="5" max="5" width="11.28515625" customWidth="1"/>
@@ -2374,7 +2395,7 @@
       </c>
       <c r="C3">
         <f>-I4/3</f>
-        <v>-50065.666666666701</v>
+        <v>-50065.666666666664</v>
       </c>
       <c r="E3" s="16" t="s">
         <v>45</v>
@@ -2400,7 +2421,7 @@
       </c>
       <c r="C5">
         <f>C3</f>
-        <v>-50065.666666666701</v>
+        <v>-50065.666666666664</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -2414,7 +2435,7 @@
       </c>
       <c r="C7">
         <f>C3</f>
-        <v>-50065.666666666701</v>
+        <v>-50065.666666666664</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -2446,7 +2467,7 @@
       </c>
       <c r="F10" s="11">
         <f>XIRR(C3:C10,B3:B10)</f>
-        <v>3.98741956457715E-2</v>
+        <v>3.9874193072319042E-2</v>
       </c>
     </row>
   </sheetData>
@@ -2457,10 +2478,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="B2:N21"/>
+  <dimension ref="B2:N23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N15" sqref="N15"/>
+      <selection activeCell="G46" sqref="G46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -2533,11 +2554,11 @@
       <c r="C7" s="6"/>
       <c r="D7" s="8"/>
       <c r="F7" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="G7" s="10">
-        <f>SUM(D5:D6)/G17</f>
-        <v>3.4899967240759701E-2</v>
+        <f>SUM(D5:D6)/G19</f>
+        <v>3.4899967240759652E-2</v>
       </c>
     </row>
     <row r="8" spans="2:9">
@@ -2549,11 +2570,19 @@
         <f>D3</f>
         <v>-75449.45</v>
       </c>
+      <c r="F8" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="9" spans="2:9">
       <c r="B9" s="5"/>
-      <c r="C9" s="6"/>
+      <c r="C9" s="6">
+        <v>46082</v>
+      </c>
       <c r="D9" s="8"/>
+      <c r="F9" t="s">
+        <v>61</v>
+      </c>
       <c r="I9" s="14"/>
     </row>
     <row r="10" spans="2:9">
@@ -2566,10 +2595,10 @@
         <v>-75449.45</v>
       </c>
       <c r="F10" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="11" spans="2:9">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="11" spans="2:9" s="71" customFormat="1">
       <c r="B11" s="5"/>
       <c r="C11" s="6"/>
       <c r="D11" s="8"/>
@@ -2577,90 +2606,102 @@
     <row r="12" spans="2:9">
       <c r="B12" s="5"/>
       <c r="C12" s="6">
-        <v>46631</v>
-      </c>
-      <c r="D12" s="8">
-        <f>G12*G17</f>
-        <v>6813.0853349999998</v>
-      </c>
-      <c r="F12" t="s">
-        <v>54</v>
-      </c>
-      <c r="G12" s="82">
-        <v>3.0099999999999998E-2</v>
-      </c>
-      <c r="H12" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="13" spans="2:9">
+        <v>46569</v>
+      </c>
+      <c r="D12" s="8"/>
+      <c r="F12" s="71" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="13" spans="2:9" s="71" customFormat="1">
       <c r="B13" s="5"/>
       <c r="C13" s="6"/>
-      <c r="D13" s="12"/>
-      <c r="F13" s="80" t="s">
-        <v>56</v>
-      </c>
-      <c r="G13" s="80"/>
-      <c r="H13" s="80"/>
+      <c r="D13" s="8"/>
     </row>
     <row r="14" spans="2:9">
       <c r="B14" s="5"/>
-      <c r="C14" s="6"/>
-      <c r="D14" s="12"/>
-      <c r="F14" s="80"/>
-      <c r="G14" s="80"/>
+      <c r="C14" s="6">
+        <v>46631</v>
+      </c>
+      <c r="D14" s="8">
+        <f>G14*G19</f>
+        <v>6813.0853349999988</v>
+      </c>
+      <c r="F14" t="s">
+        <v>64</v>
+      </c>
+      <c r="G14" s="72">
+        <v>3.0099999999999998E-2</v>
+      </c>
+      <c r="H14" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="15" spans="2:9">
-      <c r="B15" s="5">
-        <f>SUM(D3:D15)</f>
-        <v>14712.635335000001</v>
-      </c>
-      <c r="C15" s="6">
+      <c r="B15" s="5"/>
+      <c r="C15" s="6"/>
+      <c r="D15" s="12"/>
+      <c r="F15" s="83" t="s">
+        <v>54</v>
+      </c>
+      <c r="G15" s="83"/>
+      <c r="H15" s="83"/>
+    </row>
+    <row r="16" spans="2:9" s="71" customFormat="1">
+      <c r="B16" s="5"/>
+      <c r="C16" s="6"/>
+      <c r="D16" s="12"/>
+    </row>
+    <row r="17" spans="2:14">
+      <c r="B17" s="5">
+        <f>SUM(D3:D17)</f>
+        <v>14712.635334999999</v>
+      </c>
+      <c r="C17" s="6">
         <v>46631</v>
       </c>
-      <c r="D15" s="12">
-        <f>G17</f>
-        <v>226348.35</v>
-      </c>
-      <c r="F15" s="80" t="s">
+      <c r="D17" s="12">
+        <f>G19</f>
+        <v>226348.34999999998</v>
+      </c>
+      <c r="F17" s="83" t="s">
+        <v>55</v>
+      </c>
+      <c r="G17" s="83"/>
+    </row>
+    <row r="18" spans="2:14">
+      <c r="C18" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="F18" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="G18" s="11">
+        <f>XIRR(D3:D17,C3:C17)</f>
+        <v>3.6960294842720037E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="2:14">
+      <c r="F19" t="s">
+        <v>1</v>
+      </c>
+      <c r="G19" s="13">
+        <f>-D3*3</f>
+        <v>226348.34999999998</v>
+      </c>
+    </row>
+    <row r="20" spans="2:14">
+      <c r="F20" t="s">
         <v>57</v>
       </c>
-      <c r="G15" s="80"/>
-    </row>
-    <row r="16" spans="2:9">
-      <c r="C16" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="F16" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="G16" s="11">
-        <f>XIRR(D3:D15,C3:C15)</f>
-        <v>3.69602939142573E-2</v>
-      </c>
-    </row>
-    <row r="17" spans="6:14">
-      <c r="F17" t="s">
-        <v>1</v>
-      </c>
-      <c r="G17" s="13">
-        <f>-D3*3</f>
-        <v>226348.35</v>
-      </c>
-    </row>
-    <row r="18" spans="6:14">
-      <c r="F18" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="21" spans="6:14">
-      <c r="N21" s="15"/>
+    </row>
+    <row r="23" spans="2:14">
+      <c r="N23" s="15"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="F13:H13"/>
-    <mergeCell ref="F14:G14"/>
-    <mergeCell ref="F15:G15"/>
+  <mergeCells count="2">
+    <mergeCell ref="F15:H15"/>
+    <mergeCell ref="F17:G17"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>
@@ -2691,7 +2732,7 @@
       </c>
       <c r="E1" s="1">
         <f>XIRR(B2:B27,A2:A27)</f>
-        <v>2.99782292091633E-2</v>
+        <v>2.9978230595588677E-2</v>
       </c>
     </row>
     <row r="2" spans="1:18">
@@ -2709,22 +2750,22 @@
       <c r="B3">
         <v>3</v>
       </c>
-      <c r="E3" s="80" t="s">
-        <v>60</v>
-      </c>
-      <c r="F3" s="80"/>
-      <c r="G3" s="80"/>
-      <c r="H3" s="80"/>
-      <c r="I3" s="80"/>
-      <c r="J3" s="80"/>
-      <c r="K3" s="80"/>
-      <c r="L3" s="80"/>
-      <c r="M3" s="80"/>
-      <c r="N3" s="80"/>
-      <c r="O3" s="80"/>
-      <c r="P3" s="80"/>
-      <c r="Q3" s="80"/>
-      <c r="R3" s="80"/>
+      <c r="E3" s="83" t="s">
+        <v>58</v>
+      </c>
+      <c r="F3" s="83"/>
+      <c r="G3" s="83"/>
+      <c r="H3" s="83"/>
+      <c r="I3" s="83"/>
+      <c r="J3" s="83"/>
+      <c r="K3" s="83"/>
+      <c r="L3" s="83"/>
+      <c r="M3" s="83"/>
+      <c r="N3" s="83"/>
+      <c r="O3" s="83"/>
+      <c r="P3" s="83"/>
+      <c r="Q3" s="83"/>
+      <c r="R3" s="83"/>
     </row>
     <row r="4" spans="1:18">
       <c r="A4" s="2">
@@ -2733,22 +2774,22 @@
       <c r="B4">
         <v>3</v>
       </c>
-      <c r="E4" s="80" t="s">
-        <v>61</v>
-      </c>
-      <c r="F4" s="80"/>
-      <c r="G4" s="80"/>
-      <c r="H4" s="80"/>
-      <c r="I4" s="80"/>
-      <c r="J4" s="80"/>
-      <c r="K4" s="80"/>
-      <c r="L4" s="80"/>
-      <c r="M4" s="80"/>
-      <c r="N4" s="80"/>
-      <c r="O4" s="80"/>
-      <c r="P4" s="80"/>
-      <c r="Q4" s="80"/>
-      <c r="R4" s="80"/>
+      <c r="E4" s="83" t="s">
+        <v>59</v>
+      </c>
+      <c r="F4" s="83"/>
+      <c r="G4" s="83"/>
+      <c r="H4" s="83"/>
+      <c r="I4" s="83"/>
+      <c r="J4" s="83"/>
+      <c r="K4" s="83"/>
+      <c r="L4" s="83"/>
+      <c r="M4" s="83"/>
+      <c r="N4" s="83"/>
+      <c r="O4" s="83"/>
+      <c r="P4" s="83"/>
+      <c r="Q4" s="83"/>
+      <c r="R4" s="83"/>
     </row>
     <row r="5" spans="1:18">
       <c r="A5" s="2">
@@ -2757,20 +2798,20 @@
       <c r="B5">
         <v>3</v>
       </c>
-      <c r="E5" s="80"/>
-      <c r="F5" s="80"/>
-      <c r="G5" s="80"/>
-      <c r="H5" s="80"/>
-      <c r="I5" s="80"/>
-      <c r="J5" s="80"/>
-      <c r="K5" s="80"/>
-      <c r="L5" s="80"/>
-      <c r="M5" s="80"/>
-      <c r="N5" s="80"/>
-      <c r="O5" s="80"/>
-      <c r="P5" s="80"/>
-      <c r="Q5" s="80"/>
-      <c r="R5" s="80"/>
+      <c r="E5" s="83"/>
+      <c r="F5" s="83"/>
+      <c r="G5" s="83"/>
+      <c r="H5" s="83"/>
+      <c r="I5" s="83"/>
+      <c r="J5" s="83"/>
+      <c r="K5" s="83"/>
+      <c r="L5" s="83"/>
+      <c r="M5" s="83"/>
+      <c r="N5" s="83"/>
+      <c r="O5" s="83"/>
+      <c r="P5" s="83"/>
+      <c r="Q5" s="83"/>
+      <c r="R5" s="83"/>
     </row>
     <row r="6" spans="1:18">
       <c r="A6" s="2">
@@ -2779,20 +2820,20 @@
       <c r="B6">
         <v>3</v>
       </c>
-      <c r="E6" s="80"/>
-      <c r="F6" s="80"/>
-      <c r="G6" s="80"/>
-      <c r="H6" s="80"/>
-      <c r="I6" s="80"/>
-      <c r="J6" s="80"/>
-      <c r="K6" s="80"/>
-      <c r="L6" s="80"/>
-      <c r="M6" s="80"/>
-      <c r="N6" s="80"/>
-      <c r="O6" s="80"/>
-      <c r="P6" s="80"/>
-      <c r="Q6" s="80"/>
-      <c r="R6" s="80"/>
+      <c r="E6" s="83"/>
+      <c r="F6" s="83"/>
+      <c r="G6" s="83"/>
+      <c r="H6" s="83"/>
+      <c r="I6" s="83"/>
+      <c r="J6" s="83"/>
+      <c r="K6" s="83"/>
+      <c r="L6" s="83"/>
+      <c r="M6" s="83"/>
+      <c r="N6" s="83"/>
+      <c r="O6" s="83"/>
+      <c r="P6" s="83"/>
+      <c r="Q6" s="83"/>
+      <c r="R6" s="83"/>
     </row>
     <row r="7" spans="1:18">
       <c r="A7" s="2">

--- a/msff/xls/FLI2FWD.xlsx
+++ b/msff/xls/FLI2FWD.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24332"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="N:\repos\repo1\msff\xls\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF5D0732-8296-414C-A86F-D2911CE81887}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="150" yWindow="-21600" windowWidth="17310" windowHeight="21600" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="22223" windowHeight="10908" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="FWD300" sheetId="9" r:id="rId1"/>
@@ -19,18 +13,7 @@
     <sheet name="FLi226" sheetId="11" r:id="rId4"/>
     <sheet name="xirr test" sheetId="3" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
@@ -68,7 +51,7 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color theme="5" tint="0.39991454817346722"/>
+        <color theme="5" tint="0.399914548173467"/>
         <rFont val="Calibri"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -238,7 +221,7 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color theme="5" tint="0.39991454817346722"/>
+        <color theme="5" tint="0.399914548173467"/>
         <rFont val="Calibri"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -289,22 +272,37 @@
     <t>&lt;Singlife</t>
   </si>
   <si>
-    <t>&lt;CIIMB</t>
+    <t>&lt;CIMB</t>
+  </si>
+  <si>
+    <t>^^ total upfront rate=</t>
+  </si>
+  <si>
+    <t>middle installment</t>
+  </si>
+  <si>
+    <t>FLi150 annual payout#1</t>
   </si>
   <si>
     <t>final installment</t>
   </si>
   <si>
+    <t>FLi250 annual payout#1</t>
+  </si>
+  <si>
+    <t>FLi226 1st payout.. Rate=</t>
+  </si>
+  <si>
     <t>, higher than FLi150</t>
   </si>
   <si>
     <t>.. Payout_rate goes up after age 78</t>
   </si>
   <si>
-    <t>projected=226,664</t>
-  </si>
-  <si>
-    <t>^^ ASAP</t>
+    <t>projected cash val=226,664</t>
+  </si>
+  <si>
+    <t>^^ exit ASAP</t>
   </si>
   <si>
     <t>sumAssured?? irrelevant</t>
@@ -314,39 +312,27 @@
   </si>
   <si>
     <t>FWD41 can absorb more of my excess cash (welcome) but what if in X years I need more liquidity?</t>
-  </si>
-  <si>
-    <t>^^ total upfront rate=</t>
-  </si>
-  <si>
-    <t>FLi150 annual payout#1</t>
-  </si>
-  <si>
-    <t>FLi250 annual payout#1</t>
-  </si>
-  <si>
-    <t>middle installment</t>
-  </si>
-  <si>
-    <t>FLI226 1st payout.. Rate=</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9">
+  <numFmts count="12">
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="164" formatCode="0.0000%"/>
-    <numFmt numFmtId="165" formatCode="#,##0.00_ "/>
-    <numFmt numFmtId="166" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="167" formatCode="_(* #,##0.0000000_);_(* \(#,##0.0000000\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="168" formatCode="[$-409]mmm/yy;@"/>
-    <numFmt numFmtId="169" formatCode="[$-409]d\-mmm;@"/>
-    <numFmt numFmtId="170" formatCode="&quot;$&quot;#,##0"/>
-    <numFmt numFmtId="171" formatCode="0.000%"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="0.0000%"/>
+    <numFmt numFmtId="178" formatCode="#,##0.00_ "/>
+    <numFmt numFmtId="179" formatCode="0.000%"/>
+    <numFmt numFmtId="180" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="181" formatCode="_(* #,##0.0000000_);_(* \(#,##0.0000000\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="182" formatCode="[$-409]mmm/yy;@"/>
+    <numFmt numFmtId="183" formatCode="[$-409]d\-mmm;@"/>
+    <numFmt numFmtId="184" formatCode="&quot;$&quot;#,##0"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="25">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -362,16 +348,152 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="5" tint="0.39991454817346722"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="5" tint="0.399914548173467"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -391,22 +513,209 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="13">
+  <borders count="21">
     <border>
       <left/>
       <right/>
@@ -552,47 +861,303 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="84">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="17" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="15" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="17" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="181" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="182" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="17" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="182" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="183" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="182" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -611,24 +1176,29 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="184" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="184" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="184" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="184" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="182" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="182" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="183" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="182" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -646,8 +1216,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="184" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -655,48 +1225,65 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="184" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="184" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="49">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Percent" xfId="2" builtinId="5"/>
+    <cellStyle name="Currency" xfId="2" builtinId="4"/>
+    <cellStyle name="Percent" xfId="3" builtinId="5"/>
+    <cellStyle name="Comma [0]" xfId="4" builtinId="6"/>
+    <cellStyle name="Currency [0]" xfId="5" builtinId="7"/>
+    <cellStyle name="Hyperlink" xfId="6" builtinId="8"/>
+    <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9"/>
+    <cellStyle name="Note" xfId="8" builtinId="10"/>
+    <cellStyle name="Warning Text" xfId="9" builtinId="11"/>
+    <cellStyle name="Title" xfId="10" builtinId="15"/>
+    <cellStyle name="CExplanatory Text" xfId="11" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="12" builtinId="16"/>
+    <cellStyle name="Heading 2" xfId="13" builtinId="17"/>
+    <cellStyle name="Heading 3" xfId="14" builtinId="18"/>
+    <cellStyle name="Heading 4" xfId="15" builtinId="19"/>
+    <cellStyle name="Input" xfId="16" builtinId="20"/>
+    <cellStyle name="Output" xfId="17" builtinId="21"/>
+    <cellStyle name="Calculation" xfId="18" builtinId="22"/>
+    <cellStyle name="Check Cell" xfId="19" builtinId="23"/>
+    <cellStyle name="Linked Cell" xfId="20" builtinId="24"/>
+    <cellStyle name="Total" xfId="21" builtinId="25"/>
+    <cellStyle name="Good" xfId="22" builtinId="26"/>
+    <cellStyle name="Bad" xfId="23" builtinId="27"/>
+    <cellStyle name="Neutral" xfId="24" builtinId="28"/>
+    <cellStyle name="Accent1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - Accent1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - Accent1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - Accent1" xfId="28" builtinId="32"/>
+    <cellStyle name="Accent2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - Accent2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - Accent2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - Accent2" xfId="32" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - Accent3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - Accent3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - Accent3" xfId="36" builtinId="40"/>
+    <cellStyle name="Accent4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - Accent4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - Accent4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - Accent4" xfId="40" builtinId="44"/>
+    <cellStyle name="Accent5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - Accent5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - Accent5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - Accent5" xfId="44" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - Accent6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -954,35 +1541,35 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="B2:N45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="L21" sqref="L21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="1" customWidth="1"/>
-    <col min="2" max="2" width="13.42578125" customWidth="1"/>
-    <col min="3" max="3" width="7.28515625" customWidth="1"/>
+    <col min="2" max="2" width="13.4259259259259" customWidth="1"/>
+    <col min="3" max="3" width="7.28703703703704" customWidth="1"/>
     <col min="4" max="4" width="2" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" style="49" customWidth="1"/>
-    <col min="6" max="6" width="10.85546875" customWidth="1"/>
-    <col min="7" max="7" width="13.28515625" customWidth="1"/>
-    <col min="8" max="8" width="17.85546875" customWidth="1"/>
-    <col min="10" max="10" width="6.140625" customWidth="1"/>
-    <col min="11" max="11" width="7.5703125" customWidth="1"/>
-    <col min="12" max="12" width="11.5703125" style="17" customWidth="1"/>
-    <col min="13" max="13" width="7.140625" customWidth="1"/>
+    <col min="5" max="5" width="7.42592592592593" style="61" customWidth="1"/>
+    <col min="6" max="6" width="10.8518518518519" customWidth="1"/>
+    <col min="7" max="7" width="13.287037037037" customWidth="1"/>
+    <col min="8" max="8" width="17.8518518518519" customWidth="1"/>
+    <col min="10" max="10" width="6.13888888888889" customWidth="1"/>
+    <col min="11" max="11" width="7.57407407407407" customWidth="1"/>
+    <col min="12" max="12" width="11.5740740740741" style="21" customWidth="1"/>
+    <col min="13" max="13" width="7.13888888888889" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:14">
+    <row r="2" spans="5:9">
       <c r="E2" s="6"/>
       <c r="F2" s="7" t="s">
         <v>0</v>
@@ -990,15 +1577,15 @@
       <c r="H2" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="I2" s="64">
+      <c r="I2" s="77">
         <v>300000</v>
       </c>
     </row>
-    <row r="3" spans="2:14">
+    <row r="3" spans="2:9">
       <c r="B3" s="3"/>
-      <c r="C3" s="11"/>
-      <c r="D3" s="11"/>
-      <c r="E3" s="50">
+      <c r="C3" s="22"/>
+      <c r="D3" s="22"/>
+      <c r="E3" s="62">
         <v>45597</v>
       </c>
       <c r="F3" s="5">
@@ -1011,15 +1598,15 @@
       <c r="H3" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="I3" s="65">
-        <v>1.8700000000000001E-2</v>
+      <c r="I3" s="78">
+        <v>0.0187</v>
       </c>
     </row>
     <row r="4" spans="2:14">
       <c r="B4" s="3"/>
-      <c r="C4" s="11"/>
-      <c r="D4" s="11"/>
-      <c r="E4" s="51">
+      <c r="C4" s="22"/>
+      <c r="D4" s="22"/>
+      <c r="E4" s="63">
         <v>45674</v>
       </c>
       <c r="F4" s="5">
@@ -1029,239 +1616,239 @@
       <c r="G4" t="s">
         <v>4</v>
       </c>
-      <c r="H4" s="29" t="s">
+      <c r="H4" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="I4" s="66">
-        <v>3.3799999999999997E-2</v>
-      </c>
-      <c r="J4" s="73" t="s">
+      <c r="I4" s="79">
+        <v>0.0338</v>
+      </c>
+      <c r="J4" s="54" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="74"/>
-      <c r="L4" s="74"/>
-      <c r="M4" s="74"/>
-      <c r="N4" s="74"/>
-    </row>
-    <row r="5" spans="2:14">
+      <c r="K4" s="71"/>
+      <c r="L4" s="71"/>
+      <c r="M4" s="71"/>
+      <c r="N4" s="71"/>
+    </row>
+    <row r="5" spans="2:9">
       <c r="B5" s="3"/>
-      <c r="C5" s="11"/>
-      <c r="D5" s="11"/>
-      <c r="E5" s="52"/>
+      <c r="C5" s="22"/>
+      <c r="D5" s="22"/>
+      <c r="E5" s="64"/>
       <c r="F5" s="5"/>
-      <c r="G5" s="81" t="s">
+      <c r="G5" s="65" t="s">
         <v>7</v>
       </c>
-      <c r="H5" s="53"/>
-      <c r="I5" s="53"/>
+      <c r="H5" s="66"/>
+      <c r="I5" s="66"/>
     </row>
     <row r="6" spans="2:14">
-      <c r="B6" s="77" t="s">
+      <c r="B6" s="37" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="79" t="s">
+      <c r="C6" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="11"/>
-      <c r="E6" s="50">
+      <c r="D6" s="22"/>
+      <c r="E6" s="62">
         <v>46174</v>
       </c>
       <c r="F6" s="5">
         <f>-K17</f>
         <v>-17618.7</v>
       </c>
-      <c r="G6" s="81"/>
+      <c r="G6" s="65"/>
       <c r="H6" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="I6" s="67">
+      <c r="I6" s="80">
         <v>0.03</v>
       </c>
-      <c r="J6" s="75" t="s">
+      <c r="J6" s="55" t="s">
         <v>11</v>
       </c>
-      <c r="K6" s="76"/>
-      <c r="L6" s="76"/>
-      <c r="M6" s="76"/>
-      <c r="N6" s="76"/>
+      <c r="K6" s="23"/>
+      <c r="L6" s="23"/>
+      <c r="M6" s="23"/>
+      <c r="N6" s="23"/>
     </row>
     <row r="7" spans="2:14">
-      <c r="B7" s="78"/>
-      <c r="C7" s="80"/>
-      <c r="D7" s="31"/>
-      <c r="E7" s="52"/>
+      <c r="B7" s="39"/>
+      <c r="C7" s="40"/>
+      <c r="D7" s="41"/>
+      <c r="E7" s="64"/>
       <c r="F7" s="5"/>
-      <c r="G7" s="81"/>
+      <c r="G7" s="65"/>
       <c r="H7" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="I7" s="64">
+      <c r="I7" s="77">
         <v>228000</v>
       </c>
-      <c r="J7" s="75"/>
-      <c r="K7" s="76"/>
-      <c r="L7" s="76"/>
-      <c r="M7" s="76"/>
-      <c r="N7" s="76"/>
+      <c r="J7" s="55"/>
+      <c r="K7" s="23"/>
+      <c r="L7" s="23"/>
+      <c r="M7" s="23"/>
+      <c r="N7" s="23"/>
     </row>
     <row r="8" spans="2:14">
-      <c r="B8" s="54">
+      <c r="B8" s="67">
         <f>SUM($F$3:F8)</f>
         <v>-83733.7</v>
       </c>
-      <c r="C8" s="55">
+      <c r="C8" s="68">
         <f>B8-$F$3</f>
-        <v>-11733.699999999997</v>
+        <v>-11733.7</v>
       </c>
       <c r="D8" t="s">
         <v>13</v>
       </c>
-      <c r="E8" s="50">
+      <c r="E8" s="62">
         <v>46692</v>
       </c>
       <c r="F8" s="5">
         <f>($I$4*$I$2-$I$6*$I$7)/12</f>
-        <v>274.99999999999983</v>
-      </c>
-      <c r="G8" s="56" t="s">
+        <v>275</v>
+      </c>
+      <c r="G8" s="69" t="s">
         <v>14</v>
       </c>
-      <c r="H8" s="57" t="s">
+      <c r="H8" s="70" t="s">
         <v>15</v>
       </c>
-      <c r="I8" s="67">
-        <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="J8" s="75" t="s">
+      <c r="I8" s="80">
+        <v>0.025</v>
+      </c>
+      <c r="J8" s="55" t="s">
         <v>16</v>
       </c>
-      <c r="K8" s="76"/>
-      <c r="L8" s="76"/>
-      <c r="M8" s="76"/>
-      <c r="N8" s="76"/>
-    </row>
-    <row r="9" spans="2:14">
-      <c r="B9" s="54">
+      <c r="K8" s="23"/>
+      <c r="L8" s="23"/>
+      <c r="M8" s="23"/>
+      <c r="N8" s="23"/>
+    </row>
+    <row r="9" spans="2:6">
+      <c r="B9" s="67">
         <f>SUM($F$3:F9)</f>
         <v>-83458.7</v>
       </c>
-      <c r="C9" s="55">
+      <c r="C9" s="68">
         <f t="shared" ref="C9:C19" si="0">B9-$F$3</f>
-        <v>-11458.699999999997</v>
-      </c>
-      <c r="E9" s="50">
+        <v>-11458.7</v>
+      </c>
+      <c r="E9" s="62">
         <v>46722</v>
       </c>
       <c r="F9" s="5">
         <f t="shared" ref="F9:F19" si="1">($I$4*$I$2-$I$6*$I$7)/12</f>
-        <v>274.99999999999983</v>
-      </c>
-    </row>
-    <row r="10" spans="2:14">
-      <c r="B10" s="54">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6">
+      <c r="B10" s="67">
         <f>SUM($F$3:F10)</f>
         <v>-83183.7</v>
       </c>
-      <c r="C10" s="55">
+      <c r="C10" s="68">
         <f t="shared" si="0"/>
-        <v>-11183.699999999997</v>
-      </c>
-      <c r="E10" s="50">
+        <v>-11183.7</v>
+      </c>
+      <c r="E10" s="62">
         <v>46753</v>
       </c>
       <c r="F10" s="5">
         <f t="shared" si="1"/>
-        <v>274.99999999999983</v>
-      </c>
-    </row>
-    <row r="11" spans="2:14">
-      <c r="B11" s="54">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="11" spans="2:12">
+      <c r="B11" s="67">
         <f>SUM($F$3:F11)</f>
         <v>-82908.7</v>
       </c>
-      <c r="C11" s="55">
+      <c r="C11" s="68">
         <f t="shared" si="0"/>
-        <v>-10908.699999999997</v>
-      </c>
-      <c r="E11" s="50">
+        <v>-10908.7</v>
+      </c>
+      <c r="E11" s="62">
         <v>46784</v>
       </c>
       <c r="F11" s="5">
         <f t="shared" si="1"/>
-        <v>274.99999999999983</v>
+        <v>275</v>
       </c>
       <c r="L11"/>
     </row>
-    <row r="12" spans="2:14">
-      <c r="B12" s="54">
+    <row r="12" spans="2:12">
+      <c r="B12" s="67">
         <f>SUM($F$3:F12)</f>
         <v>-82633.7</v>
       </c>
-      <c r="C12" s="55">
+      <c r="C12" s="68">
         <f t="shared" si="0"/>
-        <v>-10633.699999999997</v>
-      </c>
-      <c r="E12" s="50">
+        <v>-10633.7</v>
+      </c>
+      <c r="E12" s="62">
         <v>46813</v>
       </c>
       <c r="F12" s="5">
         <f t="shared" si="1"/>
-        <v>274.99999999999983</v>
+        <v>275</v>
       </c>
       <c r="L12"/>
     </row>
-    <row r="13" spans="2:14">
-      <c r="B13" s="54">
+    <row r="13" spans="2:12">
+      <c r="B13" s="67">
         <f>SUM($F$3:F13)</f>
         <v>-82358.7</v>
       </c>
-      <c r="C13" s="55">
+      <c r="C13" s="68">
         <f t="shared" si="0"/>
-        <v>-10358.699999999997</v>
-      </c>
-      <c r="E13" s="50">
+        <v>-10358.7</v>
+      </c>
+      <c r="E13" s="62">
         <v>46844</v>
       </c>
       <c r="F13" s="5">
         <f t="shared" si="1"/>
-        <v>274.99999999999983</v>
-      </c>
-      <c r="H13" s="58"/>
-      <c r="I13" s="58"/>
-      <c r="J13" s="58"/>
-      <c r="K13" s="58" t="s">
+        <v>275</v>
+      </c>
+      <c r="H13" s="71"/>
+      <c r="I13" s="71"/>
+      <c r="J13" s="71"/>
+      <c r="K13" s="71" t="s">
         <v>17</v>
       </c>
-      <c r="L13" s="17" t="s">
+      <c r="L13" s="21" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="14" spans="2:14">
-      <c r="B14" s="54">
+    <row r="14" spans="2:12">
+      <c r="B14" s="67">
         <f>SUM($F$3:F14)</f>
         <v>-82083.7</v>
       </c>
-      <c r="C14" s="55">
+      <c r="C14" s="68">
         <f t="shared" si="0"/>
-        <v>-10083.699999999997</v>
-      </c>
-      <c r="E14" s="50">
+        <v>-10083.7</v>
+      </c>
+      <c r="E14" s="62">
         <v>46874</v>
       </c>
       <c r="F14" s="5">
         <f t="shared" si="1"/>
-        <v>274.99999999999983</v>
-      </c>
-      <c r="H14" s="59" t="s">
+        <v>275</v>
+      </c>
+      <c r="H14" s="72" t="s">
         <v>19</v>
       </c>
       <c r="I14" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="J14" s="67">
-        <v>2.53E-2</v>
-      </c>
-      <c r="K14" s="64">
+      <c r="J14" s="80">
+        <v>0.0253</v>
+      </c>
+      <c r="K14" s="77">
         <f>$I$7*LEFT(I14,2)/12*J14</f>
         <v>4326.3</v>
       </c>
@@ -1269,430 +1856,430 @@
         <v>490</v>
       </c>
     </row>
-    <row r="15" spans="2:14">
-      <c r="B15" s="54">
+    <row r="15" spans="2:12">
+      <c r="B15" s="67">
         <f>SUM($F$3:F15)</f>
         <v>-81808.7</v>
       </c>
-      <c r="C15" s="55">
+      <c r="C15" s="68">
         <f t="shared" si="0"/>
-        <v>-9808.6999999999971</v>
-      </c>
-      <c r="E15" s="50">
+        <v>-9808.7</v>
+      </c>
+      <c r="E15" s="62">
         <v>46905</v>
       </c>
       <c r="F15" s="5">
         <f t="shared" si="1"/>
-        <v>274.99999999999983</v>
-      </c>
-      <c r="H15" s="59" t="s">
+        <v>275</v>
+      </c>
+      <c r="H15" s="72" t="s">
         <v>21</v>
       </c>
       <c r="I15" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="J15" s="67">
-        <v>2.3300000000000001E-2</v>
-      </c>
-      <c r="K15" s="64">
+      <c r="J15" s="80">
+        <v>0.0233</v>
+      </c>
+      <c r="K15" s="77">
         <f>$I$7*LEFT(I15,2)/12*J15</f>
-        <v>5312.4000000000005</v>
+        <v>5312.4</v>
       </c>
       <c r="L15"/>
     </row>
-    <row r="16" spans="2:14">
-      <c r="B16" s="54">
+    <row r="16" ht="15.15" spans="2:11">
+      <c r="B16" s="67">
         <f>SUM($F$3:F16)</f>
         <v>-81533.7</v>
       </c>
-      <c r="C16" s="55">
+      <c r="C16" s="68">
         <f t="shared" si="0"/>
-        <v>-9533.6999999999971</v>
-      </c>
-      <c r="E16" s="50">
+        <v>-9533.7</v>
+      </c>
+      <c r="E16" s="62">
         <v>46935</v>
       </c>
       <c r="F16" s="5">
         <f t="shared" si="1"/>
-        <v>274.99999999999983</v>
-      </c>
-      <c r="H16" s="59" t="s">
+        <v>275</v>
+      </c>
+      <c r="H16" s="72" t="s">
         <v>23</v>
       </c>
       <c r="I16" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="J16" s="67">
+      <c r="J16" s="80">
         <f>I6</f>
         <v>0.03</v>
       </c>
-      <c r="K16" s="68">
+      <c r="K16" s="81">
         <f>$I$7*LEFT(I16,2)/12*J16</f>
         <v>7980</v>
       </c>
     </row>
-    <row r="17" spans="2:12">
-      <c r="B17" s="54">
+    <row r="17" ht="15.15" spans="2:12">
+      <c r="B17" s="67">
         <f>SUM($F$3:F17)</f>
         <v>-81258.7</v>
       </c>
-      <c r="C17" s="55">
+      <c r="C17" s="68">
         <f t="shared" si="0"/>
-        <v>-9258.6999999999971</v>
-      </c>
-      <c r="E17" s="50">
+        <v>-9258.7</v>
+      </c>
+      <c r="E17" s="62">
         <v>46966</v>
       </c>
       <c r="F17" s="5">
         <f t="shared" si="1"/>
-        <v>274.99999999999983</v>
+        <v>275</v>
       </c>
       <c r="H17" s="7"/>
       <c r="I17" s="7"/>
-      <c r="J17" s="69"/>
-      <c r="K17" s="70">
+      <c r="J17" s="82"/>
+      <c r="K17" s="83">
         <f>SUM(K14:K16)</f>
         <v>17618.7</v>
       </c>
       <c r="L17"/>
     </row>
-    <row r="18" spans="2:12">
-      <c r="B18" s="54">
+    <row r="18" spans="2:6">
+      <c r="B18" s="67">
         <f>SUM($F$3:F18)</f>
         <v>-80983.7</v>
       </c>
-      <c r="C18" s="55">
+      <c r="C18" s="68">
         <f t="shared" si="0"/>
-        <v>-8983.6999999999971</v>
-      </c>
-      <c r="E18" s="50">
+        <v>-8983.7</v>
+      </c>
+      <c r="E18" s="62">
         <v>46997</v>
       </c>
       <c r="F18" s="5">
         <f t="shared" si="1"/>
-        <v>274.99999999999983</v>
-      </c>
-    </row>
-    <row r="19" spans="2:12">
-      <c r="B19" s="60">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="19" spans="2:6">
+      <c r="B19" s="73">
         <f>SUM($F$3:F19)</f>
         <v>-80708.7</v>
       </c>
-      <c r="C19" s="61">
+      <c r="C19" s="74">
         <f t="shared" si="0"/>
-        <v>-8708.6999999999971</v>
-      </c>
-      <c r="E19" s="50">
+        <v>-8708.7</v>
+      </c>
+      <c r="E19" s="62">
         <v>47027</v>
       </c>
       <c r="F19" s="5">
         <f t="shared" si="1"/>
-        <v>274.99999999999983</v>
-      </c>
-    </row>
-    <row r="20" spans="2:12">
-      <c r="B20" s="9"/>
-      <c r="C20" s="9"/>
-      <c r="E20" s="50"/>
+        <v>275</v>
+      </c>
+    </row>
+    <row r="20" spans="2:6">
+      <c r="B20" s="10"/>
+      <c r="C20" s="10"/>
+      <c r="E20" s="62"/>
       <c r="F20" s="5"/>
     </row>
-    <row r="21" spans="2:12">
-      <c r="B21" s="18" t="s">
+    <row r="21" spans="2:7">
+      <c r="B21" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="E21" s="50"/>
+      <c r="E21" s="62"/>
       <c r="F21" s="5"/>
-      <c r="G21" s="62"/>
+      <c r="G21" s="75"/>
     </row>
     <row r="22" spans="2:12">
       <c r="B22" s="3">
         <f>SUM($F$3:F22)</f>
         <v>-76268.7</v>
       </c>
-      <c r="C22" s="11"/>
-      <c r="D22" s="11"/>
-      <c r="E22" s="50">
+      <c r="C22" s="22"/>
+      <c r="D22" s="22"/>
+      <c r="E22" s="62">
         <v>47058</v>
       </c>
       <c r="F22" s="5">
         <f t="shared" ref="F22:F37" si="2">$I$4*$I$2-$I$8*$I$7</f>
-        <v>4439.9999999999982</v>
+        <v>4440</v>
       </c>
       <c r="G22" t="s">
         <v>26</v>
       </c>
       <c r="L22"/>
     </row>
-    <row r="23" spans="2:12">
+    <row r="23" spans="2:6">
       <c r="B23" s="3">
         <f>SUM($F$3:F23)</f>
         <v>-71828.7</v>
       </c>
-      <c r="C23" s="11"/>
-      <c r="D23" s="11"/>
-      <c r="E23" s="50">
+      <c r="C23" s="22"/>
+      <c r="D23" s="22"/>
+      <c r="E23" s="62">
         <v>47423</v>
       </c>
       <c r="F23" s="5">
         <f t="shared" si="2"/>
-        <v>4439.9999999999982</v>
-      </c>
-    </row>
-    <row r="24" spans="2:12">
+        <v>4440</v>
+      </c>
+    </row>
+    <row r="24" spans="2:6">
       <c r="B24" s="3">
         <f>SUM($F$3:F24)</f>
         <v>-67388.7</v>
       </c>
-      <c r="C24" s="11"/>
-      <c r="D24" s="11"/>
-      <c r="E24" s="50">
+      <c r="C24" s="22"/>
+      <c r="D24" s="22"/>
+      <c r="E24" s="62">
         <v>47788</v>
       </c>
       <c r="F24" s="5">
         <f t="shared" si="2"/>
-        <v>4439.9999999999982</v>
-      </c>
-    </row>
-    <row r="25" spans="2:12">
+        <v>4440</v>
+      </c>
+    </row>
+    <row r="25" spans="2:6">
       <c r="B25" s="3">
         <f>SUM($F$3:F25)</f>
         <v>-62948.7</v>
       </c>
-      <c r="C25" s="58" t="s">
+      <c r="C25" s="71" t="s">
         <v>27</v>
       </c>
-      <c r="D25" s="58"/>
-      <c r="E25" s="50">
+      <c r="D25" s="71"/>
+      <c r="E25" s="62">
         <v>48153</v>
       </c>
       <c r="F25" s="5">
         <f t="shared" si="2"/>
-        <v>4439.9999999999982</v>
-      </c>
-    </row>
-    <row r="26" spans="2:12">
+        <v>4440</v>
+      </c>
+    </row>
+    <row r="26" spans="2:6">
       <c r="B26" s="3">
         <f>SUM($F$3:F26)</f>
         <v>-58508.7</v>
       </c>
-      <c r="C26" s="63">
+      <c r="C26" s="76">
         <f>-F26/F3</f>
-        <v>6.166666666666664E-2</v>
-      </c>
-      <c r="D26" s="63"/>
-      <c r="E26" s="50">
+        <v>0.0616666666666666</v>
+      </c>
+      <c r="D26" s="76"/>
+      <c r="E26" s="62">
         <v>48519</v>
       </c>
       <c r="F26" s="5">
         <f t="shared" si="2"/>
-        <v>4439.9999999999982</v>
-      </c>
-    </row>
-    <row r="27" spans="2:12">
+        <v>4440</v>
+      </c>
+    </row>
+    <row r="27" spans="2:6">
       <c r="B27" s="3">
         <f>SUM($F$3:F27)</f>
         <v>-54068.7</v>
       </c>
-      <c r="C27" s="11"/>
-      <c r="D27" s="11"/>
-      <c r="E27" s="50">
+      <c r="C27" s="22"/>
+      <c r="D27" s="22"/>
+      <c r="E27" s="62">
         <v>48884</v>
       </c>
       <c r="F27" s="5">
         <f t="shared" si="2"/>
-        <v>4439.9999999999982</v>
-      </c>
-    </row>
-    <row r="28" spans="2:12">
+        <v>4440</v>
+      </c>
+    </row>
+    <row r="28" spans="2:6">
       <c r="B28" s="3">
         <f>SUM($F$3:F28)</f>
         <v>-49628.7</v>
       </c>
-      <c r="C28" s="11"/>
-      <c r="D28" s="11"/>
-      <c r="E28" s="50">
+      <c r="C28" s="22"/>
+      <c r="D28" s="22"/>
+      <c r="E28" s="62">
         <v>49249</v>
       </c>
       <c r="F28" s="5">
         <f t="shared" si="2"/>
-        <v>4439.9999999999982</v>
-      </c>
-    </row>
-    <row r="29" spans="2:12">
+        <v>4440</v>
+      </c>
+    </row>
+    <row r="29" spans="2:6">
       <c r="B29" s="3">
         <f>SUM($F$3:F29)</f>
         <v>-45188.7</v>
       </c>
-      <c r="C29" s="11"/>
-      <c r="D29" s="11"/>
-      <c r="E29" s="50">
+      <c r="C29" s="22"/>
+      <c r="D29" s="22"/>
+      <c r="E29" s="62">
         <v>49614</v>
       </c>
       <c r="F29" s="5">
         <f t="shared" si="2"/>
-        <v>4439.9999999999982</v>
-      </c>
-    </row>
-    <row r="30" spans="2:12">
+        <v>4440</v>
+      </c>
+    </row>
+    <row r="30" spans="2:6">
       <c r="B30" s="3">
         <f>SUM($F$3:F30)</f>
-        <v>-40748.699999999997</v>
-      </c>
-      <c r="C30" s="11"/>
-      <c r="D30" s="11"/>
-      <c r="E30" s="50">
+        <v>-40748.7</v>
+      </c>
+      <c r="C30" s="22"/>
+      <c r="D30" s="22"/>
+      <c r="E30" s="62">
         <v>49980</v>
       </c>
       <c r="F30" s="5">
         <f t="shared" si="2"/>
-        <v>4439.9999999999982</v>
-      </c>
-    </row>
-    <row r="31" spans="2:12">
+        <v>4440</v>
+      </c>
+    </row>
+    <row r="31" spans="2:6">
       <c r="B31" s="3">
         <f>SUM($F$3:F31)</f>
-        <v>-36308.699999999997</v>
-      </c>
-      <c r="C31" s="11"/>
-      <c r="D31" s="11"/>
-      <c r="E31" s="50">
+        <v>-36308.7</v>
+      </c>
+      <c r="C31" s="22"/>
+      <c r="D31" s="22"/>
+      <c r="E31" s="62">
         <v>50345</v>
       </c>
       <c r="F31" s="5">
         <f t="shared" si="2"/>
-        <v>4439.9999999999982</v>
-      </c>
-    </row>
-    <row r="32" spans="2:12">
+        <v>4440</v>
+      </c>
+    </row>
+    <row r="32" spans="2:6">
       <c r="B32" s="3">
         <f>SUM($F$3:F32)</f>
-        <v>-31868.699999999997</v>
-      </c>
-      <c r="C32" s="11"/>
-      <c r="D32" s="11"/>
-      <c r="E32" s="50">
+        <v>-31868.7</v>
+      </c>
+      <c r="C32" s="22"/>
+      <c r="D32" s="22"/>
+      <c r="E32" s="62">
         <v>50710</v>
       </c>
       <c r="F32" s="5">
         <f t="shared" si="2"/>
-        <v>4439.9999999999982</v>
-      </c>
-    </row>
-    <row r="33" spans="2:14">
+        <v>4440</v>
+      </c>
+    </row>
+    <row r="33" spans="2:6">
       <c r="B33" s="3">
         <f>SUM($F$3:F33)</f>
-        <v>-27428.699999999997</v>
-      </c>
-      <c r="C33" s="11"/>
-      <c r="D33" s="11"/>
-      <c r="E33" s="50">
+        <v>-27428.7</v>
+      </c>
+      <c r="C33" s="22"/>
+      <c r="D33" s="22"/>
+      <c r="E33" s="62">
         <v>51075</v>
       </c>
       <c r="F33" s="5">
         <f t="shared" si="2"/>
-        <v>4439.9999999999982</v>
-      </c>
-    </row>
-    <row r="34" spans="2:14">
+        <v>4440</v>
+      </c>
+    </row>
+    <row r="34" spans="2:6">
       <c r="B34" s="3">
         <f>SUM($F$3:F34)</f>
-        <v>-22988.699999999997</v>
-      </c>
-      <c r="C34" s="11"/>
-      <c r="D34" s="11"/>
-      <c r="E34" s="50">
+        <v>-22988.7</v>
+      </c>
+      <c r="C34" s="22"/>
+      <c r="D34" s="22"/>
+      <c r="E34" s="62">
         <v>51441</v>
       </c>
       <c r="F34" s="5">
         <f t="shared" si="2"/>
-        <v>4439.9999999999982</v>
-      </c>
-    </row>
-    <row r="35" spans="2:14">
+        <v>4440</v>
+      </c>
+    </row>
+    <row r="35" spans="2:6">
       <c r="B35" s="3">
         <f>SUM($F$3:F35)</f>
-        <v>-18548.699999999997</v>
-      </c>
-      <c r="C35" s="11"/>
-      <c r="D35" s="11"/>
-      <c r="E35" s="50">
+        <v>-18548.7</v>
+      </c>
+      <c r="C35" s="22"/>
+      <c r="D35" s="22"/>
+      <c r="E35" s="62">
         <v>51806</v>
       </c>
       <c r="F35" s="5">
         <f t="shared" si="2"/>
-        <v>4439.9999999999982</v>
-      </c>
-    </row>
-    <row r="36" spans="2:14">
+        <v>4440</v>
+      </c>
+    </row>
+    <row r="36" spans="2:6">
       <c r="B36" s="3">
         <f>SUM($F$3:F36)</f>
-        <v>-14108.699999999999</v>
-      </c>
-      <c r="C36" s="11"/>
-      <c r="D36" s="11"/>
-      <c r="E36" s="50">
+        <v>-14108.7</v>
+      </c>
+      <c r="C36" s="22"/>
+      <c r="D36" s="22"/>
+      <c r="E36" s="62">
         <v>52171</v>
       </c>
       <c r="F36" s="5">
         <f t="shared" si="2"/>
-        <v>4439.9999999999982</v>
-      </c>
-    </row>
-    <row r="37" spans="2:14">
+        <v>4440</v>
+      </c>
+    </row>
+    <row r="37" spans="2:6">
       <c r="B37" s="3">
         <f>SUM($F$3:F37)</f>
-        <v>-9668.7000000000007</v>
-      </c>
-      <c r="C37" s="11" t="s">
+        <v>-9668.7</v>
+      </c>
+      <c r="C37" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="D37" s="11"/>
-      <c r="E37" s="50">
+      <c r="D37" s="22"/>
+      <c r="E37" s="62">
         <v>52536</v>
       </c>
       <c r="F37" s="5">
         <f t="shared" si="2"/>
-        <v>4439.9999999999982</v>
-      </c>
-    </row>
-    <row r="38" spans="2:14">
+        <v>4440</v>
+      </c>
+    </row>
+    <row r="38" spans="2:7">
       <c r="B38" s="3">
         <f>SUM($F$3:F38)</f>
         <v>86331.3</v>
       </c>
-      <c r="C38" s="11">
+      <c r="C38" s="22">
         <f>XIRR(F3:F38,E3:E38)</f>
-        <v>4.7964367270469654E-2</v>
-      </c>
-      <c r="D38" s="11"/>
-      <c r="E38" s="50">
+        <v>0.0479643672704697</v>
+      </c>
+      <c r="D38" s="22"/>
+      <c r="E38" s="62">
         <v>52902</v>
       </c>
       <c r="F38" s="5">
         <f>-F3+24000</f>
         <v>96000</v>
       </c>
-      <c r="G38" s="18" t="s">
+      <c r="G38" s="23" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="39" spans="2:14">
+    <row r="39" spans="2:9">
       <c r="B39" s="3"/>
-      <c r="C39" s="11"/>
-      <c r="D39" s="11"/>
-      <c r="G39" s="62" t="s">
+      <c r="C39" s="22"/>
+      <c r="D39" s="22"/>
+      <c r="G39" s="75" t="s">
         <v>30</v>
       </c>
-      <c r="H39" s="62"/>
-      <c r="I39" s="62"/>
-    </row>
-    <row r="41" spans="2:14">
+      <c r="H39" s="75"/>
+      <c r="I39" s="75"/>
+    </row>
+    <row r="41" spans="2:5">
       <c r="B41" t="s">
         <v>31</v>
       </c>
       <c r="E41"/>
     </row>
-    <row r="42" spans="2:14">
+    <row r="42" spans="2:12">
       <c r="B42" s="3" t="s">
         <v>32</v>
       </c>
@@ -1716,14 +2303,14 @@
       <c r="M43" s="3"/>
       <c r="N43" s="3"/>
     </row>
-    <row r="44" spans="2:14">
+    <row r="44" spans="2:12">
       <c r="B44" t="s">
         <v>34</v>
       </c>
       <c r="E44"/>
       <c r="L44"/>
     </row>
-    <row r="45" spans="2:14">
+    <row r="45" spans="12:12">
       <c r="L45"/>
     </row>
   </sheetData>
@@ -1737,651 +2324,643 @@
     <mergeCell ref="G5:G7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait"/>
+  <pageSetup paperSize="1" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="B2:N35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="J24" sqref="J24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.13888888888889" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="1" style="18" customWidth="1"/>
-    <col min="2" max="2" width="13.42578125" style="18" customWidth="1"/>
-    <col min="3" max="3" width="6.28515625" style="18" customWidth="1"/>
-    <col min="4" max="4" width="2" style="18" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" style="19" customWidth="1"/>
-    <col min="6" max="6" width="10.85546875" style="18" customWidth="1"/>
-    <col min="7" max="7" width="15.42578125" style="18" customWidth="1"/>
-    <col min="8" max="8" width="17.85546875" style="18" customWidth="1"/>
-    <col min="9" max="9" width="9.140625" style="18"/>
-    <col min="10" max="10" width="6.140625" style="18" customWidth="1"/>
-    <col min="11" max="11" width="7.5703125" style="18" customWidth="1"/>
-    <col min="12" max="12" width="11.5703125" style="20" customWidth="1"/>
-    <col min="13" max="13" width="7.140625" style="18" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="18"/>
+    <col min="1" max="1" width="1" style="23" customWidth="1"/>
+    <col min="2" max="2" width="13.4259259259259" style="23" customWidth="1"/>
+    <col min="3" max="3" width="6.28703703703704" style="23" customWidth="1"/>
+    <col min="4" max="4" width="2" style="23" customWidth="1"/>
+    <col min="5" max="5" width="7.42592592592593" style="24" customWidth="1"/>
+    <col min="6" max="6" width="10.8518518518519" style="23" customWidth="1"/>
+    <col min="7" max="7" width="15.4259259259259" style="23" customWidth="1"/>
+    <col min="8" max="8" width="17.8518518518519" style="23" customWidth="1"/>
+    <col min="9" max="9" width="9.13888888888889" style="23"/>
+    <col min="10" max="10" width="6.13888888888889" style="23" customWidth="1"/>
+    <col min="11" max="11" width="7.57407407407407" style="23" customWidth="1"/>
+    <col min="12" max="12" width="11.5740740740741" style="25" customWidth="1"/>
+    <col min="13" max="13" width="7.13888888888889" style="23" customWidth="1"/>
+    <col min="14" max="16384" width="9.13888888888889" style="23"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:14">
-      <c r="E2" s="21"/>
-      <c r="F2" s="22" t="s">
+    <row r="2" spans="5:9">
+      <c r="E2" s="26"/>
+      <c r="F2" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="H2" s="22" t="s">
+      <c r="H2" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="I2" s="41">
+      <c r="I2" s="51">
         <v>250774</v>
       </c>
     </row>
-    <row r="3" spans="2:14">
-      <c r="B3" s="23"/>
-      <c r="C3" s="24"/>
-      <c r="D3" s="24"/>
-      <c r="E3" s="25">
+    <row r="3" spans="2:9">
+      <c r="B3" s="28"/>
+      <c r="C3" s="29"/>
+      <c r="D3" s="29"/>
+      <c r="E3" s="30">
         <v>45658</v>
       </c>
-      <c r="F3" s="26">
+      <c r="F3" s="31">
         <f>I7-I2</f>
         <v>-60774</v>
       </c>
-      <c r="G3" s="18" t="s">
+      <c r="G3" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="H3" s="22" t="s">
+      <c r="H3" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="I3" s="42">
+      <c r="I3" s="52">
         <v>0.01</v>
       </c>
     </row>
     <row r="4" spans="2:14">
-      <c r="B4" s="23"/>
-      <c r="C4" s="24"/>
-      <c r="D4" s="24"/>
-      <c r="E4" s="27">
+      <c r="B4" s="28"/>
+      <c r="C4" s="29"/>
+      <c r="D4" s="29"/>
+      <c r="E4" s="32">
         <v>45699</v>
       </c>
-      <c r="F4" s="28">
+      <c r="F4" s="33">
         <f>I3*I2/2</f>
-        <v>1253.8700000000001</v>
-      </c>
-      <c r="G4" s="18" t="s">
+        <v>1253.87</v>
+      </c>
+      <c r="G4" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="H4" s="29" t="s">
+      <c r="H4" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="I4" s="43">
-        <v>3.2554E-2</v>
-      </c>
-      <c r="J4" s="73" t="s">
+      <c r="I4" s="53">
+        <v>0.032554</v>
+      </c>
+      <c r="J4" s="54" t="s">
         <v>36</v>
       </c>
-      <c r="K4" s="83"/>
-      <c r="L4" s="83"/>
-      <c r="M4" s="83"/>
-      <c r="N4" s="83"/>
-    </row>
-    <row r="5" spans="2:14">
-      <c r="B5" s="23"/>
-      <c r="C5" s="24"/>
-      <c r="D5" s="24"/>
-      <c r="E5" s="27">
+      <c r="K4"/>
+      <c r="L4"/>
+      <c r="M4"/>
+      <c r="N4"/>
+    </row>
+    <row r="5" spans="2:12">
+      <c r="B5" s="28"/>
+      <c r="C5" s="29"/>
+      <c r="D5" s="29"/>
+      <c r="E5" s="32">
         <v>45708</v>
       </c>
-      <c r="F5" s="28">
+      <c r="F5" s="33">
         <v>1260</v>
       </c>
-      <c r="G5" s="18" t="s">
+      <c r="G5" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="H5" s="29"/>
-      <c r="I5" s="29"/>
-      <c r="J5" s="75"/>
-      <c r="K5" s="76"/>
-      <c r="L5" s="76"/>
-      <c r="M5" s="76"/>
-      <c r="N5" s="76"/>
-    </row>
-    <row r="6" spans="2:14">
-      <c r="B6" s="23"/>
-      <c r="C6" s="24"/>
-      <c r="D6" s="24"/>
-      <c r="E6" s="30"/>
-      <c r="F6" s="26"/>
-      <c r="G6" s="82" t="s">
+      <c r="H5" s="34"/>
+      <c r="I5" s="34"/>
+      <c r="J5" s="55"/>
+      <c r="L5" s="23"/>
+    </row>
+    <row r="6" spans="2:12">
+      <c r="B6" s="28"/>
+      <c r="C6" s="29"/>
+      <c r="D6" s="29"/>
+      <c r="E6" s="35"/>
+      <c r="F6" s="31"/>
+      <c r="G6" s="36" t="s">
         <v>37</v>
       </c>
-      <c r="H6" s="22" t="s">
+      <c r="H6" s="27" t="s">
         <v>38</v>
       </c>
-      <c r="I6" s="44">
+      <c r="I6" s="56">
         <v>0.03</v>
       </c>
-      <c r="J6" s="75" t="s">
+      <c r="J6" s="55" t="s">
         <v>11</v>
       </c>
-      <c r="K6" s="76"/>
-      <c r="L6" s="76"/>
-      <c r="M6" s="76"/>
-      <c r="N6" s="76"/>
-    </row>
-    <row r="7" spans="2:14">
-      <c r="B7" s="77" t="s">
+      <c r="L6" s="23"/>
+    </row>
+    <row r="7" spans="2:12">
+      <c r="B7" s="37" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="79" t="s">
+      <c r="C7" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="D7" s="24"/>
-      <c r="E7" s="25">
+      <c r="D7" s="29"/>
+      <c r="E7" s="30">
         <v>46082</v>
       </c>
-      <c r="F7" s="26">
+      <c r="F7" s="31">
         <f>-K16</f>
-        <v>-12381.666666666666</v>
-      </c>
-      <c r="G7" s="82"/>
-      <c r="H7" s="22" t="s">
+        <v>-12381.6666666667</v>
+      </c>
+      <c r="G7" s="36"/>
+      <c r="H7" s="27" t="s">
         <v>39</v>
       </c>
-      <c r="I7" s="41">
+      <c r="I7" s="51">
         <v>190000</v>
       </c>
-      <c r="J7" s="75"/>
-      <c r="K7" s="76"/>
-      <c r="L7" s="76"/>
-      <c r="M7" s="76"/>
-      <c r="N7" s="76"/>
-    </row>
-    <row r="8" spans="2:14">
-      <c r="B8" s="78"/>
-      <c r="C8" s="80"/>
-      <c r="D8" s="31"/>
-      <c r="E8" s="30"/>
-      <c r="F8" s="26"/>
-      <c r="G8" s="82"/>
-      <c r="H8" s="22" t="s">
+      <c r="J7" s="55"/>
+      <c r="L7" s="23"/>
+    </row>
+    <row r="8" spans="2:12">
+      <c r="B8" s="39"/>
+      <c r="C8" s="40"/>
+      <c r="D8" s="41"/>
+      <c r="E8" s="35"/>
+      <c r="F8" s="31"/>
+      <c r="G8" s="36"/>
+      <c r="H8" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="I8" s="44">
-        <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="J8" s="75" t="s">
+      <c r="I8" s="56">
+        <v>0.025</v>
+      </c>
+      <c r="J8" s="55" t="s">
         <v>16</v>
       </c>
-      <c r="K8" s="76"/>
-      <c r="L8" s="76"/>
-      <c r="M8" s="76"/>
-      <c r="N8" s="76"/>
-    </row>
-    <row r="9" spans="2:14">
-      <c r="B9" s="32">
+      <c r="L8" s="23"/>
+    </row>
+    <row r="9" spans="2:7">
+      <c r="B9" s="42">
         <f>SUM($F$3:F9)</f>
-        <v>-62478.099870666658</v>
-      </c>
-      <c r="C9" s="33">
+        <v>-62478.0998706667</v>
+      </c>
+      <c r="C9" s="43">
         <f>B9-F3</f>
-        <v>-1704.0998706666578</v>
-      </c>
-      <c r="D9" s="23" t="s">
+        <v>-1704.09987066666</v>
+      </c>
+      <c r="D9" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="E9" s="25">
+      <c r="E9" s="30">
         <v>46569</v>
       </c>
-      <c r="F9" s="26">
+      <c r="F9" s="31">
         <f>I4*$I$2</f>
-        <v>8163.6967960000002</v>
-      </c>
-      <c r="G9" s="18" t="s">
+        <v>8163.696796</v>
+      </c>
+      <c r="G9" s="23" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="10" spans="2:14">
-      <c r="B10" s="34"/>
-      <c r="C10" s="35"/>
-      <c r="E10" s="25"/>
-      <c r="F10" s="26"/>
-      <c r="G10" s="36"/>
-      <c r="L10" s="18"/>
-    </row>
-    <row r="11" spans="2:14">
-      <c r="B11" s="37" t="s">
+    <row r="10" spans="2:12">
+      <c r="B10" s="44"/>
+      <c r="C10" s="45"/>
+      <c r="E10" s="30"/>
+      <c r="F10" s="31"/>
+      <c r="G10" s="46"/>
+      <c r="L10" s="23"/>
+    </row>
+    <row r="11" spans="2:7">
+      <c r="B11" s="47" t="s">
         <v>25</v>
       </c>
-      <c r="E11" s="25"/>
-      <c r="F11" s="26"/>
-      <c r="G11" s="36"/>
-    </row>
-    <row r="12" spans="2:14">
-      <c r="B12" s="23">
+      <c r="E11" s="30"/>
+      <c r="F11" s="31"/>
+      <c r="G11" s="46"/>
+    </row>
+    <row r="12" spans="2:12">
+      <c r="B12" s="28">
         <f>SUM($F$3:F12)</f>
-        <v>-59064.403074666654</v>
-      </c>
-      <c r="C12" s="24"/>
-      <c r="D12" s="24"/>
-      <c r="E12" s="25">
+        <v>-59064.4030746667</v>
+      </c>
+      <c r="C12" s="29"/>
+      <c r="D12" s="29"/>
+      <c r="E12" s="30">
         <v>46935</v>
       </c>
-      <c r="F12" s="26">
+      <c r="F12" s="31">
         <f>$I$4*$I$2-$I$8*$I$7</f>
-        <v>3413.6967960000002</v>
-      </c>
-      <c r="H12" s="38"/>
-      <c r="I12" s="38"/>
-      <c r="J12" s="38"/>
-      <c r="K12" s="38" t="s">
+        <v>3413.696796</v>
+      </c>
+      <c r="H12" s="48"/>
+      <c r="I12" s="48"/>
+      <c r="J12" s="48"/>
+      <c r="K12" s="48" t="s">
         <v>17</v>
       </c>
-      <c r="L12" s="20" t="s">
+      <c r="L12" s="25" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="13" spans="2:14">
-      <c r="B13" s="23">
+    <row r="13" spans="2:12">
+      <c r="B13" s="28">
         <f>SUM($F$3:F13)</f>
-        <v>-55650.70627866665</v>
-      </c>
-      <c r="C13" s="24"/>
-      <c r="D13" s="24"/>
-      <c r="E13" s="25">
+        <v>-55650.7062786667</v>
+      </c>
+      <c r="C13" s="29"/>
+      <c r="D13" s="29"/>
+      <c r="E13" s="30">
         <v>47300</v>
       </c>
-      <c r="F13" s="26">
+      <c r="F13" s="31">
         <f t="shared" ref="F13:F28" si="0">$I$4*$I$2-$I$8*$I$7</f>
-        <v>3413.6967960000002</v>
-      </c>
-      <c r="H13" s="39" t="s">
+        <v>3413.696796</v>
+      </c>
+      <c r="H13" s="49" t="s">
         <v>19</v>
       </c>
-      <c r="I13" s="22" t="s">
+      <c r="I13" s="27" t="s">
         <v>41</v>
       </c>
-      <c r="J13" s="44">
-        <v>2.53E-2</v>
-      </c>
-      <c r="K13" s="41">
+      <c r="J13" s="56">
+        <v>0.0253</v>
+      </c>
+      <c r="K13" s="51">
         <f>$I$7*LEFT(I13,2)/12*J13</f>
-        <v>3204.6666666666665</v>
-      </c>
-      <c r="L13" s="45">
+        <v>3204.66666666667</v>
+      </c>
+      <c r="L13" s="57">
         <f>J13*I7/12</f>
-        <v>400.58333333333331</v>
-      </c>
-    </row>
-    <row r="14" spans="2:14">
-      <c r="B14" s="23">
+        <v>400.583333333333</v>
+      </c>
+    </row>
+    <row r="14" spans="2:12">
+      <c r="B14" s="28">
         <f>SUM($F$3:F14)</f>
-        <v>-52237.009482666646</v>
-      </c>
-      <c r="C14" s="24"/>
-      <c r="D14" s="24"/>
-      <c r="E14" s="25">
+        <v>-52237.0094826666</v>
+      </c>
+      <c r="C14" s="29"/>
+      <c r="D14" s="29"/>
+      <c r="E14" s="30">
         <v>47665</v>
       </c>
-      <c r="F14" s="26">
+      <c r="F14" s="31">
         <f t="shared" si="0"/>
-        <v>3413.6967960000002</v>
-      </c>
-      <c r="H14" s="39" t="s">
+        <v>3413.696796</v>
+      </c>
+      <c r="H14" s="49" t="s">
         <v>21</v>
       </c>
-      <c r="I14" s="22" t="s">
+      <c r="I14" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="J14" s="44">
-        <v>2.3300000000000001E-2</v>
-      </c>
-      <c r="K14" s="41">
+      <c r="J14" s="56">
+        <v>0.0233</v>
+      </c>
+      <c r="K14" s="51">
         <f>$I$7*LEFT(I14,2)/12*J14</f>
         <v>4427</v>
       </c>
-      <c r="L14" s="18"/>
-    </row>
-    <row r="15" spans="2:14">
-      <c r="B15" s="23">
+      <c r="L14" s="23"/>
+    </row>
+    <row r="15" ht="15.15" spans="2:11">
+      <c r="B15" s="28">
         <f>SUM($F$3:F15)</f>
-        <v>-48823.312686666643</v>
-      </c>
-      <c r="C15" s="38" t="s">
+        <v>-48823.3126866666</v>
+      </c>
+      <c r="C15" s="48" t="s">
         <v>27</v>
       </c>
-      <c r="D15" s="38"/>
-      <c r="E15" s="25">
+      <c r="D15" s="48"/>
+      <c r="E15" s="30">
         <v>48030</v>
       </c>
-      <c r="F15" s="26">
+      <c r="F15" s="31">
         <f t="shared" si="0"/>
-        <v>3413.6967960000002</v>
-      </c>
-      <c r="H15" s="39" t="s">
+        <v>3413.696796</v>
+      </c>
+      <c r="H15" s="49" t="s">
         <v>23</v>
       </c>
-      <c r="I15" s="22" t="s">
+      <c r="I15" s="27" t="s">
         <v>42</v>
       </c>
-      <c r="J15" s="44">
+      <c r="J15" s="56">
         <f>I6</f>
         <v>0.03</v>
       </c>
-      <c r="K15" s="46">
+      <c r="K15" s="58">
         <f>$I$7*LEFT(I15,2)/12*J15</f>
         <v>4750</v>
       </c>
     </row>
-    <row r="16" spans="2:14">
-      <c r="B16" s="23">
+    <row r="16" ht="15.15" spans="2:12">
+      <c r="B16" s="28">
         <f>SUM($F$3:F16)</f>
-        <v>-45409.615890666639</v>
-      </c>
-      <c r="C16" s="40">
+        <v>-45409.6158906666</v>
+      </c>
+      <c r="C16" s="50">
         <f>-F16/F3</f>
-        <v>5.617034909665318E-2</v>
-      </c>
-      <c r="D16" s="40"/>
-      <c r="E16" s="25">
+        <v>0.0561703490966532</v>
+      </c>
+      <c r="D16" s="50"/>
+      <c r="E16" s="30">
         <v>48396</v>
       </c>
-      <c r="F16" s="26">
+      <c r="F16" s="31">
         <f t="shared" si="0"/>
-        <v>3413.6967960000002</v>
-      </c>
-      <c r="H16" s="22"/>
-      <c r="I16" s="22"/>
-      <c r="J16" s="47"/>
-      <c r="K16" s="48">
+        <v>3413.696796</v>
+      </c>
+      <c r="H16" s="27"/>
+      <c r="I16" s="27"/>
+      <c r="J16" s="59"/>
+      <c r="K16" s="60">
         <f>SUM(K13:K15)</f>
-        <v>12381.666666666666</v>
-      </c>
-      <c r="L16" s="18"/>
-    </row>
-    <row r="17" spans="2:14">
-      <c r="B17" s="23">
+        <v>12381.6666666667</v>
+      </c>
+      <c r="L16" s="23"/>
+    </row>
+    <row r="17" spans="2:6">
+      <c r="B17" s="28">
         <f>SUM($F$3:F17)</f>
-        <v>-41995.919094666635</v>
-      </c>
-      <c r="C17" s="24"/>
-      <c r="D17" s="24"/>
-      <c r="E17" s="25">
+        <v>-41995.9190946666</v>
+      </c>
+      <c r="C17" s="29"/>
+      <c r="D17" s="29"/>
+      <c r="E17" s="30">
         <v>48761</v>
       </c>
-      <c r="F17" s="26">
+      <c r="F17" s="31">
         <f t="shared" si="0"/>
-        <v>3413.6967960000002</v>
-      </c>
-    </row>
-    <row r="18" spans="2:14">
-      <c r="B18" s="23">
+        <v>3413.696796</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6">
+      <c r="B18" s="28">
         <f>SUM($F$3:F18)</f>
-        <v>-38582.222298666631</v>
-      </c>
-      <c r="C18" s="24"/>
-      <c r="D18" s="24"/>
-      <c r="E18" s="25">
+        <v>-38582.2222986666</v>
+      </c>
+      <c r="C18" s="29"/>
+      <c r="D18" s="29"/>
+      <c r="E18" s="30">
         <v>49126</v>
       </c>
-      <c r="F18" s="26">
+      <c r="F18" s="31">
         <f t="shared" si="0"/>
-        <v>3413.6967960000002</v>
-      </c>
-    </row>
-    <row r="19" spans="2:14">
-      <c r="B19" s="23">
+        <v>3413.696796</v>
+      </c>
+    </row>
+    <row r="19" spans="2:6">
+      <c r="B19" s="28">
         <f>SUM($F$3:F19)</f>
-        <v>-35168.525502666627</v>
-      </c>
-      <c r="C19" s="24"/>
-      <c r="D19" s="24"/>
-      <c r="E19" s="25">
+        <v>-35168.5255026666</v>
+      </c>
+      <c r="C19" s="29"/>
+      <c r="D19" s="29"/>
+      <c r="E19" s="30">
         <v>49491</v>
       </c>
-      <c r="F19" s="26">
+      <c r="F19" s="31">
         <f t="shared" si="0"/>
-        <v>3413.6967960000002</v>
-      </c>
-    </row>
-    <row r="20" spans="2:14">
-      <c r="B20" s="23">
+        <v>3413.696796</v>
+      </c>
+    </row>
+    <row r="20" spans="2:6">
+      <c r="B20" s="28">
         <f>SUM($F$3:F20)</f>
-        <v>-31754.828706666627</v>
-      </c>
-      <c r="C20" s="24"/>
-      <c r="D20" s="24"/>
-      <c r="E20" s="25">
+        <v>-31754.8287066666</v>
+      </c>
+      <c r="C20" s="29"/>
+      <c r="D20" s="29"/>
+      <c r="E20" s="30">
         <v>49857</v>
       </c>
-      <c r="F20" s="26">
+      <c r="F20" s="31">
         <f t="shared" si="0"/>
-        <v>3413.6967960000002</v>
-      </c>
-    </row>
-    <row r="21" spans="2:14">
-      <c r="B21" s="23">
+        <v>3413.696796</v>
+      </c>
+    </row>
+    <row r="21" spans="2:6">
+      <c r="B21" s="28">
         <f>SUM($F$3:F21)</f>
-        <v>-28341.131910666627</v>
-      </c>
-      <c r="C21" s="24"/>
-      <c r="D21" s="24"/>
-      <c r="E21" s="25">
+        <v>-28341.1319106666</v>
+      </c>
+      <c r="C21" s="29"/>
+      <c r="D21" s="29"/>
+      <c r="E21" s="30">
         <v>50222</v>
       </c>
-      <c r="F21" s="26">
+      <c r="F21" s="31">
         <f t="shared" si="0"/>
-        <v>3413.6967960000002</v>
-      </c>
-    </row>
-    <row r="22" spans="2:14">
-      <c r="B22" s="23">
+        <v>3413.696796</v>
+      </c>
+    </row>
+    <row r="22" spans="2:6">
+      <c r="B22" s="28">
         <f>SUM($F$3:F22)</f>
-        <v>-24927.435114666627</v>
-      </c>
-      <c r="C22" s="24"/>
-      <c r="D22" s="24"/>
-      <c r="E22" s="25">
+        <v>-24927.4351146666</v>
+      </c>
+      <c r="C22" s="29"/>
+      <c r="D22" s="29"/>
+      <c r="E22" s="30">
         <v>50587</v>
       </c>
-      <c r="F22" s="26">
+      <c r="F22" s="31">
         <f t="shared" si="0"/>
-        <v>3413.6967960000002</v>
-      </c>
-    </row>
-    <row r="23" spans="2:14">
-      <c r="B23" s="23">
+        <v>3413.696796</v>
+      </c>
+    </row>
+    <row r="23" spans="2:6">
+      <c r="B23" s="28">
         <f>SUM($F$3:F23)</f>
-        <v>-21513.738318666627</v>
-      </c>
-      <c r="C23" s="24"/>
-      <c r="D23" s="24"/>
-      <c r="E23" s="25">
+        <v>-21513.7383186666</v>
+      </c>
+      <c r="C23" s="29"/>
+      <c r="D23" s="29"/>
+      <c r="E23" s="30">
         <v>50952</v>
       </c>
-      <c r="F23" s="26">
+      <c r="F23" s="31">
         <f t="shared" si="0"/>
-        <v>3413.6967960000002</v>
-      </c>
-    </row>
-    <row r="24" spans="2:14">
-      <c r="B24" s="23">
+        <v>3413.696796</v>
+      </c>
+    </row>
+    <row r="24" spans="2:6">
+      <c r="B24" s="28">
         <f>SUM($F$3:F24)</f>
-        <v>-18100.041522666626</v>
-      </c>
-      <c r="C24" s="24"/>
-      <c r="D24" s="24"/>
-      <c r="E24" s="25">
+        <v>-18100.0415226666</v>
+      </c>
+      <c r="C24" s="29"/>
+      <c r="D24" s="29"/>
+      <c r="E24" s="30">
         <v>51318</v>
       </c>
-      <c r="F24" s="26">
+      <c r="F24" s="31">
         <f t="shared" si="0"/>
-        <v>3413.6967960000002</v>
-      </c>
-    </row>
-    <row r="25" spans="2:14">
-      <c r="B25" s="23">
+        <v>3413.696796</v>
+      </c>
+    </row>
+    <row r="25" spans="2:6">
+      <c r="B25" s="28">
         <f>SUM($F$3:F25)</f>
-        <v>-14686.344726666626</v>
-      </c>
-      <c r="C25" s="24"/>
-      <c r="D25" s="24"/>
-      <c r="E25" s="25">
+        <v>-14686.3447266666</v>
+      </c>
+      <c r="C25" s="29"/>
+      <c r="D25" s="29"/>
+      <c r="E25" s="30">
         <v>51683</v>
       </c>
-      <c r="F25" s="26">
+      <c r="F25" s="31">
         <f t="shared" si="0"/>
-        <v>3413.6967960000002</v>
-      </c>
-    </row>
-    <row r="26" spans="2:14">
-      <c r="B26" s="23">
+        <v>3413.696796</v>
+      </c>
+    </row>
+    <row r="26" spans="2:6">
+      <c r="B26" s="28">
         <f>SUM($F$3:F26)</f>
-        <v>-11272.647930666626</v>
-      </c>
-      <c r="C26" s="24"/>
-      <c r="D26" s="24"/>
-      <c r="E26" s="25">
+        <v>-11272.6479306666</v>
+      </c>
+      <c r="C26" s="29"/>
+      <c r="D26" s="29"/>
+      <c r="E26" s="30">
         <v>52048</v>
       </c>
-      <c r="F26" s="26">
+      <c r="F26" s="31">
         <f t="shared" si="0"/>
-        <v>3413.6967960000002</v>
-      </c>
-    </row>
-    <row r="27" spans="2:14">
-      <c r="B27" s="23">
+        <v>3413.696796</v>
+      </c>
+    </row>
+    <row r="27" spans="2:6">
+      <c r="B27" s="28">
         <f>SUM($F$3:F27)</f>
-        <v>-7858.9511346666259</v>
-      </c>
-      <c r="C27" s="24"/>
-      <c r="D27" s="24"/>
-      <c r="E27" s="25">
+        <v>-7858.95113466663</v>
+      </c>
+      <c r="C27" s="29"/>
+      <c r="D27" s="29"/>
+      <c r="E27" s="30">
         <v>52413</v>
       </c>
-      <c r="F27" s="26">
+      <c r="F27" s="31">
         <f t="shared" si="0"/>
-        <v>3413.6967960000002</v>
-      </c>
-    </row>
-    <row r="28" spans="2:14">
-      <c r="B28" s="23">
+        <v>3413.696796</v>
+      </c>
+    </row>
+    <row r="28" spans="2:9">
+      <c r="B28" s="28">
         <f>SUM($F$3:F28)</f>
-        <v>-4445.2543386666257</v>
-      </c>
-      <c r="C28" s="24" t="s">
+        <v>-4445.25433866663</v>
+      </c>
+      <c r="C28" s="29" t="s">
         <v>28</v>
       </c>
-      <c r="D28" s="24"/>
-      <c r="E28" s="25">
+      <c r="D28" s="29"/>
+      <c r="E28" s="30">
         <v>52779</v>
       </c>
-      <c r="F28" s="26">
+      <c r="F28" s="31">
         <f t="shared" si="0"/>
-        <v>3413.6967960000002</v>
-      </c>
-      <c r="H28" s="36"/>
-      <c r="I28" s="36"/>
-    </row>
-    <row r="29" spans="2:14">
-      <c r="B29" s="23">
+        <v>3413.696796</v>
+      </c>
+      <c r="H28" s="46"/>
+      <c r="I28" s="46"/>
+    </row>
+    <row r="29" spans="2:7">
+      <c r="B29" s="28">
         <f>SUM($F$3:F29)</f>
-        <v>69328.745661333378</v>
-      </c>
-      <c r="C29" s="24">
+        <v>69328.7456613334</v>
+      </c>
+      <c r="C29" s="29">
         <f>XIRR(F3:F29,E3:E29)</f>
-        <v>4.9763253331184393E-2</v>
-      </c>
-      <c r="D29" s="24" t="s">
+        <v>0.0497632533311844</v>
+      </c>
+      <c r="D29" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="E29" s="25">
+      <c r="E29" s="30">
         <v>52779</v>
       </c>
-      <c r="F29" s="26">
+      <c r="F29" s="31">
         <f>ABS(F3)+13000</f>
         <v>73774</v>
       </c>
-      <c r="G29" s="18" t="s">
+      <c r="G29" s="23" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="30" spans="2:14">
-      <c r="B30" s="23"/>
-      <c r="C30" s="24"/>
-      <c r="D30" s="24"/>
-    </row>
-    <row r="31" spans="2:14">
-      <c r="L31" s="18"/>
-    </row>
-    <row r="32" spans="2:14">
-      <c r="E32" s="18"/>
-      <c r="H32" s="23"/>
-      <c r="I32" s="23"/>
-      <c r="J32" s="23"/>
-      <c r="K32" s="23"/>
-      <c r="L32" s="23"/>
-      <c r="M32" s="23"/>
-      <c r="N32" s="23"/>
+    <row r="30" spans="2:4">
+      <c r="B30" s="28"/>
+      <c r="C30" s="29"/>
+      <c r="D30" s="29"/>
+    </row>
+    <row r="31" spans="12:12">
+      <c r="L31" s="23"/>
+    </row>
+    <row r="32" spans="5:14">
+      <c r="E32" s="23"/>
+      <c r="H32" s="28"/>
+      <c r="I32" s="28"/>
+      <c r="J32" s="28"/>
+      <c r="K32" s="28"/>
+      <c r="L32" s="28"/>
+      <c r="M32" s="28"/>
+      <c r="N32" s="28"/>
     </row>
     <row r="33" spans="2:12">
-      <c r="B33" s="23" t="s">
+      <c r="B33" s="28" t="s">
         <v>32</v>
       </c>
-      <c r="C33" s="23"/>
-      <c r="D33" s="23"/>
-      <c r="E33" s="23"/>
-      <c r="F33" s="23"/>
-      <c r="G33" s="23"/>
-      <c r="L33" s="18"/>
+      <c r="C33" s="28"/>
+      <c r="D33" s="28"/>
+      <c r="E33" s="28"/>
+      <c r="F33" s="28"/>
+      <c r="G33" s="28"/>
+      <c r="L33" s="23"/>
     </row>
     <row r="34" spans="2:12">
-      <c r="B34" s="18" t="s">
+      <c r="B34" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="E34" s="18"/>
-      <c r="L34" s="18"/>
-    </row>
-    <row r="35" spans="2:12">
-      <c r="E35" s="18"/>
+      <c r="E34" s="23"/>
+      <c r="L34" s="23"/>
+    </row>
+    <row r="35" spans="5:5">
+      <c r="E35" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="8">
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="G6:G8"/>
     <mergeCell ref="J4:N4"/>
     <mergeCell ref="J5:N5"/>
     <mergeCell ref="J6:N6"/>
     <mergeCell ref="J7:N7"/>
     <mergeCell ref="J8:N8"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="G6:G8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait"/>
+  <pageSetup paperSize="1" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A2:I10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="3"/>
-    <col min="2" max="2" width="9.7109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.85546875" customWidth="1"/>
-    <col min="4" max="4" width="5.7109375" customWidth="1"/>
-    <col min="5" max="5" width="11.28515625" customWidth="1"/>
+    <col min="1" max="1" width="9.13888888888889" style="3"/>
+    <col min="2" max="2" width="9.71296296296296" style="4" customWidth="1"/>
+    <col min="3" max="3" width="9.85185185185185" customWidth="1"/>
+    <col min="4" max="4" width="5.71296296296296" customWidth="1"/>
+    <col min="5" max="5" width="11.287037037037" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:3">
       <c r="A2" s="3" t="s">
         <v>44</v>
       </c>
@@ -2389,19 +2968,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="2:5">
       <c r="B3" s="2">
         <v>45177</v>
       </c>
       <c r="C3">
         <f>-I4/3</f>
-        <v>-50065.666666666664</v>
-      </c>
-      <c r="E3" s="16" t="s">
+        <v>-50065.6666666667</v>
+      </c>
+      <c r="E3" s="20" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="2:9">
       <c r="B4" s="4">
         <v>45261</v>
       </c>
@@ -2415,42 +2994,42 @@
         <v>150197</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="2:3">
       <c r="B5" s="4">
         <v>45352</v>
       </c>
       <c r="C5">
         <f>C3</f>
-        <v>-50065.666666666664</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
-      <c r="H6" s="14" t="s">
+        <v>-50065.6666666667</v>
+      </c>
+    </row>
+    <row r="6" spans="8:8">
+      <c r="H6" s="18" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="2:3">
       <c r="B7" s="4">
         <v>45717</v>
       </c>
       <c r="C7">
         <f>C3</f>
-        <v>-50065.666666666664</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
+        <v>-50065.6666666667</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4">
       <c r="B9" s="4">
         <v>46082</v>
       </c>
-      <c r="C9" s="17">
+      <c r="C9" s="21">
         <f>2.978%*I4</f>
-        <v>4472.8666599999997</v>
+        <v>4472.86666</v>
       </c>
       <c r="D9" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="1:6">
       <c r="A10" s="3">
         <f>SUM(C3:C10)</f>
         <v>10601.86666</v>
@@ -2465,39 +3044,41 @@
       <c r="E10" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="F10" s="11">
+      <c r="F10" s="22">
         <f>XIRR(C3:C10,B3:B10)</f>
-        <v>3.9874193072319042E-2</v>
+        <v>0.039874193072319</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait"/>
+  <pageSetup paperSize="1" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="B2:N23"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="B2:N21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G46" sqref="G46"/>
+      <selection activeCell="J29" sqref="J29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="2.42578125" customWidth="1"/>
-    <col min="2" max="2" width="6.85546875" style="3" customWidth="1"/>
-    <col min="3" max="3" width="7.140625" style="4" customWidth="1"/>
-    <col min="4" max="4" width="11.5703125" customWidth="1"/>
-    <col min="5" max="5" width="3.140625" customWidth="1"/>
-    <col min="6" max="6" width="18" customWidth="1"/>
+    <col min="1" max="1" width="2.42592592592593" customWidth="1"/>
+    <col min="2" max="2" width="6.85185185185185" style="3" customWidth="1"/>
+    <col min="3" max="3" width="10.4444444444444" style="4" customWidth="1"/>
+    <col min="4" max="4" width="11.5740740740741" customWidth="1"/>
+    <col min="5" max="5" width="3.13888888888889" customWidth="1"/>
+    <col min="6" max="6" width="23.8888888888889" customWidth="1"/>
     <col min="7" max="7" width="9" customWidth="1"/>
-    <col min="9" max="9" width="11.5703125" customWidth="1"/>
-    <col min="14" max="14" width="11.140625" customWidth="1"/>
+    <col min="9" max="9" width="11.5740740740741" customWidth="1"/>
+    <col min="14" max="14" width="11.1388888888889" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:9">
+    <row r="2" spans="2:4">
       <c r="B2" s="5" t="s">
         <v>48</v>
       </c>
@@ -2506,72 +3087,72 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="2:9">
+    <row r="3" spans="2:6">
       <c r="B3" s="5"/>
-      <c r="C3" s="6">
-        <v>45748</v>
-      </c>
-      <c r="D3" s="8">
+      <c r="C3" s="8">
+        <v>45744</v>
+      </c>
+      <c r="D3" s="9">
         <v>-75449.45</v>
       </c>
       <c r="F3" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="4" spans="2:9">
+    <row r="4" spans="2:4">
       <c r="B4" s="5"/>
       <c r="C4" s="6"/>
-      <c r="D4" s="8"/>
-    </row>
-    <row r="5" spans="2:9">
+      <c r="D4" s="9"/>
+    </row>
+    <row r="5" spans="2:6">
       <c r="B5" s="5"/>
       <c r="C5" s="6">
         <v>45778</v>
       </c>
-      <c r="D5" s="8">
+      <c r="D5" s="9">
         <f>2263.48</f>
         <v>2263.48</v>
       </c>
-      <c r="F5" s="9" t="s">
+      <c r="F5" s="10" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="6" spans="2:9">
+    <row r="6" spans="2:7">
       <c r="B6" s="5"/>
       <c r="C6" s="6">
         <v>45809</v>
       </c>
-      <c r="D6" s="8">
+      <c r="D6" s="9">
         <v>5636.07</v>
       </c>
-      <c r="F6" s="9" t="s">
+      <c r="F6" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="G6" s="10"/>
-    </row>
-    <row r="7" spans="2:9">
+      <c r="G6" s="11"/>
+    </row>
+    <row r="7" spans="2:7">
       <c r="B7" s="5"/>
       <c r="C7" s="6"/>
-      <c r="D7" s="8"/>
+      <c r="D7" s="9"/>
       <c r="F7" t="s">
-        <v>60</v>
-      </c>
-      <c r="G7" s="10">
-        <f>SUM(D5:D6)/G19</f>
-        <v>3.4899967240759652E-2</v>
-      </c>
-    </row>
-    <row r="8" spans="2:9">
+        <v>52</v>
+      </c>
+      <c r="G7" s="11">
+        <f>SUM(D5:D6)/G18</f>
+        <v>0.0348999672407597</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6">
       <c r="B8" s="5"/>
       <c r="C8" s="6">
         <v>45901</v>
       </c>
-      <c r="D8" s="8">
+      <c r="D8" s="9">
         <f>D3</f>
         <v>-75449.45</v>
       </c>
       <c r="F8" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
     </row>
     <row r="9" spans="2:9">
@@ -2579,151 +3160,147 @@
       <c r="C9" s="6">
         <v>46082</v>
       </c>
-      <c r="D9" s="8"/>
+      <c r="D9" s="9">
+        <v>0</v>
+      </c>
       <c r="F9" t="s">
-        <v>61</v>
-      </c>
-      <c r="I9" s="14"/>
-    </row>
-    <row r="10" spans="2:9">
+        <v>54</v>
+      </c>
+      <c r="I9" s="18"/>
+    </row>
+    <row r="10" spans="2:6">
       <c r="B10" s="5"/>
       <c r="C10" s="6">
         <v>46266</v>
       </c>
-      <c r="D10" s="8">
+      <c r="D10" s="9">
         <f>D3</f>
         <v>-75449.45</v>
       </c>
       <c r="F10" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="11" spans="2:9" s="71" customFormat="1">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="11" spans="2:6">
       <c r="B11" s="5"/>
-      <c r="C11" s="6"/>
-      <c r="D11" s="8"/>
-    </row>
-    <row r="12" spans="2:9">
+      <c r="C11" s="6">
+        <v>46569</v>
+      </c>
+      <c r="D11" s="9">
+        <v>0</v>
+      </c>
+      <c r="F11" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="12" spans="2:8">
       <c r="B12" s="5"/>
       <c r="C12" s="6">
-        <v>46569</v>
-      </c>
-      <c r="D12" s="8"/>
-      <c r="F12" s="71" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="13" spans="2:9" s="71" customFormat="1">
+        <v>46631</v>
+      </c>
+      <c r="D12" s="9">
+        <f>G12*G18</f>
+        <v>6813.085335</v>
+      </c>
+      <c r="F12" t="s">
+        <v>57</v>
+      </c>
+      <c r="G12" s="12">
+        <v>0.0301</v>
+      </c>
+      <c r="H12" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="13" spans="2:6">
       <c r="B13" s="5"/>
       <c r="C13" s="6"/>
-      <c r="D13" s="8"/>
-    </row>
-    <row r="14" spans="2:9">
+      <c r="D13" s="13"/>
+      <c r="F13" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="14" customFormat="1" spans="2:4">
       <c r="B14" s="5"/>
-      <c r="C14" s="6">
+      <c r="C14" s="6"/>
+      <c r="D14" s="13"/>
+    </row>
+    <row r="15" spans="2:6">
+      <c r="B15" s="5">
+        <f>SUM(D3:D15)</f>
+        <v>14712.635335</v>
+      </c>
+      <c r="C15" s="6">
         <v>46631</v>
       </c>
-      <c r="D14" s="8">
-        <f>G14*G19</f>
-        <v>6813.0853349999988</v>
-      </c>
-      <c r="F14" t="s">
-        <v>64</v>
-      </c>
-      <c r="G14" s="72">
-        <v>3.0099999999999998E-2</v>
-      </c>
-      <c r="H14" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="15" spans="2:9">
-      <c r="B15" s="5"/>
-      <c r="C15" s="6"/>
-      <c r="D15" s="12"/>
-      <c r="F15" s="83" t="s">
-        <v>54</v>
-      </c>
-      <c r="G15" s="83"/>
-      <c r="H15" s="83"/>
-    </row>
-    <row r="16" spans="2:9" s="71" customFormat="1">
-      <c r="B16" s="5"/>
-      <c r="C16" s="6"/>
-      <c r="D16" s="12"/>
-    </row>
-    <row r="17" spans="2:14">
-      <c r="B17" s="5">
-        <f>SUM(D3:D17)</f>
-        <v>14712.635334999999</v>
-      </c>
-      <c r="C17" s="6">
-        <v>46631</v>
-      </c>
-      <c r="D17" s="12">
-        <f>G19</f>
-        <v>226348.34999999998</v>
-      </c>
-      <c r="F17" s="83" t="s">
-        <v>55</v>
-      </c>
-      <c r="G17" s="83"/>
-    </row>
-    <row r="18" spans="2:14">
-      <c r="C18" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="F18" s="4" t="s">
+      <c r="D15" s="13">
+        <f>G18</f>
+        <v>226348.35</v>
+      </c>
+      <c r="F15" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="16" spans="2:2">
+      <c r="B16" s="4" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="17" spans="6:7">
+      <c r="F17" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="G18" s="11">
-        <f>XIRR(D3:D17,C3:C17)</f>
-        <v>3.6960294842720037E-2</v>
-      </c>
-    </row>
-    <row r="19" spans="2:14">
-      <c r="F19" t="s">
+      <c r="G17" s="15">
+        <f>XIRR(D3:D15,C3:C15)</f>
+        <v>0.036879619272173</v>
+      </c>
+    </row>
+    <row r="18" spans="6:7">
+      <c r="F18" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="G19" s="13">
+      <c r="G18" s="17">
         <f>-D3*3</f>
-        <v>226348.34999999998</v>
-      </c>
-    </row>
-    <row r="20" spans="2:14">
-      <c r="F20" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="23" spans="2:14">
-      <c r="N23" s="15"/>
+        <v>226348.35</v>
+      </c>
+    </row>
+    <row r="19" spans="6:7">
+      <c r="F19" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="G19" s="16"/>
+    </row>
+    <row r="21" spans="14:14">
+      <c r="N21" s="19"/>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="F15:H15"/>
-    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="F13:H13"/>
+    <mergeCell ref="F15:G15"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait"/>
+  <pageSetup paperSize="1" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:R27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E4" sqref="E4:R4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="2" width="9.85546875" customWidth="1"/>
-    <col min="3" max="3" width="1.5703125" customWidth="1"/>
+    <col min="1" max="2" width="9.85185185185185" customWidth="1"/>
+    <col min="3" max="3" width="1.57407407407407" customWidth="1"/>
     <col min="4" max="4" width="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="2:5">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -2732,10 +3309,10 @@
       </c>
       <c r="E1" s="1">
         <f>XIRR(B2:B27,A2:A27)</f>
-        <v>2.9978230595588677E-2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:18">
+        <v>0.0299782305955887</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
       <c r="A2" s="2">
         <v>36526</v>
       </c>
@@ -2743,99 +3320,45 @@
         <v>-100</v>
       </c>
     </row>
-    <row r="3" spans="1:18">
+    <row r="3" spans="1:5">
       <c r="A3" s="2">
         <v>36892</v>
       </c>
       <c r="B3">
         <v>3</v>
       </c>
-      <c r="E3" s="83" t="s">
-        <v>58</v>
-      </c>
-      <c r="F3" s="83"/>
-      <c r="G3" s="83"/>
-      <c r="H3" s="83"/>
-      <c r="I3" s="83"/>
-      <c r="J3" s="83"/>
-      <c r="K3" s="83"/>
-      <c r="L3" s="83"/>
-      <c r="M3" s="83"/>
-      <c r="N3" s="83"/>
-      <c r="O3" s="83"/>
-      <c r="P3" s="83"/>
-      <c r="Q3" s="83"/>
-      <c r="R3" s="83"/>
-    </row>
-    <row r="4" spans="1:18">
+      <c r="E3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4" s="2">
         <v>37257</v>
       </c>
       <c r="B4">
         <v>3</v>
       </c>
-      <c r="E4" s="83" t="s">
-        <v>59</v>
-      </c>
-      <c r="F4" s="83"/>
-      <c r="G4" s="83"/>
-      <c r="H4" s="83"/>
-      <c r="I4" s="83"/>
-      <c r="J4" s="83"/>
-      <c r="K4" s="83"/>
-      <c r="L4" s="83"/>
-      <c r="M4" s="83"/>
-      <c r="N4" s="83"/>
-      <c r="O4" s="83"/>
-      <c r="P4" s="83"/>
-      <c r="Q4" s="83"/>
-      <c r="R4" s="83"/>
-    </row>
-    <row r="5" spans="1:18">
+      <c r="E4" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
       <c r="A5" s="2">
         <v>37622</v>
       </c>
       <c r="B5">
         <v>3</v>
       </c>
-      <c r="E5" s="83"/>
-      <c r="F5" s="83"/>
-      <c r="G5" s="83"/>
-      <c r="H5" s="83"/>
-      <c r="I5" s="83"/>
-      <c r="J5" s="83"/>
-      <c r="K5" s="83"/>
-      <c r="L5" s="83"/>
-      <c r="M5" s="83"/>
-      <c r="N5" s="83"/>
-      <c r="O5" s="83"/>
-      <c r="P5" s="83"/>
-      <c r="Q5" s="83"/>
-      <c r="R5" s="83"/>
-    </row>
-    <row r="6" spans="1:18">
+    </row>
+    <row r="6" spans="1:2">
       <c r="A6" s="2">
         <v>37987</v>
       </c>
       <c r="B6">
         <v>3</v>
       </c>
-      <c r="E6" s="83"/>
-      <c r="F6" s="83"/>
-      <c r="G6" s="83"/>
-      <c r="H6" s="83"/>
-      <c r="I6" s="83"/>
-      <c r="J6" s="83"/>
-      <c r="K6" s="83"/>
-      <c r="L6" s="83"/>
-      <c r="M6" s="83"/>
-      <c r="N6" s="83"/>
-      <c r="O6" s="83"/>
-      <c r="P6" s="83"/>
-      <c r="Q6" s="83"/>
-      <c r="R6" s="83"/>
-    </row>
-    <row r="7" spans="1:18">
+    </row>
+    <row r="7" spans="1:2">
       <c r="A7" s="2">
         <v>38353</v>
       </c>
@@ -2843,7 +3366,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:18">
+    <row r="8" spans="1:2">
       <c r="A8" s="2">
         <v>38718</v>
       </c>
@@ -2851,7 +3374,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:18">
+    <row r="9" spans="1:2">
       <c r="A9" s="2">
         <v>39083</v>
       </c>
@@ -2859,7 +3382,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:18">
+    <row r="10" spans="1:2">
       <c r="A10" s="2">
         <v>39448</v>
       </c>
@@ -2867,7 +3390,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:18">
+    <row r="11" spans="1:2">
       <c r="A11" s="2">
         <v>39814</v>
       </c>
@@ -2875,7 +3398,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:18">
+    <row r="12" spans="1:2">
       <c r="A12" s="2">
         <v>40179</v>
       </c>
@@ -2883,7 +3406,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:18">
+    <row r="13" spans="1:2">
       <c r="A13" s="2">
         <v>40544</v>
       </c>
@@ -2891,7 +3414,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:18">
+    <row r="14" spans="1:2">
       <c r="A14" s="2">
         <v>40909</v>
       </c>
@@ -2899,7 +3422,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:18">
+    <row r="15" spans="1:2">
       <c r="A15" s="2">
         <v>41275</v>
       </c>
@@ -2907,7 +3430,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:18">
+    <row r="16" spans="1:2">
       <c r="A16" s="2">
         <v>41640</v>
       </c>
@@ -3012,6 +3535,7 @@
     <mergeCell ref="E6:R6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait"/>
+  <pageSetup paperSize="1" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>